--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -194,7 +194,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,7 +605,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -671,6 +671,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,7 +683,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -746,6 +749,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>548835.01220042724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>574803.82180182589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,7 +794,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -854,6 +860,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,7 +872,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -929,6 +938,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>540654.57034428499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>552598.59015013964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,7 +983,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1037,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1046,7 +1061,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1112,6 +1127,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-8180.4418561422499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22205.231651686248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,11 +1151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158066944"/>
-        <c:axId val="232929152"/>
+        <c:axId val="360855424"/>
+        <c:axId val="360857600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="158066944"/>
+        <c:axId val="360855424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,14 +1198,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232929152"/>
+        <c:crossAx val="360857600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="232929152"/>
+        <c:axId val="360857600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1256,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="158066944"/>
+        <c:crossAx val="360855424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1394,6 +1412,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1428,7 +1447,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1494,6 +1513,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>54186.545765681185</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>71078.061391139228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,8 +1530,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36573952"/>
-        <c:axId val="36572160"/>
+        <c:axId val="403471744"/>
+        <c:axId val="403470208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1534,7 +1556,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1600,6 +1622,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,7 +1634,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1675,6 +1700,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,11 +1719,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36569088"/>
-        <c:axId val="36570624"/>
+        <c:axId val="403466880"/>
+        <c:axId val="403468672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36569088"/>
+        <c:axId val="403466880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,14 +1766,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36570624"/>
+        <c:crossAx val="403468672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36570624"/>
+        <c:axId val="403468672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,12 +1824,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36569088"/>
+        <c:crossAx val="403466880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36572160"/>
+        <c:axId val="403470208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,12 +1866,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36573952"/>
+        <c:crossAx val="403471744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="36573952"/>
+        <c:axId val="403471744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36572160"/>
+        <c:crossAx val="403470208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1979,6 +2007,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2013,7 +2042,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2079,6 +2108,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,8 +2125,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254812544"/>
-        <c:axId val="254317696"/>
+        <c:axId val="483732480"/>
+        <c:axId val="483730944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2119,7 +2151,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2185,6 +2217,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,7 +2229,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2260,6 +2295,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2276,11 +2314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254293888"/>
-        <c:axId val="254295424"/>
+        <c:axId val="400866688"/>
+        <c:axId val="401542144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254293888"/>
+        <c:axId val="400866688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,14 +2361,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254295424"/>
+        <c:crossAx val="401542144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254295424"/>
+        <c:axId val="401542144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2381,12 +2419,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254293888"/>
+        <c:crossAx val="400866688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254317696"/>
+        <c:axId val="483730944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,12 +2461,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254812544"/>
+        <c:crossAx val="483732480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254812544"/>
+        <c:axId val="483732480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2437,7 +2475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254317696"/>
+        <c:crossAx val="483730944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2559,6 +2597,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2615,7 +2654,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2681,6 +2720,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,7 +2732,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2756,6 +2798,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>564653.76358290331</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>590622.57318430196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2798,7 +2843,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2864,6 +2909,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2873,7 +2921,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2939,6 +2987,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>558292.50732720701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>569778.99218897521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2981,7 +3032,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3047,6 +3098,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3056,7 +3110,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3122,6 +3176,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-6361.2562556962948</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-20843.580995326745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,11 +3200,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="271761792"/>
-        <c:axId val="271763712"/>
+        <c:axId val="488920192"/>
+        <c:axId val="512197376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="271761792"/>
+        <c:axId val="488920192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,14 +3247,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271763712"/>
+        <c:crossAx val="512197376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="271763712"/>
+        <c:axId val="512197376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3248,7 +3305,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271761792"/>
+        <c:crossAx val="488920192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3262,6 +3319,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3403,6 +3461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3437,7 +3496,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3503,6 +3562,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,8 +3579,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="34978048"/>
-        <c:axId val="34976512"/>
+        <c:axId val="568598528"/>
+        <c:axId val="513224704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3543,7 +3605,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3609,6 +3671,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3618,7 +3683,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3684,6 +3749,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3700,11 +3768,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34973184"/>
-        <c:axId val="34974720"/>
+        <c:axId val="512583936"/>
+        <c:axId val="513213184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="34973184"/>
+        <c:axId val="512583936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3747,14 +3815,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34974720"/>
+        <c:crossAx val="513213184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="34974720"/>
+        <c:axId val="513213184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3805,12 +3873,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34973184"/>
+        <c:crossAx val="512583936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34976512"/>
+        <c:axId val="513224704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3847,12 +3915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34978048"/>
+        <c:crossAx val="568598528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="34978048"/>
+        <c:axId val="568598528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +3929,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="34976512"/>
+        <c:crossAx val="513224704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4040,7 +4108,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4106,6 +4174,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4115,7 +4186,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4181,6 +4252,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>584093.62379493122</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>610062.43339632987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,7 +4297,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4289,6 +4363,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4298,7 +4375,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4364,6 +4441,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>576440.90566780127</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>587456.61401936528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4406,7 +4486,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4472,6 +4552,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4481,7 +4564,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4547,6 +4630,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-7652.7181271299487</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-22605.819376964588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4568,11 +4654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35277824"/>
-        <c:axId val="35279616"/>
+        <c:axId val="569422208"/>
+        <c:axId val="569423744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35277824"/>
+        <c:axId val="569422208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4615,14 +4701,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35279616"/>
+        <c:crossAx val="569423744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35279616"/>
+        <c:axId val="569423744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4673,7 +4759,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35277824"/>
+        <c:crossAx val="569422208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,6 +4915,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4863,7 +4950,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4929,6 +5016,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>24620.694956416326</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25968.8096013986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4943,8 +5033,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="35309824"/>
-        <c:axId val="35308288"/>
+        <c:axId val="584087424"/>
+        <c:axId val="584085888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4969,7 +5059,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5035,6 +5125,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5044,7 +5137,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5110,6 +5203,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5126,11 +5222,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="35304960"/>
-        <c:axId val="35306496"/>
+        <c:axId val="584061696"/>
+        <c:axId val="584063232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="35304960"/>
+        <c:axId val="584061696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5173,14 +5269,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35306496"/>
+        <c:crossAx val="584063232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="35306496"/>
+        <c:axId val="584063232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5231,12 +5327,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35304960"/>
+        <c:crossAx val="584061696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35308288"/>
+        <c:axId val="584085888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5273,12 +5369,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35309824"/>
+        <c:crossAx val="584087424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="35309824"/>
+        <c:axId val="584087424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5287,7 +5383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35308288"/>
+        <c:crossAx val="584085888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5466,7 +5562,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5532,6 +5628,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5541,7 +5640,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5607,6 +5706,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4536714.2101611272</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4707443.0891772518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5649,7 +5751,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5715,6 +5817,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5724,7 +5829,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5790,6 +5895,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>4600903.8633038895</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4652283.5069824615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5832,7 +5940,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5898,6 +6006,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5907,7 +6018,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5973,6 +6084,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>64189.65314276237</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-55159.582194790244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5994,11 +6108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36337920"/>
-        <c:axId val="36343808"/>
+        <c:axId val="584618752"/>
+        <c:axId val="584620288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36337920"/>
+        <c:axId val="584618752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6041,14 +6155,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36343808"/>
+        <c:crossAx val="584620288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36343808"/>
+        <c:axId val="584620288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6099,7 +6213,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36337920"/>
+        <c:crossAx val="584618752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6255,6 +6369,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6289,7 +6404,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6355,6 +6470,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>5967449.6734951856</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6194785.0688919602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6369,8 +6487,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36369536"/>
-        <c:axId val="36367744"/>
+        <c:axId val="584800896"/>
+        <c:axId val="584798976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6395,7 +6513,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6461,6 +6579,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6470,7 +6591,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6536,6 +6657,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.77100002765655518</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.75099998712539673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6552,11 +6676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36364672"/>
-        <c:axId val="36366208"/>
+        <c:axId val="584771072"/>
+        <c:axId val="584772608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36364672"/>
+        <c:axId val="584771072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6599,14 +6723,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36366208"/>
+        <c:crossAx val="584772608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36366208"/>
+        <c:axId val="584772608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6657,12 +6781,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36364672"/>
+        <c:crossAx val="584771072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36367744"/>
+        <c:axId val="584798976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6699,12 +6823,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36369536"/>
+        <c:crossAx val="584800896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="36369536"/>
+        <c:axId val="584800896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6713,7 +6837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36367744"/>
+        <c:crossAx val="584798976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6892,7 +7016,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6958,6 +7082,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6967,7 +7094,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7033,6 +7160,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1487015.4681102138</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1558093.5295013529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7075,7 +7205,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7141,6 +7271,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7150,7 +7283,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7216,6 +7349,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1542883.8452533809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1573938.8997274791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7258,7 +7394,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7324,6 +7460,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7333,7 +7472,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7399,6 +7538,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>55868.377143167192</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15845.370226126164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7420,11 +7562,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36529664"/>
-        <c:axId val="36531200"/>
+        <c:axId val="585118848"/>
+        <c:axId val="585120384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36529664"/>
+        <c:axId val="585118848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7467,14 +7609,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36531200"/>
+        <c:crossAx val="585120384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36531200"/>
+        <c:axId val="585120384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7525,7 +7667,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36529664"/>
+        <c:crossAx val="585118848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8239,14 +8381,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -8278,7 +8420,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -8317,7 +8459,7 @@
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -8337,7 +8479,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -8410,7 +8552,7 @@
         <v>-71470.226080923632</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -8489,7 +8631,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -8565,7 +8707,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -8613,7 +8755,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -8656,7 +8798,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -8695,7 +8837,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -8737,7 +8879,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -8779,7 +8921,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -8821,7 +8963,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -8861,7 +9003,7 @@
       <c r="M12" s="9"/>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -8901,7 +9043,7 @@
       <c r="M13" s="9"/>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -8940,7 +9082,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -8979,7 +9121,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -9018,7 +9160,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -9057,7 +9199,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -9096,7 +9238,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -9134,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -9172,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -9210,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -9248,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -9286,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -9321,6 +9463,44 @@
         <v>-8180.4418561422499</v>
       </c>
       <c r="L24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="15">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="15">
+        <v>735817.04344006942</v>
+      </c>
+      <c r="H25" s="15">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="I25" s="15">
+        <v>574803.82180182589</v>
+      </c>
+      <c r="J25" s="15">
+        <v>552598.59015013964</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-22205.231651686248</v>
+      </c>
+      <c r="L25" s="14">
         <v>0</v>
       </c>
     </row>
@@ -9340,14 +9520,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -9379,7 +9559,7 @@
     <col min="38" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
@@ -9444,7 +9624,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -9470,7 +9650,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -9555,7 +9735,7 @@
         <v>-71470.226080923632</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -9646,7 +9826,7 @@
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
     </row>
-    <row r="5" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -9734,7 +9914,7 @@
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
     </row>
-    <row r="6" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -9794,7 +9974,7 @@
       <c r="AJ6" s="20"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -9849,7 +10029,7 @@
       <c r="AG7" s="9"/>
       <c r="AM7" s="10"/>
     </row>
-    <row r="8" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -9900,7 +10080,7 @@
       <c r="R8" s="23"/>
       <c r="S8" s="9"/>
     </row>
-    <row r="9" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -9954,7 +10134,7 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -10008,7 +10188,7 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -10062,7 +10242,7 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -10114,7 +10294,7 @@
       <c r="S12" s="9"/>
       <c r="AE12" s="17"/>
     </row>
-    <row r="13" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -10166,7 +10346,7 @@
       <c r="S13" s="9"/>
       <c r="AG13" s="10"/>
     </row>
-    <row r="14" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -10217,7 +10397,7 @@
       <c r="R14" s="23"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -10268,7 +10448,7 @@
       <c r="R15" s="23"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:39" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -10333,7 +10513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -10398,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -10463,7 +10643,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -10528,7 +10708,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -10593,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -10658,7 +10838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -10723,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -10788,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -10850,6 +11030,71 @@
         <v>-13.88569250351642</v>
       </c>
       <c r="U24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="15">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="15">
+        <v>758693.74428343039</v>
+      </c>
+      <c r="H25" s="15">
+        <v>569778.99218897521</v>
+      </c>
+      <c r="I25" s="15">
+        <v>590622.57318430196</v>
+      </c>
+      <c r="J25" s="15">
+        <v>569778.99218897521</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-20843.580995326745</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="N25" s="23">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="O25" s="23">
+        <v>0.75599999570846554</v>
+      </c>
+      <c r="P25" s="23">
+        <v>0.75769047179676241</v>
+      </c>
+      <c r="Q25" s="23">
+        <v>-1.6904760882968661E-3</v>
+      </c>
+      <c r="R25" s="23">
+        <v>3.2738098541895536E-2</v>
+      </c>
+      <c r="S25" s="9">
+        <v>4.9107147812843305E-4</v>
+      </c>
+      <c r="T25" s="9">
+        <v>-3.4424236869540712</v>
+      </c>
+      <c r="U25" s="11">
         <v>1</v>
       </c>
     </row>
@@ -10869,14 +11114,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -10908,7 +11153,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
@@ -10952,7 +11197,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -10972,7 +11217,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -11050,7 +11295,7 @@
         <v>-73512.143931253449</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -11134,7 +11379,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -11215,7 +11460,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -11268,7 +11513,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -11316,7 +11561,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -11360,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -11407,7 +11652,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -11454,7 +11699,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -11501,7 +11746,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -11546,7 +11791,7 @@
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -11591,7 +11836,7 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -11635,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -11679,7 +11924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -11723,7 +11968,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -11767,7 +12012,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -11811,7 +12056,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -11855,7 +12100,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -11899,7 +12144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -11943,7 +12188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -11987,7 +12232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -12031,7 +12276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -12072,6 +12317,50 @@
         <v>121.19851098278713</v>
       </c>
       <c r="N24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>25968.8096013986</v>
+      </c>
+      <c r="F25" s="15">
+        <v>34578.974762435661</v>
+      </c>
+      <c r="G25" s="15">
+        <v>782232.52209094365</v>
+      </c>
+      <c r="H25" s="15">
+        <v>587456.61401936528</v>
+      </c>
+      <c r="I25" s="15">
+        <v>610062.43339632987</v>
+      </c>
+      <c r="J25" s="15">
+        <v>587456.61401936528</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-22605.819376964588</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="N25" s="9">
         <v>1</v>
       </c>
     </row>
@@ -12091,14 +12380,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -12130,7 +12419,7 @@
     <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
@@ -12174,7 +12463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -12194,7 +12483,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -12272,7 +12561,7 @@
         <v>-250495.57337637764</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -12356,7 +12645,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -12437,7 +12726,7 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -12490,7 +12779,7 @@
       <c r="AD6" s="20"/>
       <c r="AE6" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -12538,7 +12827,7 @@
       <c r="AA7" s="9"/>
       <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -12582,7 +12871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -12629,7 +12918,7 @@
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
-    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -12676,7 +12965,7 @@
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
     </row>
-    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -12723,7 +13012,7 @@
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
     </row>
-    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -12768,7 +13057,7 @@
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -12813,7 +13102,7 @@
       </c>
       <c r="AA13" s="10"/>
     </row>
-    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -12857,7 +13146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -12901,7 +13190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -12945,7 +13234,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -12989,7 +13278,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -13033,7 +13322,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -13077,7 +13366,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -13121,7 +13410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -13165,7 +13454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -13209,7 +13498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -13253,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -13294,6 +13583,50 @@
         <v>121.19851098278713</v>
       </c>
       <c r="N24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F25" s="15">
+        <v>227335.39539677446</v>
+      </c>
+      <c r="G25" s="15">
+        <v>6194785.0688919602</v>
+      </c>
+      <c r="H25" s="15">
+        <v>4652283.5069824615</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4707443.0891772518</v>
+      </c>
+      <c r="J25" s="15">
+        <v>4652283.5069824615</v>
+      </c>
+      <c r="K25" s="15">
+        <v>-55159.582194790244</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="N25" s="9">
         <v>1</v>
       </c>
     </row>
@@ -13313,14 +13646,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="11" customWidth="1"/>
     <col min="2" max="2" width="8" style="11" customWidth="1"/>
@@ -13352,7 +13685,7 @@
     <col min="34" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
@@ -13402,7 +13735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" ht="14.1" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -13424,7 +13757,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="14.1" customHeight="1">
       <c r="A3" s="12">
         <v>44377</v>
       </c>
@@ -13508,7 +13841,7 @@
         <v>-51416.62008710485</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="14.1" customHeight="1">
       <c r="A4" s="12">
         <v>44407</v>
       </c>
@@ -13598,7 +13931,7 @@
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
     </row>
-    <row r="5" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="14.1" customHeight="1">
       <c r="A5" s="12">
         <v>44439</v>
       </c>
@@ -13685,7 +14018,7 @@
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
     </row>
-    <row r="6" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" ht="14.1" customHeight="1">
       <c r="A6" s="12">
         <v>44469</v>
       </c>
@@ -13744,7 +14077,7 @@
       <c r="AF6" s="20"/>
       <c r="AG6" s="17"/>
     </row>
-    <row r="7" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" ht="14.1" customHeight="1">
       <c r="A7" s="12">
         <v>44498</v>
       </c>
@@ -13798,7 +14131,7 @@
       <c r="AC7" s="9"/>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" ht="14.1" customHeight="1">
       <c r="A8" s="12">
         <v>44530</v>
       </c>
@@ -13848,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" ht="14.1" customHeight="1">
       <c r="A9" s="12">
         <v>44561</v>
       </c>
@@ -13901,7 +14234,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
     </row>
-    <row r="10" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="14.1" customHeight="1">
       <c r="A10" s="12">
         <v>44589</v>
       </c>
@@ -13954,7 +14287,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" ht="14.1" customHeight="1">
       <c r="A11" s="12">
         <v>44620</v>
       </c>
@@ -14007,7 +14340,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" ht="14.1" customHeight="1">
       <c r="A12" s="12">
         <v>44651</v>
       </c>
@@ -14058,7 +14391,7 @@
       </c>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" ht="14.1" customHeight="1">
       <c r="A13" s="12">
         <v>44680</v>
       </c>
@@ -14109,7 +14442,7 @@
       </c>
       <c r="AC13" s="10"/>
     </row>
-    <row r="14" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="14.1" customHeight="1">
       <c r="A14" s="12">
         <v>44712</v>
       </c>
@@ -14159,7 +14492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="14.1" customHeight="1">
       <c r="A15" s="12">
         <v>44742</v>
       </c>
@@ -14209,7 +14542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="14.1" customHeight="1">
       <c r="A16" s="12">
         <v>44771</v>
       </c>
@@ -14259,7 +14592,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="14.1" customHeight="1">
       <c r="A17" s="12">
         <v>44804</v>
       </c>
@@ -14309,7 +14642,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14.1" customHeight="1">
       <c r="A18" s="12">
         <v>44834</v>
       </c>
@@ -14359,7 +14692,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="12.75">
       <c r="A19" s="12">
         <v>44865</v>
       </c>
@@ -14409,7 +14742,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="12.75">
       <c r="A20" s="12">
         <v>44895</v>
       </c>
@@ -14459,7 +14792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="12.75">
       <c r="A21" s="12">
         <v>44925</v>
       </c>
@@ -14509,7 +14842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="12.75">
       <c r="A22" s="12">
         <v>44957</v>
       </c>
@@ -14559,7 +14892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="12.75">
       <c r="A23" s="12">
         <v>44985</v>
       </c>
@@ -14609,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="12.75">
       <c r="A24" s="12">
         <v>45016</v>
       </c>
@@ -14656,6 +14989,56 @@
         <v>121.19851098278713</v>
       </c>
       <c r="P24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12.75">
+      <c r="A25" s="12">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="13">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="13">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D25" s="14">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E25" s="14">
+        <v>1925900</v>
+      </c>
+      <c r="F25" s="14">
+        <v>4625994.8803013396</v>
+      </c>
+      <c r="G25" s="14">
+        <v>71078.061391139228</v>
+      </c>
+      <c r="H25" s="15">
+        <v>94644.557402996477</v>
+      </c>
+      <c r="I25" s="15">
+        <v>2095790.8478161849</v>
+      </c>
+      <c r="J25" s="15">
+        <v>1573938.8997274791</v>
+      </c>
+      <c r="K25" s="15">
+        <v>1558093.5295013529</v>
+      </c>
+      <c r="L25" s="15">
+        <v>1573938.8997274791</v>
+      </c>
+      <c r="M25" s="15">
+        <v>15845.370226126164</v>
+      </c>
+      <c r="N25" s="14">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <v>-64.205140990854673</v>
+      </c>
+      <c r="P25" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="15600" windowHeight="7620" tabRatio="569" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)PE副本" sheetId="9" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -158,10 +154,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -605,7 +597,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -674,6 +666,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -683,7 +681,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -752,6 +750,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>574803.82180182589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>608395.92264148453</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>637390.84148665029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,7 +798,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -863,6 +867,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,7 +882,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -941,6 +951,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>552598.59015013964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>563380.39316840307</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>619761.83169761067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,7 +999,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1052,6 +1068,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,7 +1083,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1130,6 +1152,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-22205.231651686248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-45015.529473081464</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17629.009789039614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,11 +1179,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="360855424"/>
-        <c:axId val="360857600"/>
+        <c:axId val="563569408"/>
+        <c:axId val="563570944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="360855424"/>
+        <c:axId val="563569408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,14 +1226,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360857600"/>
+        <c:crossAx val="563570944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="360857600"/>
+        <c:axId val="563570944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1284,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360855424"/>
+        <c:crossAx val="563569408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1447,7 +1475,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1516,6 +1544,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>71078.061391139228</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122511.25379184079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>110004.9180429735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1530,8 +1564,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="403471744"/>
-        <c:axId val="403470208"/>
+        <c:axId val="527405440"/>
+        <c:axId val="527403648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1556,7 +1590,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1625,6 +1659,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,7 +1674,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1703,6 +1743,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1719,11 +1765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="403466880"/>
-        <c:axId val="403468672"/>
+        <c:axId val="527396224"/>
+        <c:axId val="527402112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="403466880"/>
+        <c:axId val="527396224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1766,14 +1812,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403468672"/>
+        <c:crossAx val="527402112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="403468672"/>
+        <c:axId val="527402112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,12 +1870,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403466880"/>
+        <c:crossAx val="527396224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403470208"/>
+        <c:axId val="527403648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,12 +1912,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403471744"/>
+        <c:crossAx val="527405440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="403471744"/>
+        <c:axId val="527405440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,7 +1926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403470208"/>
+        <c:crossAx val="527403648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2042,7 +2088,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2111,6 +2157,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2125,8 +2177,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="483732480"/>
-        <c:axId val="483730944"/>
+        <c:axId val="563641728"/>
+        <c:axId val="563639040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2151,7 +2203,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2220,6 +2272,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,7 +2287,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2298,6 +2356,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2314,11 +2378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="400866688"/>
-        <c:axId val="401542144"/>
+        <c:axId val="563623424"/>
+        <c:axId val="563624960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="400866688"/>
+        <c:axId val="563623424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2361,14 +2425,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401542144"/>
+        <c:crossAx val="563624960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="401542144"/>
+        <c:axId val="563624960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,12 +2483,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400866688"/>
+        <c:crossAx val="563623424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483730944"/>
+        <c:axId val="563639040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,12 +2525,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483732480"/>
+        <c:crossAx val="563641728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="483732480"/>
+        <c:axId val="563641728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483730944"/>
+        <c:crossAx val="563639040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2654,7 +2718,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2723,6 +2787,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2732,7 +2802,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2801,6 +2871,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>590622.57318430196</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>624214.6740239606</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>653209.59286912635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,7 +2919,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2912,6 +2988,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2921,7 +3003,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2990,6 +3072,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>569778.99218897521</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>579851.61843013065</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>637033.7407252636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,7 +3120,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3101,6 +3189,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3110,7 +3204,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3179,6 +3273,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-20843.580995326745</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-44363.055593829951</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-16175.85214386275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3200,11 +3300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488920192"/>
-        <c:axId val="512197376"/>
+        <c:axId val="565020160"/>
+        <c:axId val="565022080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488920192"/>
+        <c:axId val="565020160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,14 +3347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512197376"/>
+        <c:crossAx val="565022080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512197376"/>
+        <c:axId val="565022080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3305,7 +3405,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488920192"/>
+        <c:crossAx val="565020160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3496,7 +3596,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3565,6 +3665,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33592.100839658677</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,8 +3685,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="568598528"/>
-        <c:axId val="513224704"/>
+        <c:axId val="629451776"/>
+        <c:axId val="629449856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3605,7 +3711,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3674,6 +3780,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,7 +3795,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3752,6 +3864,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3768,11 +3886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512583936"/>
-        <c:axId val="513213184"/>
+        <c:axId val="627884800"/>
+        <c:axId val="629446528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512583936"/>
+        <c:axId val="627884800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3815,14 +3933,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513213184"/>
+        <c:crossAx val="629446528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513213184"/>
+        <c:axId val="629446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3873,12 +3991,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512583936"/>
+        <c:crossAx val="627884800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513224704"/>
+        <c:axId val="629449856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,12 +4033,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568598528"/>
+        <c:crossAx val="629451776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="568598528"/>
+        <c:axId val="629451776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3929,7 +4047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="513224704"/>
+        <c:crossAx val="629449856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4108,7 +4226,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4177,6 +4295,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4186,7 +4310,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4255,6 +4379,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>610062.43339632987</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>650372.95440392033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>679367.87324908609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4297,7 +4427,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4366,6 +4496,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4375,7 +4511,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4444,6 +4580,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>587456.61401936528</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>603517.95929292182</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>661850.52757046279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4486,7 +4628,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4555,6 +4697,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4564,7 +4712,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4633,6 +4781,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-22605.819376964588</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-46854.995110998512</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-17517.3456786233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4654,11 +4808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569422208"/>
-        <c:axId val="569423744"/>
+        <c:axId val="630640640"/>
+        <c:axId val="630642176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569422208"/>
+        <c:axId val="630640640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,14 +4855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569423744"/>
+        <c:crossAx val="630642176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569423744"/>
+        <c:axId val="630642176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4759,7 +4913,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569422208"/>
+        <c:crossAx val="630640640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4950,7 +5104,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5019,6 +5173,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>25968.8096013986</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40310.521007590411</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28994.918845165728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5033,8 +5193,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584087424"/>
-        <c:axId val="584085888"/>
+        <c:axId val="630856320"/>
+        <c:axId val="630854400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5059,7 +5219,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5128,6 +5288,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5137,7 +5303,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5206,6 +5372,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5222,11 +5394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584061696"/>
-        <c:axId val="584063232"/>
+        <c:axId val="630850304"/>
+        <c:axId val="630852608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584061696"/>
+        <c:axId val="630850304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5269,14 +5441,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584063232"/>
+        <c:crossAx val="630852608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584063232"/>
+        <c:axId val="630852608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5327,12 +5499,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584061696"/>
+        <c:crossAx val="630850304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584085888"/>
+        <c:axId val="630854400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,12 +5541,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584087424"/>
+        <c:crossAx val="630856320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="584087424"/>
+        <c:axId val="630856320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5383,7 +5555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584085888"/>
+        <c:crossAx val="630854400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5562,7 +5734,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5631,6 +5803,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5640,7 +5818,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5709,6 +5887,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4707443.0891772518</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5050257.0351484306</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5263093.824727607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5751,7 +5935,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5820,6 +6004,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5829,7 +6019,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5898,6 +6088,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>4652283.5069824615</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4803059.3728076126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5249377.9832880329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5940,7 +6136,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6009,6 +6205,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6018,7 +6220,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6087,6 +6289,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-55159.582194790244</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-247197.66234081797</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-13715.841439574026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6108,11 +6316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584618752"/>
-        <c:axId val="584620288"/>
+        <c:axId val="631353344"/>
+        <c:axId val="631354880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584618752"/>
+        <c:axId val="631353344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6155,14 +6363,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584620288"/>
+        <c:crossAx val="631354880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584620288"/>
+        <c:axId val="631354880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6213,7 +6421,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584618752"/>
+        <c:crossAx val="631353344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6404,7 +6612,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6473,6 +6681,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>6194785.0688919602</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6670915.5304877618</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6952818.5648233844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6487,8 +6701,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="584800896"/>
-        <c:axId val="584798976"/>
+        <c:axId val="525312768"/>
+        <c:axId val="635075584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6513,7 +6727,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6582,6 +6796,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,7 +6811,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6660,6 +6880,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.75099998712539673</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72000002861022949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75499999523162842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6676,11 +6902,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="584771072"/>
-        <c:axId val="584772608"/>
+        <c:axId val="633953280"/>
+        <c:axId val="635073664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="584771072"/>
+        <c:axId val="633953280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6723,14 +6949,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584772608"/>
+        <c:crossAx val="635073664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="584772608"/>
+        <c:axId val="635073664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6781,12 +7007,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584771072"/>
+        <c:crossAx val="633953280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584798976"/>
+        <c:axId val="635075584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,12 +7049,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584800896"/>
+        <c:crossAx val="525312768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="584800896"/>
+        <c:axId val="525312768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6837,7 +7063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="584798976"/>
+        <c:crossAx val="635075584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7016,7 +7242,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7085,6 +7311,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7094,7 +7326,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7163,6 +7395,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1558093.5295013529</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1680604.7832931937</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1790609.7013361673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7205,7 +7443,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7274,6 +7512,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7283,7 +7527,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7352,6 +7596,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>1573938.8997274791</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1631480.724180551</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1820793.6541967946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7394,7 +7644,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7463,6 +7713,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7472,7 +7728,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7541,6 +7797,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>15845.370226126164</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-49124.059112642659</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30183.952860627323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7562,11 +7824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585118848"/>
-        <c:axId val="585120384"/>
+        <c:axId val="527372288"/>
+        <c:axId val="527373824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585118848"/>
+        <c:axId val="527372288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7609,14 +7871,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585120384"/>
+        <c:crossAx val="527373824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585120384"/>
+        <c:axId val="527373824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7667,7 +7929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585118848"/>
+        <c:crossAx val="527372288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8381,7 +8643,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8518,28 +8780,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -9501,6 +9763,82 @@
         <v>-22205.231651686248</v>
       </c>
       <c r="L25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="15">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="15">
+        <v>782472.73719677574</v>
+      </c>
+      <c r="H26" s="15">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="I26" s="15">
+        <v>608395.92264148453</v>
+      </c>
+      <c r="J26" s="15">
+        <v>563380.39316840307</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-45015.529473081464</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="15">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="15">
+        <v>820876.60345941107</v>
+      </c>
+      <c r="H27" s="15">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="I27" s="15">
+        <v>637390.84148665029</v>
+      </c>
+      <c r="J27" s="15">
+        <v>619761.83169761067</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-17629.009789039614</v>
+      </c>
+      <c r="L27" s="14">
         <v>0</v>
       </c>
     </row>
@@ -9520,7 +9858,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9561,7 +9899,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -9597,10 +9935,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -9621,7 +9959,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -9701,28 +10039,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -11095,6 +11433,136 @@
         <v>-3.4424236869540712</v>
       </c>
       <c r="U25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>33592.100839658677</v>
+      </c>
+      <c r="F26" s="15">
+        <v>46655.693756706351</v>
+      </c>
+      <c r="G26" s="15">
+        <v>805349.43804013671</v>
+      </c>
+      <c r="H26" s="15">
+        <v>579851.61843013065</v>
+      </c>
+      <c r="I26" s="15">
+        <v>624214.6740239606</v>
+      </c>
+      <c r="J26" s="15">
+        <v>579851.61843013065</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-44363.055593829951</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="N26" s="23">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="O26" s="23">
+        <v>0.72733332713445031</v>
+      </c>
+      <c r="P26" s="23">
+        <v>0.75183332913262502</v>
+      </c>
+      <c r="Q26" s="23">
+        <v>-2.4500001998174703E-2</v>
+      </c>
+      <c r="R26" s="23">
+        <v>3.097619424547466E-2</v>
+      </c>
+      <c r="S26" s="9">
+        <v>4.646429136821199E-4</v>
+      </c>
+      <c r="T26" s="9">
+        <v>-52.728668137907079</v>
+      </c>
+      <c r="U26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="15">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="15">
+        <v>843753.30430277204</v>
+      </c>
+      <c r="H27" s="15">
+        <v>637033.7407252636</v>
+      </c>
+      <c r="I27" s="15">
+        <v>653209.59286912635</v>
+      </c>
+      <c r="J27" s="15">
+        <v>637033.7407252636</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-16175.85214386275</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="23">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="N27" s="23">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="O27" s="23">
+        <v>0.74666666984558105</v>
+      </c>
+      <c r="P27" s="23">
+        <v>0.75338094954263612</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>-6.71427969705507E-3</v>
+      </c>
+      <c r="R27" s="23">
+        <v>2.9428573835463736E-2</v>
+      </c>
+      <c r="S27" s="9">
+        <v>4.4142860753195601E-4</v>
+      </c>
+      <c r="T27" s="9">
+        <v>-15.21034111177085</v>
+      </c>
+      <c r="U27" s="11">
         <v>1</v>
       </c>
     </row>
@@ -11114,7 +11582,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11155,7 +11623,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11194,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -11261,28 +11729,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -12361,6 +12829,94 @@
         <v>-64.205140990854673</v>
       </c>
       <c r="N25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>40310.521007590411</v>
+      </c>
+      <c r="F26" s="15">
+        <v>55986.832508047613</v>
+      </c>
+      <c r="G26" s="15">
+        <v>838219.35459899122</v>
+      </c>
+      <c r="H26" s="15">
+        <v>603517.95929292182</v>
+      </c>
+      <c r="I26" s="15">
+        <v>650372.95440392033</v>
+      </c>
+      <c r="J26" s="15">
+        <v>603517.95929292182</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-46854.995110998512</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>28994.918845165728</v>
+      </c>
+      <c r="F27" s="15">
+        <v>38403.866262635274</v>
+      </c>
+      <c r="G27" s="15">
+        <v>876623.22086162656</v>
+      </c>
+      <c r="H27" s="15">
+        <v>661850.52757046279</v>
+      </c>
+      <c r="I27" s="15">
+        <v>679367.87324908609</v>
+      </c>
+      <c r="J27" s="15">
+        <v>661850.52757046279</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-17517.3456786233</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="N27" s="9">
         <v>1</v>
       </c>
     </row>
@@ -12380,7 +12936,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12421,7 +12977,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12460,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -12527,28 +13083,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -13627,6 +14183,94 @@
         <v>-64.205140990854673</v>
       </c>
       <c r="N25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>342813.94597117882</v>
+      </c>
+      <c r="F26" s="15">
+        <v>476130.46159580146</v>
+      </c>
+      <c r="G26" s="15">
+        <v>6670915.5304877618</v>
+      </c>
+      <c r="H26" s="15">
+        <v>4803059.3728076126</v>
+      </c>
+      <c r="I26" s="15">
+        <v>5050257.0351484306</v>
+      </c>
+      <c r="J26" s="15">
+        <v>4803059.3728076126</v>
+      </c>
+      <c r="K26" s="15">
+        <v>-247197.66234081797</v>
+      </c>
+      <c r="L26" s="14">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="N26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F27" s="15">
+        <v>281903.03433562221</v>
+      </c>
+      <c r="G27" s="15">
+        <v>6952818.5648233844</v>
+      </c>
+      <c r="H27" s="15">
+        <v>5249377.9832880329</v>
+      </c>
+      <c r="I27" s="15">
+        <v>5263093.824727607</v>
+      </c>
+      <c r="J27" s="15">
+        <v>5249377.9832880329</v>
+      </c>
+      <c r="K27" s="15">
+        <v>-13715.841439574026</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="N27" s="9">
         <v>1</v>
       </c>
     </row>
@@ -13646,7 +14290,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13687,7 +14331,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13699,10 +14343,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -13732,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -13807,28 +14451,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -15039,6 +15683,106 @@
         <v>-64.205140990854673</v>
       </c>
       <c r="P25" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12.75">
+      <c r="A26" s="12">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="13">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E26" s="14">
+        <v>1602700</v>
+      </c>
+      <c r="F26" s="14">
+        <v>4484713.805488782</v>
+      </c>
+      <c r="G26" s="14">
+        <v>122511.25379184079</v>
+      </c>
+      <c r="H26" s="15">
+        <v>170154.51239400159</v>
+      </c>
+      <c r="I26" s="15">
+        <v>2265945.3602101863</v>
+      </c>
+      <c r="J26" s="15">
+        <v>1631480.724180551</v>
+      </c>
+      <c r="K26" s="15">
+        <v>1680604.7832931937</v>
+      </c>
+      <c r="L26" s="15">
+        <v>1631480.724180551</v>
+      </c>
+      <c r="M26" s="15">
+        <v>-49124.059112642659</v>
+      </c>
+      <c r="N26" s="14">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9">
+        <v>-122.69771180703479</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="12.75">
+      <c r="A27" s="12">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="13">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="14">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E27" s="14">
+        <v>2280700</v>
+      </c>
+      <c r="F27" s="14">
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="G27" s="14">
+        <v>110004.9180429735</v>
+      </c>
+      <c r="H27" s="15">
+        <v>145701.87912282677</v>
+      </c>
+      <c r="I27" s="15">
+        <v>2411647.2393330131</v>
+      </c>
+      <c r="J27" s="15">
+        <v>1820793.6541967946</v>
+      </c>
+      <c r="K27" s="15">
+        <v>1790609.7013361673</v>
+      </c>
+      <c r="L27" s="15">
+        <v>1820793.6541967946</v>
+      </c>
+      <c r="M27" s="15">
+        <v>30183.952860627323</v>
+      </c>
+      <c r="N27" s="14">
+        <v>0</v>
+      </c>
+      <c r="O27" s="9">
+        <v>24.912007435828137</v>
+      </c>
+      <c r="P27" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>年化收益率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -597,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -672,6 +676,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,7 +688,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -756,6 +763,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>637390.84148665029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>664460.27747876197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,7 +808,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -873,6 +883,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,7 +895,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -957,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>619761.83169761067</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>651756.51282777358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1015,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1074,6 +1090,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,7 +1102,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1158,6 +1177,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17629.009789039614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12703.764650988393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,11 +1201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563569408"/>
-        <c:axId val="563570944"/>
+        <c:axId val="520669056"/>
+        <c:axId val="520670592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563569408"/>
+        <c:axId val="520669056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,14 +1248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563570944"/>
+        <c:crossAx val="520670592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563570944"/>
+        <c:axId val="520670592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1306,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563569408"/>
+        <c:crossAx val="520669056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1475,7 +1497,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1550,6 +1572,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>110004.9180429735</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90553.794089931776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,8 +1589,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527405440"/>
-        <c:axId val="527403648"/>
+        <c:axId val="531630336"/>
+        <c:axId val="531628800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1590,7 +1615,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1665,6 +1690,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,7 +1702,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1749,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,11 +1796,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527396224"/>
-        <c:axId val="527402112"/>
+        <c:axId val="520738304"/>
+        <c:axId val="520739840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527396224"/>
+        <c:axId val="520738304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,14 +1843,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527402112"/>
+        <c:crossAx val="520739840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527402112"/>
+        <c:axId val="520739840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,12 +1901,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527396224"/>
+        <c:crossAx val="520738304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527403648"/>
+        <c:axId val="531628800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,12 +1943,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527405440"/>
+        <c:crossAx val="531630336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527405440"/>
+        <c:axId val="531630336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527403648"/>
+        <c:crossAx val="531628800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2088,7 +2119,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2163,6 +2194,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,8 +2211,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="563641728"/>
-        <c:axId val="563639040"/>
+        <c:axId val="568015104"/>
+        <c:axId val="568013568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2203,7 +2237,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2278,6 +2312,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2287,7 +2324,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2362,6 +2399,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2378,11 +2418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="563623424"/>
-        <c:axId val="563624960"/>
+        <c:axId val="568006144"/>
+        <c:axId val="568007680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="563623424"/>
+        <c:axId val="568006144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,14 +2465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563624960"/>
+        <c:crossAx val="568007680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563624960"/>
+        <c:axId val="568007680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2483,12 +2523,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563623424"/>
+        <c:crossAx val="568006144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="563639040"/>
+        <c:axId val="568013568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2525,12 +2565,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563641728"/>
+        <c:crossAx val="568015104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="563641728"/>
+        <c:axId val="568015104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,7 +2579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563639040"/>
+        <c:crossAx val="568013568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2718,7 +2758,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2793,6 +2833,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,7 +2845,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2877,6 +2920,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>653209.59286912635</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>680279.02886123804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2919,7 +2965,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2994,6 +3040,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3003,7 +3052,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3078,6 +3127,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>637033.7407252636</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>669165.68165687367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3120,7 +3172,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3195,6 +3247,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,7 +3259,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3279,6 +3334,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-16175.85214386275</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-11113.347204364371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3300,11 +3358,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565020160"/>
-        <c:axId val="565022080"/>
+        <c:axId val="569363840"/>
+        <c:axId val="569648256"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565020160"/>
+        <c:axId val="569363840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3347,14 +3405,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565022080"/>
+        <c:crossAx val="569648256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565022080"/>
+        <c:axId val="569648256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,7 +3463,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565020160"/>
+        <c:crossAx val="569363840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3596,7 +3654,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3671,6 +3729,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,8 +3746,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="629451776"/>
-        <c:axId val="629449856"/>
+        <c:axId val="615542784"/>
+        <c:axId val="615540992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3711,7 +3772,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3786,6 +3847,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,7 +3859,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3870,6 +3934,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3886,11 +3953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627884800"/>
-        <c:axId val="629446528"/>
+        <c:axId val="615537280"/>
+        <c:axId val="615539072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="627884800"/>
+        <c:axId val="615537280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3933,14 +4000,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629446528"/>
+        <c:crossAx val="615539072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="629446528"/>
+        <c:axId val="615539072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,12 +4058,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627884800"/>
+        <c:crossAx val="615537280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="629449856"/>
+        <c:axId val="615540992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4033,12 +4100,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629451776"/>
+        <c:crossAx val="615542784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="629451776"/>
+        <c:axId val="615542784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4047,7 +4114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="629449856"/>
+        <c:crossAx val="615540992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4226,7 +4293,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4301,6 +4368,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4310,7 +4380,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4385,6 +4455,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>679367.87324908609</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>706437.30924119777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4427,7 +4500,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4502,6 +4575,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4511,7 +4587,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4586,6 +4662,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>661850.52757046279</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>694179.68742150278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4628,7 +4707,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4703,6 +4782,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,7 +4794,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4787,6 +4869,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-17517.3456786233</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12257.621819694992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4808,11 +4893,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="630640640"/>
-        <c:axId val="630642176"/>
+        <c:axId val="615607680"/>
+        <c:axId val="615618432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="630640640"/>
+        <c:axId val="615607680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,14 +4940,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630642176"/>
+        <c:crossAx val="615618432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="630642176"/>
+        <c:axId val="615618432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +4998,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630640640"/>
+        <c:crossAx val="615607680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5104,7 +5189,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5179,6 +5264,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>28994.918845165728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27069.435992111685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5193,8 +5281,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="630856320"/>
-        <c:axId val="630854400"/>
+        <c:axId val="616449152"/>
+        <c:axId val="616402304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5219,7 +5307,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5294,6 +5382,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5303,7 +5394,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5378,6 +5469,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5394,11 +5488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="630850304"/>
-        <c:axId val="630852608"/>
+        <c:axId val="616291328"/>
+        <c:axId val="616400384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="630850304"/>
+        <c:axId val="616291328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5441,14 +5535,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630852608"/>
+        <c:crossAx val="616400384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="630852608"/>
+        <c:axId val="616400384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5499,12 +5593,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630850304"/>
+        <c:crossAx val="616291328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="630854400"/>
+        <c:axId val="616402304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5541,12 +5635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630856320"/>
+        <c:crossAx val="616449152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="630856320"/>
+        <c:axId val="616449152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5555,7 +5649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="630854400"/>
+        <c:crossAx val="616402304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5734,7 +5828,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5809,6 +5903,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5818,7 +5915,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5893,6 +5990,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5263093.824727607</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5448601.2588873617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5935,7 +6035,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6010,6 +6110,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6019,7 +6122,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6094,6 +6197,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5249377.9832880329</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5476602.2061683256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6136,7 +6242,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6211,6 +6317,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6220,7 +6329,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6295,6 +6404,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-13715.841439574026</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28000.947280963883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6316,11 +6428,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631353344"/>
-        <c:axId val="631354880"/>
+        <c:axId val="626280320"/>
+        <c:axId val="626281856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="631353344"/>
+        <c:axId val="626280320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6363,14 +6475,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631354880"/>
+        <c:crossAx val="626281856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631354880"/>
+        <c:axId val="626281856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6421,7 +6533,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631353344"/>
+        <c:crossAx val="626280320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6612,7 +6724,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6687,6 +6799,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6952818.5648233844</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7196586.5538154002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6701,8 +6816,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="525312768"/>
-        <c:axId val="635075584"/>
+        <c:axId val="520649344"/>
+        <c:axId val="520647808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6727,7 +6842,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6802,6 +6917,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6811,7 +6929,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6886,6 +7004,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.75499999523162842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.76099997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6902,11 +7023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="633953280"/>
-        <c:axId val="635073664"/>
+        <c:axId val="520636288"/>
+        <c:axId val="520637824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="633953280"/>
+        <c:axId val="520636288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6949,14 +7070,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635073664"/>
+        <c:crossAx val="520637824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="635073664"/>
+        <c:axId val="520637824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7007,12 +7128,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633953280"/>
+        <c:crossAx val="520636288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635075584"/>
+        <c:axId val="520647808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7049,12 +7170,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="525312768"/>
+        <c:crossAx val="520649344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="525312768"/>
+        <c:axId val="520649344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7063,7 +7184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635075584"/>
+        <c:crossAx val="520647808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7242,7 +7363,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7317,6 +7438,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7326,7 +7450,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7401,6 +7525,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1790609.7013361673</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1881163.495426099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7443,7 +7570,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7518,6 +7645,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7527,7 +7657,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7602,6 +7732,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1820793.6541967946</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1925817.2891740929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7644,7 +7777,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7719,6 +7852,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7728,7 +7864,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7803,6 +7939,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>30183.952860627323</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44653.793747993885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7824,11 +7963,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527372288"/>
-        <c:axId val="527373824"/>
+        <c:axId val="520718208"/>
+        <c:axId val="520719744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527372288"/>
+        <c:axId val="520718208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7871,14 +8010,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527373824"/>
+        <c:crossAx val="520719744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527373824"/>
+        <c:axId val="520719744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7929,7 +8068,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527372288"/>
+        <c:crossAx val="520718208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8643,7 +8782,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9842,6 +9981,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:13" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="15">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="15">
+        <v>856447.47966086038</v>
+      </c>
+      <c r="H28" s="15">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="I28" s="15">
+        <v>664460.27747876197</v>
+      </c>
+      <c r="J28" s="15">
+        <v>651756.51282777358</v>
+      </c>
+      <c r="K28" s="15">
+        <v>-12703.764650988393</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -9858,7 +10035,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9899,7 +10076,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -9935,10 +10112,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -9959,7 +10136,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -11563,6 +11740,71 @@
         <v>-15.21034111177085</v>
       </c>
       <c r="U27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="15">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="15">
+        <v>879324.18050422135</v>
+      </c>
+      <c r="H28" s="15">
+        <v>669165.68165687367</v>
+      </c>
+      <c r="I28" s="15">
+        <v>680279.02886123804</v>
+      </c>
+      <c r="J28" s="15">
+        <v>669165.68165687367</v>
+      </c>
+      <c r="K28" s="15">
+        <v>-11113.347204364371</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="N28" s="23">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="O28" s="23">
+        <v>0.75533334414164222</v>
+      </c>
+      <c r="P28" s="23">
+        <v>0.75549999826295033</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>-1.6665412130811852E-4</v>
+      </c>
+      <c r="R28" s="23">
+        <v>2.7309525115149353E-2</v>
+      </c>
+      <c r="S28" s="9">
+        <v>4.0964287672724028E-4</v>
+      </c>
+      <c r="T28" s="9">
+        <v>-0.40682782681238899</v>
+      </c>
+      <c r="U28" s="11">
         <v>1</v>
       </c>
     </row>
@@ -11582,7 +11824,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11662,7 +11904,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -12917,6 +13159,50 @@
         <v>24.912007435828137</v>
       </c>
       <c r="N27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>27069.435992111685</v>
+      </c>
+      <c r="F28" s="15">
+        <v>35570.876201449297</v>
+      </c>
+      <c r="G28" s="15">
+        <v>912194.09706307587</v>
+      </c>
+      <c r="H28" s="15">
+        <v>694179.68742150278</v>
+      </c>
+      <c r="I28" s="15">
+        <v>706437.30924119777</v>
+      </c>
+      <c r="J28" s="15">
+        <v>694179.68742150278</v>
+      </c>
+      <c r="K28" s="15">
+        <v>-12257.621819694992</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="N28" s="9">
         <v>1</v>
       </c>
     </row>
@@ -12936,7 +13222,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG27"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13016,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -14271,6 +14557,50 @@
         <v>24.912007435828137</v>
       </c>
       <c r="N27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F28" s="15">
+        <v>243767.98899201537</v>
+      </c>
+      <c r="G28" s="15">
+        <v>7196586.5538154002</v>
+      </c>
+      <c r="H28" s="15">
+        <v>5476602.2061683256</v>
+      </c>
+      <c r="I28" s="15">
+        <v>5448601.2588873617</v>
+      </c>
+      <c r="J28" s="15">
+        <v>5476602.2061683256</v>
+      </c>
+      <c r="K28" s="15">
+        <v>28000.947280963883</v>
+      </c>
+      <c r="L28" s="14">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="N28" s="9">
         <v>1</v>
       </c>
     </row>
@@ -14290,7 +14620,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14343,10 +14673,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -14376,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -15783,6 +16113,56 @@
         <v>24.912007435828137</v>
       </c>
       <c r="P27" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12.75">
+      <c r="A28" s="12">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="13">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="14">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E28" s="14">
+        <v>2111506</v>
+      </c>
+      <c r="F28" s="14">
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="G28" s="14">
+        <v>90553.794089931776</v>
+      </c>
+      <c r="H28" s="15">
+        <v>118993.1626238223</v>
+      </c>
+      <c r="I28" s="15">
+        <v>2530640.4019568353</v>
+      </c>
+      <c r="J28" s="15">
+        <v>1925817.2891740929</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1881163.495426099</v>
+      </c>
+      <c r="L28" s="15">
+        <v>1925817.2891740929</v>
+      </c>
+      <c r="M28" s="15">
+        <v>44653.793747993885</v>
+      </c>
+      <c r="N28" s="14">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9">
+        <v>132.15337272513426</v>
+      </c>
+      <c r="P28" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -601,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -679,6 +679,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,7 +691,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -766,6 +769,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>664460.27747876197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>696265.27651067753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,7 +814,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -886,6 +892,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,7 +904,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -973,6 +982,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>651756.51282777358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>643308.4880749624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,7 +1027,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1093,6 +1105,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,7 +1117,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1180,6 +1195,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12703.764650988393</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-52956.788435715134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,11 +1219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520669056"/>
-        <c:axId val="520670592"/>
+        <c:axId val="550504320"/>
+        <c:axId val="552001920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520669056"/>
+        <c:axId val="550504320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,14 +1266,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520670592"/>
+        <c:crossAx val="552001920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520670592"/>
+        <c:axId val="552001920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1324,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520669056"/>
+        <c:crossAx val="550504320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1497,7 +1515,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1575,6 +1593,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>90553.794089931776</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>191535.50007638987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,8 +1610,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531630336"/>
-        <c:axId val="531628800"/>
+        <c:axId val="492887040"/>
+        <c:axId val="492885504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1615,7 +1636,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1693,6 +1714,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,7 +1726,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1780,6 +1804,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,11 +1823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520738304"/>
-        <c:axId val="520739840"/>
+        <c:axId val="492882176"/>
+        <c:axId val="492883968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520738304"/>
+        <c:axId val="492882176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,14 +1870,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520739840"/>
+        <c:crossAx val="492883968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520739840"/>
+        <c:axId val="492883968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,12 +1928,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520738304"/>
+        <c:crossAx val="492882176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="531628800"/>
+        <c:axId val="492885504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,12 +1970,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531630336"/>
+        <c:crossAx val="492887040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="531630336"/>
+        <c:axId val="492887040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531628800"/>
+        <c:crossAx val="492885504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2119,7 +2146,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2197,6 +2224,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2211,8 +2241,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="568015104"/>
-        <c:axId val="568013568"/>
+        <c:axId val="581147648"/>
+        <c:axId val="581144960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2237,7 +2267,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2315,6 +2345,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2324,7 +2357,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2402,6 +2435,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2418,11 +2454,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568006144"/>
-        <c:axId val="568007680"/>
+        <c:axId val="581133056"/>
+        <c:axId val="581134976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568006144"/>
+        <c:axId val="581133056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,14 +2501,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568007680"/>
+        <c:crossAx val="581134976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="568007680"/>
+        <c:axId val="581134976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,12 +2559,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568006144"/>
+        <c:crossAx val="581133056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="568013568"/>
+        <c:axId val="581144960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,12 +2601,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568015104"/>
+        <c:crossAx val="581147648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="568015104"/>
+        <c:axId val="581147648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568013568"/>
+        <c:crossAx val="581144960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2794,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2836,6 +2872,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2845,7 +2884,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2923,6 +2962,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>680279.02886123804</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>712084.0278931536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,7 +3007,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3043,6 +3085,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3052,7 +3097,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3130,6 +3175,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>669165.68165687367</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>659642.45217168517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3172,7 +3220,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3250,6 +3298,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3259,7 +3310,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3337,6 +3388,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-11113.347204364371</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-52441.575721468427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3358,11 +3412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569363840"/>
-        <c:axId val="569648256"/>
+        <c:axId val="581322240"/>
+        <c:axId val="581323776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569363840"/>
+        <c:axId val="581322240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3405,14 +3459,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569648256"/>
+        <c:crossAx val="581323776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569648256"/>
+        <c:axId val="581323776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3463,7 +3517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569363840"/>
+        <c:crossAx val="581322240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3654,7 +3708,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3732,6 +3786,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3746,8 +3803,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="615542784"/>
-        <c:axId val="615540992"/>
+        <c:axId val="654218368"/>
+        <c:axId val="626766208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3772,7 +3829,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3850,6 +3907,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3859,7 +3919,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3937,6 +3997,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3953,11 +4016,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615537280"/>
-        <c:axId val="615539072"/>
+        <c:axId val="582555520"/>
+        <c:axId val="625041408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615537280"/>
+        <c:axId val="582555520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4000,14 +4063,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615539072"/>
+        <c:crossAx val="625041408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615539072"/>
+        <c:axId val="625041408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4058,12 +4121,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615537280"/>
+        <c:crossAx val="582555520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="615540992"/>
+        <c:axId val="626766208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,12 +4163,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615542784"/>
+        <c:crossAx val="654218368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="615542784"/>
+        <c:axId val="654218368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4114,7 +4177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="615540992"/>
+        <c:crossAx val="626766208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4293,7 +4356,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4371,6 +4434,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,7 +4446,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4458,6 +4524,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>706437.30924119777</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>738242.30827311333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4500,7 +4569,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4578,6 +4647,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4587,7 +4659,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4665,6 +4737,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>694179.68742150278</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>683111.57215584663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4707,7 +4782,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4785,6 +4860,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4794,7 +4872,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4872,6 +4950,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-12257.621819694992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-55130.736117266701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4893,11 +4974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615607680"/>
-        <c:axId val="615618432"/>
+        <c:axId val="657686528"/>
+        <c:axId val="657688064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615607680"/>
+        <c:axId val="657686528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4940,14 +5021,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615618432"/>
+        <c:crossAx val="657688064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615618432"/>
+        <c:axId val="657688064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4998,7 +5079,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615607680"/>
+        <c:crossAx val="657686528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5189,7 +5270,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5267,6 +5348,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>27069.435992111685</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31804.999031915606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5281,8 +5365,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616449152"/>
-        <c:axId val="616402304"/>
+        <c:axId val="657841152"/>
+        <c:axId val="657839232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5307,7 +5391,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5385,6 +5469,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5394,7 +5481,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5472,6 +5559,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5488,11 +5578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616291328"/>
-        <c:axId val="616400384"/>
+        <c:axId val="657774080"/>
+        <c:axId val="657776000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616291328"/>
+        <c:axId val="657774080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5535,14 +5625,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616400384"/>
+        <c:crossAx val="657776000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616400384"/>
+        <c:axId val="657776000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5593,12 +5683,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616291328"/>
+        <c:crossAx val="657774080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616402304"/>
+        <c:axId val="657839232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,12 +5725,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616449152"/>
+        <c:crossAx val="657841152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="616449152"/>
+        <c:axId val="657841152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5649,7 +5739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616402304"/>
+        <c:crossAx val="657839232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5828,7 +5918,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5906,6 +5996,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5915,7 +6008,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5993,6 +6086,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5448601.2588873617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5704691.8825380336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6035,7 +6131,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6113,6 +6209,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6122,7 +6221,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6200,6 +6299,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>5476602.2061683256</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5394453.3269900708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6242,7 +6344,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6320,6 +6422,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6329,7 +6434,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6407,6 +6512,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>28000.947280963883</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-310238.5555479629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6428,11 +6536,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626280320"/>
-        <c:axId val="626281856"/>
+        <c:axId val="657877632"/>
+        <c:axId val="657883904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626280320"/>
+        <c:axId val="657877632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6475,14 +6583,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626281856"/>
+        <c:crossAx val="657883904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626281856"/>
+        <c:axId val="657883904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6533,7 +6641,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626280320"/>
+        <c:crossAx val="657877632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6724,7 +6832,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6802,6 +6910,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7196586.5538154002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7555256.9017697945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6816,8 +6927,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520649344"/>
-        <c:axId val="520647808"/>
+        <c:axId val="660441344"/>
+        <c:axId val="660439808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6842,7 +6953,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6920,6 +7031,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6929,7 +7043,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7007,6 +7121,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.76099997758865356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71399998664855957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7023,11 +7140,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520636288"/>
-        <c:axId val="520637824"/>
+        <c:axId val="660079360"/>
+        <c:axId val="660080896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520636288"/>
+        <c:axId val="660079360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7070,14 +7187,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520637824"/>
+        <c:crossAx val="660080896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520637824"/>
+        <c:axId val="660080896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7128,12 +7245,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520636288"/>
+        <c:crossAx val="660079360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520647808"/>
+        <c:axId val="660439808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7170,12 +7287,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520649344"/>
+        <c:crossAx val="660441344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="520649344"/>
+        <c:axId val="660441344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7184,7 +7301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520647808"/>
+        <c:crossAx val="660439808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7363,7 +7480,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7441,6 +7558,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7450,7 +7570,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7528,6 +7648,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1881163.495426099</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2072698.9955024889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7570,7 +7693,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7648,6 +7771,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7657,7 +7783,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7735,6 +7861,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1925817.2891740929</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1998412.713285876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7777,7 +7906,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7855,6 +7984,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7864,7 +7996,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7942,6 +8074,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44653.793747993885</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-74286.282216612948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7963,11 +8098,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520718208"/>
-        <c:axId val="520719744"/>
+        <c:axId val="492862080"/>
+        <c:axId val="492872064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520718208"/>
+        <c:axId val="492862080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8010,14 +8145,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520719744"/>
+        <c:crossAx val="492872064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520719744"/>
+        <c:axId val="492872064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8068,7 +8203,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520718208"/>
+        <c:crossAx val="492862080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8782,7 +8917,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10019,6 +10154,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:13" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="15">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="15">
+        <v>900992.29706513637</v>
+      </c>
+      <c r="H29" s="15">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="I29" s="15">
+        <v>696265.27651067753</v>
+      </c>
+      <c r="J29" s="15">
+        <v>643308.4880749624</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-52956.788435715134</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10035,7 +10208,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11808,6 +11981,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:21" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="15">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="15">
+        <v>923868.99790849735</v>
+      </c>
+      <c r="H29" s="15">
+        <v>659642.45217168517</v>
+      </c>
+      <c r="I29" s="15">
+        <v>712084.0278931536</v>
+      </c>
+      <c r="J29" s="15">
+        <v>659642.45217168517</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-52441.575721468427</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="23">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="N29" s="23">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="O29" s="23">
+        <v>0.72366664807001746</v>
+      </c>
+      <c r="P29" s="23">
+        <v>0.74888094787370585</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>-2.5214299803688389E-2</v>
+      </c>
+      <c r="R29" s="23">
+        <v>2.5214288450422728E-2</v>
+      </c>
+      <c r="S29" s="9">
+        <v>3.7821432675634093E-4</v>
+      </c>
+      <c r="T29" s="9">
+        <v>-66.6666966847407</v>
+      </c>
+      <c r="U29" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11824,7 +12062,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13206,6 +13444,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>31804.999031915606</v>
+      </c>
+      <c r="F29" s="15">
+        <v>44544.817404276022</v>
+      </c>
+      <c r="G29" s="15">
+        <v>956738.91446735186</v>
+      </c>
+      <c r="H29" s="15">
+        <v>683111.57215584663</v>
+      </c>
+      <c r="I29" s="15">
+        <v>738242.30827311333</v>
+      </c>
+      <c r="J29" s="15">
+        <v>683111.57215584663</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-55130.736117266701</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13222,7 +13504,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG28"/>
+  <dimension ref="A1:AG29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14604,6 +14886,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F29" s="15">
+        <v>358670.347954394</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7555256.9017697945</v>
+      </c>
+      <c r="H29" s="15">
+        <v>5394453.3269900708</v>
+      </c>
+      <c r="I29" s="15">
+        <v>5704691.8825380336</v>
+      </c>
+      <c r="J29" s="15">
+        <v>5394453.3269900708</v>
+      </c>
+      <c r="K29" s="15">
+        <v>-310238.5555479629</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14620,7 +14946,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16166,6 +16492,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:16" ht="12.75">
+      <c r="A29" s="12">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="13">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="14">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E29" s="14">
+        <v>3152600</v>
+      </c>
+      <c r="F29" s="14">
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="G29" s="14">
+        <v>191535.50007638987</v>
+      </c>
+      <c r="H29" s="15">
+        <v>268257.00792438001</v>
+      </c>
+      <c r="I29" s="15">
+        <v>2798897.4098812155</v>
+      </c>
+      <c r="J29" s="15">
+        <v>1998412.713285876</v>
+      </c>
+      <c r="K29" s="15">
+        <v>2072698.9955024889</v>
+      </c>
+      <c r="L29" s="15">
+        <v>1998412.713285876</v>
+      </c>
+      <c r="M29" s="15">
+        <v>-74286.282216612948</v>
+      </c>
+      <c r="N29" s="14">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <v>19.588439525500419</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -601,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -682,6 +682,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,7 +694,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -772,6 +775,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>696265.27651067753</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>733363.80791297404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -814,7 +820,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -895,6 +901,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,7 +913,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -985,6 +994,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>643308.4880749624</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>654278.2570400479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,7 +1039,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1108,6 +1120,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,7 +1132,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1198,6 +1213,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-52956.788435715134</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79085.550872926135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,11 +1237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550504320"/>
-        <c:axId val="552001920"/>
+        <c:axId val="445582336"/>
+        <c:axId val="445584512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550504320"/>
+        <c:axId val="445582336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,14 +1284,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552001920"/>
+        <c:crossAx val="445584512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="552001920"/>
+        <c:axId val="445584512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1342,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550504320"/>
+        <c:crossAx val="445582336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1515,7 +1533,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1596,6 +1614,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>191535.50007638987</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>137235.15677960418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,8 +1631,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492887040"/>
-        <c:axId val="492885504"/>
+        <c:axId val="560099328"/>
+        <c:axId val="560093440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1636,7 +1657,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1717,6 +1738,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1750,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1807,6 +1831,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,11 +1850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492882176"/>
-        <c:axId val="492883968"/>
+        <c:axId val="560077824"/>
+        <c:axId val="560091904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492882176"/>
+        <c:axId val="560077824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,14 +1897,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492883968"/>
+        <c:crossAx val="560091904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492883968"/>
+        <c:axId val="560091904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,12 +1955,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492882176"/>
+        <c:crossAx val="560077824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492885504"/>
+        <c:axId val="560093440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,12 +1997,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492887040"/>
+        <c:crossAx val="560099328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492887040"/>
+        <c:axId val="560099328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492885504"/>
+        <c:crossAx val="560093440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2146,7 +2173,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2227,6 +2254,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2241,8 +2271,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="581147648"/>
-        <c:axId val="581144960"/>
+        <c:axId val="560693632"/>
+        <c:axId val="560691840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2267,7 +2297,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2348,6 +2378,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,7 +2390,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2438,6 +2471,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,11 +2490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="581133056"/>
-        <c:axId val="581134976"/>
+        <c:axId val="529151104"/>
+        <c:axId val="560690304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="581133056"/>
+        <c:axId val="529151104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,14 +2537,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581134976"/>
+        <c:crossAx val="560690304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="581134976"/>
+        <c:axId val="560690304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,12 +2595,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581133056"/>
+        <c:crossAx val="529151104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="581144960"/>
+        <c:axId val="560691840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,12 +2637,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581147648"/>
+        <c:crossAx val="560693632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="581147648"/>
+        <c:axId val="560693632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="581144960"/>
+        <c:crossAx val="560691840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2794,7 +2830,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2875,6 +2911,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,7 +2923,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2965,6 +3004,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>712084.0278931536</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>756602.26557590941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3007,7 +3049,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3088,6 +3130,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3097,7 +3142,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3178,6 +3223,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>659642.45217168517</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>677368.50345275179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,7 +3268,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3301,6 +3349,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,7 +3361,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3391,6 +3442,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-52441.575721468427</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-79233.762123157619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3412,11 +3466,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="581322240"/>
-        <c:axId val="581323776"/>
+        <c:axId val="562468736"/>
+        <c:axId val="562769920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="581322240"/>
+        <c:axId val="562468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3459,14 +3513,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581323776"/>
+        <c:crossAx val="562769920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="581323776"/>
+        <c:axId val="562769920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3571,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="581322240"/>
+        <c:crossAx val="562468736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3708,7 +3762,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3789,6 +3843,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44518.237682755796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3803,8 +3860,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="654218368"/>
-        <c:axId val="626766208"/>
+        <c:axId val="632826496"/>
+        <c:axId val="632824576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3829,7 +3886,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3910,6 +3967,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3919,7 +3979,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4000,6 +4060,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,11 +4079,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="582555520"/>
-        <c:axId val="625041408"/>
+        <c:axId val="619573248"/>
+        <c:axId val="619575168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="582555520"/>
+        <c:axId val="619573248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,14 +4126,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625041408"/>
+        <c:crossAx val="619575168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625041408"/>
+        <c:axId val="619575168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,12 +4184,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="582555520"/>
+        <c:crossAx val="619573248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="626766208"/>
+        <c:axId val="632824576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,12 +4226,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654218368"/>
+        <c:crossAx val="632826496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="654218368"/>
+        <c:axId val="632826496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4177,7 +4240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="626766208"/>
+        <c:crossAx val="632824576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4356,7 +4419,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4437,6 +4500,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4446,7 +4512,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4527,6 +4593,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>738242.30827311333</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>775340.83967540984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4569,7 +4638,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4650,6 +4719,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4659,7 +4731,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4740,6 +4812,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>683111.57215584663</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>692464.69009347586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4782,7 +4857,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4863,6 +4938,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4872,7 +4950,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4953,6 +5031,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-55130.736117266701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-82876.149581933976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4974,11 +5055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="657686528"/>
-        <c:axId val="657688064"/>
+        <c:axId val="632896896"/>
+        <c:axId val="632919168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="657686528"/>
+        <c:axId val="632896896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5021,14 +5102,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657688064"/>
+        <c:crossAx val="632919168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="657688064"/>
+        <c:axId val="632919168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5079,7 +5160,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657686528"/>
+        <c:crossAx val="632896896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5270,7 +5351,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5351,6 +5432,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>31804.999031915606</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37098.531402296496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5365,8 +5449,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="657841152"/>
-        <c:axId val="657839232"/>
+        <c:axId val="633326592"/>
+        <c:axId val="633324672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5391,7 +5475,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5472,6 +5556,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5481,7 +5568,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5562,6 +5649,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5578,11 +5668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="657774080"/>
-        <c:axId val="657776000"/>
+        <c:axId val="633312768"/>
+        <c:axId val="633314304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="657774080"/>
+        <c:axId val="633312768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5625,14 +5715,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657776000"/>
+        <c:crossAx val="633314304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="657776000"/>
+        <c:axId val="633314304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5683,12 +5773,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657774080"/>
+        <c:crossAx val="633312768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="657839232"/>
+        <c:axId val="633324672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5725,12 +5815,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657841152"/>
+        <c:crossAx val="633326592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="657841152"/>
+        <c:axId val="633326592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5739,7 +5829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="657839232"/>
+        <c:crossAx val="633324672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5918,7 +6008,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5999,6 +6089,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6008,7 +6101,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6089,6 +6182,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5704691.8825380336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6053122.5236031422</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6131,7 +6227,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6212,6 +6308,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6221,7 +6320,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6302,6 +6401,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>5394453.3269900708</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5523781.636790554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6344,7 +6446,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6425,6 +6527,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6434,7 +6539,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6515,6 +6620,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-310238.5555479629</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-529340.8868125882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6536,11 +6644,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="657877632"/>
-        <c:axId val="657883904"/>
+        <c:axId val="633388416"/>
+        <c:axId val="633398784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="657877632"/>
+        <c:axId val="633388416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6583,14 +6691,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657883904"/>
+        <c:crossAx val="633398784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="657883904"/>
+        <c:axId val="633398784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6641,7 +6749,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657877632"/>
+        <c:crossAx val="633388416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6832,7 +6940,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6913,6 +7021,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>7555256.9017697945</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8063914.7701674206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6927,8 +7038,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="660441344"/>
-        <c:axId val="660439808"/>
+        <c:axId val="633719808"/>
+        <c:axId val="633718272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6953,7 +7064,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7034,6 +7145,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,7 +7157,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7124,6 +7238,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.71399998664855957</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68500000238418579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7140,11 +7257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="660079360"/>
-        <c:axId val="660080896"/>
+        <c:axId val="633680640"/>
+        <c:axId val="633682560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="660079360"/>
+        <c:axId val="633680640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7187,14 +7304,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660080896"/>
+        <c:crossAx val="633682560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="660080896"/>
+        <c:axId val="633682560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7245,12 +7362,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660079360"/>
+        <c:crossAx val="633680640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="660439808"/>
+        <c:axId val="633718272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7287,12 +7404,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="660441344"/>
+        <c:crossAx val="633719808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="660441344"/>
+        <c:axId val="633719808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7301,7 +7418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="660439808"/>
+        <c:crossAx val="633718272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7480,7 +7597,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7561,6 +7678,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7570,7 +7690,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7651,6 +7771,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2072698.9955024889</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2209934.1522820932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7693,7 +7816,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7774,6 +7897,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7783,7 +7909,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7864,6 +7990,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1998412.713285876</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2054479.8892213283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7906,7 +8035,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7987,6 +8116,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7996,7 +8128,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8077,6 +8209,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-74286.282216612948</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-155454.26306076488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8098,11 +8233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492862080"/>
-        <c:axId val="492872064"/>
+        <c:axId val="635841920"/>
+        <c:axId val="559867008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492862080"/>
+        <c:axId val="635841920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8145,14 +8280,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492872064"/>
+        <c:crossAx val="559867008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492872064"/>
+        <c:axId val="559867008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8203,7 +8338,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492862080"/>
+        <c:crossAx val="635841920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8917,7 +9052,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10192,6 +10327,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="15">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="15">
+        <v>955150.73687998706</v>
+      </c>
+      <c r="H30" s="15">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="I30" s="15">
+        <v>733363.80791297404</v>
+      </c>
+      <c r="J30" s="15">
+        <v>654278.2570400479</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-79085.550872926135</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10208,7 +10381,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12046,6 +12219,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:21" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>44518.237682755796</v>
+      </c>
+      <c r="F30" s="15">
+        <v>64990.127777820817</v>
+      </c>
+      <c r="G30" s="15">
+        <v>988859.12568631815</v>
+      </c>
+      <c r="H30" s="15">
+        <v>677368.50345275179</v>
+      </c>
+      <c r="I30" s="15">
+        <v>756602.26557590941</v>
+      </c>
+      <c r="J30" s="15">
+        <v>677368.50345275179</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-79233.762123157619</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="23">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="N30" s="23">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="O30" s="23">
+        <v>0.69533334175745642</v>
+      </c>
+      <c r="P30" s="23">
+        <v>0.7400238055161068</v>
+      </c>
+      <c r="Q30" s="23">
+        <v>-4.4690463758650378E-2</v>
+      </c>
+      <c r="R30" s="23">
+        <v>2.3690478676841358E-2</v>
+      </c>
+      <c r="S30" s="9">
+        <v>3.5535718015262035E-4</v>
+      </c>
+      <c r="T30" s="9">
+        <v>-125.76209587057316</v>
+      </c>
+      <c r="U30" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12062,7 +12300,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13488,6 +13726,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>37098.531402296496</v>
+      </c>
+      <c r="F30" s="15">
+        <v>54158.439814850673</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1010897.3542822025</v>
+      </c>
+      <c r="H30" s="15">
+        <v>692464.69009347586</v>
+      </c>
+      <c r="I30" s="15">
+        <v>775340.83967540984</v>
+      </c>
+      <c r="J30" s="15">
+        <v>692464.69009347586</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-82876.149581933976</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13504,7 +13786,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14930,6 +15212,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F30" s="15">
+        <v>508657.86839762604</v>
+      </c>
+      <c r="G30" s="15">
+        <v>8063914.7701674206</v>
+      </c>
+      <c r="H30" s="15">
+        <v>5523781.636790554</v>
+      </c>
+      <c r="I30" s="15">
+        <v>6053122.5236031422</v>
+      </c>
+      <c r="J30" s="15">
+        <v>5523781.636790554</v>
+      </c>
+      <c r="K30" s="15">
+        <v>-529340.8868125882</v>
+      </c>
+      <c r="L30" s="14">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14946,7 +15272,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16542,6 +16868,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="30" spans="1:16" ht="12.75">
+      <c r="A30" s="12">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="13">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="14">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1644900</v>
+      </c>
+      <c r="F30" s="14">
+        <v>4176288.16796875</v>
+      </c>
+      <c r="G30" s="14">
+        <v>137235.15677960418</v>
+      </c>
+      <c r="H30" s="15">
+        <v>200343.29387145772</v>
+      </c>
+      <c r="I30" s="15">
+        <v>2999240.7037526732</v>
+      </c>
+      <c r="J30" s="15">
+        <v>2054479.8892213283</v>
+      </c>
+      <c r="K30" s="15">
+        <v>2209934.1522820932</v>
+      </c>
+      <c r="L30" s="15">
+        <v>2054479.8892213283</v>
+      </c>
+      <c r="M30" s="15">
+        <v>-155454.26306076488</v>
+      </c>
+      <c r="N30" s="14">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9">
+        <v>-38.600823638801678</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -601,7 +597,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -685,6 +681,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -694,7 +693,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -778,6 +777,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>733363.80791297404</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>771292.18841627764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,7 +822,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -904,6 +906,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -913,7 +918,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -997,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>654278.2570400479</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>671193.30721299967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,7 +1047,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1123,6 +1131,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,7 +1143,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1216,6 +1227,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-79085.550872926135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-100098.88120327797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,11 +1251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445582336"/>
-        <c:axId val="445584512"/>
+        <c:axId val="481552640"/>
+        <c:axId val="485393152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445582336"/>
+        <c:axId val="481552640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,14 +1298,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445584512"/>
+        <c:crossAx val="485393152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="445584512"/>
+        <c:axId val="485393152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,7 +1356,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445582336"/>
+        <c:crossAx val="481552640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,7 +1547,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1617,6 +1631,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>137235.15677960418</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>287737.60169032536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,8 +1648,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="560099328"/>
-        <c:axId val="560093440"/>
+        <c:axId val="481646848"/>
+        <c:axId val="481645312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1657,7 +1674,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1741,6 +1758,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,7 +1770,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1834,6 +1854,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1850,11 +1873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560077824"/>
-        <c:axId val="560091904"/>
+        <c:axId val="481641984"/>
+        <c:axId val="481643520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560077824"/>
+        <c:axId val="481641984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1897,14 +1920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560091904"/>
+        <c:crossAx val="481643520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560091904"/>
+        <c:axId val="481643520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +1978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560077824"/>
+        <c:crossAx val="481641984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560093440"/>
+        <c:axId val="481645312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,12 +2020,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560099328"/>
+        <c:crossAx val="481646848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="560099328"/>
+        <c:axId val="481646848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="560093440"/>
+        <c:crossAx val="481645312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2173,7 +2196,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2257,6 +2280,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2271,8 +2297,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="560693632"/>
-        <c:axId val="560691840"/>
+        <c:axId val="588820480"/>
+        <c:axId val="588798208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2297,7 +2323,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2381,6 +2407,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2390,7 +2419,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2474,6 +2503,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2490,11 +2522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529151104"/>
-        <c:axId val="560690304"/>
+        <c:axId val="518816128"/>
+        <c:axId val="574585856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529151104"/>
+        <c:axId val="518816128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,14 +2569,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560690304"/>
+        <c:crossAx val="574585856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560690304"/>
+        <c:axId val="574585856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2595,12 +2627,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529151104"/>
+        <c:crossAx val="518816128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="560691840"/>
+        <c:axId val="588798208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,12 +2669,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560693632"/>
+        <c:crossAx val="588820480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="560693632"/>
+        <c:axId val="588820480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="560691840"/>
+        <c:crossAx val="588798208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2830,7 +2862,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2914,6 +2946,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2923,7 +2958,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3007,6 +3042,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>756602.26557590941</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>802116.32217987371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3049,7 +3087,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3133,6 +3171,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,7 +3183,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3226,6 +3267,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>677368.50345275179</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>701127.64467434923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,7 +3312,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3352,6 +3396,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,7 +3408,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3445,6 +3492,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-79233.762123157619</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-100988.67750552448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,11 +3516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562468736"/>
-        <c:axId val="562769920"/>
+        <c:axId val="589746944"/>
+        <c:axId val="589748480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562468736"/>
+        <c:axId val="589746944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3513,14 +3563,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562769920"/>
+        <c:crossAx val="589748480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562769920"/>
+        <c:axId val="589748480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,7 +3621,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562468736"/>
+        <c:crossAx val="589746944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3762,7 +3812,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3846,6 +3896,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44518.237682755796</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45514.056603964338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3860,8 +3913,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="632826496"/>
-        <c:axId val="632824576"/>
+        <c:axId val="640045056"/>
+        <c:axId val="639935616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3886,7 +3939,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3970,6 +4023,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,7 +4035,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4063,6 +4119,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,11 +4138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619573248"/>
-        <c:axId val="619575168"/>
+        <c:axId val="592149888"/>
+        <c:axId val="639818368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619573248"/>
+        <c:axId val="592149888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4126,14 +4185,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619575168"/>
+        <c:crossAx val="639818368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619575168"/>
+        <c:axId val="639818368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,12 +4243,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619573248"/>
+        <c:crossAx val="592149888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632824576"/>
+        <c:axId val="639935616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4226,12 +4285,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632826496"/>
+        <c:crossAx val="640045056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="632826496"/>
+        <c:axId val="640045056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,7 +4299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632824576"/>
+        <c:crossAx val="639935616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4419,7 +4478,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4503,6 +4562,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4512,7 +4574,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4596,6 +4658,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>775340.83967540984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>813269.22017871344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4638,7 +4703,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4722,6 +4787,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4731,7 +4799,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4815,6 +4883,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>692464.69009347586</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>708153.31385953503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4857,7 +4928,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4941,6 +5012,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4950,7 +5024,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5034,6 +5108,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-82876.149581933976</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-105115.90631917841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5055,11 +5132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632896896"/>
-        <c:axId val="632919168"/>
+        <c:axId val="640203392"/>
+        <c:axId val="640418944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="632896896"/>
+        <c:axId val="640203392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,14 +5179,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632919168"/>
+        <c:crossAx val="640418944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="632919168"/>
+        <c:axId val="640418944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5160,7 +5237,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632896896"/>
+        <c:crossAx val="640203392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5351,7 +5428,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5435,6 +5512,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>37098.531402296496</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37928.380503303619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5449,8 +5529,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="633326592"/>
-        <c:axId val="633324672"/>
+        <c:axId val="657941632"/>
+        <c:axId val="641809408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5475,7 +5555,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5559,6 +5639,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5568,7 +5651,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5652,6 +5735,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5668,11 +5754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="633312768"/>
-        <c:axId val="633314304"/>
+        <c:axId val="641768832"/>
+        <c:axId val="641807488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="633312768"/>
+        <c:axId val="641768832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5715,14 +5801,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633314304"/>
+        <c:crossAx val="641807488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="633314304"/>
+        <c:axId val="641807488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,12 +5859,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633312768"/>
+        <c:crossAx val="641768832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="633324672"/>
+        <c:axId val="641809408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5815,12 +5901,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633326592"/>
+        <c:crossAx val="657941632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="633326592"/>
+        <c:axId val="657941632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5829,7 +5915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="633324672"/>
+        <c:crossAx val="641809408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6008,7 +6094,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6092,6 +6178,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6101,7 +6190,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6185,6 +6274,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6053122.5236031422</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6417315.4470470361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6227,7 +6319,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6311,6 +6403,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6320,7 +6415,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6404,6 +6499,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5523781.636790554</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5710568.3160903649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6446,7 +6544,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6530,6 +6628,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6539,7 +6640,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6623,6 +6724,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-529340.8868125882</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-706747.1309566712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6644,11 +6748,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="633388416"/>
-        <c:axId val="633398784"/>
+        <c:axId val="661625088"/>
+        <c:axId val="661857024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="633388416"/>
+        <c:axId val="661625088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6691,14 +6795,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633398784"/>
+        <c:crossAx val="661857024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="633398784"/>
+        <c:axId val="661857024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6749,7 +6853,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633388416"/>
+        <c:crossAx val="661625088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6940,7 +7044,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7024,6 +7128,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>8063914.7701674206</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8613225.3738689572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7038,8 +7145,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="633719808"/>
-        <c:axId val="633718272"/>
+        <c:axId val="670484352"/>
+        <c:axId val="670362624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7064,7 +7171,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7148,6 +7255,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7157,7 +7267,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7241,6 +7351,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.68500000238418579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66299998760223389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7257,11 +7370,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="633680640"/>
-        <c:axId val="633682560"/>
+        <c:axId val="670359552"/>
+        <c:axId val="670361088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="633680640"/>
+        <c:axId val="670359552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7304,14 +7417,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633682560"/>
+        <c:crossAx val="670361088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="633682560"/>
+        <c:axId val="670361088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7362,12 +7475,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633680640"/>
+        <c:crossAx val="670359552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="633718272"/>
+        <c:axId val="670362624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7404,12 +7517,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633719808"/>
+        <c:crossAx val="670484352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="633719808"/>
+        <c:axId val="670484352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7418,7 +7531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="633718272"/>
+        <c:crossAx val="670362624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7597,7 +7710,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7681,6 +7794,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7690,7 +7806,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7774,6 +7890,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2209934.1522820932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2497671.7539724186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7816,7 +7935,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7900,6 +8019,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7909,7 +8031,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7993,6 +8115,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2054479.8892213283</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2276234.1510944632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8035,7 +8160,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8119,6 +8244,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8128,7 +8256,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8212,6 +8340,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-155454.26306076488</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-221437.60287795542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8233,11 +8364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635841920"/>
-        <c:axId val="559867008"/>
+        <c:axId val="481597312"/>
+        <c:axId val="481598848"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635841920"/>
+        <c:axId val="481597312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8280,14 +8411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559867008"/>
+        <c:crossAx val="481598848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559867008"/>
+        <c:axId val="481598848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8338,7 +8469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635841920"/>
+        <c:crossAx val="481597312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9052,7 +9183,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10365,6 +10496,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:13" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="15">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1012357.9483619558</v>
+      </c>
+      <c r="H31" s="15">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="I31" s="15">
+        <v>771292.18841627764</v>
+      </c>
+      <c r="J31" s="15">
+        <v>671193.30721299967</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-100098.88120327797</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10381,7 +10550,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10422,7 +10591,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -10458,10 +10627,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -10482,7 +10651,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -12281,6 +12450,71 @@
         <v>-125.76209587057316</v>
       </c>
       <c r="U30" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>45514.056603964338</v>
+      </c>
+      <c r="F31" s="15">
+        <v>68648.653778362437</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1057507.7794646807</v>
+      </c>
+      <c r="H31" s="15">
+        <v>701127.64467434923</v>
+      </c>
+      <c r="I31" s="15">
+        <v>802116.32217987371</v>
+      </c>
+      <c r="J31" s="15">
+        <v>701127.64467434923</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-100988.67750552448</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="N31" s="23">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O31" s="23">
+        <v>0.66433332363764441</v>
+      </c>
+      <c r="P31" s="23">
+        <v>0.73140475675037919</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>-6.707143311273478E-2</v>
+      </c>
+      <c r="R31" s="23">
+        <v>2.4653063212933164E-2</v>
+      </c>
+      <c r="S31" s="9">
+        <v>3.6979594819399746E-4</v>
+      </c>
+      <c r="T31" s="9">
+        <v>-181.37416983689786</v>
+      </c>
+      <c r="U31" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -12300,7 +12534,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12380,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -13767,6 +14001,50 @@
         <v>-38.600823638801678</v>
       </c>
       <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>37928.380503303619</v>
+      </c>
+      <c r="F31" s="15">
+        <v>57207.211481968698</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1068104.5657641713</v>
+      </c>
+      <c r="H31" s="15">
+        <v>708153.31385953503</v>
+      </c>
+      <c r="I31" s="15">
+        <v>813269.22017871344</v>
+      </c>
+      <c r="J31" s="15">
+        <v>708153.31385953503</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-105115.90631917841</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="N31" s="9">
         <v>1</v>
       </c>
     </row>
@@ -13786,7 +14064,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13866,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -15253,6 +15531,50 @@
         <v>-38.600823638801678</v>
       </c>
       <c r="N30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F31" s="15">
+        <v>549310.60370153643</v>
+      </c>
+      <c r="G31" s="15">
+        <v>8613225.3738689572</v>
+      </c>
+      <c r="H31" s="15">
+        <v>5710568.3160903649</v>
+      </c>
+      <c r="I31" s="15">
+        <v>6417315.4470470361</v>
+      </c>
+      <c r="J31" s="15">
+        <v>5710568.3160903649</v>
+      </c>
+      <c r="K31" s="15">
+        <v>-706747.1309566712</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="N31" s="9">
         <v>1</v>
       </c>
     </row>
@@ -15272,7 +15594,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15325,10 +15647,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -15358,7 +15680,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -16915,6 +17237,56 @@
         <v>-38.600823638801678</v>
       </c>
       <c r="P30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75">
+      <c r="A31" s="12">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="13">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="13">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D31" s="14">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E31" s="14">
+        <v>3279702</v>
+      </c>
+      <c r="F31" s="14">
+        <v>4151158.042563708</v>
+      </c>
+      <c r="G31" s="14">
+        <v>287737.60169032536</v>
+      </c>
+      <c r="H31" s="15">
+        <v>433993.37416421372</v>
+      </c>
+      <c r="I31" s="15">
+        <v>3433234.0779168871</v>
+      </c>
+      <c r="J31" s="15">
+        <v>2276234.1510944632</v>
+      </c>
+      <c r="K31" s="15">
+        <v>2497671.7539724186</v>
+      </c>
+      <c r="L31" s="15">
+        <v>2276234.1510944632</v>
+      </c>
+      <c r="M31" s="15">
+        <v>-221437.60287795542</v>
+      </c>
+      <c r="N31" s="14">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>11.750560187063723</v>
+      </c>
+      <c r="P31" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>年化收益率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -597,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -684,6 +688,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -693,7 +703,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -780,6 +790,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>771292.18841627764</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>811194.36685398582</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>850637.83985309303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +838,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -909,6 +925,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +940,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1005,6 +1027,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>671193.30721299967</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>698947.22599237598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>731948.744248776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1075,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1134,6 +1162,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,7 +1177,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1230,6 +1264,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-100098.88120327797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-112247.14086160983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-118689.09560431703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1251,11 +1291,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481552640"/>
-        <c:axId val="485393152"/>
+        <c:axId val="442608256"/>
+        <c:axId val="526107008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481552640"/>
+        <c:axId val="442608256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,14 +1338,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485393152"/>
+        <c:crossAx val="526107008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="485393152"/>
+        <c:axId val="526107008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,7 +1396,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481552640"/>
+        <c:crossAx val="442608256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1547,7 +1587,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1634,6 +1674,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>287737.60169032536</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>403585.44091227214</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>534222.45249187434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,8 +1694,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="481646848"/>
-        <c:axId val="481645312"/>
+        <c:axId val="649798016"/>
+        <c:axId val="649602944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1674,7 +1720,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1761,6 +1807,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,7 +1822,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1857,6 +1909,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,11 +1931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481641984"/>
-        <c:axId val="481643520"/>
+        <c:axId val="649488256"/>
+        <c:axId val="649601024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481641984"/>
+        <c:axId val="649488256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,14 +1978,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481643520"/>
+        <c:crossAx val="649601024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481643520"/>
+        <c:axId val="649601024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,12 +2036,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481641984"/>
+        <c:crossAx val="649488256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="481645312"/>
+        <c:axId val="649602944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,12 +2078,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481646848"/>
+        <c:crossAx val="649798016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="481646848"/>
+        <c:axId val="649798016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481645312"/>
+        <c:crossAx val="649602944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2254,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2283,6 +2341,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39902.178437708179</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,8 +2361,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="588820480"/>
-        <c:axId val="588798208"/>
+        <c:axId val="561915392"/>
+        <c:axId val="561907968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2323,7 +2387,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2410,6 +2474,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2489,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2506,6 +2576,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,11 +2598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518816128"/>
-        <c:axId val="574585856"/>
+        <c:axId val="561900160"/>
+        <c:axId val="561906432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518816128"/>
+        <c:axId val="561900160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,14 +2645,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574585856"/>
+        <c:crossAx val="561906432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574585856"/>
+        <c:axId val="561906432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,12 +2703,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518816128"/>
+        <c:crossAx val="561900160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588798208"/>
+        <c:axId val="561907968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,12 +2745,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588820480"/>
+        <c:crossAx val="561915392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="588820480"/>
+        <c:axId val="561915392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588798208"/>
+        <c:crossAx val="561907968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2938,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2949,6 +3025,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,7 +3040,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3045,6 +3127,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>802116.32217987371</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>849998.9363051235</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>897331.10390405206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3087,7 +3175,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3174,6 +3262,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3183,7 +3277,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3270,6 +3364,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>701127.64467434923</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>736320.2027611892</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>776865.96182177088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3312,7 +3412,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3399,6 +3499,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3408,7 +3514,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3495,6 +3601,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-100988.67750552448</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-113678.7335439343</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-120465.14208228118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3516,11 +3628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="589746944"/>
-        <c:axId val="589748480"/>
+        <c:axId val="561944448"/>
+        <c:axId val="562896896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="589746944"/>
+        <c:axId val="561944448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3563,14 +3675,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589748480"/>
+        <c:crossAx val="562896896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="589748480"/>
+        <c:axId val="562896896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +3733,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589746944"/>
+        <c:crossAx val="561944448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3812,7 +3924,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3899,6 +4011,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45514.056603964338</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47882.614125249813</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>47332.167598928594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3913,8 +4031,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="640045056"/>
-        <c:axId val="639935616"/>
+        <c:axId val="562984448"/>
+        <c:axId val="562982912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3939,7 +4057,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4026,6 +4144,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4035,7 +4159,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4122,6 +4246,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,11 +4268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592149888"/>
-        <c:axId val="639818368"/>
+        <c:axId val="562966912"/>
+        <c:axId val="562968448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592149888"/>
+        <c:axId val="562966912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4185,14 +4315,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639818368"/>
+        <c:crossAx val="562968448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="639818368"/>
+        <c:axId val="562968448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,12 +4373,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592149888"/>
+        <c:crossAx val="562966912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="639935616"/>
+        <c:axId val="562982912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4285,12 +4415,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640045056"/>
+        <c:crossAx val="562984448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="640045056"/>
+        <c:axId val="562984448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4299,7 +4429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639935616"/>
+        <c:crossAx val="562982912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4478,7 +4608,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4565,6 +4695,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4574,7 +4710,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4661,6 +4797,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>813269.22017871344</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>861151.83430396323</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>900595.30730307044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,7 +4845,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4790,6 +4932,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4799,7 +4947,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4886,6 +5034,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>708153.31385953503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>743218.71088469878</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>775812.19418300316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4928,7 +5082,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5015,6 +5169,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5024,7 +5184,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5111,6 +5271,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-105115.90631917841</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-117933.12341926445</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-124783.11312006728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5132,11 +5298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="640203392"/>
-        <c:axId val="640418944"/>
+        <c:axId val="626731264"/>
+        <c:axId val="626735744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640203392"/>
+        <c:axId val="626731264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5179,14 +5345,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640418944"/>
+        <c:crossAx val="626735744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="640418944"/>
+        <c:axId val="626735744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5237,7 +5403,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640203392"/>
+        <c:crossAx val="626731264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5428,7 +5594,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5515,6 +5681,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>37928.380503303619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>47882.614125249813</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39443.472999107165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5529,8 +5701,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="657941632"/>
-        <c:axId val="641809408"/>
+        <c:axId val="626783744"/>
+        <c:axId val="626777472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5555,7 +5727,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5642,6 +5814,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5651,7 +5829,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5738,6 +5916,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5754,11 +5938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="641768832"/>
-        <c:axId val="641807488"/>
+        <c:axId val="626774400"/>
+        <c:axId val="626775936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="641768832"/>
+        <c:axId val="626774400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5801,14 +5985,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641807488"/>
+        <c:crossAx val="626775936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="641807488"/>
+        <c:axId val="626775936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,12 +6043,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641768832"/>
+        <c:crossAx val="626774400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="641809408"/>
+        <c:axId val="626777472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5901,12 +6085,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="657941632"/>
+        <c:crossAx val="626783744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="657941632"/>
+        <c:axId val="626783744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,7 +6099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="641809408"/>
+        <c:crossAx val="626777472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6094,7 +6278,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6181,6 +6365,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6190,7 +6380,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6277,6 +6467,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>6417315.4470470361</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6901016.868031756</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7294887.1369510712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6319,7 +6515,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6406,6 +6602,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6415,7 +6617,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6502,6 +6704,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5710568.3160903649</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6090911.3365144944</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6428643.7831311915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6544,7 +6752,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6631,6 +6839,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6640,7 +6854,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6727,6 +6941,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-706747.1309566712</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-810105.53151726164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-866243.3538198797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6748,11 +6968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="661625088"/>
-        <c:axId val="661857024"/>
+        <c:axId val="626917376"/>
+        <c:axId val="626920064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="661625088"/>
+        <c:axId val="626917376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6795,14 +7015,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661857024"/>
+        <c:crossAx val="626920064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="661857024"/>
+        <c:axId val="626920064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6853,7 +7073,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661625088"/>
+        <c:crossAx val="626917376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7044,7 +7264,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7131,6 +7351,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>8613225.3738689572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9356238.2832061369</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9966889.8809837662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7145,8 +7371,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="670484352"/>
-        <c:axId val="670362624"/>
+        <c:axId val="627032448"/>
+        <c:axId val="627025408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7171,7 +7397,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7258,6 +7484,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7267,7 +7499,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7354,6 +7586,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.66299998760223389</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65100002288818359</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64499998092651367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7370,11 +7608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="670359552"/>
-        <c:axId val="670361088"/>
+        <c:axId val="627009792"/>
+        <c:axId val="627023872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="670359552"/>
+        <c:axId val="627009792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7417,14 +7655,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670361088"/>
+        <c:crossAx val="627023872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="670361088"/>
+        <c:axId val="627023872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7475,12 +7713,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670359552"/>
+        <c:crossAx val="627009792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="670362624"/>
+        <c:axId val="627025408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7517,12 +7755,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="670484352"/>
+        <c:crossAx val="627032448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="670484352"/>
+        <c:axId val="627032448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7531,7 +7769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670362624"/>
+        <c:crossAx val="627025408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7710,7 +7948,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7797,6 +8035,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7806,7 +8050,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7893,6 +8137,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2497671.7539724186</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2901257.1948846909</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3435479.6473765653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7935,7 +8185,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8022,6 +8272,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8031,7 +8287,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8118,6 +8374,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>2276234.1510944632</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2638620.9042166574</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3148524.1008105045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8160,7 +8422,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8247,6 +8509,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8256,7 +8524,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8343,6 +8611,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-221437.60287795542</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-262636.29066803353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-286955.54656606074</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8364,11 +8638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481597312"/>
-        <c:axId val="481598848"/>
+        <c:axId val="649392128"/>
+        <c:axId val="649394048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="481597312"/>
+        <c:axId val="649392128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8411,14 +8685,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481598848"/>
+        <c:crossAx val="649394048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="481598848"/>
+        <c:axId val="649394048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8469,7 +8743,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481597312"/>
+        <c:crossAx val="649392128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9183,7 +9457,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10534,6 +10808,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>39902.178437708179</v>
+      </c>
+      <c r="F32" s="15">
+        <v>61293.666720134381</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1073651.6150820903</v>
+      </c>
+      <c r="H32" s="15">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="I32" s="15">
+        <v>811194.36685398582</v>
+      </c>
+      <c r="J32" s="15">
+        <v>698947.22599237598</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-112247.14086160983</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="15">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1134804.2882068993</v>
+      </c>
+      <c r="H33" s="15">
+        <v>731948.744248776</v>
+      </c>
+      <c r="I33" s="15">
+        <v>850637.83985309303</v>
+      </c>
+      <c r="J33" s="15">
+        <v>731948.744248776</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-118689.09560431703</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10550,7 +10900,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10591,7 +10941,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -10627,10 +10977,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -10651,7 +11001,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -12515,6 +12865,136 @@
         <v>-181.37416983689786</v>
       </c>
       <c r="U31" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>47882.614125249813</v>
+      </c>
+      <c r="F32" s="15">
+        <v>73552.400064161251</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1131060.179528842</v>
+      </c>
+      <c r="H32" s="15">
+        <v>736320.2027611892</v>
+      </c>
+      <c r="I32" s="15">
+        <v>849998.9363051235</v>
+      </c>
+      <c r="J32" s="15">
+        <v>736320.2027611892</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-113678.7335439343</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="N32" s="23">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="O32" s="23">
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="P32" s="23">
+        <v>0.72697618699073774</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>-6.6976180632908999E-2</v>
+      </c>
+      <c r="R32" s="23">
+        <v>2.8551020190829352E-2</v>
+      </c>
+      <c r="S32" s="9">
+        <v>4.2826530286244025E-4</v>
+      </c>
+      <c r="T32" s="9">
+        <v>-156.38946275884015</v>
+      </c>
+      <c r="U32" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>47332.167598928594</v>
+      </c>
+      <c r="F33" s="15">
+        <v>73383.207749770852</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1204443.3872786129</v>
+      </c>
+      <c r="H33" s="15">
+        <v>776865.96182177088</v>
+      </c>
+      <c r="I33" s="15">
+        <v>897331.10390405206</v>
+      </c>
+      <c r="J33" s="15">
+        <v>776865.96182177088</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-120465.14208228118</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="23">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="N33" s="23">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="O33" s="23">
+        <v>0.63599999745686853</v>
+      </c>
+      <c r="P33" s="23">
+        <v>0.72223809314909437</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>-8.6238095692225847E-2</v>
+      </c>
+      <c r="R33" s="23">
+        <v>3.4170063855696688E-2</v>
+      </c>
+      <c r="S33" s="9">
+        <v>5.1255095783545035E-4</v>
+      </c>
+      <c r="T33" s="9">
+        <v>-168.25272565369349</v>
+      </c>
+      <c r="U33" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -12534,7 +13014,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12575,7 +13055,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12614,7 +13094,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -14045,6 +14525,94 @@
         <v>11.750560187063723</v>
       </c>
       <c r="N31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>47882.614125249813</v>
+      </c>
+      <c r="F32" s="15">
+        <v>73552.400064161251</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1141656.9658283326</v>
+      </c>
+      <c r="H32" s="15">
+        <v>743218.71088469878</v>
+      </c>
+      <c r="I32" s="15">
+        <v>861151.83430396323</v>
+      </c>
+      <c r="J32" s="15">
+        <v>743218.71088469878</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-117933.12341926445</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>39443.472999107165</v>
+      </c>
+      <c r="F33" s="15">
+        <v>61152.673124809051</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1202809.6389531416</v>
+      </c>
+      <c r="H33" s="15">
+        <v>775812.19418300316</v>
+      </c>
+      <c r="I33" s="15">
+        <v>900595.30730307044</v>
+      </c>
+      <c r="J33" s="15">
+        <v>775812.19418300316</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-124783.11312006728</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="N33" s="9">
         <v>1</v>
       </c>
     </row>
@@ -14064,7 +14632,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14144,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -15575,6 +16143,94 @@
         <v>11.750560187063723</v>
       </c>
       <c r="N31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>483701.42098472</v>
+      </c>
+      <c r="F32" s="15">
+        <v>743012.90933717985</v>
+      </c>
+      <c r="G32" s="15">
+        <v>9356238.2832061369</v>
+      </c>
+      <c r="H32" s="15">
+        <v>6090911.3365144944</v>
+      </c>
+      <c r="I32" s="15">
+        <v>6901016.868031756</v>
+      </c>
+      <c r="J32" s="15">
+        <v>6090911.3365144944</v>
+      </c>
+      <c r="K32" s="15">
+        <v>-810105.53151726164</v>
+      </c>
+      <c r="L32" s="14">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F33" s="15">
+        <v>610651.59777762846</v>
+      </c>
+      <c r="G33" s="15">
+        <v>9966889.8809837662</v>
+      </c>
+      <c r="H33" s="15">
+        <v>6428643.7831311915</v>
+      </c>
+      <c r="I33" s="15">
+        <v>7294887.1369510712</v>
+      </c>
+      <c r="J33" s="15">
+        <v>6428643.7831311915</v>
+      </c>
+      <c r="K33" s="15">
+        <v>-866243.3538198797</v>
+      </c>
+      <c r="L33" s="14">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="N33" s="9">
         <v>1</v>
       </c>
     </row>
@@ -15594,7 +16250,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15647,10 +16303,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -15680,7 +16336,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -17287,6 +17943,106 @@
         <v>11.750560187063723</v>
       </c>
       <c r="P31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12.75">
+      <c r="A32" s="12">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="13">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="13">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="14">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E32" s="14">
+        <v>3444800</v>
+      </c>
+      <c r="F32" s="14">
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="G32" s="14">
+        <v>403585.44091227214</v>
+      </c>
+      <c r="H32" s="15">
+        <v>619946.89204733307</v>
+      </c>
+      <c r="I32" s="15">
+        <v>4053180.9699642202</v>
+      </c>
+      <c r="J32" s="15">
+        <v>2638620.9042166574</v>
+      </c>
+      <c r="K32" s="15">
+        <v>2901257.1948846909</v>
+      </c>
+      <c r="L32" s="15">
+        <v>2638620.9042166574</v>
+      </c>
+      <c r="M32" s="15">
+        <v>-262636.29066803353</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>-113.41457128255375</v>
+      </c>
+      <c r="P32" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="12.75">
+      <c r="A33" s="12">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="13">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="14">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E33" s="14">
+        <v>5609700</v>
+      </c>
+      <c r="F33" s="14">
+        <v>4135906.376174428</v>
+      </c>
+      <c r="G33" s="14">
+        <v>534222.45249187434</v>
+      </c>
+      <c r="H33" s="15">
+        <v>828251.88882096962</v>
+      </c>
+      <c r="I33" s="15">
+        <v>4881432.8587851897</v>
+      </c>
+      <c r="J33" s="15">
+        <v>3148524.1008105045</v>
+      </c>
+      <c r="K33" s="15">
+        <v>3435479.6473765653</v>
+      </c>
+      <c r="L33" s="15">
+        <v>3148524.1008105045</v>
+      </c>
+      <c r="M33" s="15">
+        <v>-286955.54656606074</v>
+      </c>
+      <c r="N33" s="14">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <v>134.00503901876459</v>
+      </c>
+      <c r="P33" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -157,10 +157,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,6 +167,10 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -601,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -694,6 +694,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +706,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -796,6 +799,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>850637.83985309303</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>897866.50568122428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,7 +844,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -931,6 +937,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +949,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1033,6 +1042,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>731948.744248776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>683853.85960763111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,7 +1087,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1168,6 +1180,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,7 +1192,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1270,6 +1285,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-118689.09560431703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-214012.64607359318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,11 +1309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442608256"/>
-        <c:axId val="526107008"/>
+        <c:axId val="421789696"/>
+        <c:axId val="421791616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442608256"/>
+        <c:axId val="421789696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,14 +1356,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526107008"/>
+        <c:crossAx val="421791616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526107008"/>
+        <c:axId val="421791616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1414,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442608256"/>
+        <c:crossAx val="421789696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1587,7 +1605,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1680,6 +1698,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>534222.45249187434</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1739102.5544275802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,8 +1715,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="649798016"/>
-        <c:axId val="649602944"/>
+        <c:axId val="565782400"/>
+        <c:axId val="565780864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1720,7 +1741,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1813,6 +1834,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,7 +1846,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1915,6 +1939,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,11 +1958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="649488256"/>
-        <c:axId val="649601024"/>
+        <c:axId val="556941696"/>
+        <c:axId val="556943232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="649488256"/>
+        <c:axId val="556941696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,14 +2005,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649601024"/>
+        <c:crossAx val="556943232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="649601024"/>
+        <c:axId val="556943232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,12 +2063,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649488256"/>
+        <c:crossAx val="556941696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="649602944"/>
+        <c:axId val="565780864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,12 +2105,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649798016"/>
+        <c:crossAx val="565782400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="649798016"/>
+        <c:axId val="565782400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,7 +2119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="649602944"/>
+        <c:crossAx val="565780864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2254,7 +2281,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2347,6 +2374,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47228.665828131299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,8 +2391,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561915392"/>
-        <c:axId val="561907968"/>
+        <c:axId val="492697472"/>
+        <c:axId val="492694144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2387,7 +2417,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2480,6 +2510,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2489,7 +2522,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2582,6 +2615,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2598,11 +2634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561900160"/>
-        <c:axId val="561906432"/>
+        <c:axId val="458658944"/>
+        <c:axId val="492692608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561900160"/>
+        <c:axId val="458658944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,14 +2681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561906432"/>
+        <c:crossAx val="492692608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561906432"/>
+        <c:axId val="492692608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,12 +2739,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561900160"/>
+        <c:crossAx val="458658944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561907968"/>
+        <c:axId val="492694144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,12 +2781,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561915392"/>
+        <c:crossAx val="492697472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="561915392"/>
+        <c:axId val="492697472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,7 +2795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561907968"/>
+        <c:crossAx val="492694144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2938,7 +2974,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3031,6 +3067,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3040,7 +3079,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3133,6 +3172,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>897331.10390405206</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>954005.50289780961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,7 +3217,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3268,6 +3310,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3277,7 +3322,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3370,6 +3415,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>776865.96182177088</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>732367.12662194541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3412,7 +3460,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3505,6 +3553,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,7 +3565,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3607,6 +3658,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-120465.14208228118</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-221638.3762758642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3628,11 +3682,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561944448"/>
-        <c:axId val="562896896"/>
+        <c:axId val="530825216"/>
+        <c:axId val="530827904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561944448"/>
+        <c:axId val="530825216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3675,14 +3729,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562896896"/>
+        <c:crossAx val="530827904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562896896"/>
+        <c:axId val="530827904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3733,7 +3787,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561944448"/>
+        <c:crossAx val="530825216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3924,7 +3978,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4017,6 +4071,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>47332.167598928594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56674.398993757561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,8 +4088,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="562984448"/>
-        <c:axId val="562982912"/>
+        <c:axId val="537697664"/>
+        <c:axId val="537536000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4057,7 +4114,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4150,6 +4207,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4159,7 +4219,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4252,6 +4312,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,11 +4331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562966912"/>
-        <c:axId val="562968448"/>
+        <c:axId val="537053056"/>
+        <c:axId val="537346816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562966912"/>
+        <c:axId val="537053056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4315,14 +4378,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562968448"/>
+        <c:crossAx val="537346816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562968448"/>
+        <c:axId val="537346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,12 +4436,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562966912"/>
+        <c:crossAx val="537053056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="562982912"/>
+        <c:axId val="537536000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,12 +4478,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562984448"/>
+        <c:crossAx val="537697664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="562984448"/>
+        <c:axId val="537697664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,7 +4492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="562982912"/>
+        <c:crossAx val="537536000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4608,7 +4671,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4701,6 +4764,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,7 +4776,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4803,6 +4869,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>900595.30730307044</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>957269.70629682799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4845,7 +4914,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4938,6 +5007,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4947,7 +5019,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5040,6 +5112,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>775812.19418300316</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>731450.59382849478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5082,7 +5157,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5175,6 +5250,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5184,7 +5262,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5277,6 +5355,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-124783.11312006728</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-225819.11246833322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5298,11 +5379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626731264"/>
-        <c:axId val="626735744"/>
+        <c:axId val="538912640"/>
+        <c:axId val="538939392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626731264"/>
+        <c:axId val="538912640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5345,14 +5426,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626735744"/>
+        <c:crossAx val="538939392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626735744"/>
+        <c:axId val="538939392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5403,7 +5484,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626731264"/>
+        <c:crossAx val="538912640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5594,7 +5675,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5687,6 +5768,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>39443.472999107165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56674.398993757561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5701,8 +5785,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="626783744"/>
-        <c:axId val="626777472"/>
+        <c:axId val="539629056"/>
+        <c:axId val="539347200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5727,7 +5811,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5820,6 +5904,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5829,7 +5916,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5922,6 +6009,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5938,11 +6028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626774400"/>
-        <c:axId val="626775936"/>
+        <c:axId val="539325952"/>
+        <c:axId val="539344896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626774400"/>
+        <c:axId val="539325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5985,14 +6075,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626775936"/>
+        <c:crossAx val="539344896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626775936"/>
+        <c:axId val="539344896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6043,12 +6133,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626774400"/>
+        <c:crossAx val="539325952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="626777472"/>
+        <c:axId val="539347200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6085,12 +6175,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626783744"/>
+        <c:crossAx val="539629056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="626783744"/>
+        <c:axId val="539629056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6099,7 +6189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="626777472"/>
+        <c:crossAx val="539347200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6278,7 +6368,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6371,6 +6461,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6380,7 +6473,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6473,6 +6566,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>7294887.1369510712</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7972521.6308969846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6515,7 +6611,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6608,6 +6704,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6617,7 +6716,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6710,6 +6809,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6428643.7831311915</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6269059.6126209693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6752,7 +6854,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6845,6 +6947,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6854,7 +6959,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6947,6 +7052,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-866243.3538198797</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1703462.0182760153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6968,11 +7076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626917376"/>
-        <c:axId val="626920064"/>
+        <c:axId val="553405056"/>
+        <c:axId val="553410944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626917376"/>
+        <c:axId val="553405056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7015,14 +7123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626920064"/>
+        <c:crossAx val="553410944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626920064"/>
+        <c:axId val="553410944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7073,7 +7181,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626917376"/>
+        <c:crossAx val="553405056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7264,7 +7372,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7357,6 +7465,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>9966889.8809837662</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11174794.52736048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7371,8 +7482,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="627032448"/>
-        <c:axId val="627025408"/>
+        <c:axId val="553598336"/>
+        <c:axId val="553596800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7397,7 +7508,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7490,6 +7601,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7499,7 +7613,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7592,6 +7706,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.64499998092651367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.56099998950958252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,11 +7725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627009792"/>
-        <c:axId val="627023872"/>
+        <c:axId val="553592320"/>
+        <c:axId val="553594240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="627009792"/>
+        <c:axId val="553592320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7655,14 +7772,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627023872"/>
+        <c:crossAx val="553594240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="627023872"/>
+        <c:axId val="553594240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7713,12 +7830,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627009792"/>
+        <c:crossAx val="553592320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627025408"/>
+        <c:axId val="553596800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7755,12 +7872,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627032448"/>
+        <c:crossAx val="553598336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="627032448"/>
+        <c:axId val="553598336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7769,7 +7886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="627025408"/>
+        <c:crossAx val="553596800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7948,7 +8065,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8041,6 +8158,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8050,7 +8170,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8143,6 +8263,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3435479.6473765653</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5174582.2018041452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8185,7 +8308,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8278,6 +8401,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8287,7 +8413,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8380,6 +8506,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3148524.1008105045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4477586.3369978033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8422,7 +8551,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8515,6 +8644,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8524,7 +8656,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8617,6 +8749,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-286955.54656606074</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-696995.86480634194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8638,11 +8773,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="649392128"/>
-        <c:axId val="649394048"/>
+        <c:axId val="556542208"/>
+        <c:axId val="556576768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="649392128"/>
+        <c:axId val="556542208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8685,14 +8820,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649394048"/>
+        <c:crossAx val="556576768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="649394048"/>
+        <c:axId val="556576768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8743,7 +8878,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649392128"/>
+        <c:crossAx val="556542208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9457,7 +9592,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10884,6 +11019,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="1:12" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>47228.665828131299</v>
+      </c>
+      <c r="F34" s="15">
+        <v>84186.571677867352</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1218990.8598847666</v>
+      </c>
+      <c r="H34" s="15">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="I34" s="15">
+        <v>897866.50568122428</v>
+      </c>
+      <c r="J34" s="15">
+        <v>683853.85960763111</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-214012.64607359318</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -10900,7 +11073,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10941,7 +11114,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -10977,10 +11150,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -11001,7 +11174,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -12995,6 +13168,71 @@
         <v>-168.25272565369349</v>
       </c>
       <c r="U33" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>56674.398993757561</v>
+      </c>
+      <c r="F34" s="15">
+        <v>101023.88601344082</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1305467.2732920537</v>
+      </c>
+      <c r="H34" s="15">
+        <v>732367.12662194541</v>
+      </c>
+      <c r="I34" s="15">
+        <v>954005.50289780961</v>
+      </c>
+      <c r="J34" s="15">
+        <v>732367.12662194541</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-221638.3762758642</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="N34" s="23">
+        <v>0.55900001525878906</v>
+      </c>
+      <c r="O34" s="23">
+        <v>0.58833332856496179</v>
+      </c>
+      <c r="P34" s="23">
+        <v>0.71309523450760626</v>
+      </c>
+      <c r="Q34" s="23">
+        <v>-0.12476190594264447</v>
+      </c>
+      <c r="R34" s="23">
+        <v>4.5925167823324356E-2</v>
+      </c>
+      <c r="S34" s="9">
+        <v>6.8887751734986527E-4</v>
+      </c>
+      <c r="T34" s="9">
+        <v>-181.10898207653469</v>
+      </c>
+      <c r="U34" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -13014,7 +13252,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13055,7 +13293,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13094,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -14614,6 +14852,50 @@
       </c>
       <c r="N33" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>56674.398993757561</v>
+      </c>
+      <c r="F34" s="15">
+        <v>101023.88601344082</v>
+      </c>
+      <c r="G34" s="15">
+        <v>1303833.5249665824</v>
+      </c>
+      <c r="H34" s="15">
+        <v>731450.59382849478</v>
+      </c>
+      <c r="I34" s="15">
+        <v>957269.70629682799</v>
+      </c>
+      <c r="J34" s="15">
+        <v>731450.59382849478</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-225819.11246833322</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -14632,7 +14914,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14712,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16232,6 +16514,50 @@
       </c>
       <c r="N33" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>677634.49394591316</v>
+      </c>
+      <c r="F34" s="15">
+        <v>1207904.646376715</v>
+      </c>
+      <c r="G34" s="15">
+        <v>11174794.52736048</v>
+      </c>
+      <c r="H34" s="15">
+        <v>6269059.6126209693</v>
+      </c>
+      <c r="I34" s="15">
+        <v>7972521.6308969846</v>
+      </c>
+      <c r="J34" s="15">
+        <v>6269059.6126209693</v>
+      </c>
+      <c r="K34" s="15">
+        <v>-1703462.0182760153</v>
+      </c>
+      <c r="L34" s="14">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="N34" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -16250,7 +16576,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16291,7 +16617,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16336,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -18044,6 +18370,56 @@
       </c>
       <c r="P33" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="12.75">
+      <c r="A34" s="12">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="13">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="13">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="14">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E34" s="14">
+        <v>10787006</v>
+      </c>
+      <c r="F34" s="14">
+        <v>4203114.608389196</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1739102.5544275802</v>
+      </c>
+      <c r="H34" s="15">
+        <v>3100004.6113153705</v>
+      </c>
+      <c r="I34" s="15">
+        <v>7981437.4701005602</v>
+      </c>
+      <c r="J34" s="15">
+        <v>4477586.3369978033</v>
+      </c>
+      <c r="K34" s="15">
+        <v>5174582.2018041452</v>
+      </c>
+      <c r="L34" s="15">
+        <v>4477586.3369978033</v>
+      </c>
+      <c r="M34" s="15">
+        <v>-696995.86480634194</v>
+      </c>
+      <c r="N34" s="14">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <v>-202.99979347003418</v>
+      </c>
+      <c r="P34" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -157,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,10 +171,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -344,7 +344,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -601,7 +604,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -697,6 +700,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +712,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -802,6 +808,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>897866.50568122428</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>935891.00400915544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +853,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -940,6 +949,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,7 +961,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1045,6 +1057,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>683853.85960763111</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>815740.68088465545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,7 +1102,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1183,6 +1198,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,7 +1210,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1288,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-214012.64607359318</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-120150.32312449999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1309,11 +1330,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="421789696"/>
-        <c:axId val="421791616"/>
+        <c:axId val="464052992"/>
+        <c:axId val="490538880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="421789696"/>
+        <c:axId val="464052992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1356,14 +1377,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421791616"/>
+        <c:crossAx val="490538880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="421791616"/>
+        <c:axId val="490538880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1435,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="421789696"/>
+        <c:crossAx val="464052992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,7 +1626,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1701,6 +1722,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1739102.5544275802</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1082902.248820764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,8 +1739,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="565782400"/>
-        <c:axId val="565780864"/>
+        <c:axId val="447013248"/>
+        <c:axId val="447011456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1741,8 +1765,8 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1837,6 +1861,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,7 +1873,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1942,6 +1969,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,17 +1988,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="556941696"/>
-        <c:axId val="556943232"/>
+        <c:axId val="588070272"/>
+        <c:axId val="447009920"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="556941696"/>
+      <c:catAx>
+        <c:axId val="588070272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2005,14 +2035,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556943232"/>
+        <c:crossAx val="447009920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="556943232"/>
+        <c:axId val="447009920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,12 +2094,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556941696"/>
+        <c:crossAx val="588070272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565780864"/>
+        <c:axId val="447011456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,12 +2136,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565782400"/>
+        <c:crossAx val="447013248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="565782400"/>
+        <c:axId val="447013248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565780864"/>
+        <c:crossAx val="447011456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2281,7 +2312,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2377,6 +2408,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47228.665828131299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2391,8 +2425,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492697472"/>
-        <c:axId val="492694144"/>
+        <c:axId val="490584704"/>
+        <c:axId val="490583168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2417,7 +2451,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2513,6 +2547,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,7 +2559,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2618,6 +2655,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,11 +2674,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458658944"/>
-        <c:axId val="492692608"/>
+        <c:axId val="490575360"/>
+        <c:axId val="490576896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458658944"/>
+        <c:axId val="490575360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2681,14 +2721,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492692608"/>
+        <c:crossAx val="490576896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492692608"/>
+        <c:axId val="490576896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2739,12 +2779,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458658944"/>
+        <c:crossAx val="490575360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492694144"/>
+        <c:axId val="490583168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,12 +2821,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492697472"/>
+        <c:crossAx val="490584704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492697472"/>
+        <c:axId val="490584704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,7 +2835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492694144"/>
+        <c:crossAx val="490583168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2974,7 +3014,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3070,6 +3110,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,7 +3122,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3175,6 +3218,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>954005.50289780961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>999634.90089132695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,7 +3263,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3313,6 +3359,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,7 +3371,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3418,6 +3467,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>732367.12662194541</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>878517.53329373489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3460,7 +3512,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3556,6 +3608,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3565,7 +3620,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3661,6 +3716,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-221638.3762758642</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-121117.36759759206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3682,11 +3740,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530825216"/>
-        <c:axId val="530827904"/>
+        <c:axId val="531750272"/>
+        <c:axId val="558111360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530825216"/>
+        <c:axId val="531750272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3729,14 +3787,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530827904"/>
+        <c:crossAx val="558111360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530827904"/>
+        <c:axId val="558111360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,7 +3845,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530825216"/>
+        <c:crossAx val="531750272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3978,7 +4036,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4074,6 +4132,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>56674.398993757561</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45629.397993517334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4088,8 +4149,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="537697664"/>
-        <c:axId val="537536000"/>
+        <c:axId val="559834240"/>
+        <c:axId val="559738240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4114,7 +4175,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4210,6 +4271,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4219,7 +4283,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4315,6 +4379,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4331,11 +4398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="537053056"/>
-        <c:axId val="537346816"/>
+        <c:axId val="559182976"/>
+        <c:axId val="559283200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537053056"/>
+        <c:axId val="559182976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4378,14 +4445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537346816"/>
+        <c:crossAx val="559283200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537346816"/>
+        <c:axId val="559283200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,12 +4503,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537053056"/>
+        <c:crossAx val="559182976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="537536000"/>
+        <c:axId val="559738240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,12 +4545,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537697664"/>
+        <c:crossAx val="559834240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="537697664"/>
+        <c:axId val="559834240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4492,7 +4559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537536000"/>
+        <c:crossAx val="559738240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4671,7 +4738,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4767,6 +4834,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4776,7 +4846,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4872,6 +4942,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>957269.70629682799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>995294.20462475915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4914,7 +4987,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5010,6 +5083,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5019,7 +5095,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5115,6 +5191,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>731450.59382849478</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>869870.30217780126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5157,7 +5236,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5253,6 +5332,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5262,7 +5344,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5358,6 +5440,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-225819.11246833322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-125423.90244695789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5379,11 +5464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538912640"/>
-        <c:axId val="538939392"/>
+        <c:axId val="569702656"/>
+        <c:axId val="569897728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538912640"/>
+        <c:axId val="569702656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5426,14 +5511,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538939392"/>
+        <c:crossAx val="569897728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538939392"/>
+        <c:axId val="569897728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5484,7 +5569,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538912640"/>
+        <c:crossAx val="569702656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5675,7 +5760,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5771,6 +5856,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>56674.398993757561</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38024.498327931113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5785,8 +5873,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="539629056"/>
-        <c:axId val="539347200"/>
+        <c:axId val="572041856"/>
+        <c:axId val="572040320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5811,7 +5899,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5907,6 +5995,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5916,7 +6007,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6012,6 +6103,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6028,11 +6122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539325952"/>
-        <c:axId val="539344896"/>
+        <c:axId val="572007936"/>
+        <c:axId val="572009856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539325952"/>
+        <c:axId val="572007936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6075,14 +6169,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539344896"/>
+        <c:crossAx val="572009856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539344896"/>
+        <c:axId val="572009856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6133,12 +6227,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539325952"/>
+        <c:crossAx val="572007936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="539347200"/>
+        <c:axId val="572040320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6175,12 +6269,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539629056"/>
+        <c:crossAx val="572041856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="539629056"/>
+        <c:axId val="572041856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,7 +6283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539347200"/>
+        <c:crossAx val="572040320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6368,7 +6462,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6464,6 +6558,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6473,7 +6570,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6569,6 +6666,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7972521.6308969846</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8338562.763325044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6611,7 +6711,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6707,6 +6807,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6716,7 +6819,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6812,6 +6915,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6269059.6126209693</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7495560.1687694201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6854,7 +6960,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6950,6 +7056,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6959,7 +7068,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7055,6 +7164,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1703462.0182760153</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-843002.59455562383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7076,11 +7188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553405056"/>
-        <c:axId val="553410944"/>
+        <c:axId val="572069760"/>
+        <c:axId val="572071296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553405056"/>
+        <c:axId val="572069760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7123,14 +7235,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553410944"/>
+        <c:crossAx val="572071296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553410944"/>
+        <c:axId val="572071296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7181,7 +7293,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553405056"/>
+        <c:crossAx val="572069760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7372,7 +7484,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7468,6 +7580,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>11174794.52736048</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11748526.69955831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7482,8 +7597,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="553598336"/>
-        <c:axId val="553596800"/>
+        <c:axId val="586184960"/>
+        <c:axId val="586183424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7508,7 +7623,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7604,6 +7719,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7613,7 +7731,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7709,6 +7827,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.56099998950958252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.6380000114440918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7725,11 +7846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553592320"/>
-        <c:axId val="553594240"/>
+        <c:axId val="585875840"/>
+        <c:axId val="585878144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553592320"/>
+        <c:axId val="585875840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7772,14 +7893,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553594240"/>
+        <c:crossAx val="585878144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553594240"/>
+        <c:axId val="585878144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7830,12 +7951,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553592320"/>
+        <c:crossAx val="585875840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="553596800"/>
+        <c:axId val="586183424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7872,12 +7993,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553598336"/>
+        <c:crossAx val="586184960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="553598336"/>
+        <c:axId val="586184960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7886,7 +8007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="553596800"/>
+        <c:crossAx val="586183424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8065,8 +8186,8 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8161,6 +8282,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8170,7 +8294,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8266,6 +8390,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>5174582.2018041452</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6257484.4506249093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8308,8 +8435,8 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8404,6 +8531,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8413,7 +8543,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8509,6 +8639,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4477586.3369978033</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6175059.4460852249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8551,8 +8684,8 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
+                <c:ptCount val="33"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8647,6 +8780,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8656,7 +8792,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8752,6 +8888,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-696995.86480634194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-82425.004539684393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8773,17 +8912,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="556542208"/>
-        <c:axId val="556576768"/>
+        <c:axId val="586884608"/>
+        <c:axId val="587019008"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="556542208"/>
+      <c:catAx>
+        <c:axId val="586884608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -8820,14 +8959,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556576768"/>
+        <c:crossAx val="587019008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="556576768"/>
+        <c:axId val="587019008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8878,7 +9018,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556542208"/>
+        <c:crossAx val="586884608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9592,7 +9732,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11057,6 +11197,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:12" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="15">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1278590.3859754698</v>
+      </c>
+      <c r="H35" s="15">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="I35" s="15">
+        <v>935891.00400915544</v>
+      </c>
+      <c r="J35" s="15">
+        <v>815740.68088465545</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-120150.32312449999</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11073,7 +11251,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM34"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11114,7 +11292,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11150,10 +11328,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -11174,7 +11352,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -13233,6 +13411,71 @@
         <v>-181.10898207653469</v>
       </c>
       <c r="U34" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>45629.397993517334</v>
+      </c>
+      <c r="F35" s="15">
+        <v>71519.431308843879</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1376986.7046008976</v>
+      </c>
+      <c r="H35" s="15">
+        <v>878517.53329373489</v>
+      </c>
+      <c r="I35" s="15">
+        <v>999634.90089132695</v>
+      </c>
+      <c r="J35" s="15">
+        <v>878517.53329373489</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-121117.36759759206</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="23">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="N35" s="23">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="O35" s="23">
+        <v>0.60466667016347253</v>
+      </c>
+      <c r="P35" s="23">
+        <v>0.70433333043825086</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>-9.9666660274778329E-2</v>
+      </c>
+      <c r="R35" s="23">
+        <v>5.3904759241610103E-2</v>
+      </c>
+      <c r="S35" s="9">
+        <v>8.0857138862415153E-4</v>
+      </c>
+      <c r="T35" s="9">
+        <v>-123.2626601398413</v>
+      </c>
+      <c r="U35" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -13252,7 +13495,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13332,7 +13575,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -14896,6 +15139,50 @@
       </c>
       <c r="N34" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>38024.498327931113</v>
+      </c>
+      <c r="F35" s="15">
+        <v>59599.526090703235</v>
+      </c>
+      <c r="G35" s="15">
+        <v>1363433.0510572856</v>
+      </c>
+      <c r="H35" s="15">
+        <v>869870.30217780126</v>
+      </c>
+      <c r="I35" s="15">
+        <v>995294.20462475915</v>
+      </c>
+      <c r="J35" s="15">
+        <v>869870.30217780126</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-125423.90244695789</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14914,7 +15201,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14994,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16558,6 +16845,50 @@
       </c>
       <c r="N34" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F35" s="15">
+        <v>573732.17219783086</v>
+      </c>
+      <c r="G35" s="15">
+        <v>11748526.69955831</v>
+      </c>
+      <c r="H35" s="15">
+        <v>7495560.1687694201</v>
+      </c>
+      <c r="I35" s="15">
+        <v>8338562.763325044</v>
+      </c>
+      <c r="J35" s="15">
+        <v>7495560.1687694201</v>
+      </c>
+      <c r="K35" s="15">
+        <v>-843002.59455562383</v>
+      </c>
+      <c r="L35" s="14">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="N35" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16576,7 +16907,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16617,7 +16948,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16662,7 +16993,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -16688,7 +17019,7 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="31">
         <v>44377</v>
       </c>
       <c r="B3" s="13">
@@ -18420,6 +18751,56 @@
       </c>
       <c r="P34" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12.75">
+      <c r="A35" s="12">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="13">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="13">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D35" s="14">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E35" s="14">
+        <v>12736000</v>
+      </c>
+      <c r="F35" s="14">
+        <v>4305005.2464849772</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1082902.248820764</v>
+      </c>
+      <c r="H35" s="15">
+        <v>1697338.9175489994</v>
+      </c>
+      <c r="I35" s="15">
+        <v>9678776.3876495603</v>
+      </c>
+      <c r="J35" s="15">
+        <v>6175059.4460852249</v>
+      </c>
+      <c r="K35" s="15">
+        <v>6257484.4506249093</v>
+      </c>
+      <c r="L35" s="15">
+        <v>6175059.4460852249</v>
+      </c>
+      <c r="M35" s="15">
+        <v>-82425.004539684393</v>
+      </c>
+      <c r="N35" s="14">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9">
+        <v>102.81793481326457</v>
+      </c>
+      <c r="P35" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -171,6 +171,10 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -604,7 +608,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -703,6 +707,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -712,7 +719,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -811,6 +818,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>935891.00400915544</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>972150.5019069548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,7 +863,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -952,6 +962,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -961,7 +974,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1060,6 +1073,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>815740.68088465545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>862228.92259935837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,7 +1118,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1201,6 +1217,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,7 +1229,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1309,6 +1328,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-120150.32312449999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-109921.57930759643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,11 +1352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464052992"/>
-        <c:axId val="490538880"/>
+        <c:axId val="475898240"/>
+        <c:axId val="475901312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464052992"/>
+        <c:axId val="475898240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,14 +1399,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490538880"/>
+        <c:crossAx val="475901312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490538880"/>
+        <c:axId val="475901312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1457,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464052992"/>
+        <c:crossAx val="475898240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1626,7 +1648,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1725,6 +1747,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1082902.248820764</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>643024.82427448209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1739,8 +1764,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="447013248"/>
-        <c:axId val="447011456"/>
+        <c:axId val="483950592"/>
+        <c:axId val="483948800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1765,7 +1790,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1864,6 +1889,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,7 +1901,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -1972,6 +2000,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,11 +2019,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="588070272"/>
-        <c:axId val="447009920"/>
+        <c:axId val="635378304"/>
+        <c:axId val="483947264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="588070272"/>
+        <c:axId val="635378304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2066,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447009920"/>
+        <c:crossAx val="483947264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2043,7 +2074,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="447009920"/>
+        <c:axId val="483947264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,12 +2125,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588070272"/>
+        <c:crossAx val="635378304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="447011456"/>
+        <c:axId val="483948800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,12 +2167,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447013248"/>
+        <c:crossAx val="483950592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="447013248"/>
+        <c:axId val="483950592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,7 +2181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="447011456"/>
+        <c:crossAx val="483948800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2312,7 +2343,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2411,6 +2442,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2425,8 +2459,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490584704"/>
-        <c:axId val="490583168"/>
+        <c:axId val="486030720"/>
+        <c:axId val="486028032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2451,7 +2485,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2550,6 +2584,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,7 +2596,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2658,6 +2695,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,11 +2714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490575360"/>
-        <c:axId val="490576896"/>
+        <c:axId val="482335744"/>
+        <c:axId val="483906688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490575360"/>
+        <c:axId val="482335744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,14 +2761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490576896"/>
+        <c:crossAx val="483906688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490576896"/>
+        <c:axId val="483906688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,12 +2819,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490575360"/>
+        <c:crossAx val="482335744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490583168"/>
+        <c:axId val="486028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,12 +2861,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490584704"/>
+        <c:crossAx val="486030720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490584704"/>
+        <c:axId val="486030720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2835,7 +2875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490583168"/>
+        <c:crossAx val="486028032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3014,7 +3054,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3113,6 +3153,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,7 +3165,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3221,6 +3264,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>999634.90089132695</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1035894.3987891263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3263,7 +3309,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3362,6 +3408,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,7 +3420,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3470,6 +3519,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>878517.53329373489</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>925792.94715268794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3512,7 +3564,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3611,6 +3663,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3620,7 +3675,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3719,6 +3774,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-121117.36759759206</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-110101.45163643837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,11 +3798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531750272"/>
-        <c:axId val="558111360"/>
+        <c:axId val="510466688"/>
+        <c:axId val="510488960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531750272"/>
+        <c:axId val="510466688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,14 +3845,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558111360"/>
+        <c:crossAx val="510488960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558111360"/>
+        <c:axId val="510488960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +3903,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531750272"/>
+        <c:crossAx val="510466688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4036,7 +4094,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4135,6 +4193,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45629.397993517334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4149,8 +4210,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="559834240"/>
-        <c:axId val="559738240"/>
+        <c:axId val="511448576"/>
+        <c:axId val="511447040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4175,7 +4236,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4274,6 +4335,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,7 +4347,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4382,6 +4446,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4398,11 +4465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559182976"/>
-        <c:axId val="559283200"/>
+        <c:axId val="510522112"/>
+        <c:axId val="510523648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="559182976"/>
+        <c:axId val="510522112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4445,14 +4512,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559283200"/>
+        <c:crossAx val="510523648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="559283200"/>
+        <c:axId val="510523648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4503,12 +4570,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559182976"/>
+        <c:crossAx val="510522112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="559738240"/>
+        <c:axId val="511447040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4545,12 +4612,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559834240"/>
+        <c:crossAx val="511448576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="559834240"/>
+        <c:axId val="511448576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4559,7 +4626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="559738240"/>
+        <c:crossAx val="511447040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4738,7 +4805,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4837,6 +4904,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4846,7 +4916,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4945,6 +5015,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>995294.20462475915</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1031553.7025225585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4987,7 +5060,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5086,6 +5159,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5095,7 +5171,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5194,6 +5270,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>869870.30217780126</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>917037.28658866719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5236,7 +5315,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5335,6 +5414,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5344,7 +5426,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5443,6 +5525,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-125423.90244695789</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-114516.41593389132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,11 +5549,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569702656"/>
-        <c:axId val="569897728"/>
+        <c:axId val="615290368"/>
+        <c:axId val="615320192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569702656"/>
+        <c:axId val="615290368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5511,14 +5596,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569897728"/>
+        <c:crossAx val="615320192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569897728"/>
+        <c:axId val="615320192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5569,7 +5654,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569702656"/>
+        <c:crossAx val="615290368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5760,7 +5845,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5859,6 +5944,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>38024.498327931113</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36259.497897799316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5873,8 +5961,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="572041856"/>
-        <c:axId val="572040320"/>
+        <c:axId val="617632512"/>
+        <c:axId val="617587072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5899,7 +5987,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5998,6 +6086,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6007,7 +6098,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6106,6 +6197,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6122,11 +6216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="572007936"/>
-        <c:axId val="572009856"/>
+        <c:axId val="616964096"/>
+        <c:axId val="617566208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="572007936"/>
+        <c:axId val="616964096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6169,14 +6263,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572009856"/>
+        <c:crossAx val="617566208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="572009856"/>
+        <c:axId val="617566208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6227,12 +6321,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572007936"/>
+        <c:crossAx val="616964096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="572040320"/>
+        <c:axId val="617587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,12 +6363,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572041856"/>
+        <c:crossAx val="617632512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="572041856"/>
+        <c:axId val="617632512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6283,7 +6377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572040320"/>
+        <c:crossAx val="617587072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6462,7 +6556,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6561,6 +6655,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6570,7 +6667,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6669,6 +6766,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8338562.763325044</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8671411.165299857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6711,7 +6811,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6810,6 +6910,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6819,7 +6922,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6918,6 +7021,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>7495560.1687694201</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7922396.9748132583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6960,7 +7066,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7059,6 +7165,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7068,7 +7177,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7167,6 +7276,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-843002.59455562383</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-749014.19048659876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7188,11 +7300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="572069760"/>
-        <c:axId val="572071296"/>
+        <c:axId val="627248512"/>
+        <c:axId val="627258496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="572069760"/>
+        <c:axId val="627248512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7235,14 +7347,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572071296"/>
+        <c:crossAx val="627258496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="572071296"/>
+        <c:axId val="627258496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7293,7 +7405,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572069760"/>
+        <c:crossAx val="627248512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7484,7 +7596,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7583,6 +7695,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>11748526.69955831</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12263771.881795008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7597,8 +7712,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="586184960"/>
-        <c:axId val="586183424"/>
+        <c:axId val="627538176"/>
+        <c:axId val="627536640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7623,7 +7738,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7722,6 +7837,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7731,7 +7849,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7830,6 +7948,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.6380000114440918</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64600002765655518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7846,11 +7967,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585875840"/>
-        <c:axId val="585878144"/>
+        <c:axId val="627355008"/>
+        <c:axId val="627403776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585875840"/>
+        <c:axId val="627355008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7893,14 +8014,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585878144"/>
+        <c:crossAx val="627403776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="585878144"/>
+        <c:axId val="627403776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7951,12 +8072,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585875840"/>
+        <c:crossAx val="627355008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="586183424"/>
+        <c:axId val="627536640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7993,12 +8114,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586184960"/>
+        <c:crossAx val="627538176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="586184960"/>
+        <c:axId val="627538176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8007,7 +8128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="586183424"/>
+        <c:crossAx val="627536640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8186,7 +8307,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8285,6 +8406,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8294,7 +8418,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8393,6 +8517,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6257484.4506249093</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6900509.2748993915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8435,7 +8562,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8534,6 +8661,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8543,7 +8673,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8642,6 +8772,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6175059.4460852249</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6895514.6383777121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8684,7 +8817,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8783,6 +8916,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8792,7 +8928,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8891,6 +9027,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-82425.004539684393</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-4994.6365216793492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8912,11 +9051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="586884608"/>
-        <c:axId val="587019008"/>
+        <c:axId val="630092544"/>
+        <c:axId val="630094848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="586884608"/>
+        <c:axId val="630092544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8959,7 +9098,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587019008"/>
+        <c:crossAx val="630094848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8967,7 +9106,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="587019008"/>
+        <c:axId val="630094848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9018,7 +9157,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="586884608"/>
+        <c:crossAx val="630092544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9732,7 +9871,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11235,6 +11374,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="15">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1334719.6372842276</v>
+      </c>
+      <c r="H36" s="15">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="I36" s="15">
+        <v>972150.5019069548</v>
+      </c>
+      <c r="J36" s="15">
+        <v>862228.92259935837</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-109921.57930759643</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11251,7 +11428,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13479,6 +13656,71 @@
         <v>1.2</v>
       </c>
     </row>
+    <row r="36" spans="1:21" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="15">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1433115.9559096554</v>
+      </c>
+      <c r="H36" s="15">
+        <v>925792.94715268794</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1035894.3987891263</v>
+      </c>
+      <c r="J36" s="15">
+        <v>925792.94715268794</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-110101.45163643837</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="23">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="N36" s="23">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="O36" s="23">
+        <v>0.6500000158945719</v>
+      </c>
+      <c r="P36" s="23">
+        <v>0.69566666607629701</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>-4.566665018172511E-2</v>
+      </c>
+      <c r="R36" s="23">
+        <v>5.2999996957324789E-2</v>
+      </c>
+      <c r="S36" s="9">
+        <v>7.9499995435987185E-4</v>
+      </c>
+      <c r="T36" s="9">
+        <v>-57.442330570315015</v>
+      </c>
+      <c r="U36" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13495,7 +13737,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15185,6 +15427,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>36259.497897799316</v>
+      </c>
+      <c r="F36" s="15">
+        <v>56129.251308757863</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1419562.3023660434</v>
+      </c>
+      <c r="H36" s="15">
+        <v>917037.28658866719</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1031553.7025225585</v>
+      </c>
+      <c r="J36" s="15">
+        <v>917037.28658866719</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-114516.41593389132</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="N36" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -15201,7 +15487,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15242,7 +15528,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16888,6 +17174,50 @@
         <v>102.81793481326457</v>
       </c>
       <c r="N35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F36" s="15">
+        <v>515245.18223669764</v>
+      </c>
+      <c r="G36" s="15">
+        <v>12263771.881795008</v>
+      </c>
+      <c r="H36" s="15">
+        <v>7922396.9748132583</v>
+      </c>
+      <c r="I36" s="15">
+        <v>8671411.165299857</v>
+      </c>
+      <c r="J36" s="15">
+        <v>7922396.9748132583</v>
+      </c>
+      <c r="K36" s="15">
+        <v>-749014.19048659876</v>
+      </c>
+      <c r="L36" s="14">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="N36" s="9">
         <v>1</v>
       </c>
     </row>
@@ -16907,7 +17237,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16960,10 +17290,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -18800,6 +19130,56 @@
         <v>102.81793481326457</v>
       </c>
       <c r="P35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75">
+      <c r="A36" s="12">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="13">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="13">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="14">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E36" s="14">
+        <v>8545319</v>
+      </c>
+      <c r="F36" s="14">
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="G36" s="14">
+        <v>643024.82427448209</v>
+      </c>
+      <c r="H36" s="15">
+        <v>995394.42220634886</v>
+      </c>
+      <c r="I36" s="15">
+        <v>10674170.80985591</v>
+      </c>
+      <c r="J36" s="15">
+        <v>6895514.6383777121</v>
+      </c>
+      <c r="K36" s="15">
+        <v>6900509.2748993915</v>
+      </c>
+      <c r="L36" s="15">
+        <v>6895514.6383777121</v>
+      </c>
+      <c r="M36" s="15">
+        <v>-4994.6365216793492</v>
+      </c>
+      <c r="N36" s="14">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <v>-98.887766665906639</v>
+      </c>
+      <c r="P36" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -171,10 +171,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -348,7 +344,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,9 +406,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -710,6 +703,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +715,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -821,6 +817,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>972150.5019069548</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1005663.5411852957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -863,7 +862,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -965,6 +964,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,7 +976,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1076,6 +1078,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>862228.92259935837</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>919766.84470354044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1123,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1220,6 +1225,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1229,7 +1237,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1331,6 +1339,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-109921.57930759643</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-85896.696481755236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,11 +1363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475898240"/>
-        <c:axId val="475901312"/>
+        <c:axId val="472867968"/>
+        <c:axId val="472869504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475898240"/>
+        <c:axId val="472867968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,14 +1410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475901312"/>
+        <c:crossAx val="472869504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475901312"/>
+        <c:axId val="472869504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1468,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475898240"/>
+        <c:crossAx val="472867968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1648,7 +1659,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1749,7 +1760,10 @@
                   <c:v>1082902.248820764</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>643024.82427448209</c:v>
+                  <c:v>637440.66862040793</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>327892.26090209873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1764,8 +1778,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="483950592"/>
-        <c:axId val="483948800"/>
+        <c:axId val="630836224"/>
+        <c:axId val="630834688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1790,8 +1804,8 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1892,6 +1906,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,7 +1918,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2003,6 +2020,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,17 +2039,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635378304"/>
-        <c:axId val="483947264"/>
+        <c:axId val="630790016"/>
+        <c:axId val="630791552"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="635378304"/>
+      <c:dateAx>
+        <c:axId val="630790016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2066,15 +2086,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483947264"/>
+        <c:crossAx val="630791552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="483947264"/>
+        <c:axId val="630791552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2125,12 +2144,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635378304"/>
+        <c:crossAx val="630790016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483948800"/>
+        <c:axId val="630834688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,12 +2186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483950592"/>
+        <c:crossAx val="630836224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="483950592"/>
+        <c:axId val="630836224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="483948800"/>
+        <c:crossAx val="630834688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2343,7 +2362,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2445,6 +2464,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2459,8 +2481,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="486030720"/>
-        <c:axId val="486028032"/>
+        <c:axId val="539892352"/>
+        <c:axId val="539890432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2485,7 +2507,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2587,6 +2609,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2596,7 +2621,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2698,6 +2723,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2714,11 +2742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482335744"/>
-        <c:axId val="483906688"/>
+        <c:axId val="539874816"/>
+        <c:axId val="539876352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482335744"/>
+        <c:axId val="539874816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,14 +2789,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483906688"/>
+        <c:crossAx val="539876352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="483906688"/>
+        <c:axId val="539876352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2819,12 +2847,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482335744"/>
+        <c:crossAx val="539874816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486028032"/>
+        <c:axId val="539890432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2861,12 +2889,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486030720"/>
+        <c:crossAx val="539892352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="486030720"/>
+        <c:axId val="539892352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2875,7 +2903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486028032"/>
+        <c:crossAx val="539890432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3054,7 +3082,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3156,6 +3184,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3165,7 +3196,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3267,6 +3298,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1035894.3987891263</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1069407.4380674672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3309,7 +3343,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3411,6 +3445,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3420,7 +3457,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3522,6 +3559,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>925792.94715268794</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>985101.99778411631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3564,7 +3604,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3666,6 +3706,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,7 +3718,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3777,6 +3820,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-110101.45163643837</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-84305.440283350879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3798,11 +3844,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510466688"/>
-        <c:axId val="510488960"/>
+        <c:axId val="540945792"/>
+        <c:axId val="540947584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510466688"/>
+        <c:axId val="540945792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,14 +3891,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510488960"/>
+        <c:crossAx val="540947584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510488960"/>
+        <c:axId val="540947584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,7 +3949,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510466688"/>
+        <c:crossAx val="540945792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4094,7 +4140,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4196,6 +4242,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4210,8 +4259,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="511448576"/>
-        <c:axId val="511447040"/>
+        <c:axId val="601675264"/>
+        <c:axId val="601672704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4236,7 +4285,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4338,6 +4387,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4347,7 +4399,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4449,6 +4501,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4465,11 +4520,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510522112"/>
-        <c:axId val="510523648"/>
+        <c:axId val="541344128"/>
+        <c:axId val="541345664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510522112"/>
+        <c:axId val="541344128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4512,14 +4567,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510523648"/>
+        <c:crossAx val="541345664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510523648"/>
+        <c:axId val="541345664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4570,12 +4625,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510522112"/>
+        <c:crossAx val="541344128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="511447040"/>
+        <c:axId val="601672704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,12 +4667,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511448576"/>
+        <c:crossAx val="601675264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="511448576"/>
+        <c:axId val="601675264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,7 +4681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="511447040"/>
+        <c:crossAx val="601672704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4805,7 +4860,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4907,6 +4962,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4916,7 +4974,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5018,6 +5076,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1031553.7025225585</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1065066.7418008994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5060,7 +5121,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5162,6 +5223,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,7 +5235,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5273,6 +5337,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>917037.28658866719</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>976102.37217369094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5315,7 +5382,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5417,6 +5484,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5426,7 +5496,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5528,6 +5598,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-114516.41593389132</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-88964.369627208449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5549,11 +5622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="615290368"/>
-        <c:axId val="615320192"/>
+        <c:axId val="623643648"/>
+        <c:axId val="623733760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="615290368"/>
+        <c:axId val="623643648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5596,14 +5669,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615320192"/>
+        <c:crossAx val="623733760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615320192"/>
+        <c:axId val="623733760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5654,7 +5727,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615290368"/>
+        <c:crossAx val="623643648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5845,7 +5918,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5947,6 +6020,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>36259.497897799316</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33513.039278340933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5961,8 +6037,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="617632512"/>
-        <c:axId val="617587072"/>
+        <c:axId val="624623616"/>
+        <c:axId val="624613248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5987,7 +6063,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6089,6 +6165,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6098,7 +6177,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6200,6 +6279,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6216,11 +6298,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616964096"/>
-        <c:axId val="617566208"/>
+        <c:axId val="624589056"/>
+        <c:axId val="624611328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616964096"/>
+        <c:axId val="624589056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6263,14 +6345,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617566208"/>
+        <c:crossAx val="624611328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617566208"/>
+        <c:axId val="624611328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6321,12 +6403,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616964096"/>
+        <c:crossAx val="624589056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617587072"/>
+        <c:axId val="624613248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6363,12 +6445,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617632512"/>
+        <c:crossAx val="624623616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="617632512"/>
+        <c:axId val="624623616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6377,7 +6459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617587072"/>
+        <c:crossAx val="624613248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6556,7 +6638,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6658,6 +6740,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6667,7 +6752,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6769,6 +6854,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8671411.165299857</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8955746.3049635589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6811,7 +6899,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6913,6 +7001,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6922,7 +7013,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7024,6 +7115,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7922396.9748132583</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8427479.3592410143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7066,7 +7160,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7168,6 +7262,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7177,7 +7274,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7279,6 +7376,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-749014.19048659876</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-528266.94572254457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7300,11 +7400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627248512"/>
-        <c:axId val="627258496"/>
+        <c:axId val="625228416"/>
+        <c:axId val="625825664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="627248512"/>
+        <c:axId val="625228416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7347,14 +7447,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627258496"/>
+        <c:crossAx val="625825664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="627258496"/>
+        <c:axId val="625825664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7405,7 +7505,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627248512"/>
+        <c:crossAx val="625228416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7596,7 +7696,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7698,6 +7798,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>12263771.881795008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12691987.469875919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7712,8 +7815,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="627538176"/>
-        <c:axId val="627536640"/>
+        <c:axId val="628927488"/>
+        <c:axId val="628925952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7738,7 +7841,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7840,6 +7943,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7849,7 +7955,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7951,6 +8057,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.64600002765655518</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66399997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7967,11 +8076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="627355008"/>
-        <c:axId val="627403776"/>
+        <c:axId val="628921088"/>
+        <c:axId val="628923392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="627355008"/>
+        <c:axId val="628921088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8014,14 +8123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627403776"/>
+        <c:crossAx val="628923392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="627403776"/>
+        <c:axId val="628923392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8072,12 +8181,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627355008"/>
+        <c:crossAx val="628921088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="627536640"/>
+        <c:axId val="628925952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8114,12 +8223,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627538176"/>
+        <c:crossAx val="628927488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="627538176"/>
+        <c:axId val="628927488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8128,7 +8237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="627536640"/>
+        <c:crossAx val="628925952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8307,8 +8416,8 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8409,6 +8518,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8418,7 +8530,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8519,7 +8631,10 @@
                   <c:v>6257484.4506249093</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6900509.2748993915</c:v>
+                  <c:v>6894925.1192453168</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7222817.3801474152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8562,8 +8677,8 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8664,6 +8779,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8673,7 +8791,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8774,7 +8892,10 @@
                   <c:v>6175059.4460852249</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6895514.6383777121</c:v>
+                  <c:v>6889930.4827236375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7409801.6580265714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8817,8 +8938,8 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -8919,6 +9040,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8928,7 +9052,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9030,6 +9154,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-4994.6365216793492</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>186984.27787915617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9051,17 +9178,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="630092544"/>
-        <c:axId val="630094848"/>
+        <c:axId val="629809536"/>
+        <c:axId val="629811072"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="630092544"/>
+      <c:dateAx>
+        <c:axId val="629809536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -9098,15 +9225,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630094848"/>
+        <c:crossAx val="629811072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="630094848"/>
+        <c:axId val="629811072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9157,7 +9283,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630092544"/>
+        <c:crossAx val="629809536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9871,7 +9997,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11412,6 +11538,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:12" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="15">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1385191.0839015078</v>
+      </c>
+      <c r="H37" s="15">
+        <v>919766.84470354044</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1005663.5411852957</v>
+      </c>
+      <c r="J37" s="15">
+        <v>919766.84470354044</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-85896.696481755236</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -11428,7 +11592,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13721,6 +13885,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:21" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="15">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1483587.4025269356</v>
+      </c>
+      <c r="H37" s="15">
+        <v>985101.99778411631</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1069407.4380674672</v>
+      </c>
+      <c r="J37" s="15">
+        <v>985101.99778411631</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-84305.440283350879</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="23">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="N37" s="23">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="O37" s="23">
+        <v>0.65533332029978431</v>
+      </c>
+      <c r="P37" s="23">
+        <v>0.68721428466978529</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>-3.1880964370000986E-2</v>
+      </c>
+      <c r="R37" s="23">
+        <v>5.026190433048066E-2</v>
+      </c>
+      <c r="S37" s="9">
+        <v>7.5392856495720988E-4</v>
+      </c>
+      <c r="T37" s="9">
+        <v>-42.286452393285337</v>
+      </c>
+      <c r="U37" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13737,7 +13966,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13778,7 +14007,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15468,6 +15697,50 @@
         <v>-98.887766665906639</v>
       </c>
       <c r="N36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>33513.039278340933</v>
+      </c>
+      <c r="F37" s="15">
+        <v>50471.446617280082</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1470033.7489833236</v>
+      </c>
+      <c r="H37" s="15">
+        <v>976102.37217369094</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1065066.7418008994</v>
+      </c>
+      <c r="J37" s="15">
+        <v>976102.37217369094</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-88964.369627208449</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="N37" s="9">
         <v>1</v>
       </c>
     </row>
@@ -15487,7 +15760,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15528,7 +15801,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -17218,6 +17491,50 @@
         <v>-98.887766665906639</v>
       </c>
       <c r="N36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F37" s="15">
+        <v>428215.58808091015</v>
+      </c>
+      <c r="G37" s="15">
+        <v>12691987.469875919</v>
+      </c>
+      <c r="H37" s="15">
+        <v>8427479.3592410143</v>
+      </c>
+      <c r="I37" s="15">
+        <v>8955746.3049635589</v>
+      </c>
+      <c r="J37" s="15">
+        <v>8427479.3592410143</v>
+      </c>
+      <c r="K37" s="15">
+        <v>-528266.94572254457</v>
+      </c>
+      <c r="L37" s="14">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="N37" s="9">
         <v>1</v>
       </c>
     </row>
@@ -17237,7 +17554,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI36"/>
+  <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17290,10 +17607,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -17349,7 +17666,7 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:35" ht="14.1" customHeight="1">
-      <c r="A3" s="31">
+      <c r="A3" s="12">
         <v>44377</v>
       </c>
       <c r="B3" s="13">
@@ -19141,10 +19458,10 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="13">
-        <v>17.659999849999998</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="14">
-        <v>26.839619570961851</v>
+        <v>26.839674744630816</v>
       </c>
       <c r="E36" s="14">
         <v>8545319</v>
@@ -19153,22 +19470,22 @@
         <v>4423306.3268190296</v>
       </c>
       <c r="G36" s="14">
-        <v>643024.82427448209</v>
+        <v>637440.66862040793</v>
       </c>
       <c r="H36" s="15">
-        <v>995394.42220634886</v>
+        <v>986750.21877754806</v>
       </c>
       <c r="I36" s="15">
-        <v>10674170.80985591</v>
+        <v>10665526.606427109</v>
       </c>
       <c r="J36" s="15">
-        <v>6895514.6383777121</v>
+        <v>6889930.4827236375</v>
       </c>
       <c r="K36" s="15">
-        <v>6900509.2748993915</v>
+        <v>6894925.1192453168</v>
       </c>
       <c r="L36" s="15">
-        <v>6895514.6383777121</v>
+        <v>6889930.4827236375</v>
       </c>
       <c r="M36" s="15">
         <v>-4994.6365216793492</v>
@@ -19180,6 +19497,56 @@
         <v>-98.887766665906639</v>
       </c>
       <c r="P36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75">
+      <c r="A37" s="12">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="13">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="14">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E37" s="14">
+        <v>5195700</v>
+      </c>
+      <c r="F37" s="14">
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="G37" s="14">
+        <v>327892.26090209873</v>
+      </c>
+      <c r="H37" s="15">
+        <v>493813.66473183746</v>
+      </c>
+      <c r="I37" s="15">
+        <v>11159340.271158947</v>
+      </c>
+      <c r="J37" s="15">
+        <v>7409801.6580265714</v>
+      </c>
+      <c r="K37" s="15">
+        <v>7222817.3801474152</v>
+      </c>
+      <c r="L37" s="15">
+        <v>7409801.6580265714</v>
+      </c>
+      <c r="M37" s="15">
+        <v>186984.27787915617</v>
+      </c>
+      <c r="N37" s="14">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <v>191.90436156354073</v>
+      </c>
+      <c r="P37" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -169,16 +173,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PE</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入本金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -1371,11 +1375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="180418816"/>
-        <c:axId val="500965760"/>
+        <c:axId val="521713152"/>
+        <c:axId val="521714688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="180418816"/>
+        <c:axId val="521713152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1418,14 +1422,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500965760"/>
+        <c:crossAx val="521714688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500965760"/>
+        <c:axId val="521714688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1480,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180418816"/>
+        <c:crossAx val="521713152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1786,8 +1790,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="501678848"/>
-        <c:axId val="639851520"/>
+        <c:axId val="507793792"/>
+        <c:axId val="507353728"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2047,11 +2051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639835136"/>
-        <c:axId val="639849984"/>
+        <c:axId val="506895744"/>
+        <c:axId val="507352192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="639835136"/>
+        <c:axId val="506895744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2094,14 +2098,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639849984"/>
+        <c:crossAx val="507352192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="639849984"/>
+        <c:axId val="507352192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,12 +2156,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639835136"/>
+        <c:crossAx val="506895744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="639851520"/>
+        <c:axId val="507353728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,12 +2198,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501678848"/>
+        <c:crossAx val="507793792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="501678848"/>
+        <c:axId val="507793792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,7 +2212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639851520"/>
+        <c:crossAx val="507353728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2489,8 +2493,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="520278400"/>
-        <c:axId val="520272512"/>
+        <c:axId val="521780608"/>
+        <c:axId val="521778688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2750,11 +2754,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517560960"/>
-        <c:axId val="520270592"/>
+        <c:axId val="521766784"/>
+        <c:axId val="521777152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517560960"/>
+        <c:axId val="521766784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,14 +2801,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520270592"/>
+        <c:crossAx val="521777152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520270592"/>
+        <c:axId val="521777152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2855,12 +2859,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517560960"/>
+        <c:crossAx val="521766784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520272512"/>
+        <c:axId val="521778688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,12 +2901,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520278400"/>
+        <c:crossAx val="521780608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="520278400"/>
+        <c:axId val="521780608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2911,7 +2915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520272512"/>
+        <c:crossAx val="521778688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3852,11 +3856,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520316800"/>
-        <c:axId val="537419776"/>
+        <c:axId val="527799040"/>
+        <c:axId val="527801344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520316800"/>
+        <c:axId val="527799040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3899,14 +3903,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537419776"/>
+        <c:crossAx val="527801344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537419776"/>
+        <c:axId val="527801344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +3961,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520316800"/>
+        <c:crossAx val="527799040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4267,8 +4271,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="538649728"/>
-        <c:axId val="538643840"/>
+        <c:axId val="700706176"/>
+        <c:axId val="700704256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4528,11 +4532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538640384"/>
-        <c:axId val="538641920"/>
+        <c:axId val="700663296"/>
+        <c:axId val="700664832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538640384"/>
+        <c:axId val="700663296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4575,14 +4579,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538641920"/>
+        <c:crossAx val="700664832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538641920"/>
+        <c:axId val="700664832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,12 +4637,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538640384"/>
+        <c:crossAx val="700663296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="538643840"/>
+        <c:axId val="700704256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,12 +4679,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538649728"/>
+        <c:crossAx val="700706176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="538649728"/>
+        <c:axId val="700706176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4689,7 +4693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="538643840"/>
+        <c:crossAx val="700704256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5630,11 +5634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626494848"/>
-        <c:axId val="627002752"/>
+        <c:axId val="707311488"/>
+        <c:axId val="708576000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626494848"/>
+        <c:axId val="707311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5677,14 +5681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="627002752"/>
+        <c:crossAx val="708576000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="627002752"/>
+        <c:axId val="708576000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5735,7 +5739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626494848"/>
+        <c:crossAx val="707311488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6045,8 +6049,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="633952896"/>
-        <c:axId val="633950208"/>
+        <c:axId val="708621440"/>
+        <c:axId val="708611456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6306,11 +6310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="633935360"/>
-        <c:axId val="633938304"/>
+        <c:axId val="708607360"/>
+        <c:axId val="708609536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="633935360"/>
+        <c:axId val="708607360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6353,14 +6357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633938304"/>
+        <c:crossAx val="708609536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="633938304"/>
+        <c:axId val="708609536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6411,12 +6415,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633935360"/>
+        <c:crossAx val="708607360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="633950208"/>
+        <c:axId val="708611456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6453,12 +6457,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="633952896"/>
+        <c:crossAx val="708621440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="633952896"/>
+        <c:axId val="708621440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6467,7 +6471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="633950208"/>
+        <c:crossAx val="708611456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7408,11 +7412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634440320"/>
-        <c:axId val="634483456"/>
+        <c:axId val="709078400"/>
+        <c:axId val="709105152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="634440320"/>
+        <c:axId val="709078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7455,14 +7459,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634483456"/>
+        <c:crossAx val="709105152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="634483456"/>
+        <c:axId val="709105152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7513,7 +7517,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="634440320"/>
+        <c:crossAx val="709078400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7823,8 +7827,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="637284352"/>
-        <c:axId val="637278080"/>
+        <c:axId val="709571328"/>
+        <c:axId val="709340160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8084,11 +8088,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635409152"/>
-        <c:axId val="637276544"/>
+        <c:axId val="709335296"/>
+        <c:axId val="709338624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="635409152"/>
+        <c:axId val="709335296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8131,14 +8135,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637276544"/>
+        <c:crossAx val="709338624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637276544"/>
+        <c:axId val="709338624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8189,12 +8193,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635409152"/>
+        <c:crossAx val="709335296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637278080"/>
+        <c:axId val="709340160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8231,12 +8235,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637284352"/>
+        <c:crossAx val="709571328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="637284352"/>
+        <c:axId val="709571328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8245,7 +8249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637278080"/>
+        <c:crossAx val="709340160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9186,11 +9190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637315328"/>
-        <c:axId val="637322368"/>
+        <c:axId val="710276992"/>
+        <c:axId val="710288512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637315328"/>
+        <c:axId val="710276992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9233,14 +9237,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637322368"/>
+        <c:crossAx val="710288512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637322368"/>
+        <c:axId val="710288512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9291,7 +9295,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637315328"/>
+        <c:crossAx val="710276992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11641,7 +11645,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11677,10 +11681,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -11701,7 +11705,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -14015,7 +14019,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>29</v>
@@ -14054,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -15809,7 +15813,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15848,7 +15852,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -15918,7 +15922,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -17603,22 +17607,22 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -17648,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,6 +133,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -157,10 +161,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,18 +171,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年投入本金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -356,7 +344,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +408,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -613,7 +602,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -718,6 +707,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,7 +719,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -832,6 +824,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1005505.7452450263</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1037341.6312729785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,7 +869,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -979,6 +974,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,7 +986,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1093,6 +1091,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>919604.65511358727</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>932051.28760826006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,7 +1136,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1240,6 +1241,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,7 +1253,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1354,6 +1358,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-85901.090131439036</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-105290.34366471844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521713152"/>
-        <c:axId val="521714688"/>
+        <c:axId val="440763904"/>
+        <c:axId val="440765824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521713152"/>
+        <c:axId val="440763904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1422,14 +1429,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521714688"/>
+        <c:crossAx val="440765824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521714688"/>
+        <c:axId val="440765824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1487,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521713152"/>
+        <c:crossAx val="440763904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1671,7 +1678,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1776,6 +1783,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>327892.26130662102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>365774.00759471167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,8 +1800,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="507793792"/>
-        <c:axId val="507353728"/>
+        <c:axId val="490402944"/>
+        <c:axId val="490401152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1816,7 +1826,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1921,6 +1931,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1930,7 +1943,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2035,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,11 +2067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506895744"/>
-        <c:axId val="507352192"/>
+        <c:axId val="490398080"/>
+        <c:axId val="490399616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506895744"/>
+        <c:axId val="490398080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,14 +2114,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507352192"/>
+        <c:crossAx val="490399616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507352192"/>
+        <c:axId val="490399616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,12 +2172,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506895744"/>
+        <c:crossAx val="490398080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507353728"/>
+        <c:axId val="490401152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2198,12 +2214,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507793792"/>
+        <c:crossAx val="490402944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="507793792"/>
+        <c:axId val="490402944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="507353728"/>
+        <c:crossAx val="490401152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2374,7 +2390,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2479,6 +2495,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2493,8 +2512,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="521780608"/>
-        <c:axId val="521778688"/>
+        <c:axId val="462852096"/>
+        <c:axId val="462837632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2519,7 +2538,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2624,6 +2643,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2633,7 +2655,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2738,6 +2760,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2754,11 +2779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521766784"/>
-        <c:axId val="521777152"/>
+        <c:axId val="443004032"/>
+        <c:axId val="462835712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="521766784"/>
+        <c:axId val="443004032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,14 +2826,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521777152"/>
+        <c:crossAx val="462835712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="521777152"/>
+        <c:axId val="462835712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,12 +2884,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521766784"/>
+        <c:crossAx val="443004032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="521778688"/>
+        <c:axId val="462837632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,12 +2926,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521780608"/>
+        <c:crossAx val="462852096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="521780608"/>
+        <c:axId val="462852096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,7 +2940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="521778688"/>
+        <c:crossAx val="462837632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3094,7 +3119,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3199,6 +3224,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3208,7 +3236,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3313,6 +3341,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1069249.641687748</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1101085.5277157002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3355,7 +3386,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3460,6 +3491,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3469,7 +3503,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3574,6 +3608,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>984939.80777662841</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>996008.89196010563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,7 +3653,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3721,6 +3758,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3730,7 +3770,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3835,6 +3875,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-84309.833911119611</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-105076.63575559459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3856,11 +3899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527799040"/>
-        <c:axId val="527801344"/>
+        <c:axId val="464225024"/>
+        <c:axId val="475585920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527799040"/>
+        <c:axId val="464225024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,14 +3946,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527801344"/>
+        <c:crossAx val="475585920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527801344"/>
+        <c:axId val="475585920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3961,7 +4004,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527799040"/>
+        <c:crossAx val="464225024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4152,7 +4195,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4257,6 +4300,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,8 +4317,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="700706176"/>
-        <c:axId val="700704256"/>
+        <c:axId val="603740416"/>
+        <c:axId val="530090624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4297,7 +4343,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4402,6 +4448,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4411,7 +4460,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4516,6 +4565,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4532,11 +4584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="700663296"/>
-        <c:axId val="700664832"/>
+        <c:axId val="529710080"/>
+        <c:axId val="530089088"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="700663296"/>
+        <c:axId val="529710080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4579,14 +4631,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="700664832"/>
+        <c:crossAx val="530089088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="700664832"/>
+        <c:axId val="530089088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4637,12 +4689,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="700663296"/>
+        <c:crossAx val="529710080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="700704256"/>
+        <c:axId val="530090624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4679,12 +4731,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="700706176"/>
+        <c:crossAx val="603740416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="700706176"/>
+        <c:axId val="603740416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4693,7 +4745,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="700704256"/>
+        <c:crossAx val="530090624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4872,7 +4924,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4977,6 +5029,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4986,7 +5041,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5091,6 +5146,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1064908.9450829269</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1096744.8311108791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5133,7 +5191,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5238,6 +5296,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5247,7 +5308,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5352,6 +5413,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>975940.18191274046</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>987199.0172317836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5394,7 +5458,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5499,6 +5563,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5508,7 +5575,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5613,6 +5680,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-88968.76317018643</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-109545.81387909548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5634,11 +5704,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="707311488"/>
-        <c:axId val="708576000"/>
+        <c:axId val="616373632"/>
+        <c:axId val="616375424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="707311488"/>
+        <c:axId val="616373632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5681,14 +5751,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708576000"/>
+        <c:crossAx val="616375424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="708576000"/>
+        <c:axId val="616375424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5739,7 +5809,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="707311488"/>
+        <c:crossAx val="616373632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5930,7 +6000,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6035,6 +6105,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33513.039299013537</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31835.886027952234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6049,8 +6122,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="708621440"/>
-        <c:axId val="708611456"/>
+        <c:axId val="616592128"/>
+        <c:axId val="616588800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6075,7 +6148,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6180,6 +6253,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6189,7 +6265,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6294,6 +6370,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,11 +6389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="708607360"/>
-        <c:axId val="708609536"/>
+        <c:axId val="616567936"/>
+        <c:axId val="616587264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="708607360"/>
+        <c:axId val="616567936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6357,14 +6436,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708609536"/>
+        <c:crossAx val="616587264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="708609536"/>
+        <c:axId val="616587264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6415,12 +6494,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708607360"/>
+        <c:crossAx val="616567936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="708611456"/>
+        <c:axId val="616588800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,12 +6536,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="708621440"/>
+        <c:crossAx val="616592128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="708621440"/>
+        <c:axId val="616592128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6471,7 +6550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="708611456"/>
+        <c:crossAx val="616588800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6650,7 +6729,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6755,6 +6834,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6764,7 +6846,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6869,6 +6951,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8952855.6654767562</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9209443.9285615068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6911,7 +6996,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7016,6 +7101,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7025,7 +7113,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7130,6 +7218,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8424508.2037815619</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8503471.3052840903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7172,7 +7263,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7277,6 +7368,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7286,7 +7380,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7391,6 +7485,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-528347.46169519424</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-705972.62327741645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7412,11 +7509,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="709078400"/>
-        <c:axId val="709105152"/>
+        <c:axId val="625578368"/>
+        <c:axId val="625579904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="709078400"/>
+        <c:axId val="625578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7459,14 +7556,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709105152"/>
+        <c:crossAx val="625579904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="709105152"/>
+        <c:axId val="625579904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7517,7 +7614,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709078400"/>
+        <c:crossAx val="625578368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7708,7 +7805,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7813,6 +7910,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>12687512.837989567</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13082264.026445493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7827,8 +7927,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="709571328"/>
-        <c:axId val="709340160"/>
+        <c:axId val="490341888"/>
+        <c:axId val="490340352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7853,7 +7953,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7958,6 +8058,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7967,7 +8070,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8072,6 +8175,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.66399997472763062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64999997615814209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8088,11 +8194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="709335296"/>
-        <c:axId val="709338624"/>
+        <c:axId val="490328832"/>
+        <c:axId val="490330368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="709335296"/>
+        <c:axId val="490328832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8135,14 +8241,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709338624"/>
+        <c:crossAx val="490330368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="709338624"/>
+        <c:axId val="490330368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8193,12 +8299,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709335296"/>
+        <c:crossAx val="490328832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="709340160"/>
+        <c:axId val="490340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8235,12 +8341,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709571328"/>
+        <c:crossAx val="490341888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="709571328"/>
+        <c:axId val="490341888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8249,7 +8355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="709340160"/>
+        <c:crossAx val="490340352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8428,7 +8534,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8533,6 +8639,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8542,7 +8651,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8647,6 +8756,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7222817.3493951708</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7588591.3569898829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8689,7 +8801,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8794,6 +8906,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8803,7 +8918,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8908,6 +9023,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7409801.6331773251</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7619344.8934633061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8950,7 +9068,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9055,6 +9173,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9064,7 +9185,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9169,6 +9290,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>186984.28378215432</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30753.536473423243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9190,11 +9314,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="710276992"/>
-        <c:axId val="710288512"/>
+        <c:axId val="490365696"/>
+        <c:axId val="490367232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="710276992"/>
+        <c:axId val="490365696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9237,14 +9361,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710288512"/>
+        <c:crossAx val="490367232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="710288512"/>
+        <c:axId val="490367232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9295,7 +9419,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710276992"/>
+        <c:crossAx val="490365696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10009,7 +10133,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10146,28 +10270,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -10178,6 +10302,16 @@
       <c r="AA3" s="11">
         <f>-Z3</f>
         <v>-71470.226080923632</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>-AC3</f>
+        <v>-71470.218956071636</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -10252,9 +10386,16 @@
         <f>-Z4</f>
         <v>-401953.44834350183</v>
       </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="AB4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>-AC4</f>
+        <v>-401953.44479283423</v>
+      </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -10328,9 +10469,16 @@
       <c r="AA5" s="9">
         <v>436532.87606210314</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+      <c r="AB5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>-AC5</f>
+        <v>-377214.1657703988</v>
+      </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -10373,14 +10521,42 @@
         <v>0</v>
       </c>
       <c r="M6" s="9"/>
+      <c r="P6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="R6" s="8">
+        <v>850637.82951930468</v>
+      </c>
+      <c r="S6" s="8">
+        <v>731948.73696905444</v>
+      </c>
+      <c r="T6" s="8">
+        <v>-118689.09255025024</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>-0.13952952529435639</v>
+      </c>
+      <c r="W6" s="19">
+        <v>-8.8470898848600599E-2</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
         <v>-6.8314848168957498E-2</v>
       </c>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="20">
+        <v>731948.73696905444</v>
+      </c>
       <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -10424,6 +10600,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
+      <c r="AD7" s="10">
+        <v>-8.8470898848600599E-2</v>
+      </c>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -11587,6 +11766,47 @@
       <c r="L37" s="14">
         <v>0</v>
       </c>
+    </row>
+    <row r="38" spans="1:12" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="15">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1433925.1104549211</v>
+      </c>
+      <c r="H38" s="15">
+        <v>932051.28760826006</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1037341.6312729785</v>
+      </c>
+      <c r="J38" s="15">
+        <v>932051.28760826006</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-105290.34366471844</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11604,7 +11824,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM37"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11645,7 +11865,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11785,28 +12005,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -11817,6 +12037,16 @@
       <c r="AG3" s="11">
         <f>-AF3</f>
         <v>-71470.226080923632</v>
+      </c>
+      <c r="AH3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AI3" s="11">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AJ3" s="11">
+        <f>-AI3</f>
+        <v>-71470.218956071636</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="14.1" customHeight="1">
@@ -11903,9 +12133,16 @@
         <f>-AF4</f>
         <v>-417772.19972597784</v>
       </c>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
+      <c r="AH4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AI4" s="9">
+        <v>417772.19570939441</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f>-AI4</f>
+        <v>-417772.19570939441</v>
+      </c>
       <c r="AK4" s="17"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
@@ -11991,9 +12228,16 @@
       <c r="AG5" s="9">
         <v>453072.73054277548</v>
       </c>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
+      <c r="AH5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>408088.678461281</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f>-AI5</f>
+        <v>-408088.678461281</v>
+      </c>
       <c r="AK5" s="17"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
@@ -12048,14 +12292,42 @@
       <c r="Q6" s="23"/>
       <c r="R6" s="23"/>
       <c r="S6" s="9"/>
+      <c r="V6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="W6" s="18">
+        <v>408088.678461281</v>
+      </c>
+      <c r="X6" s="8">
+        <v>897331.09312674706</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>776865.95413218427</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>-120465.13899456279</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>-0.1342482612240733</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>-8.5780570033674008E-2</v>
+      </c>
       <c r="AE6" s="9"/>
       <c r="AF6" s="9"/>
       <c r="AG6" s="20">
         <v>-6.5045944429880764E-2</v>
       </c>
-      <c r="AH6" s="9"/>
+      <c r="AH6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AI6" s="9"/>
-      <c r="AJ6" s="20"/>
+      <c r="AJ6" s="20">
+        <v>776865.95413218427</v>
+      </c>
       <c r="AK6" s="17"/>
     </row>
     <row r="7" spans="1:39" ht="14.1" customHeight="1">
@@ -12111,6 +12383,9 @@
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
+      <c r="AJ7" s="10">
+        <v>-8.5780570033674008E-2</v>
+      </c>
       <c r="AM7" s="10"/>
     </row>
     <row r="8" spans="1:39" ht="14.1" customHeight="1">
@@ -13961,6 +14236,74 @@
       <c r="U37" s="11">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:21" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="15">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1532321.4284515313</v>
+      </c>
+      <c r="H38" s="15">
+        <v>996008.89196010563</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1101085.5277157002</v>
+      </c>
+      <c r="J38" s="15">
+        <v>996008.89196010563</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-105076.63575559459</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="23">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="N38" s="23">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="O38" s="23">
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="P38" s="23">
+        <v>0.68021428538504092</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>-2.0214279027212179E-2</v>
+      </c>
+      <c r="R38" s="23">
+        <v>4.6149659192480992E-2</v>
+      </c>
+      <c r="S38" s="9">
+        <v>6.9224488788721488E-4</v>
+      </c>
+      <c r="T38" s="9">
+        <v>-29.201052085639414</v>
+      </c>
+      <c r="U38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -13978,7 +14321,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14019,13 +14362,13 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -14125,28 +14468,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -14157,6 +14500,16 @@
       <c r="AA3" s="11">
         <f>-Z3</f>
         <v>-73512.143931253449</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>73512.136806401439</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>-AC3</f>
+        <v>-73512.136806401439</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -14236,9 +14589,16 @@
         <f>-Z4</f>
         <v>-435170.14208767598</v>
       </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="AB4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>435170.13774605485</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>-AC4</f>
+        <v>-435170.13774605485</v>
+      </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -14317,9 +14677,16 @@
       <c r="AA5" s="9">
         <v>470091.2666619001</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+      <c r="AB5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>391913.02163792512</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>-AC5</f>
+        <v>-391913.02163792512</v>
+      </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -14367,14 +14734,42 @@
       <c r="N6" s="9">
         <v>1</v>
       </c>
+      <c r="P6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>391913.02163792512</v>
+      </c>
+      <c r="R6" s="8">
+        <v>900595.2961903814</v>
+      </c>
+      <c r="S6" s="8">
+        <v>775812.18625010748</v>
+      </c>
+      <c r="T6" s="8">
+        <v>-124783.10994027392</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>-0.13855625325617443</v>
+      </c>
+      <c r="W6" s="19">
+        <v>-8.750731270976897E-2</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
         <v>-6.6849723583970788E-2</v>
       </c>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="20">
+        <v>775812.18625010748</v>
+      </c>
       <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -14423,6 +14818,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
+      <c r="AD7" s="10">
+        <v>-8.750731270976897E-2</v>
+      </c>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -15755,6 +16153,53 @@
       <c r="N37" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>31835.886027952234</v>
+      </c>
+      <c r="F38" s="15">
+        <v>48978.287993362486</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1518767.7745261986</v>
+      </c>
+      <c r="H38" s="15">
+        <v>987199.0172317836</v>
+      </c>
+      <c r="I38" s="15">
+        <v>1096744.8311108791</v>
+      </c>
+      <c r="J38" s="15">
+        <v>987199.0172317836</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-109545.81387909548</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-76.574709137121957</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15772,7 +16217,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15813,7 +16258,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15919,28 +16364,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -15951,6 +16396,16 @@
       <c r="AA3" s="11">
         <f>-Z3</f>
         <v>-250495.57337637764</v>
+      </c>
+      <c r="AB3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="11">
+        <v>250495.52419829773</v>
+      </c>
+      <c r="AD3" s="11">
+        <f>-AC3</f>
+        <v>-250495.52419829773</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="14.1" customHeight="1">
@@ -16030,9 +16485,16 @@
         <f>-Z4</f>
         <v>-3805407.6578482944</v>
       </c>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="AB4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>3805407.5827613538</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>-AC4</f>
+        <v>-3805407.5827613538</v>
+      </c>
       <c r="AE4" s="17"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
@@ -16111,9 +16573,16 @@
       <c r="AA5" s="9">
         <v>3864974.823122385</v>
       </c>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
+      <c r="AB5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>3238983.9113250882</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>-AC5</f>
+        <v>-3238983.9113250882</v>
+      </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
@@ -16161,14 +16630,42 @@
       <c r="N6" s="9">
         <v>1</v>
       </c>
+      <c r="P6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>3238983.9113250882</v>
+      </c>
+      <c r="R6" s="8">
+        <v>7294887.0182847399</v>
+      </c>
+      <c r="S6" s="8">
+        <v>6428643.6917510191</v>
+      </c>
+      <c r="T6" s="8">
+        <v>-866243.32653372083</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19">
+        <v>-0.11874664053911588</v>
+      </c>
+      <c r="W6" s="19">
+        <v>-7.6986041644461101E-2</v>
+      </c>
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="20">
         <v>-4.4450912908414297E-2</v>
       </c>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AC6" s="9"/>
-      <c r="AD6" s="20"/>
+      <c r="AD6" s="20">
+        <v>6428643.6917510191</v>
+      </c>
       <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
@@ -16217,6 +16714,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
+      <c r="AD7" s="10">
+        <v>-7.6986041644461101E-2</v>
+      </c>
       <c r="AG7" s="10"/>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
@@ -17549,6 +18049,53 @@
       <c r="N37" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F38" s="15">
+        <v>394751.18845592643</v>
+      </c>
+      <c r="G38" s="15">
+        <v>13082264.026445493</v>
+      </c>
+      <c r="H38" s="15">
+        <v>8503471.3052840903</v>
+      </c>
+      <c r="I38" s="15">
+        <v>9209443.9285615068</v>
+      </c>
+      <c r="J38" s="15">
+        <v>8503471.3052840903</v>
+      </c>
+      <c r="K38" s="15">
+        <v>-705972.62327741645</v>
+      </c>
+      <c r="L38" s="14">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>-76.574709137121957</v>
+      </c>
+      <c r="N38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17566,7 +18113,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI37"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17607,7 +18154,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -17619,10 +18166,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -17727,28 +18274,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -17759,6 +18306,16 @@
       <c r="AC3" s="11">
         <f>-AB3</f>
         <v>-51416.62008710485</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>51416.609508268921</v>
+      </c>
+      <c r="AF3" s="11">
+        <f>-AE3</f>
+        <v>-51416.609508268921</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="14.1" customHeight="1">
@@ -17844,9 +18401,16 @@
         <f>-AB4</f>
         <v>-1285809.4601705973</v>
       </c>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
+      <c r="AD4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>1285809.4346860019</v>
+      </c>
+      <c r="AF4" s="9">
+        <f>-AE4</f>
+        <v>-1285809.4346860019</v>
+      </c>
       <c r="AG4" s="17"/>
       <c r="AH4" s="9"/>
       <c r="AI4" s="9"/>
@@ -17931,9 +18495,16 @@
       <c r="AC5" s="9">
         <v>1307605.6737520157</v>
       </c>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
+      <c r="AD5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>2098253.5703782365</v>
+      </c>
+      <c r="AF5" s="9">
+        <f>-AE5</f>
+        <v>-2098253.5703782365</v>
+      </c>
       <c r="AG5" s="17"/>
       <c r="AH5" s="9"/>
       <c r="AI5" s="9"/>
@@ -17987,14 +18558,42 @@
       <c r="P6" s="9">
         <v>1</v>
       </c>
+      <c r="R6" s="24">
+        <v>45289</v>
+      </c>
+      <c r="S6" s="18">
+        <v>2098253.5703782365</v>
+      </c>
+      <c r="T6" s="8">
+        <v>3435479.6145725073</v>
+      </c>
+      <c r="U6" s="8">
+        <v>3148524.074557675</v>
+      </c>
+      <c r="V6" s="8">
+        <v>-286955.54001483228</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="19">
+        <v>-8.3527068185074785E-2</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>-6.0576496447798278E-2</v>
+      </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="20">
         <v>-2.1347346964258551E-2</v>
       </c>
-      <c r="AD6" s="9"/>
+      <c r="AD6" s="24">
+        <v>45289</v>
+      </c>
       <c r="AE6" s="9"/>
-      <c r="AF6" s="20"/>
+      <c r="AF6" s="20">
+        <v>3148524.074557675</v>
+      </c>
       <c r="AG6" s="17"/>
     </row>
     <row r="7" spans="1:35" ht="14.1" customHeight="1">
@@ -18049,6 +18648,9 @@
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
+      <c r="AF7" s="10">
+        <v>-6.0576496447798278E-2</v>
+      </c>
       <c r="AI7" s="10"/>
     </row>
     <row r="8" spans="1:35" ht="14.1" customHeight="1">
@@ -19561,6 +20163,59 @@
       <c r="P37" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75">
+      <c r="A38" s="12">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="13">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="13">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="14">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E38" s="14">
+        <v>6567000</v>
+      </c>
+      <c r="F38" s="14">
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="G38" s="14">
+        <v>365774.00759471167</v>
+      </c>
+      <c r="H38" s="15">
+        <v>562729.26309418888</v>
+      </c>
+      <c r="I38" s="15">
+        <v>11722069.496829571</v>
+      </c>
+      <c r="J38" s="15">
+        <v>7619344.8934633061</v>
+      </c>
+      <c r="K38" s="15">
+        <v>7588591.3569898829</v>
+      </c>
+      <c r="L38" s="15">
+        <v>7619344.8934633061</v>
+      </c>
+      <c r="M38" s="15">
+        <v>30753.536473423243</v>
+      </c>
+      <c r="N38" s="14">
+        <v>0</v>
+      </c>
+      <c r="O38" s="9">
+        <v>-76.574709137121957</v>
+      </c>
+      <c r="P38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -344,7 +340,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,7 +404,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -602,7 +597,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -710,6 +705,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -719,7 +717,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -827,6 +825,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1037341.6312729785</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1070260.4159355557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +870,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -977,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,7 +990,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1094,6 +1098,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>932051.28760826006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>944895.12277571461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,7 +1143,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1244,6 +1251,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,7 +1263,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1361,6 +1371,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-105290.34366471844</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-125365.29315984109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,11 +1395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="440763904"/>
-        <c:axId val="440765824"/>
+        <c:axId val="516888064"/>
+        <c:axId val="516889984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="440763904"/>
+        <c:axId val="516888064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1442,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440765824"/>
+        <c:crossAx val="516889984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="440765824"/>
+        <c:axId val="516889984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440763904"/>
+        <c:crossAx val="516888064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1691,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1786,6 +1799,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>365774.00759471167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>594275.72184410866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,8 +1816,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490402944"/>
-        <c:axId val="490401152"/>
+        <c:axId val="648089984"/>
+        <c:axId val="647953024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1826,7 +1842,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1934,6 +1950,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,7 +1962,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2051,6 +2070,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,11 +2089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490398080"/>
-        <c:axId val="490399616"/>
+        <c:axId val="647925760"/>
+        <c:axId val="647951488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490398080"/>
+        <c:axId val="647925760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,14 +2136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490399616"/>
+        <c:crossAx val="647951488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490399616"/>
+        <c:axId val="647951488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2172,12 +2194,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490398080"/>
+        <c:crossAx val="647925760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490401152"/>
+        <c:axId val="647953024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,12 +2236,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490402944"/>
+        <c:crossAx val="648089984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490402944"/>
+        <c:axId val="648089984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490401152"/>
+        <c:crossAx val="647953024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2390,7 +2412,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2498,6 +2520,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,8 +2537,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="462852096"/>
-        <c:axId val="462837632"/>
+        <c:axId val="516953600"/>
+        <c:axId val="516951040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2538,7 +2563,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2646,6 +2671,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,7 +2683,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2763,6 +2791,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,11 +2810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="443004032"/>
-        <c:axId val="462835712"/>
+        <c:axId val="516939136"/>
+        <c:axId val="516949120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="443004032"/>
+        <c:axId val="516939136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,14 +2857,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462835712"/>
+        <c:crossAx val="516949120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462835712"/>
+        <c:axId val="516949120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2884,12 +2915,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443004032"/>
+        <c:crossAx val="516939136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="462837632"/>
+        <c:axId val="516951040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,12 +2957,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462852096"/>
+        <c:crossAx val="516953600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="462852096"/>
+        <c:axId val="516953600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,7 +2971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462837632"/>
+        <c:crossAx val="516951040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3119,7 +3150,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3227,6 +3258,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3236,7 +3270,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3344,6 +3378,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1101085.5277157002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1134004.3123782773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3386,7 +3423,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3494,6 +3531,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3503,7 +3543,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3611,6 +3651,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>996008.89196010563</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1007475.1788163647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3653,7 +3696,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3761,6 +3804,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3770,7 +3816,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3878,6 +3924,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-105076.63575559459</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-126529.13356191257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3899,11 +3948,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464225024"/>
-        <c:axId val="475585920"/>
+        <c:axId val="517003136"/>
+        <c:axId val="535076224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464225024"/>
+        <c:axId val="517003136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3946,14 +3995,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475585920"/>
+        <c:crossAx val="535076224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475585920"/>
+        <c:axId val="535076224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4053,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464225024"/>
+        <c:crossAx val="517003136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4195,7 +4244,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4303,6 +4352,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32918.784662577113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4317,8 +4369,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603740416"/>
-        <c:axId val="530090624"/>
+        <c:axId val="570302848"/>
+        <c:axId val="569768576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4343,7 +4395,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4451,6 +4503,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4460,7 +4515,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4568,6 +4623,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4584,11 +4642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529710080"/>
-        <c:axId val="530089088"/>
+        <c:axId val="569560064"/>
+        <c:axId val="569766656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529710080"/>
+        <c:axId val="569560064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4631,14 +4689,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530089088"/>
+        <c:crossAx val="569766656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530089088"/>
+        <c:axId val="569766656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4689,12 +4747,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529710080"/>
+        <c:crossAx val="569560064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="530090624"/>
+        <c:axId val="569768576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,12 +4789,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603740416"/>
+        <c:crossAx val="570302848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="603740416"/>
+        <c:axId val="570302848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4745,7 +4803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530090624"/>
+        <c:crossAx val="569768576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4924,7 +4982,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5032,6 +5090,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5041,7 +5102,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5149,6 +5210,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1096744.8311108791</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1136247.3727059716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5191,7 +5255,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5299,6 +5363,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5308,7 +5375,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5416,6 +5483,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>987199.0172317836</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1005438.8121561242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5458,7 +5528,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5566,6 +5636,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5575,7 +5648,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5683,6 +5756,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-109545.81387909548</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-130808.56054984743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,11 +5780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616373632"/>
-        <c:axId val="616375424"/>
+        <c:axId val="613539200"/>
+        <c:axId val="615914880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616373632"/>
+        <c:axId val="613539200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5751,14 +5827,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616375424"/>
+        <c:crossAx val="615914880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616375424"/>
+        <c:axId val="615914880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5809,7 +5885,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616373632"/>
+        <c:crossAx val="613539200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6000,7 +6076,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6108,6 +6184,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>31835.886027952234</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39502.541595092531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6122,8 +6201,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616592128"/>
-        <c:axId val="616588800"/>
+        <c:axId val="639634048"/>
+        <c:axId val="639019648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6148,7 +6227,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6256,6 +6335,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6265,7 +6347,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6373,6 +6455,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6389,11 +6474,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616567936"/>
-        <c:axId val="616587264"/>
+        <c:axId val="639007360"/>
+        <c:axId val="639017728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616567936"/>
+        <c:axId val="639007360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6436,14 +6521,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616587264"/>
+        <c:crossAx val="639017728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616587264"/>
+        <c:axId val="639017728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6494,12 +6579,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616567936"/>
+        <c:crossAx val="639007360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616588800"/>
+        <c:axId val="639019648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6536,12 +6621,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616592128"/>
+        <c:crossAx val="639634048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="616592128"/>
+        <c:axId val="639634048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,7 +6635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616588800"/>
+        <c:crossAx val="639019648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6729,7 +6814,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6837,6 +6922,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6846,7 +6934,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6954,6 +7042,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9209443.9285615068</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9538652.9565091897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6996,7 +7087,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7104,6 +7195,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7113,7 +7207,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7221,6 +7315,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8503471.3052840903</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8649528.6555758659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7263,7 +7360,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7371,6 +7468,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7380,7 +7480,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7488,6 +7588,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-705972.62327741645</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-889124.3009333238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7509,11 +7612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="625578368"/>
-        <c:axId val="625579904"/>
+        <c:axId val="639685376"/>
+        <c:axId val="639686912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="625578368"/>
+        <c:axId val="639685376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7556,14 +7659,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625579904"/>
+        <c:crossAx val="639686912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625579904"/>
+        <c:axId val="639686912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7614,7 +7717,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625578368"/>
+        <c:crossAx val="639685376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7805,7 +7908,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7913,6 +8016,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>13082264.026445493</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13599888.302464895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7927,8 +8033,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="490341888"/>
-        <c:axId val="490340352"/>
+        <c:axId val="640265600"/>
+        <c:axId val="640263680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7953,7 +8059,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8061,6 +8167,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8070,7 +8179,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8178,6 +8287,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0.64999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63599997758865356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8194,11 +8306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490328832"/>
-        <c:axId val="490330368"/>
+        <c:axId val="640182144"/>
+        <c:axId val="640183680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490328832"/>
+        <c:axId val="640182144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8241,14 +8353,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490330368"/>
+        <c:crossAx val="640183680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490330368"/>
+        <c:axId val="640183680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8299,12 +8411,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490328832"/>
+        <c:crossAx val="640182144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="490340352"/>
+        <c:axId val="640263680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8341,12 +8453,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490341888"/>
+        <c:crossAx val="640265600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="490341888"/>
+        <c:axId val="640265600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8355,7 +8467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="490340352"/>
+        <c:crossAx val="640263680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8534,7 +8646,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8642,6 +8754,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8651,7 +8766,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8759,6 +8874,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7588591.3569898829</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8182867.0788339917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8801,7 +8919,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8909,6 +9027,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8918,7 +9039,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9026,6 +9147,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7619344.8934633061</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8049511.6591203548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9068,7 +9192,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9176,6 +9300,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9185,7 +9312,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9293,6 +9420,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>30753.536473423243</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-133355.41971363686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9314,11 +9444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490365696"/>
-        <c:axId val="490367232"/>
+        <c:axId val="647074944"/>
+        <c:axId val="647077248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490365696"/>
+        <c:axId val="647074944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9361,14 +9491,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490367232"/>
+        <c:crossAx val="647077248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490367232"/>
+        <c:axId val="647077248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9419,7 +9549,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490365696"/>
+        <c:crossAx val="647074944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10270,28 +10400,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -11805,8 +11935,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:12" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F39" s="15">
+        <v>51759.097205295868</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1485684.2076602171</v>
+      </c>
+      <c r="H39" s="15">
+        <v>944895.12277571461</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1070260.4159355557</v>
+      </c>
+      <c r="J39" s="15">
+        <v>944895.12277571461</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-125365.29315984109</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11865,7 +12030,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -11901,10 +12066,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -11925,7 +12090,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -12005,28 +12170,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -14302,8 +14467,70 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:21" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>32918.784662577113</v>
+      </c>
+      <c r="F39" s="15">
+        <v>51759.097205295868</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1584080.5256568273</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1007475.1788163647</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1134004.3123782773</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1007475.1788163647</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-126529.13356191257</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="23">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="N39" s="23">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="O39" s="23">
+        <v>0.64500000079472863</v>
+      </c>
+      <c r="P39" s="23">
+        <v>0.67228571431977413</v>
+      </c>
+      <c r="Q39" s="23">
+        <v>-2.7285713525045496E-2</v>
+      </c>
+      <c r="R39" s="23">
+        <v>4.0986394192896743E-2</v>
+      </c>
+      <c r="S39" s="9">
+        <v>6.1479591289345117E-4</v>
+      </c>
+      <c r="T39" s="9">
+        <v>-44.381741896476008</v>
+      </c>
+      <c r="U39" s="11">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -14362,7 +14589,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -14401,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -14468,28 +14695,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -16198,8 +16425,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:14" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>39502.541595092531</v>
+      </c>
+      <c r="F39" s="15">
+        <v>62110.916646355035</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1580878.6911725537</v>
+      </c>
+      <c r="H39" s="15">
+        <v>1005438.8121561242</v>
+      </c>
+      <c r="I39" s="15">
+        <v>1136247.3727059716</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1005438.8121561242</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-130808.56054984743</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-109.41232702522433</v>
+      </c>
+      <c r="N39" s="9">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16258,7 +16526,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16297,7 +16565,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16364,28 +16632,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -18094,8 +18362,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:14" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>329209.02794768271</v>
+      </c>
+      <c r="F39" s="15">
+        <v>517624.27601940202</v>
+      </c>
+      <c r="G39" s="15">
+        <v>13599888.302464895</v>
+      </c>
+      <c r="H39" s="15">
+        <v>8649528.6555758659</v>
+      </c>
+      <c r="I39" s="15">
+        <v>9538652.9565091897</v>
+      </c>
+      <c r="J39" s="15">
+        <v>8649528.6555758659</v>
+      </c>
+      <c r="K39" s="15">
+        <v>-889124.3009333238</v>
+      </c>
+      <c r="L39" s="14">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>-109.41232702522433</v>
+      </c>
+      <c r="N39" s="9">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18154,7 +18463,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -18166,10 +18475,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -18199,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -18274,28 +18583,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -20214,8 +20523,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="31"/>
+    <row r="39" spans="1:16" ht="12.75">
+      <c r="A39" s="12">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="13">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="13">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="14">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E39" s="14">
+        <v>8456200</v>
+      </c>
+      <c r="F39" s="14">
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="G39" s="14">
+        <v>594275.72184410866</v>
+      </c>
+      <c r="H39" s="15">
+        <v>934395.82198927226</v>
+      </c>
+      <c r="I39" s="15">
+        <v>12656465.318818843</v>
+      </c>
+      <c r="J39" s="15">
+        <v>8049511.6591203548</v>
+      </c>
+      <c r="K39" s="15">
+        <v>8182867.0788339917</v>
+      </c>
+      <c r="L39" s="15">
+        <v>8049511.6591203548</v>
+      </c>
+      <c r="M39" s="15">
+        <v>-133355.41971363686</v>
+      </c>
+      <c r="N39" s="14">
+        <v>0</v>
+      </c>
+      <c r="O39" s="9">
+        <v>-109.41232702522433</v>
+      </c>
+      <c r="P39" s="9">
+        <v>1.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)PE副本" sheetId="9" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,6 +133,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -157,6 +161,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,6 +174,10 @@
   </si>
   <si>
     <t>标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -597,7 +609,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -708,6 +720,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,7 +732,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -828,6 +843,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1070260.4159355557</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1102813.3837142217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,7 +888,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -981,6 +999,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +1011,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1101,6 +1122,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>944895.12277571461</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>972991.0953141842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1143,7 +1167,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1254,6 +1278,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,7 +1290,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1374,6 +1401,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-125365.29315984109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-129822.28840003745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,11 +1425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516888064"/>
-        <c:axId val="516889984"/>
+        <c:axId val="482397568"/>
+        <c:axId val="487061376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516888064"/>
+        <c:axId val="482397568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,14 +1472,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516889984"/>
+        <c:crossAx val="487061376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516889984"/>
+        <c:axId val="487061376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1530,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516888064"/>
+        <c:crossAx val="482397568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1691,7 +1721,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1802,6 +1832,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>594275.72184410866</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>507434.47455627128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,8 +1849,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="648089984"/>
-        <c:axId val="647953024"/>
+        <c:axId val="492076032"/>
+        <c:axId val="492074496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1842,7 +1875,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1953,6 +1986,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,7 +1998,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2073,6 +2109,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,11 +2128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="647925760"/>
-        <c:axId val="647951488"/>
+        <c:axId val="492071168"/>
+        <c:axId val="492072960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="647925760"/>
+        <c:axId val="492071168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,14 +2175,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647951488"/>
+        <c:crossAx val="492072960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="647951488"/>
+        <c:axId val="492072960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,12 +2233,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647925760"/>
+        <c:crossAx val="492071168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="647953024"/>
+        <c:axId val="492074496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2236,12 +2275,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648089984"/>
+        <c:crossAx val="492076032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="648089984"/>
+        <c:axId val="492076032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="647953024"/>
+        <c:crossAx val="492074496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2412,7 +2451,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2523,6 +2562,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2537,8 +2579,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516953600"/>
-        <c:axId val="516951040"/>
+        <c:axId val="527746560"/>
+        <c:axId val="527737600"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2563,7 +2605,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2674,6 +2716,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2683,7 +2728,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2794,6 +2839,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,11 +2858,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516939136"/>
-        <c:axId val="516949120"/>
+        <c:axId val="516044672"/>
+        <c:axId val="526628736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516939136"/>
+        <c:axId val="516044672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,14 +2905,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516949120"/>
+        <c:crossAx val="526628736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516949120"/>
+        <c:axId val="526628736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,12 +2963,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516939136"/>
+        <c:crossAx val="516044672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516951040"/>
+        <c:axId val="527737600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,12 +3005,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516953600"/>
+        <c:crossAx val="527746560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="516953600"/>
+        <c:axId val="527746560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,7 +3019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516951040"/>
+        <c:crossAx val="527737600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3150,7 +3198,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3261,6 +3309,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3270,7 +3321,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3381,6 +3432,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1134004.3123782773</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1166557.2801569432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,7 +3477,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3534,6 +3588,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,7 +3600,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3654,6 +3711,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1007475.1788163647</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1035275.9662012851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3696,7 +3756,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3807,6 +3867,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3816,7 +3879,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3927,6 +3990,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-126529.13356191257</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-131281.31395565812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3948,11 +4014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517003136"/>
-        <c:axId val="535076224"/>
+        <c:axId val="560224128"/>
+        <c:axId val="560470272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517003136"/>
+        <c:axId val="560224128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,14 +4061,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535076224"/>
+        <c:crossAx val="560470272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="535076224"/>
+        <c:axId val="560470272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4053,7 +4119,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517003136"/>
+        <c:crossAx val="560224128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4244,7 +4310,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4355,6 +4421,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32918.784662577113</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4369,8 +4438,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="570302848"/>
-        <c:axId val="569768576"/>
+        <c:axId val="601814528"/>
+        <c:axId val="601786240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4395,7 +4464,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4506,6 +4575,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4515,7 +4587,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4626,6 +4698,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4642,11 +4717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="569560064"/>
-        <c:axId val="569766656"/>
+        <c:axId val="601780992"/>
+        <c:axId val="601782912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="569560064"/>
+        <c:axId val="601780992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4689,14 +4764,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569766656"/>
+        <c:crossAx val="601782912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="569766656"/>
+        <c:axId val="601782912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4747,12 +4822,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569560064"/>
+        <c:crossAx val="601780992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="569768576"/>
+        <c:axId val="601786240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,12 +4864,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570302848"/>
+        <c:crossAx val="601814528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="570302848"/>
+        <c:axId val="601814528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,7 +4878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="569768576"/>
+        <c:crossAx val="601786240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4982,7 +5057,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5093,6 +5168,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5102,7 +5180,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5213,6 +5291,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1136247.3727059716</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1168800.3404846375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5255,7 +5336,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5366,6 +5447,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5375,7 +5459,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5486,6 +5570,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1005438.8121561242</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1033249.2049208303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5528,7 +5615,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5639,6 +5726,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5648,7 +5738,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5759,6 +5849,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-130808.56054984743</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-135551.13556380721</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5780,11 +5873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="613539200"/>
-        <c:axId val="615914880"/>
+        <c:axId val="603473024"/>
+        <c:axId val="603475328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="613539200"/>
+        <c:axId val="603473024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5827,14 +5920,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="615914880"/>
+        <c:crossAx val="603475328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="615914880"/>
+        <c:axId val="603475328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5885,7 +5978,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613539200"/>
+        <c:crossAx val="603473024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6076,7 +6169,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6187,6 +6280,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>39502.541595092531</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32552.967778666007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6201,8 +6297,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="639634048"/>
-        <c:axId val="639019648"/>
+        <c:axId val="642470272"/>
+        <c:axId val="642394368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6227,7 +6323,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6338,6 +6434,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6347,7 +6446,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6458,6 +6557,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6474,11 +6576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639007360"/>
-        <c:axId val="639017728"/>
+        <c:axId val="626129920"/>
+        <c:axId val="642392832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="639007360"/>
+        <c:axId val="626129920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6521,14 +6623,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639017728"/>
+        <c:crossAx val="642392832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="639017728"/>
+        <c:axId val="642392832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6579,12 +6681,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639007360"/>
+        <c:crossAx val="626129920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="639019648"/>
+        <c:axId val="642394368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6621,12 +6723,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639634048"/>
+        <c:crossAx val="642470272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="639634048"/>
+        <c:axId val="642470272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6635,7 +6737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639019648"/>
+        <c:crossAx val="642394368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6814,7 +6916,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6925,6 +7027,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6934,7 +7039,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7045,6 +7150,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9538652.9565091897</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9806930.351749409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7087,7 +7195,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7198,6 +7306,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7207,7 +7318,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7318,6 +7429,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8649528.6555758659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8877006.9111881889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7360,7 +7474,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7471,6 +7585,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7480,7 +7597,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7591,6 +7708,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-889124.3009333238</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-929923.44056122005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7612,11 +7732,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639685376"/>
-        <c:axId val="639686912"/>
+        <c:axId val="650145152"/>
+        <c:axId val="650253824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="639685376"/>
+        <c:axId val="650145152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7659,14 +7779,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639686912"/>
+        <c:crossAx val="650253824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="639686912"/>
+        <c:axId val="650253824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7717,7 +7837,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639685376"/>
+        <c:crossAx val="650145152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7908,7 +8028,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8019,6 +8139,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>13599888.302464895</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14023707.241436571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8033,8 +8156,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="640265600"/>
-        <c:axId val="640263680"/>
+        <c:axId val="491326848"/>
+        <c:axId val="491325312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8059,7 +8182,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8170,6 +8293,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8179,7 +8305,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8290,6 +8416,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.63599997758865356</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63300001621246338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8306,11 +8435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="640182144"/>
-        <c:axId val="640183680"/>
+        <c:axId val="491289216"/>
+        <c:axId val="491323776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640182144"/>
+        <c:axId val="491289216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8353,14 +8482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640183680"/>
+        <c:crossAx val="491323776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="640183680"/>
+        <c:axId val="491323776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8411,12 +8540,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640182144"/>
+        <c:crossAx val="491289216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="640263680"/>
+        <c:axId val="491325312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8453,12 +8582,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640265600"/>
+        <c:crossAx val="491326848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="640265600"/>
+        <c:axId val="491326848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8467,7 +8596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="640263680"/>
+        <c:crossAx val="491325312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8646,7 +8775,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8757,6 +8886,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8766,7 +8898,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8877,6 +9009,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8182867.0788339917</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8690301.5533902626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8919,7 +9054,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9030,6 +9165,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9039,7 +9177,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9150,6 +9288,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8049511.6591203548</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8518977.2265610788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9192,7 +9333,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9303,6 +9444,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9312,7 +9456,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9423,6 +9567,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-133355.41971363686</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-171324.32682918385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9444,11 +9591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="647074944"/>
-        <c:axId val="647077248"/>
+        <c:axId val="492046976"/>
+        <c:axId val="492048768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="647074944"/>
+        <c:axId val="492046976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9491,14 +9638,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647077248"/>
+        <c:crossAx val="492048768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="647077248"/>
+        <c:axId val="492048768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9549,7 +9696,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647074944"/>
+        <c:crossAx val="492046976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10263,7 +10410,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10400,28 +10547,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -11970,6 +12117,44 @@
         <v>-125365.29315984109</v>
       </c>
       <c r="L39" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="15">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1537110.6957248552</v>
+      </c>
+      <c r="H40" s="15">
+        <v>972991.0953141842</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1102813.3837142217</v>
+      </c>
+      <c r="J40" s="15">
+        <v>972991.0953141842</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-129822.28840003745</v>
+      </c>
+      <c r="L40" s="14">
         <v>0</v>
       </c>
     </row>
@@ -11989,7 +12174,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12033,7 +12218,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -12066,10 +12251,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -12090,7 +12275,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -12170,28 +12355,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -14529,6 +14714,71 @@
         <v>-44.381741896476008</v>
       </c>
       <c r="U39" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="15">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1635507.0137214654</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1035275.9662012851</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1166557.2801569432</v>
+      </c>
+      <c r="J40" s="15">
+        <v>1035275.9662012851</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-131281.31395565812</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="23">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="N40" s="23">
+        <v>0.61299997568130493</v>
+      </c>
+      <c r="O40" s="23">
+        <v>0.63166666030883789</v>
+      </c>
+      <c r="P40" s="23">
+        <v>0.66545238097508741</v>
+      </c>
+      <c r="Q40" s="23">
+        <v>-3.3785720666249519E-2</v>
+      </c>
+      <c r="R40" s="23">
+        <v>3.7027211416335297E-2</v>
+      </c>
+      <c r="S40" s="9">
+        <v>5.5540817124502941E-4</v>
+      </c>
+      <c r="T40" s="9">
+        <v>-60.830435012351074</v>
+      </c>
+      <c r="U40" s="11">
         <v>1</v>
       </c>
     </row>
@@ -14548,7 +14798,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14595,7 +14845,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -14628,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -14695,28 +14945,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -16467,6 +16717,50 @@
       </c>
       <c r="N39" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>32552.967778666007</v>
+      </c>
+      <c r="F40" s="15">
+        <v>51426.488064638157</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1632305.1792371918</v>
+      </c>
+      <c r="H40" s="15">
+        <v>1033249.2049208303</v>
+      </c>
+      <c r="I40" s="15">
+        <v>1168800.3404846375</v>
+      </c>
+      <c r="J40" s="15">
+        <v>1033249.2049208303</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-135551.13556380721</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>-35.422966834096719</v>
+      </c>
+      <c r="N40" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16485,7 +16779,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16526,10 +16820,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -16565,7 +16859,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16632,28 +16926,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -18404,6 +18698,50 @@
       </c>
       <c r="N39" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F40" s="15">
+        <v>423818.93897167547</v>
+      </c>
+      <c r="G40" s="15">
+        <v>14023707.241436571</v>
+      </c>
+      <c r="H40" s="15">
+        <v>8877006.9111881889</v>
+      </c>
+      <c r="I40" s="15">
+        <v>9806930.351749409</v>
+      </c>
+      <c r="J40" s="15">
+        <v>8877006.9111881889</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-929923.44056122005</v>
+      </c>
+      <c r="L40" s="14">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>-35.422966834096719</v>
+      </c>
+      <c r="N40" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -18422,7 +18760,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI39"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18463,10 +18801,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -18475,10 +18813,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -18508,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -18583,28 +18921,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -20571,6 +20909,56 @@
       </c>
       <c r="P39" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75">
+      <c r="A40" s="12">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="13">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="14">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E40" s="14">
+        <v>9012202</v>
+      </c>
+      <c r="F40" s="14">
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="G40" s="14">
+        <v>507434.47455627128</v>
+      </c>
+      <c r="H40" s="15">
+        <v>801634.22047362686</v>
+      </c>
+      <c r="I40" s="15">
+        <v>13458099.53929247</v>
+      </c>
+      <c r="J40" s="15">
+        <v>8518977.2265610788</v>
+      </c>
+      <c r="K40" s="15">
+        <v>8690301.5533902626</v>
+      </c>
+      <c r="L40" s="15">
+        <v>8518977.2265610788</v>
+      </c>
+      <c r="M40" s="15">
+        <v>-171324.32682918385</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <v>-35.422966834096719</v>
+      </c>
+      <c r="P40" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)PE副本" sheetId="9" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -161,7 +157,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -174,10 +170,6 @@
   </si>
   <si>
     <t>标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -609,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -723,6 +715,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -732,7 +727,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -846,6 +841,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1102813.3837142217</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1123194.2613669224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,7 +886,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1002,6 +1000,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1011,7 +1012,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1125,6 +1126,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>972991.0953141842</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>958018.42403340735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1171,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1281,6 +1285,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,7 +1297,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1404,6 +1411,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-129822.28840003745</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-165175.83733351505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1425,11 +1435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="482397568"/>
-        <c:axId val="487061376"/>
+        <c:axId val="467401728"/>
+        <c:axId val="469858176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="482397568"/>
+        <c:axId val="467401728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,14 +1482,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487061376"/>
+        <c:crossAx val="469858176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487061376"/>
+        <c:axId val="469858176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1540,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="482397568"/>
+        <c:crossAx val="467401728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1721,7 +1731,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1835,6 +1845,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>507434.47455627128</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>153276.65795835006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,8 +1862,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492076032"/>
-        <c:axId val="492074496"/>
+        <c:axId val="731962752"/>
+        <c:axId val="731960832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1875,7 +1888,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1989,6 +2002,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,7 +2014,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2112,6 +2128,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,11 +2147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492071168"/>
-        <c:axId val="492072960"/>
+        <c:axId val="728844544"/>
+        <c:axId val="731959296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492071168"/>
+        <c:axId val="728844544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2175,14 +2194,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492072960"/>
+        <c:crossAx val="731959296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492072960"/>
+        <c:axId val="731959296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,12 +2252,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492071168"/>
+        <c:crossAx val="728844544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492074496"/>
+        <c:axId val="731960832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,12 +2294,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492076032"/>
+        <c:crossAx val="731962752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492076032"/>
+        <c:axId val="731962752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,7 +2308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492074496"/>
+        <c:crossAx val="731960832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2451,7 +2470,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2565,6 +2584,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2579,8 +2601,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527746560"/>
-        <c:axId val="527737600"/>
+        <c:axId val="527646720"/>
+        <c:axId val="488900864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2605,7 +2627,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2719,6 +2741,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2728,7 +2753,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2842,6 +2867,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,11 +2886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516044672"/>
-        <c:axId val="526628736"/>
+        <c:axId val="471258240"/>
+        <c:axId val="471260160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516044672"/>
+        <c:axId val="471258240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2905,14 +2933,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526628736"/>
+        <c:crossAx val="471260160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526628736"/>
+        <c:axId val="471260160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,12 +2991,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516044672"/>
+        <c:crossAx val="471258240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527737600"/>
+        <c:axId val="488900864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,12 +3033,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527746560"/>
+        <c:crossAx val="527646720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527746560"/>
+        <c:axId val="527646720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527737600"/>
+        <c:crossAx val="488900864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3198,7 +3226,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3312,6 +3340,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3321,7 +3352,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3435,6 +3466,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1166557.2801569432</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1186938.157809644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3477,7 +3511,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3591,6 +3625,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3600,7 +3637,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3714,6 +3751,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1035275.9662012851</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1018040.1794189102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3756,7 +3796,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3870,6 +3910,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3879,7 +3922,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3993,6 +4036,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-131281.31395565812</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-168897.97839073383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4014,11 +4060,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="560224128"/>
-        <c:axId val="560470272"/>
+        <c:axId val="527689216"/>
+        <c:axId val="527690752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="560224128"/>
+        <c:axId val="527689216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4061,14 +4107,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560470272"/>
+        <c:crossAx val="527690752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560470272"/>
+        <c:axId val="527690752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,7 +4165,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560224128"/>
+        <c:crossAx val="527689216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4310,7 +4356,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4424,6 +4470,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4438,8 +4487,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="601814528"/>
-        <c:axId val="601786240"/>
+        <c:axId val="527803904"/>
+        <c:axId val="527785344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4464,7 +4513,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4578,6 +4627,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4587,7 +4639,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4701,6 +4753,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4717,11 +4772,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601780992"/>
-        <c:axId val="601782912"/>
+        <c:axId val="527781888"/>
+        <c:axId val="527783808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601780992"/>
+        <c:axId val="527781888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4764,14 +4819,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601782912"/>
+        <c:crossAx val="527783808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601782912"/>
+        <c:axId val="527783808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4822,12 +4877,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601780992"/>
+        <c:crossAx val="527781888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="601786240"/>
+        <c:axId val="527785344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4864,12 +4919,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601814528"/>
+        <c:crossAx val="527803904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="601814528"/>
+        <c:axId val="527803904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4878,7 +4933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601786240"/>
+        <c:crossAx val="527785344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5057,7 +5112,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5171,6 +5226,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5180,7 +5238,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5294,6 +5352,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1168800.3404846375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1189181.2181373383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5336,7 +5397,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5450,6 +5511,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5459,7 +5523,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5573,6 +5637,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1033249.2049208303</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1016087.0603377006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5615,7 +5682,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5729,6 +5796,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5738,7 +5808,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5852,6 +5922,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-135551.13556380721</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-173094.15779963764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5873,11 +5946,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603473024"/>
-        <c:axId val="603475328"/>
+        <c:axId val="709136768"/>
+        <c:axId val="709139456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603473024"/>
+        <c:axId val="709136768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5920,14 +5993,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603475328"/>
+        <c:crossAx val="709139456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603475328"/>
+        <c:axId val="709139456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5978,7 +6051,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603473024"/>
+        <c:crossAx val="709136768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6169,7 +6242,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6283,6 +6356,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32552.967778666007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20380.877652700809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6297,8 +6373,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="642470272"/>
-        <c:axId val="642394368"/>
+        <c:axId val="709607424"/>
+        <c:axId val="709331200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6323,7 +6399,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6437,6 +6513,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6446,7 +6525,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6560,6 +6639,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6576,11 +6658,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626129920"/>
-        <c:axId val="642392832"/>
+        <c:axId val="709225472"/>
+        <c:axId val="709313664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626129920"/>
+        <c:axId val="709225472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6623,14 +6705,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642392832"/>
+        <c:crossAx val="709313664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="642392832"/>
+        <c:axId val="709313664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6681,12 +6763,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626129920"/>
+        <c:crossAx val="709225472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="642394368"/>
+        <c:axId val="709331200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6723,12 +6805,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642470272"/>
+        <c:crossAx val="709607424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="642470272"/>
+        <c:axId val="709607424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6737,7 +6819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642394368"/>
+        <c:crossAx val="709331200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6916,7 +6998,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7030,6 +7112,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7039,7 +7124,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7153,6 +7238,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9806930.351749409</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9912089.8894441836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7195,7 +7283,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7309,6 +7397,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7318,7 +7409,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7432,6 +7523,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8877006.9111881889</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8659621.1555818245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7474,7 +7568,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7588,6 +7682,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7597,7 +7694,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7711,6 +7808,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-929923.44056122005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1252468.7338623591</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7732,11 +7832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="650145152"/>
-        <c:axId val="650253824"/>
+        <c:axId val="709809280"/>
+        <c:axId val="709811584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="650145152"/>
+        <c:axId val="709809280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7779,14 +7879,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650253824"/>
+        <c:crossAx val="709811584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="650253824"/>
+        <c:axId val="709811584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7837,7 +7937,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650145152"/>
+        <c:crossAx val="709809280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8028,7 +8128,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8142,6 +8242,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>14023707.241436571</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14196099.922139321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8156,8 +8259,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491326848"/>
-        <c:axId val="491325312"/>
+        <c:axId val="711321472"/>
+        <c:axId val="711319936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8182,7 +8285,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8296,6 +8399,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8305,7 +8411,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8419,6 +8525,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.63300001621246338</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61000001430511475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8435,11 +8544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491289216"/>
-        <c:axId val="491323776"/>
+        <c:axId val="710052096"/>
+        <c:axId val="711316992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491289216"/>
+        <c:axId val="710052096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8482,14 +8591,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491323776"/>
+        <c:crossAx val="711316992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491323776"/>
+        <c:axId val="711316992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8540,12 +8649,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491289216"/>
+        <c:crossAx val="710052096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491325312"/>
+        <c:axId val="711319936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8582,12 +8691,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491326848"/>
+        <c:crossAx val="711321472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491326848"/>
+        <c:axId val="711321472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8596,7 +8705,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491325312"/>
+        <c:crossAx val="711319936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8775,7 +8884,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8889,6 +8998,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8898,7 +9010,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9012,6 +9124,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8690301.5533902626</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8843578.2113486119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9054,7 +9169,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9168,6 +9283,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9177,7 +9295,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9291,6 +9409,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8518977.2265610788</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8362717.5694464147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9333,7 +9454,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9447,6 +9568,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9456,7 +9580,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9570,6 +9694,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-171324.32682918385</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-480860.64190219715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9591,11 +9718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492046976"/>
-        <c:axId val="492048768"/>
+        <c:axId val="727188224"/>
+        <c:axId val="727190144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492046976"/>
+        <c:axId val="727188224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9638,14 +9765,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492048768"/>
+        <c:crossAx val="727190144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492048768"/>
+        <c:axId val="727190144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9696,7 +9823,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492046976"/>
+        <c:crossAx val="727188224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10410,7 +10537,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10547,28 +10674,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -12155,6 +12282,44 @@
         <v>-129822.28840003745</v>
       </c>
       <c r="L40" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="15">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1570521.9697818202</v>
+      </c>
+      <c r="H41" s="15">
+        <v>958018.42403340735</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1123194.2613669224</v>
+      </c>
+      <c r="J41" s="15">
+        <v>958018.42403340735</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-165175.83733351505</v>
+      </c>
+      <c r="L41" s="14">
         <v>0</v>
       </c>
     </row>
@@ -12174,7 +12339,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM40"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12215,10 +12380,10 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -12251,10 +12416,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -12275,7 +12440,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -12355,28 +12520,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -14779,6 +14944,71 @@
         <v>-60.830435012351074</v>
       </c>
       <c r="U40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="15">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1668918.2877784304</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1018040.1794189102</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1186938.157809644</v>
+      </c>
+      <c r="J41" s="15">
+        <v>1018040.1794189102</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-168897.97839073383</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="23">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="N41" s="23">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="O41" s="23">
+        <v>0.60999999443689978</v>
+      </c>
+      <c r="P41" s="23">
+        <v>0.65569047558875304</v>
+      </c>
+      <c r="Q41" s="23">
+        <v>-4.5690481151853257E-2</v>
+      </c>
+      <c r="R41" s="23">
+        <v>3.2074830969985625E-2</v>
+      </c>
+      <c r="S41" s="9">
+        <v>4.8112246454978433E-4</v>
+      </c>
+      <c r="T41" s="9">
+        <v>-94.966426468172983</v>
+      </c>
+      <c r="U41" s="11">
         <v>1</v>
       </c>
     </row>
@@ -14798,7 +15028,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14845,7 +15075,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -14878,7 +15108,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -14945,28 +15175,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -16760,6 +16990,50 @@
         <v>-35.422966834096719</v>
       </c>
       <c r="N40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>20380.877652700809</v>
+      </c>
+      <c r="F41" s="15">
+        <v>33411.274056965078</v>
+      </c>
+      <c r="G41" s="15">
+        <v>1665716.4532941568</v>
+      </c>
+      <c r="H41" s="15">
+        <v>1016087.0603377006</v>
+      </c>
+      <c r="I41" s="15">
+        <v>1189181.2181373383</v>
+      </c>
+      <c r="J41" s="15">
+        <v>1016087.0603377006</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-173094.15779963764</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>170.37062431435149</v>
+      </c>
+      <c r="N41" s="9">
         <v>1</v>
       </c>
     </row>
@@ -16779,7 +17053,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16820,10 +17094,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -16859,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16926,28 +17200,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -18741,6 +19015,50 @@
         <v>-35.422966834096719</v>
       </c>
       <c r="N40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F41" s="15">
+        <v>172392.68070274981</v>
+      </c>
+      <c r="G41" s="15">
+        <v>14196099.922139321</v>
+      </c>
+      <c r="H41" s="15">
+        <v>8659621.1555818245</v>
+      </c>
+      <c r="I41" s="15">
+        <v>9912089.8894441836</v>
+      </c>
+      <c r="J41" s="15">
+        <v>8659621.1555818245</v>
+      </c>
+      <c r="K41" s="15">
+        <v>-1252468.7338623591</v>
+      </c>
+      <c r="L41" s="14">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>170.37062431435149</v>
+      </c>
+      <c r="N41" s="9">
         <v>1</v>
       </c>
     </row>
@@ -18760,7 +19078,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18801,10 +19119,10 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -18813,10 +19131,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -18846,7 +19164,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -18921,28 +19239,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -20958,6 +21276,56 @@
         <v>-35.422966834096719</v>
       </c>
       <c r="P40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75">
+      <c r="A41" s="12">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="13">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="14">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E41" s="14">
+        <v>6956200</v>
+      </c>
+      <c r="F41" s="14">
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="G41" s="14">
+        <v>153276.65795835006</v>
+      </c>
+      <c r="H41" s="15">
+        <v>251273.20387517713</v>
+      </c>
+      <c r="I41" s="15">
+        <v>13709372.743167646</v>
+      </c>
+      <c r="J41" s="15">
+        <v>8362717.5694464147</v>
+      </c>
+      <c r="K41" s="15">
+        <v>8843578.2113486119</v>
+      </c>
+      <c r="L41" s="15">
+        <v>8362717.5694464147</v>
+      </c>
+      <c r="M41" s="15">
+        <v>-480860.64190219715</v>
+      </c>
+      <c r="N41" s="14">
+        <v>0</v>
+      </c>
+      <c r="O41" s="9">
+        <v>170.37062431435149</v>
+      </c>
+      <c r="P41" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -601,7 +597,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -718,6 +714,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,7 +726,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -844,6 +843,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1123194.2613669224</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1124647.3973650639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,7 +888,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1003,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +1017,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1129,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>958018.42403340735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1206043.51752501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,7 +1179,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1288,6 +1296,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1297,7 +1308,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1414,6 +1425,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-165175.83733351505</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81396.120159946149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,11 +1449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467401728"/>
-        <c:axId val="469858176"/>
+        <c:axId val="439703424"/>
+        <c:axId val="441750272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467401728"/>
+        <c:axId val="439703424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,14 +1496,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469858176"/>
+        <c:crossAx val="441750272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469858176"/>
+        <c:axId val="441750272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467401728"/>
+        <c:crossAx val="439703424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1731,7 +1745,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1848,6 +1862,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>153276.65795835006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1382.6542794842405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,8 +1879,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="731962752"/>
-        <c:axId val="731960832"/>
+        <c:axId val="594989824"/>
+        <c:axId val="593213312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1888,7 +1905,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2005,6 +2022,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,7 +2034,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2131,6 +2151,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,11 +2170,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="728844544"/>
-        <c:axId val="731959296"/>
+        <c:axId val="593197696"/>
+        <c:axId val="593211392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="728844544"/>
+        <c:axId val="593197696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,14 +2217,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731959296"/>
+        <c:crossAx val="593211392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="731959296"/>
+        <c:axId val="593211392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,12 +2275,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="728844544"/>
+        <c:crossAx val="593197696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="731960832"/>
+        <c:axId val="593213312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,12 +2317,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="731962752"/>
+        <c:crossAx val="594989824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="731962752"/>
+        <c:axId val="594989824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="731960832"/>
+        <c:crossAx val="593213312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2470,7 +2493,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2587,6 +2610,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2601,8 +2627,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527646720"/>
-        <c:axId val="488900864"/>
+        <c:axId val="469488000"/>
+        <c:axId val="469478016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2627,7 +2653,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2744,6 +2770,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2753,7 +2782,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2870,6 +2899,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2886,11 +2918,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471258240"/>
-        <c:axId val="471260160"/>
+        <c:axId val="469470208"/>
+        <c:axId val="469476096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471258240"/>
+        <c:axId val="469470208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,14 +2965,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471260160"/>
+        <c:crossAx val="469476096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471260160"/>
+        <c:axId val="469476096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2991,12 +3023,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471258240"/>
+        <c:crossAx val="469470208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488900864"/>
+        <c:axId val="469478016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3033,12 +3065,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527646720"/>
+        <c:crossAx val="469488000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527646720"/>
+        <c:axId val="469488000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3079,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="488900864"/>
+        <c:crossAx val="469478016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3226,7 +3258,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3343,6 +3375,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3352,7 +3387,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3469,6 +3504,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1186938.157809644</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1188391.2938077855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3511,7 +3549,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3628,6 +3666,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3637,7 +3678,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3754,6 +3795,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1018040.1794189102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1281513.4953520899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3796,7 +3840,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3913,6 +3957,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,7 +3969,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4039,6 +4086,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-168897.97839073383</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93122.201544304378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4060,11 +4110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527689216"/>
-        <c:axId val="527690752"/>
+        <c:axId val="534173568"/>
+        <c:axId val="534180608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527689216"/>
+        <c:axId val="534173568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,14 +4157,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527690752"/>
+        <c:crossAx val="534180608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527690752"/>
+        <c:axId val="534180608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4215,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527689216"/>
+        <c:crossAx val="534173568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4356,7 +4406,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4473,6 +4523,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4487,8 +4540,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527803904"/>
-        <c:axId val="527785344"/>
+        <c:axId val="588697984"/>
+        <c:axId val="588001664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4513,7 +4566,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4630,6 +4683,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4639,7 +4695,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4756,6 +4812,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4772,11 +4831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527781888"/>
-        <c:axId val="527783808"/>
+        <c:axId val="585387008"/>
+        <c:axId val="587990144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527781888"/>
+        <c:axId val="585387008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4819,14 +4878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527783808"/>
+        <c:crossAx val="587990144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527783808"/>
+        <c:axId val="587990144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,12 +4936,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527781888"/>
+        <c:crossAx val="585387008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="527785344"/>
+        <c:axId val="588001664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4919,12 +4978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527803904"/>
+        <c:crossAx val="588697984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="527803904"/>
+        <c:axId val="588697984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,7 +4992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527785344"/>
+        <c:crossAx val="588001664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5112,7 +5171,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5229,6 +5288,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5238,7 +5300,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5355,6 +5417,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1189181.2181373383</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1190634.3541354798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,7 +5462,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5514,6 +5579,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5523,7 +5591,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5640,6 +5708,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1016087.0603377006</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1279057.6882400552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5682,7 +5753,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5799,6 +5870,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5808,7 +5882,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5925,6 +5999,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-173094.15779963764</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88423.33410457545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5946,11 +6023,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="709136768"/>
-        <c:axId val="709139456"/>
+        <c:axId val="591011200"/>
+        <c:axId val="591046144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="709136768"/>
+        <c:axId val="591011200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5993,14 +6070,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709139456"/>
+        <c:crossAx val="591046144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="709139456"/>
+        <c:axId val="591046144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6051,7 +6128,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709136768"/>
+        <c:crossAx val="591011200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6242,7 +6319,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6359,6 +6436,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>20380.877652700809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1453.1359981414703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6373,8 +6453,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="709607424"/>
-        <c:axId val="709331200"/>
+        <c:axId val="592155008"/>
+        <c:axId val="591694080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6399,7 +6479,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6516,6 +6596,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6525,7 +6608,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6642,6 +6725,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6658,11 +6744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="709225472"/>
-        <c:axId val="709313664"/>
+        <c:axId val="591689216"/>
+        <c:axId val="591691776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="709225472"/>
+        <c:axId val="591689216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,14 +6791,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709313664"/>
+        <c:crossAx val="591691776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="709313664"/>
+        <c:axId val="591691776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6763,12 +6849,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709225472"/>
+        <c:crossAx val="591689216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="709331200"/>
+        <c:axId val="591694080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6805,12 +6891,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709607424"/>
+        <c:crossAx val="592155008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="709607424"/>
+        <c:axId val="592155008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6819,7 +6905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="709331200"/>
+        <c:crossAx val="591694080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6998,7 +7084,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7115,6 +7201,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7124,7 +7213,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7241,6 +7330,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>9912089.8894441836</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9912624.4727933221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7283,7 +7375,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7400,6 +7492,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7409,7 +7504,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7526,6 +7621,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8659621.1555818245</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10888943.501168342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7568,7 +7666,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7685,6 +7783,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7694,7 +7795,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7811,6 +7912,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1252468.7338623591</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>976319.02837502025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7832,11 +7936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="709809280"/>
-        <c:axId val="709811584"/>
+        <c:axId val="592269696"/>
+        <c:axId val="592271232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="709809280"/>
+        <c:axId val="592269696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7879,14 +7983,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709811584"/>
+        <c:crossAx val="592271232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="709811584"/>
+        <c:axId val="592271232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7937,7 +8041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="709809280"/>
+        <c:crossAx val="592269696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8128,7 +8232,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8245,6 +8349,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>14196099.922139321</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14196796.901716258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8259,8 +8366,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="711321472"/>
-        <c:axId val="711319936"/>
+        <c:axId val="592317824"/>
+        <c:axId val="592315904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8285,7 +8392,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8402,6 +8509,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8411,7 +8521,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8528,6 +8638,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.61000001430511475</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.76700001955032349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8544,11 +8657,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="710052096"/>
-        <c:axId val="711316992"/>
+        <c:axId val="592304000"/>
+        <c:axId val="592305536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="710052096"/>
+        <c:axId val="592304000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8591,14 +8704,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711316992"/>
+        <c:crossAx val="592305536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="711316992"/>
+        <c:axId val="592305536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8649,12 +8762,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710052096"/>
+        <c:crossAx val="592304000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="711319936"/>
+        <c:axId val="592315904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8691,12 +8804,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711321472"/>
+        <c:crossAx val="592317824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="711321472"/>
+        <c:axId val="592317824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8705,7 +8818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="711319936"/>
+        <c:crossAx val="592315904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8884,7 +8997,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9001,6 +9114,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9010,7 +9126,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9127,6 +9243,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8843578.2113486119</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8844960.8656280953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9169,7 +9288,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9286,6 +9405,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9295,7 +9417,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9412,6 +9534,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8362717.5694464147</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10516471.816311741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9454,7 +9579,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9571,6 +9696,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9580,7 +9708,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9697,6 +9825,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-480860.64190219715</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1671510.9506836459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9718,11 +9849,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="727188224"/>
-        <c:axId val="727190144"/>
+        <c:axId val="592368384"/>
+        <c:axId val="592370688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="727188224"/>
+        <c:axId val="592368384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9765,14 +9896,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727190144"/>
+        <c:crossAx val="592370688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="727190144"/>
+        <c:axId val="592370688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9823,7 +9954,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="727188224"/>
+        <c:crossAx val="592368384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10537,7 +10668,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12323,6 +12454,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42" spans="1:12" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1572416.5407871683</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1206043.51752501</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1124647.3973650639</v>
+      </c>
+      <c r="J42" s="15">
+        <v>1206043.51752501</v>
+      </c>
+      <c r="K42" s="15">
+        <v>81396.120159946149</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12339,7 +12508,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AM42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12380,7 +12549,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12416,10 +12585,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -12440,7 +12609,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -15009,6 +15178,71 @@
         <v>-94.966426468172983</v>
       </c>
       <c r="U41" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1670812.8587837785</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1281513.4953520899</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1188391.2938077855</v>
+      </c>
+      <c r="J42" s="15">
+        <v>1281513.4953520899</v>
+      </c>
+      <c r="K42" s="15">
+        <v>93122.201544304378</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="23">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="N42" s="23">
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="O42" s="23">
+        <v>0.70766667524973548</v>
+      </c>
+      <c r="P42" s="23">
+        <v>0.6522857135250455</v>
+      </c>
+      <c r="Q42" s="23">
+        <v>5.5380961724689981E-2</v>
+      </c>
+      <c r="R42" s="23">
+        <v>2.8619046722139607E-2</v>
+      </c>
+      <c r="S42" s="9">
+        <v>4.2928570083209408E-4</v>
+      </c>
+      <c r="T42" s="9">
+        <v>129.00723601402009</v>
+      </c>
+      <c r="U42" s="11">
         <v>1</v>
       </c>
     </row>
@@ -15028,7 +15262,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15108,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -17034,6 +17268,50 @@
         <v>170.37062431435149</v>
       </c>
       <c r="N41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>1453.1359981414703</v>
+      </c>
+      <c r="F42" s="15">
+        <v>1894.5710053481021</v>
+      </c>
+      <c r="G42" s="15">
+        <v>1667611.0242995049</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1279057.6882400552</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1190634.3541354798</v>
+      </c>
+      <c r="J42" s="15">
+        <v>1279057.6882400552</v>
+      </c>
+      <c r="K42" s="15">
+        <v>88423.33410457545</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>265.35751850843906</v>
+      </c>
+      <c r="N42" s="9">
         <v>1</v>
       </c>
     </row>
@@ -17053,7 +17331,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17133,7 +17411,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -19059,6 +19337,50 @@
         <v>170.37062431435149</v>
       </c>
       <c r="N41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F42" s="15">
+        <v>696.97957693832984</v>
+      </c>
+      <c r="G42" s="15">
+        <v>14196796.901716258</v>
+      </c>
+      <c r="H42" s="15">
+        <v>10888943.501168342</v>
+      </c>
+      <c r="I42" s="15">
+        <v>9912624.4727933221</v>
+      </c>
+      <c r="J42" s="15">
+        <v>10888943.501168342</v>
+      </c>
+      <c r="K42" s="15">
+        <v>976319.02837502025</v>
+      </c>
+      <c r="L42" s="14">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <v>265.35751850843906</v>
+      </c>
+      <c r="N42" s="9">
         <v>1</v>
       </c>
     </row>
@@ -19078,7 +19400,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19131,10 +19453,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -19164,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -21326,6 +21648,56 @@
         <v>170.37062431435149</v>
       </c>
       <c r="P41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75">
+      <c r="A42" s="12">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="13">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E42" s="14">
+        <v>12479809</v>
+      </c>
+      <c r="F42" s="14">
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="G42" s="14">
+        <v>1382.6542794842405</v>
+      </c>
+      <c r="H42" s="15">
+        <v>1802.6782845388486</v>
+      </c>
+      <c r="I42" s="15">
+        <v>13711175.421452185</v>
+      </c>
+      <c r="J42" s="15">
+        <v>10516471.816311741</v>
+      </c>
+      <c r="K42" s="15">
+        <v>8844960.8656280953</v>
+      </c>
+      <c r="L42" s="15">
+        <v>10516471.816311741</v>
+      </c>
+      <c r="M42" s="15">
+        <v>1671510.9506836459</v>
+      </c>
+      <c r="N42" s="14">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <v>265.35751850843906</v>
+      </c>
+      <c r="P42" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>年化收益率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -597,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -717,6 +721,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +733,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -846,6 +853,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1124647.3973650639</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1127257.6528514628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -888,7 +898,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1008,6 +1018,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1017,7 +1030,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1137,6 +1150,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1206043.51752501</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1224377.923423548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1195,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1299,6 +1315,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,7 +1327,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1428,6 +1447,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81396.120159946149</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97120.270572085166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,11 +1471,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439703424"/>
-        <c:axId val="441750272"/>
+        <c:axId val="474159744"/>
+        <c:axId val="487852672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439703424"/>
+        <c:axId val="474159744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,14 +1518,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441750272"/>
+        <c:crossAx val="487852672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441750272"/>
+        <c:axId val="487852672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439703424"/>
+        <c:crossAx val="474159744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1745,7 +1767,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1861,10 +1883,13 @@
                   <c:v>507434.47455627128</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>153276.65795835006</c:v>
+                  <c:v>153276.65797483371</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1382.6542794842405</c:v>
+                  <c:v>1382.6542815230166</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,8 +1904,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="594989824"/>
-        <c:axId val="593213312"/>
+        <c:axId val="498761088"/>
+        <c:axId val="498759552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1905,7 +1930,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2025,6 +2050,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,7 +2062,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2154,6 +2182,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,11 +2201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593197696"/>
-        <c:axId val="593211392"/>
+        <c:axId val="498752128"/>
+        <c:axId val="498758016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="593197696"/>
+        <c:axId val="498752128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,14 +2248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593211392"/>
+        <c:crossAx val="498758016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="593211392"/>
+        <c:axId val="498758016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,12 +2306,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593197696"/>
+        <c:crossAx val="498752128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593213312"/>
+        <c:axId val="498759552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,12 +2348,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594989824"/>
+        <c:crossAx val="498761088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="594989824"/>
+        <c:axId val="498761088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,7 +2362,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="593213312"/>
+        <c:crossAx val="498759552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2493,7 +2524,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2613,6 +2644,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2627,8 +2661,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="469488000"/>
-        <c:axId val="469478016"/>
+        <c:axId val="499442816"/>
+        <c:axId val="499268992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2653,7 +2687,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2773,6 +2807,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,7 +2819,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2902,6 +2939,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2918,11 +2958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="469470208"/>
-        <c:axId val="469476096"/>
+        <c:axId val="498834432"/>
+        <c:axId val="499267456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="469470208"/>
+        <c:axId val="498834432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2965,14 +3005,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469476096"/>
+        <c:crossAx val="499267456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469476096"/>
+        <c:axId val="499267456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,12 +3063,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469470208"/>
+        <c:crossAx val="498834432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="469478016"/>
+        <c:axId val="499268992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,12 +3105,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469488000"/>
+        <c:crossAx val="499442816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="469488000"/>
+        <c:axId val="499442816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3079,7 +3119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="469478016"/>
+        <c:crossAx val="499268992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3258,7 +3298,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3378,6 +3418,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,7 +3430,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3507,6 +3550,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1188391.2938077855</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1191001.5492941844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3549,7 +3595,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3669,6 +3715,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3678,7 +3727,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3798,6 +3847,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1281513.4953520899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1300831.8634922137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3840,7 +3892,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3960,6 +4012,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3969,7 +4024,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4089,6 +4144,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>93122.201544304378</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>109830.31419802923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,11 +4168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534173568"/>
-        <c:axId val="534180608"/>
+        <c:axId val="513008768"/>
+        <c:axId val="513692800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534173568"/>
+        <c:axId val="513008768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,14 +4215,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534180608"/>
+        <c:crossAx val="513692800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534180608"/>
+        <c:axId val="513692800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,7 +4273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534173568"/>
+        <c:crossAx val="513008768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4406,7 +4464,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4526,6 +4584,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4540,8 +4601,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="588697984"/>
-        <c:axId val="588001664"/>
+        <c:axId val="529827328"/>
+        <c:axId val="529742080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4566,7 +4627,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4686,6 +4747,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4695,7 +4759,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4815,6 +4879,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4831,11 +4898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="585387008"/>
-        <c:axId val="587990144"/>
+        <c:axId val="529085568"/>
+        <c:axId val="529269888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="585387008"/>
+        <c:axId val="529085568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4878,14 +4945,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="587990144"/>
+        <c:crossAx val="529269888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="587990144"/>
+        <c:axId val="529269888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4936,12 +5003,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585387008"/>
+        <c:crossAx val="529085568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588001664"/>
+        <c:axId val="529742080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4978,12 +5045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588697984"/>
+        <c:crossAx val="529827328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="588697984"/>
+        <c:axId val="529827328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4992,7 +5059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588001664"/>
+        <c:crossAx val="529742080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5171,7 +5238,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5291,6 +5358,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5300,7 +5370,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5420,6 +5490,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1190634.3541354798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1193244.6096218787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5462,7 +5535,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5582,6 +5655,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5591,7 +5667,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5711,6 +5787,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1279057.6882400552</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1298344.0380658712</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5753,7 +5832,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5873,6 +5952,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5882,7 +5964,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6002,6 +6084,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>88423.33410457545</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>105099.42844399251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6023,11 +6108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591011200"/>
-        <c:axId val="591046144"/>
+        <c:axId val="547401088"/>
+        <c:axId val="548616064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591011200"/>
+        <c:axId val="547401088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6070,14 +6155,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591046144"/>
+        <c:crossAx val="548616064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591046144"/>
+        <c:axId val="548616064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6128,7 +6213,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591011200"/>
+        <c:crossAx val="547401088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6319,7 +6404,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6439,6 +6524,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1453.1359981414703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2610.2554863989344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6453,8 +6541,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="592155008"/>
-        <c:axId val="591694080"/>
+        <c:axId val="600750720"/>
+        <c:axId val="600748800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6479,7 +6567,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6599,6 +6687,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,7 +6699,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6728,6 +6819,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6744,11 +6838,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591689216"/>
-        <c:axId val="591691776"/>
+        <c:axId val="599176704"/>
+        <c:axId val="599178624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591689216"/>
+        <c:axId val="599176704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6791,14 +6885,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591691776"/>
+        <c:crossAx val="599178624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591691776"/>
+        <c:axId val="599178624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6849,12 +6943,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591689216"/>
+        <c:crossAx val="599176704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="591694080"/>
+        <c:axId val="600748800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6891,12 +6985,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592155008"/>
+        <c:crossAx val="600750720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="592155008"/>
+        <c:axId val="600750720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6905,7 +6999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="591694080"/>
+        <c:crossAx val="600748800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7084,7 +7178,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7204,6 +7298,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7213,7 +7310,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7333,6 +7430,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9912624.4727933221</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9914349.3927184548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7375,7 +7475,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7495,6 +7595,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7504,7 +7607,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7624,6 +7727,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>10888943.501168342</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11032636.254719432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7666,7 +7772,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7786,6 +7892,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7795,7 +7904,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7915,6 +8024,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>976319.02837502025</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1118286.8620009776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7936,11 +8048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592269696"/>
-        <c:axId val="592271232"/>
+        <c:axId val="604313472"/>
+        <c:axId val="604315008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592269696"/>
+        <c:axId val="604313472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7983,14 +8095,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592271232"/>
+        <c:crossAx val="604315008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="592271232"/>
+        <c:axId val="604315008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8041,7 +8153,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592269696"/>
+        <c:crossAx val="604313472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8232,7 +8344,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8352,6 +8464,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>14196796.901716258</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14199016.87585127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8366,8 +8481,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="592317824"/>
-        <c:axId val="592315904"/>
+        <c:axId val="614712448"/>
+        <c:axId val="609013120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8392,7 +8507,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8512,6 +8627,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8521,7 +8639,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8641,6 +8759,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.76700001955032349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.77700001001358032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8657,11 +8778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592304000"/>
-        <c:axId val="592305536"/>
+        <c:axId val="609009664"/>
+        <c:axId val="609011200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592304000"/>
+        <c:axId val="609009664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8704,14 +8825,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592305536"/>
+        <c:crossAx val="609011200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="592305536"/>
+        <c:axId val="609011200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8762,12 +8883,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592304000"/>
+        <c:crossAx val="609009664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="592315904"/>
+        <c:axId val="609013120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8804,12 +8925,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592317824"/>
+        <c:crossAx val="614712448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="592317824"/>
+        <c:axId val="614712448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8818,7 +8939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="592315904"/>
+        <c:crossAx val="609013120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8997,7 +9118,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9117,6 +9238,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9126,7 +9250,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9242,10 +9366,13 @@
                   <c:v>8690301.5533902626</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8843578.2113486119</c:v>
+                  <c:v>8843578.2113650963</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8844960.8656280953</c:v>
+                  <c:v>8844960.8656466193</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8844960.8656466193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9288,7 +9415,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9408,6 +9535,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9417,7 +9547,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9533,10 +9663,13 @@
                   <c:v>8518977.2265610788</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8362717.5694464147</c:v>
+                  <c:v>8362717.5694628982</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10516471.816311741</c:v>
+                  <c:v>10516471.816334506</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10653583.439789366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9579,7 +9712,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9699,6 +9832,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9708,7 +9844,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9824,10 +9960,13 @@
                   <c:v>-171324.32682918385</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-480860.64190219715</c:v>
+                  <c:v>-480860.64190219808</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1671510.9506836459</c:v>
+                  <c:v>1671510.9506878871</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1808622.5741427466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9849,11 +9988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="592368384"/>
-        <c:axId val="592370688"/>
+        <c:axId val="631035392"/>
+        <c:axId val="631036928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="592368384"/>
+        <c:axId val="631035392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9896,14 +10035,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592370688"/>
+        <c:crossAx val="631036928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="592370688"/>
+        <c:axId val="631036928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9954,7 +10093,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592368384"/>
+        <c:crossAx val="631035392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10668,7 +10807,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12492,6 +12631,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="15">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1575775.9429142717</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1224377.923423548</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1127257.6528514628</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1224377.923423548</v>
+      </c>
+      <c r="K43" s="15">
+        <v>97120.270572085166</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -12508,7 +12685,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12549,7 +12726,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12585,10 +12762,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -12609,7 +12786,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -15243,6 +15420,71 @@
         <v>129.00723601402009</v>
       </c>
       <c r="U42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="15">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1674172.2609108819</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1300831.8634922137</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1191001.5492941844</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1300831.8634922137</v>
+      </c>
+      <c r="K43" s="15">
+        <v>109830.31419802923</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="23">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="N43" s="23">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="O43" s="23">
+        <v>0.79266667366027832</v>
+      </c>
+      <c r="P43" s="23">
+        <v>0.65721428678149274</v>
+      </c>
+      <c r="Q43" s="23">
+        <v>0.13545238687878558</v>
+      </c>
+      <c r="R43" s="23">
+        <v>3.3816329475973732E-2</v>
+      </c>
+      <c r="S43" s="9">
+        <v>5.0724494213960592E-4</v>
+      </c>
+      <c r="T43" s="9">
+        <v>267.03546083167419</v>
+      </c>
+      <c r="U43" s="11">
         <v>1</v>
       </c>
     </row>
@@ -15262,7 +15504,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15303,7 +15545,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15342,7 +15584,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -17312,6 +17554,50 @@
         <v>265.35751850843906</v>
       </c>
       <c r="N42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>2610.2554863989344</v>
+      </c>
+      <c r="F43" s="15">
+        <v>3359.4021271033353</v>
+      </c>
+      <c r="G43" s="15">
+        <v>1670970.4264266083</v>
+      </c>
+      <c r="H43" s="15">
+        <v>1298344.0380658712</v>
+      </c>
+      <c r="I43" s="15">
+        <v>1193244.6096218787</v>
+      </c>
+      <c r="J43" s="15">
+        <v>1298344.0380658712</v>
+      </c>
+      <c r="K43" s="15">
+        <v>105099.42844399251</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>15.433066648351565</v>
+      </c>
+      <c r="N43" s="9">
         <v>1</v>
       </c>
     </row>
@@ -17331,7 +17617,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG42"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17411,7 +17697,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -19381,6 +19667,50 @@
         <v>265.35751850843906</v>
       </c>
       <c r="N42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F43" s="15">
+        <v>2219.9741350105646</v>
+      </c>
+      <c r="G43" s="15">
+        <v>14199016.87585127</v>
+      </c>
+      <c r="H43" s="15">
+        <v>11032636.254719432</v>
+      </c>
+      <c r="I43" s="15">
+        <v>9914349.3927184548</v>
+      </c>
+      <c r="J43" s="15">
+        <v>11032636.254719432</v>
+      </c>
+      <c r="K43" s="15">
+        <v>1118286.8620009776</v>
+      </c>
+      <c r="L43" s="14">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9">
+        <v>15.433066648351565</v>
+      </c>
+      <c r="N43" s="9">
         <v>1</v>
       </c>
     </row>
@@ -19400,7 +19730,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19453,10 +19783,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -19486,7 +19816,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -21612,7 +21942,7 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
         <v>6956200</v>
@@ -21621,25 +21951,25 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="G41" s="14">
-        <v>153276.65795835006</v>
+        <v>153276.65797483371</v>
       </c>
       <c r="H41" s="15">
-        <v>251273.20387517713</v>
+        <v>251273.20390219952</v>
       </c>
       <c r="I41" s="15">
-        <v>13709372.743167646</v>
+        <v>13709372.743194669</v>
       </c>
       <c r="J41" s="15">
-        <v>8362717.5694464147</v>
+        <v>8362717.5694628982</v>
       </c>
       <c r="K41" s="15">
-        <v>8843578.2113486119</v>
+        <v>8843578.2113650963</v>
       </c>
       <c r="L41" s="15">
-        <v>8362717.5694464147</v>
+        <v>8362717.5694628982</v>
       </c>
       <c r="M41" s="15">
-        <v>-480860.64190219715</v>
+        <v>-480860.64190219808</v>
       </c>
       <c r="N41" s="14">
         <v>0</v>
@@ -21662,7 +21992,7 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
         <v>12479809</v>
@@ -21671,25 +22001,25 @@
         <v>4825138.2799101509</v>
       </c>
       <c r="G42" s="14">
-        <v>1382.6542794842405</v>
+        <v>1382.6542815230166</v>
       </c>
       <c r="H42" s="15">
-        <v>1802.6782845388486</v>
+        <v>1802.678287196966</v>
       </c>
       <c r="I42" s="15">
-        <v>13711175.421452185</v>
+        <v>13711175.421481866</v>
       </c>
       <c r="J42" s="15">
-        <v>10516471.816311741</v>
+        <v>10516471.816334506</v>
       </c>
       <c r="K42" s="15">
-        <v>8844960.8656280953</v>
+        <v>8844960.8656466193</v>
       </c>
       <c r="L42" s="15">
-        <v>10516471.816311741</v>
+        <v>10516471.816334506</v>
       </c>
       <c r="M42" s="15">
-        <v>1671510.9506836459</v>
+        <v>1671510.9506878871</v>
       </c>
       <c r="N42" s="14">
         <v>0</v>
@@ -21698,6 +22028,56 @@
         <v>265.35751850843906</v>
       </c>
       <c r="P42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12.75">
+      <c r="A43" s="12">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="14">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <v>13711175.421481866</v>
+      </c>
+      <c r="J43" s="15">
+        <v>10653583.439789366</v>
+      </c>
+      <c r="K43" s="15">
+        <v>8844960.8656466193</v>
+      </c>
+      <c r="L43" s="15">
+        <v>10653583.439789366</v>
+      </c>
+      <c r="M43" s="15">
+        <v>1808622.5741427466</v>
+      </c>
+      <c r="N43" s="14">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <v>15.433066648351565</v>
+      </c>
+      <c r="P43" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,6 +133,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -171,6 +175,14 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -601,7 +613,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -724,6 +736,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,7 +748,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -856,6 +871,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1127257.6528514628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1130707.2667107254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,7 +916,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1021,6 +1039,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,7 +1051,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1153,6 +1174,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1224377.923423548</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1234130.6538280728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,7 +1219,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1318,6 +1342,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1327,7 +1354,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1450,6 +1477,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>97120.270572085166</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>103423.38711734745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,11 +1501,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474159744"/>
-        <c:axId val="487852672"/>
+        <c:axId val="491522688"/>
+        <c:axId val="491581824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474159744"/>
+        <c:axId val="491522688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,14 +1548,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487852672"/>
+        <c:crossAx val="491581824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487852672"/>
+        <c:axId val="491581824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1606,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474159744"/>
+        <c:crossAx val="491522688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1767,7 +1797,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1889,7 +1919,10 @@
                   <c:v>1382.6542815230166</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>569.72274312846628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1075.6306281980965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,8 +1937,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="498761088"/>
-        <c:axId val="498759552"/>
+        <c:axId val="493666304"/>
+        <c:axId val="493660416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1930,7 +1963,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2053,6 +2086,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,7 +2098,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2185,6 +2221,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,11 +2240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498752128"/>
-        <c:axId val="498758016"/>
+        <c:axId val="493652992"/>
+        <c:axId val="493658880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498752128"/>
+        <c:axId val="493652992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,14 +2287,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498758016"/>
+        <c:crossAx val="493658880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498758016"/>
+        <c:axId val="493658880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,12 +2345,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498752128"/>
+        <c:crossAx val="493652992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="498759552"/>
+        <c:axId val="493660416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,12 +2387,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498761088"/>
+        <c:crossAx val="493666304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="498761088"/>
+        <c:axId val="493666304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498759552"/>
+        <c:crossAx val="493660416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2524,7 +2563,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2647,6 +2686,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,8 +2703,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="499442816"/>
-        <c:axId val="499268992"/>
+        <c:axId val="506263808"/>
+        <c:axId val="506262272"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2687,7 +2729,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2810,6 +2852,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2819,7 +2864,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2942,6 +2987,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2958,11 +3006,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498834432"/>
-        <c:axId val="499267456"/>
+        <c:axId val="506250752"/>
+        <c:axId val="506252288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498834432"/>
+        <c:axId val="506250752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,14 +3053,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499267456"/>
+        <c:crossAx val="506252288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499267456"/>
+        <c:axId val="506252288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,12 +3111,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498834432"/>
+        <c:crossAx val="506250752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499268992"/>
+        <c:axId val="506262272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,12 +3153,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499442816"/>
+        <c:crossAx val="506263808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="499442816"/>
+        <c:axId val="506263808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3167,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499268992"/>
+        <c:crossAx val="506262272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3298,7 +3346,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3421,6 +3469,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3430,7 +3481,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3553,6 +3604,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1191001.5492941844</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1194451.163153447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,7 +3649,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3718,6 +3772,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,7 +3784,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3850,6 +3907,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1300831.8634922137</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1310978.1799663482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,7 +3952,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4015,6 +4075,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4024,7 +4087,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4147,6 +4210,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>109830.31419802923</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>116527.01681290125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4168,11 +4234,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="513008768"/>
-        <c:axId val="513692800"/>
+        <c:axId val="531742080"/>
+        <c:axId val="538168704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="513008768"/>
+        <c:axId val="531742080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,14 +4281,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513692800"/>
+        <c:crossAx val="538168704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513692800"/>
+        <c:axId val="538168704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4273,7 +4339,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513008768"/>
+        <c:crossAx val="531742080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4464,7 +4530,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4587,6 +4653,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4601,8 +4670,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="529827328"/>
-        <c:axId val="529742080"/>
+        <c:axId val="575116800"/>
+        <c:axId val="574944000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4627,7 +4696,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4750,6 +4819,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,7 +4831,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4882,6 +4954,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4898,11 +4973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529085568"/>
-        <c:axId val="529269888"/>
+        <c:axId val="573216640"/>
+        <c:axId val="573460480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529085568"/>
+        <c:axId val="573216640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4945,14 +5020,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529269888"/>
+        <c:crossAx val="573460480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529269888"/>
+        <c:axId val="573460480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5003,12 +5078,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529085568"/>
+        <c:crossAx val="573216640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="529742080"/>
+        <c:axId val="574944000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5045,12 +5120,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529827328"/>
+        <c:crossAx val="575116800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="529827328"/>
+        <c:axId val="575116800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="529742080"/>
+        <c:crossAx val="574944000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5238,7 +5313,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5361,6 +5436,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5370,7 +5448,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5493,6 +5571,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1193244.6096218787</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1196694.2234811413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5535,7 +5616,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5658,6 +5739,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5667,7 +5751,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5790,6 +5874,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1298344.0380658712</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1308477.5471761138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5832,7 +5919,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5955,6 +6042,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5964,7 +6054,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6087,6 +6177,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>105099.42844399251</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>111783.32369497255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6108,11 +6201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="547401088"/>
-        <c:axId val="548616064"/>
+        <c:axId val="616336384"/>
+        <c:axId val="616342656"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="547401088"/>
+        <c:axId val="616336384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6155,14 +6248,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548616064"/>
+        <c:crossAx val="616342656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548616064"/>
+        <c:axId val="616342656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6213,7 +6306,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547401088"/>
+        <c:crossAx val="616336384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6404,7 +6497,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6527,6 +6620,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3449.6138592626553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6541,8 +6637,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="600750720"/>
-        <c:axId val="600748800"/>
+        <c:axId val="616379136"/>
+        <c:axId val="616373248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6567,7 +6663,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6690,6 +6786,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6699,7 +6798,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6822,6 +6921,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6838,11 +6940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599176704"/>
-        <c:axId val="599178624"/>
+        <c:axId val="616363904"/>
+        <c:axId val="616370176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="599176704"/>
+        <c:axId val="616363904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6885,14 +6987,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599178624"/>
+        <c:crossAx val="616370176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="599178624"/>
+        <c:axId val="616370176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6943,12 +7045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599176704"/>
+        <c:crossAx val="616363904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="600748800"/>
+        <c:axId val="616373248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6985,12 +7087,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600750720"/>
+        <c:crossAx val="616379136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="600750720"/>
+        <c:axId val="616379136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6999,7 +7101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="600748800"/>
+        <c:crossAx val="616373248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7178,7 +7280,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7301,6 +7403,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7310,7 +7415,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7433,6 +7538,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>9914349.3927184548</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9917362.0093711168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7475,7 +7583,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7598,6 +7706,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7607,7 +7718,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7730,6 +7841,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>11032636.254719432</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11092445.05397602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7772,7 +7886,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7895,6 +8009,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7904,7 +8021,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8027,6 +8144,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1118286.8620009776</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1175083.0446049031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8048,11 +8168,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="604313472"/>
-        <c:axId val="604315008"/>
+        <c:axId val="617602432"/>
+        <c:axId val="623080576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="604313472"/>
+        <c:axId val="617602432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8095,14 +8215,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604315008"/>
+        <c:crossAx val="623080576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="604315008"/>
+        <c:axId val="623080576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8153,7 +8273,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604313472"/>
+        <c:crossAx val="617602432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8344,7 +8464,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8467,6 +8587,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>14199016.87585127</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14202874.25943996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8481,8 +8604,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="614712448"/>
-        <c:axId val="609013120"/>
+        <c:axId val="623941120"/>
+        <c:axId val="623803776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8507,7 +8630,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8630,6 +8753,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8639,7 +8765,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8762,6 +8888,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.77700001001358032</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8778,11 +8907,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609009664"/>
-        <c:axId val="609011200"/>
+        <c:axId val="623757952"/>
+        <c:axId val="623801856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609009664"/>
+        <c:axId val="623757952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8825,14 +8954,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609011200"/>
+        <c:crossAx val="623801856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609011200"/>
+        <c:axId val="623801856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8883,12 +9012,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609009664"/>
+        <c:crossAx val="623757952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609013120"/>
+        <c:axId val="623803776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8925,12 +9054,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614712448"/>
+        <c:crossAx val="623941120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="614712448"/>
+        <c:axId val="623941120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8939,7 +9068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609013120"/>
+        <c:crossAx val="623803776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9118,7 +9247,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9241,6 +9370,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9250,7 +9382,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9372,7 +9504,10 @@
                   <c:v>8844960.8656466193</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8844960.8656466193</c:v>
+                  <c:v>8845530.5883897487</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8846606.2190179471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9415,7 +9550,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9538,6 +9673,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9547,7 +9685,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9669,7 +9807,10 @@
                   <c:v>10516471.816334506</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10653583.439789366</c:v>
+                  <c:v>10654153.162532493</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10710076.538934106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9712,7 +9853,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9835,6 +9976,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9844,7 +9988,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9966,7 +10110,10 @@
                   <c:v>1671510.9506878871</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1808622.5741427466</c:v>
+                  <c:v>1808622.5741427448</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1863470.3199161589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9988,11 +10135,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631035392"/>
-        <c:axId val="631036928"/>
+        <c:axId val="493623552"/>
+        <c:axId val="493633536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="631035392"/>
+        <c:axId val="493623552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10035,14 +10182,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631036928"/>
+        <c:crossAx val="493633536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="631036928"/>
+        <c:axId val="493633536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10093,7 +10240,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631035392"/>
+        <c:crossAx val="493623552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10807,7 +10954,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10944,28 +11091,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -12666,6 +12813,44 @@
         <v>97120.270572085166</v>
       </c>
       <c r="L43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="15">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1580192.8619657813</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1234130.6538280728</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1130707.2667107254</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1234130.6538280728</v>
+      </c>
+      <c r="K44" s="15">
+        <v>103423.38711734745</v>
+      </c>
+      <c r="L44" s="14">
         <v>0</v>
       </c>
     </row>
@@ -12685,7 +12870,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM43"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12726,7 +12911,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12762,10 +12947,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -12786,7 +12971,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -12866,28 +13051,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -15485,6 +15670,71 @@
         <v>267.03546083167419</v>
       </c>
       <c r="U43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="15">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1678589.1799623915</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1310978.1799663482</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1194451.163153447</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1310978.1799663482</v>
+      </c>
+      <c r="K44" s="15">
+        <v>116527.01681290125</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="23">
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="N44" s="23">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="O44" s="23">
+        <v>0.79633335272471106</v>
+      </c>
+      <c r="P44" s="23">
+        <v>0.66442857327915372</v>
+      </c>
+      <c r="Q44" s="23">
+        <v>0.13190477944555734</v>
+      </c>
+      <c r="R44" s="23">
+        <v>4.3340140256751959E-2</v>
+      </c>
+      <c r="S44" s="9">
+        <v>6.5010210385127941E-4</v>
+      </c>
+      <c r="T44" s="9">
+        <v>202.89855803286639</v>
+      </c>
+      <c r="U44" s="11">
         <v>1</v>
       </c>
     </row>
@@ -15504,7 +15754,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15545,7 +15795,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15584,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -15651,28 +15901,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -17598,6 +17848,50 @@
         <v>15.433066648351565</v>
       </c>
       <c r="N43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3449.6138592626553</v>
+      </c>
+      <c r="F44" s="15">
+        <v>4416.9190515094906</v>
+      </c>
+      <c r="G44" s="15">
+        <v>1675387.3454781179</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1308477.5471761138</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1196694.2234811413</v>
+      </c>
+      <c r="J44" s="15">
+        <v>1308477.5471761138</v>
+      </c>
+      <c r="K44" s="15">
+        <v>111783.32369497255</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-59.010045260336092</v>
+      </c>
+      <c r="N44" s="9">
         <v>1</v>
       </c>
     </row>
@@ -17617,7 +17911,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17658,7 +17952,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -17697,7 +17991,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -17764,28 +18058,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -19711,6 +20005,50 @@
         <v>15.433066648351565</v>
       </c>
       <c r="N43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F44" s="15">
+        <v>3857.3835886907341</v>
+      </c>
+      <c r="G44" s="15">
+        <v>14202874.25943996</v>
+      </c>
+      <c r="H44" s="15">
+        <v>11092445.05397602</v>
+      </c>
+      <c r="I44" s="15">
+        <v>9917362.0093711168</v>
+      </c>
+      <c r="J44" s="15">
+        <v>11092445.05397602</v>
+      </c>
+      <c r="K44" s="15">
+        <v>1175083.0446049031</v>
+      </c>
+      <c r="L44" s="14">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>-59.010045260336092</v>
+      </c>
+      <c r="N44" s="9">
         <v>1</v>
       </c>
     </row>
@@ -19730,7 +20068,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19771,7 +20109,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -19783,10 +20121,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -19816,7 +20154,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -19891,28 +20229,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -22045,31 +22383,31 @@
         <v>25.600824703771881</v>
       </c>
       <c r="E43" s="14">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="F43" s="14">
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="G43" s="14">
-        <v>0</v>
+        <v>569.72274312846628</v>
       </c>
       <c r="H43" s="15">
-        <v>0</v>
+        <v>733.23389419069474</v>
       </c>
       <c r="I43" s="15">
-        <v>13711175.421481866</v>
+        <v>13711908.655376056</v>
       </c>
       <c r="J43" s="15">
-        <v>10653583.439789366</v>
+        <v>10654153.162532493</v>
       </c>
       <c r="K43" s="15">
-        <v>8844960.8656466193</v>
+        <v>8845530.5883897487</v>
       </c>
       <c r="L43" s="15">
-        <v>10653583.439789366</v>
+        <v>10654153.162532493</v>
       </c>
       <c r="M43" s="15">
-        <v>1808622.5741427466</v>
+        <v>1808622.5741427448</v>
       </c>
       <c r="N43" s="14">
         <v>0</v>
@@ -22078,6 +22416,56 @@
         <v>15.433066648351565</v>
       </c>
       <c r="P43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75">
+      <c r="A44" s="12">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="13">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="14">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E44" s="14">
+        <v>1693501</v>
+      </c>
+      <c r="F44" s="14">
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1075.6306281980965</v>
+      </c>
+      <c r="H44" s="15">
+        <v>1377.2478914758306</v>
+      </c>
+      <c r="I44" s="15">
+        <v>13713285.903267533</v>
+      </c>
+      <c r="J44" s="15">
+        <v>10710076.538934106</v>
+      </c>
+      <c r="K44" s="15">
+        <v>8846606.2190179471</v>
+      </c>
+      <c r="L44" s="15">
+        <v>10710076.538934106</v>
+      </c>
+      <c r="M44" s="15">
+        <v>1863470.3199161589</v>
+      </c>
+      <c r="N44" s="14">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <v>-59.010045260336092</v>
+      </c>
+      <c r="P44" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -356,7 +352,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +416,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -613,7 +610,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -739,6 +736,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,7 +748,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -874,6 +874,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1130707.2667107254</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1133785.7241357749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,7 +919,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1042,6 +1045,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +1057,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1177,6 +1183,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1234130.6538280728</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1249850.5855808333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,7 +1228,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1345,6 +1354,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,7 +1366,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1480,6 +1492,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>103423.38711734745</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>116064.86144505837</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,11 +1516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491522688"/>
-        <c:axId val="491581824"/>
+        <c:axId val="395609600"/>
+        <c:axId val="395640192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491522688"/>
+        <c:axId val="395609600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,14 +1563,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491581824"/>
+        <c:crossAx val="395640192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491581824"/>
+        <c:axId val="395640192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,7 +1621,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491522688"/>
+        <c:crossAx val="395609600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1797,7 +1812,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1923,6 +1938,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1075.6306281980965</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1246.0388886215089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,8 +1955,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493666304"/>
-        <c:axId val="493660416"/>
+        <c:axId val="492806912"/>
+        <c:axId val="492796928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1963,7 +1981,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2089,6 +2107,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,7 +2119,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2224,6 +2245,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,11 +2264,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493652992"/>
-        <c:axId val="493658880"/>
+        <c:axId val="492793856"/>
+        <c:axId val="492795392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493652992"/>
+        <c:axId val="492793856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,14 +2311,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493658880"/>
+        <c:crossAx val="492795392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493658880"/>
+        <c:axId val="492795392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,12 +2369,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493652992"/>
+        <c:crossAx val="492793856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="493660416"/>
+        <c:axId val="492796928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,12 +2411,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493666304"/>
+        <c:crossAx val="492806912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="493666304"/>
+        <c:axId val="492806912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,7 +2425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493660416"/>
+        <c:crossAx val="492796928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2563,7 +2587,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2689,6 +2713,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,8 +2730,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506263808"/>
-        <c:axId val="506262272"/>
+        <c:axId val="461309824"/>
+        <c:axId val="460887168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2729,7 +2756,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2855,6 +2882,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,7 +2894,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2990,6 +3020,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3006,11 +3039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506250752"/>
-        <c:axId val="506252288"/>
+        <c:axId val="445880960"/>
+        <c:axId val="460797824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506250752"/>
+        <c:axId val="445880960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,14 +3086,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506252288"/>
+        <c:crossAx val="460797824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506252288"/>
+        <c:axId val="460797824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3111,12 +3144,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506250752"/>
+        <c:crossAx val="445880960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506262272"/>
+        <c:axId val="460887168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,12 +3186,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506263808"/>
+        <c:crossAx val="461309824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506263808"/>
+        <c:axId val="461309824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506262272"/>
+        <c:crossAx val="460887168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3346,7 +3379,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3472,6 +3505,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,7 +3517,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3607,6 +3643,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1194451.163153447</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1197529.6205784965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3649,7 +3688,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3775,6 +3814,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3784,7 +3826,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3910,6 +3952,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1310978.1799663482</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1327485.2779934506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3952,7 +3997,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4078,6 +4123,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4087,7 +4135,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4213,6 +4261,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>116527.01681290125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>129955.65741495416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4234,11 +4285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531742080"/>
-        <c:axId val="538168704"/>
+        <c:axId val="491757568"/>
+        <c:axId val="491759488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531742080"/>
+        <c:axId val="491757568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4281,14 +4332,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538168704"/>
+        <c:crossAx val="491759488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538168704"/>
+        <c:axId val="491759488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4339,7 +4390,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531742080"/>
+        <c:crossAx val="491757568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4530,7 +4581,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4656,6 +4707,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4670,8 +4724,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="575116800"/>
-        <c:axId val="574944000"/>
+        <c:axId val="491827200"/>
+        <c:axId val="491824640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4696,7 +4750,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4822,6 +4876,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4831,7 +4888,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -4957,6 +5014,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4973,11 +5033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="573216640"/>
-        <c:axId val="573460480"/>
+        <c:axId val="491814272"/>
+        <c:axId val="491821696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="573216640"/>
+        <c:axId val="491814272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5020,14 +5080,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573460480"/>
+        <c:crossAx val="491821696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="573460480"/>
+        <c:axId val="491821696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5078,12 +5138,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="573216640"/>
+        <c:crossAx val="491814272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="574944000"/>
+        <c:axId val="491824640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5120,12 +5180,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575116800"/>
+        <c:crossAx val="491827200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="575116800"/>
+        <c:axId val="491827200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,7 +5194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="574944000"/>
+        <c:crossAx val="491824640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5313,7 +5373,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5439,6 +5499,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5448,7 +5511,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5574,6 +5637,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1196694.2234811413</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1199772.6809061908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5616,7 +5682,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5742,6 +5808,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5751,7 +5820,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5877,6 +5946,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1308477.5471761138</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1324959.0306662766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5919,7 +5991,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6045,6 +6117,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6054,7 +6129,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6180,6 +6255,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>111783.32369497255</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>125186.34976008581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6201,11 +6279,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616336384"/>
-        <c:axId val="616342656"/>
+        <c:axId val="493052288"/>
+        <c:axId val="493096960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616336384"/>
+        <c:axId val="493052288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6248,14 +6326,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616342656"/>
+        <c:crossAx val="493096960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616342656"/>
+        <c:axId val="493096960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6306,7 +6384,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616336384"/>
+        <c:crossAx val="493052288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6497,7 +6575,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6623,6 +6701,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3449.6138592626553</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3078.4574250494734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6637,8 +6718,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616379136"/>
-        <c:axId val="616373248"/>
+        <c:axId val="532396672"/>
+        <c:axId val="532393984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6663,7 +6744,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6789,6 +6870,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6798,7 +6882,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -6924,6 +7008,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6940,11 +7027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616363904"/>
-        <c:axId val="616370176"/>
+        <c:axId val="532386176"/>
+        <c:axId val="532387712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616363904"/>
+        <c:axId val="532386176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6987,14 +7074,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616370176"/>
+        <c:crossAx val="532387712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616370176"/>
+        <c:axId val="532387712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7045,12 +7132,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616363904"/>
+        <c:crossAx val="532386176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616373248"/>
+        <c:axId val="532393984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7087,12 +7174,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616379136"/>
+        <c:crossAx val="532396672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="616379136"/>
+        <c:axId val="532396672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7101,7 +7188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616373248"/>
+        <c:crossAx val="532393984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7280,7 +7367,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7406,6 +7493,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7415,7 +7505,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7541,6 +7631,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9917362.0093711168</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9919761.2245908231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7583,7 +7676,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7709,6 +7802,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7718,7 +7814,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7844,6 +7940,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11092445.05397602</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11208466.646977551</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7886,7 +7985,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8012,6 +8111,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8021,7 +8123,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8147,6 +8249,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1175083.0446049031</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1288705.4223867282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8168,11 +8273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617602432"/>
-        <c:axId val="623080576"/>
+        <c:axId val="544198016"/>
+        <c:axId val="544488448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617602432"/>
+        <c:axId val="544198016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8215,14 +8320,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623080576"/>
+        <c:crossAx val="544488448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="623080576"/>
+        <c:axId val="544488448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8273,7 +8378,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617602432"/>
+        <c:crossAx val="544198016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8464,7 +8569,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8590,6 +8695,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>14202874.25943996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14205915.089980589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8604,8 +8712,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="623941120"/>
-        <c:axId val="623803776"/>
+        <c:axId val="557609728"/>
+        <c:axId val="557418752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8630,7 +8738,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8756,6 +8864,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8765,7 +8876,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -8891,6 +9002,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78899997472763062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8907,11 +9021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="623757952"/>
-        <c:axId val="623801856"/>
+        <c:axId val="557183744"/>
+        <c:axId val="557186048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="623757952"/>
+        <c:axId val="557183744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8954,14 +9068,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623801856"/>
+        <c:crossAx val="557186048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="623801856"/>
+        <c:axId val="557186048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9012,12 +9126,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623757952"/>
+        <c:crossAx val="557183744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="623803776"/>
+        <c:axId val="557418752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9054,12 +9168,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="623941120"/>
+        <c:crossAx val="557609728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="623941120"/>
+        <c:axId val="557609728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,7 +9182,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="623803776"/>
+        <c:crossAx val="557418752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9247,7 +9361,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9373,6 +9487,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9382,7 +9499,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9508,6 +9625,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8846606.2190179471</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8847852.2579065692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9550,7 +9670,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9676,6 +9796,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9685,7 +9808,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9811,6 +9934,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>10710076.538934106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10821028.269999478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9853,7 +9979,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9979,6 +10105,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9988,7 +10117,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10114,6 +10243,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1863470.3199161589</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1973176.0120929088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10135,11 +10267,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493623552"/>
-        <c:axId val="493633536"/>
+        <c:axId val="562777088"/>
+        <c:axId val="491791104"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493623552"/>
+        <c:axId val="562777088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10182,14 +10314,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493633536"/>
+        <c:crossAx val="491791104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493633536"/>
+        <c:axId val="491791104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10240,7 +10372,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493623552"/>
+        <c:crossAx val="562777088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10954,7 +11086,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11091,28 +11223,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -11132,6 +11264,16 @@
       </c>
       <c r="AD3" s="11">
         <f>-AC3</f>
+        <v>-71470.218956071636</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
         <v>-71470.218956071636</v>
       </c>
     </row>
@@ -11217,9 +11359,16 @@
         <f>-AC4</f>
         <v>-401953.44479283423</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>401953.44479283423</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-401953.44479283423</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -11300,9 +11449,16 @@
         <f>-AC5</f>
         <v>-377214.1657703988</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AE5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>377214.1657703988</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>-AF5</f>
+        <v>-377214.1657703988</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -11378,7 +11534,16 @@
       <c r="AD6" s="20">
         <v>731948.73696905444</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>-AF6</f>
+        <v>-283147.89461647021</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -11418,13 +11583,42 @@
         <v>0</v>
       </c>
       <c r="M7" s="9"/>
+      <c r="P7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>283147.89461647021</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1133785.7241357749</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1249850.5855808333</v>
+      </c>
+      <c r="T7" s="8">
+        <v>116064.86144505837</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.10236930927449144</v>
+      </c>
+      <c r="W7" s="19">
+        <v>4.4302839298554275E-2</v>
+      </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
       <c r="AD7" s="10">
         <v>-8.8470898848600599E-2</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AE7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>1249850.5855808333</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -11464,6 +11658,9 @@
         <v>0</v>
       </c>
       <c r="M8" s="9"/>
+      <c r="AG8" s="10">
+        <v>4.4302839298554275E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
       <c r="A9" s="12">
@@ -12853,6 +13050,47 @@
       <c r="L44" s="14">
         <v>0</v>
       </c>
+    </row>
+    <row r="45" spans="1:12" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1584094.582528082</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1249850.5855808333</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1133785.7241357749</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1249850.5855808333</v>
+      </c>
+      <c r="K45" s="15">
+        <v>116064.86144505837</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12870,7 +13108,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12911,7 +13149,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -12947,10 +13185,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -12971,7 +13209,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -13051,28 +13289,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -13092,6 +13330,16 @@
       </c>
       <c r="AJ3" s="11">
         <f>-AI3</f>
+        <v>-71470.218956071636</v>
+      </c>
+      <c r="AK3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AL3" s="11">
+        <v>71470.218956071636</v>
+      </c>
+      <c r="AM3" s="11">
+        <f>-AL3</f>
         <v>-71470.218956071636</v>
       </c>
     </row>
@@ -13189,9 +13437,16 @@
         <f>-AI4</f>
         <v>-417772.19570939441</v>
       </c>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
+      <c r="AK4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>417772.19570939441</v>
+      </c>
+      <c r="AM4" s="9">
+        <f>-AL4</f>
+        <v>-417772.19570939441</v>
+      </c>
     </row>
     <row r="5" spans="1:39" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -13284,9 +13539,16 @@
         <f>-AI5</f>
         <v>-408088.678461281</v>
       </c>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
+      <c r="AK5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>408088.678461281</v>
+      </c>
+      <c r="AM5" s="9">
+        <f>-AL5</f>
+        <v>-408088.678461281</v>
+      </c>
     </row>
     <row r="6" spans="1:39" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -13374,7 +13636,16 @@
       <c r="AJ6" s="20">
         <v>776865.95413218427</v>
       </c>
-      <c r="AK6" s="17"/>
+      <c r="AK6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AL6" s="11">
+        <v>300198.52745174943</v>
+      </c>
+      <c r="AM6" s="11">
+        <f>-AL6</f>
+        <v>-300198.52745174943</v>
+      </c>
     </row>
     <row r="7" spans="1:39" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -13426,13 +13697,42 @@
       <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
       <c r="S7" s="9"/>
+      <c r="V7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="W7" s="18">
+        <v>300198.52745174943</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1197529.6205784965</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>1327485.2779934506</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>129955.65741495416</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>0.1085197853829919</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>4.7158551078285926E-2</v>
+      </c>
       <c r="AE7" s="9"/>
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
       <c r="AJ7" s="10">
         <v>-8.5780570033674008E-2</v>
       </c>
-      <c r="AM7" s="10"/>
+      <c r="AK7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>1327485.2779934506</v>
+      </c>
     </row>
     <row r="8" spans="1:39" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -13484,6 +13784,9 @@
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
       <c r="S8" s="9"/>
+      <c r="AM8" s="10">
+        <v>4.7158551078285926E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:39" ht="14.1" customHeight="1">
       <c r="A9" s="12">
@@ -15737,6 +16040,74 @@
       <c r="U44" s="11">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:21" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1682490.9005246921</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1327485.2779934506</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1197529.6205784965</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1327485.2779934506</v>
+      </c>
+      <c r="K45" s="15">
+        <v>129955.65741495416</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="23">
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="N45" s="23">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="O45" s="23">
+        <v>0.80433332920074463</v>
+      </c>
+      <c r="P45" s="23">
+        <v>0.67442857367651798</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>0.12990475552422664</v>
+      </c>
+      <c r="R45" s="23">
+        <v>5.7612248018485322E-2</v>
+      </c>
+      <c r="S45" s="9">
+        <v>8.641837202772798E-4</v>
+      </c>
+      <c r="T45" s="9">
+        <v>150.32076221309254</v>
+      </c>
+      <c r="U45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -15754,7 +16125,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15795,7 +16166,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15834,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -15901,28 +16272,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -15942,6 +16313,16 @@
       </c>
       <c r="AD3" s="11">
         <f>-AC3</f>
+        <v>-73512.136806401439</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>73512.136806401439</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
         <v>-73512.136806401439</v>
       </c>
     </row>
@@ -16032,9 +16413,16 @@
         <f>-AC4</f>
         <v>-435170.13774605485</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>435170.13774605485</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-435170.13774605485</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -16120,9 +16508,16 @@
         <f>-AC5</f>
         <v>-391913.02163792512</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AE5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>391913.02163792512</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>-AF5</f>
+        <v>-391913.02163792512</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -16203,7 +16598,16 @@
       <c r="AD6" s="20">
         <v>775812.18625010748</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>299177.38471580937</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>-AF6</f>
+        <v>-299177.38471580937</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -16247,6 +16651,30 @@
       </c>
       <c r="N7" s="9">
         <v>1</v>
+      </c>
+      <c r="P7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>299177.38471580937</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1199772.6809061908</v>
+      </c>
+      <c r="S7" s="8">
+        <v>1324959.0306662766</v>
+      </c>
+      <c r="T7" s="8">
+        <v>125186.34976008581</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.10434172385516588</v>
+      </c>
+      <c r="W7" s="19">
+        <v>4.5025641537120853E-2</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -16254,7 +16682,12 @@
       <c r="AD7" s="10">
         <v>-8.750731270976897E-2</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AE7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>1324959.0306662766</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -16298,6 +16731,9 @@
       </c>
       <c r="N8" s="9">
         <v>1</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>4.5025641537120853E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -17894,6 +18330,53 @@
       <c r="N44" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>3078.4574250494734</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3901.7205623006294</v>
+      </c>
+      <c r="G45" s="15">
+        <v>1679289.0660404186</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1324959.0306662766</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1199772.6809061908</v>
+      </c>
+      <c r="J45" s="15">
+        <v>1324959.0306662766</v>
+      </c>
+      <c r="K45" s="15">
+        <v>125186.34976008581</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>-30.986086283622882</v>
+      </c>
+      <c r="N45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17911,7 +18394,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG44"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17952,7 +18435,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -17991,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -18058,28 +18541,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -18099,6 +18582,16 @@
       </c>
       <c r="AD3" s="11">
         <f>-AC3</f>
+        <v>-250495.52419829773</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>250495.52419829773</v>
+      </c>
+      <c r="AG3" s="11">
+        <f>-AF3</f>
         <v>-250495.52419829773</v>
       </c>
     </row>
@@ -18189,9 +18682,16 @@
         <f>-AC4</f>
         <v>-3805407.5827613538</v>
       </c>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AE4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="9">
+        <v>3805407.5827613538</v>
+      </c>
+      <c r="AG4" s="9">
+        <f>-AF4</f>
+        <v>-3805407.5827613538</v>
+      </c>
     </row>
     <row r="5" spans="1:33" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -18277,9 +18777,16 @@
         <f>-AC5</f>
         <v>-3238983.9113250882</v>
       </c>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+      <c r="AE5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>3238983.9113250882</v>
+      </c>
+      <c r="AG5" s="9">
+        <f>-AF5</f>
+        <v>-3238983.9113250882</v>
+      </c>
     </row>
     <row r="6" spans="1:33" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -18360,7 +18867,16 @@
       <c r="AD6" s="20">
         <v>6428643.6917510191</v>
       </c>
-      <c r="AE6" s="17"/>
+      <c r="AE6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="11">
+        <v>2624874.2063060831</v>
+      </c>
+      <c r="AG6" s="11">
+        <f>-AF6</f>
+        <v>-2624874.2063060831</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -18404,6 +18920,30 @@
       </c>
       <c r="N7" s="9">
         <v>1</v>
+      </c>
+      <c r="P7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>2624874.2063060831</v>
+      </c>
+      <c r="R7" s="8">
+        <v>9919761.2245908231</v>
+      </c>
+      <c r="S7" s="8">
+        <v>11208466.646977551</v>
+      </c>
+      <c r="T7" s="8">
+        <v>1288705.4223867282</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.12991294782298407</v>
+      </c>
+      <c r="W7" s="19">
+        <v>5.736790008357473E-2</v>
       </c>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
@@ -18411,7 +18951,12 @@
       <c r="AD7" s="10">
         <v>-7.6986041644461101E-2</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AE7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>11208466.646977551</v>
+      </c>
     </row>
     <row r="8" spans="1:33" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -18455,6 +19000,9 @@
       </c>
       <c r="N8" s="9">
         <v>1</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>5.736790008357473E-2</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="14.1" customHeight="1">
@@ -20051,6 +20599,53 @@
       <c r="N44" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F45" s="15">
+        <v>3040.8305406285012</v>
+      </c>
+      <c r="G45" s="15">
+        <v>14205915.089980589</v>
+      </c>
+      <c r="H45" s="15">
+        <v>11208466.646977551</v>
+      </c>
+      <c r="I45" s="15">
+        <v>9919761.2245908231</v>
+      </c>
+      <c r="J45" s="15">
+        <v>11208466.646977551</v>
+      </c>
+      <c r="K45" s="15">
+        <v>1288705.4223867282</v>
+      </c>
+      <c r="L45" s="14">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>-30.986086283622882</v>
+      </c>
+      <c r="N45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -20068,7 +20663,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20109,7 +20704,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -20121,10 +20716,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -20154,7 +20749,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -20229,28 +20824,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -20270,6 +20865,16 @@
       </c>
       <c r="AF3" s="11">
         <f>-AE3</f>
+        <v>-51416.609508268921</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>44561</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>51416.609508268921</v>
+      </c>
+      <c r="AI3" s="11">
+        <f>-AH3</f>
         <v>-51416.609508268921</v>
       </c>
     </row>
@@ -20366,9 +20971,16 @@
         <f>-AE4</f>
         <v>-1285809.4346860019</v>
       </c>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
+      <c r="AG4" s="24">
+        <v>44925</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>1285809.4346860019</v>
+      </c>
+      <c r="AI4" s="9">
+        <f>-AH4</f>
+        <v>-1285809.4346860019</v>
+      </c>
     </row>
     <row r="5" spans="1:35" ht="14.1" customHeight="1">
       <c r="A5" s="12">
@@ -20460,9 +21072,16 @@
         <f>-AE5</f>
         <v>-2098253.5703782365</v>
       </c>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
+      <c r="AG5" s="24">
+        <v>45289</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>2098253.5703782365</v>
+      </c>
+      <c r="AI5" s="9">
+        <f>-AH5</f>
+        <v>-2098253.5703782365</v>
+      </c>
     </row>
     <row r="6" spans="1:35" ht="14.1" customHeight="1">
       <c r="A6" s="12">
@@ -20549,7 +21168,16 @@
       <c r="AF6" s="20">
         <v>3148524.074557675</v>
       </c>
-      <c r="AG6" s="17"/>
+      <c r="AG6" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AH6" s="11">
+        <v>5412372.6433340618</v>
+      </c>
+      <c r="AI6" s="11">
+        <f>-AH6</f>
+        <v>-5412372.6433340618</v>
+      </c>
     </row>
     <row r="7" spans="1:35" ht="14.1" customHeight="1">
       <c r="A7" s="12">
@@ -20599,6 +21227,30 @@
       </c>
       <c r="P7" s="9">
         <v>1</v>
+      </c>
+      <c r="R7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="S7" s="18">
+        <v>5412372.6433340618</v>
+      </c>
+      <c r="T7" s="8">
+        <v>8847852.2579065692</v>
+      </c>
+      <c r="U7" s="8">
+        <v>10821028.269999478</v>
+      </c>
+      <c r="V7" s="8">
+        <v>1973176.0120929088</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0.22301186260537412</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0.13562189669002489</v>
       </c>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
@@ -20606,7 +21258,12 @@
       <c r="AF7" s="10">
         <v>-6.0576496447798278E-2</v>
       </c>
-      <c r="AI7" s="10"/>
+      <c r="AG7" s="24">
+        <v>45657</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>10821028.269999478</v>
+      </c>
     </row>
     <row r="8" spans="1:35" ht="14.1" customHeight="1">
       <c r="A8" s="12">
@@ -20656,6 +21313,9 @@
       </c>
       <c r="P8" s="9">
         <v>1</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>0.13562189669002489</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="14.1" customHeight="1">
@@ -22468,6 +23128,59 @@
       <c r="P44" s="9">
         <v>1</v>
       </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75">
+      <c r="A45" s="12">
+        <v>45657</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D45" s="14">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E45" s="14">
+        <v>2431000</v>
+      </c>
+      <c r="F45" s="14">
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1246.0388886215089</v>
+      </c>
+      <c r="H45" s="15">
+        <v>1579.263534262662</v>
+      </c>
+      <c r="I45" s="15">
+        <v>13714865.166801795</v>
+      </c>
+      <c r="J45" s="15">
+        <v>10821028.269999478</v>
+      </c>
+      <c r="K45" s="15">
+        <v>8847852.2579065692</v>
+      </c>
+      <c r="L45" s="15">
+        <v>10821028.269999478</v>
+      </c>
+      <c r="M45" s="15">
+        <v>1973176.0120929088</v>
+      </c>
+      <c r="N45" s="14">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <v>-30.986086283622882</v>
+      </c>
+      <c r="P45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,6 +133,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -157,10 +161,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,10 +171,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
@@ -352,7 +348,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,7 +412,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -864,19 +859,19 @@
                   <c:v>1102813.3837142217</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1123194.2613669224</c:v>
+                  <c:v>1123194.2613680183</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1124647.3973650639</c:v>
+                  <c:v>1124647.3973672311</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1127257.6528514628</c:v>
+                  <c:v>1127257.65285363</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1130707.2667107254</c:v>
+                  <c:v>1130707.2667128926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1133785.7241357749</c:v>
+                  <c:v>1133785.7241379421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,19 +1168,19 @@
                   <c:v>972991.0953141842</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>958018.42403340735</c:v>
+                  <c:v>958018.42403450317</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1206043.51752501</c:v>
+                  <c:v>1206043.5175274594</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1224377.923423548</c:v>
+                  <c:v>1224377.9234260293</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1234130.6538280728</c:v>
+                  <c:v>1234130.6538305667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1249850.5855808333</c:v>
+                  <c:v>1249850.5855833527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,19 +1477,19 @@
                   <c:v>-129822.28840003745</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-165175.83733351505</c:v>
+                  <c:v>-165175.83733351517</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>81396.120159946149</c:v>
+                  <c:v>81396.12016022834</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>97120.270572085166</c:v>
+                  <c:v>97120.270572399255</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>103423.38711734745</c:v>
+                  <c:v>103423.38711767411</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>116064.86144505837</c:v>
+                  <c:v>116064.86144541064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,11 +1511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395609600"/>
-        <c:axId val="395640192"/>
+        <c:axId val="92830336"/>
+        <c:axId val="92840704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="395609600"/>
+        <c:axId val="92830336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,14 +1558,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395640192"/>
+        <c:crossAx val="92840704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="395640192"/>
+        <c:axId val="92840704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +1616,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="395609600"/>
+        <c:crossAx val="92830336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1955,8 +1950,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="492806912"/>
-        <c:axId val="492796928"/>
+        <c:axId val="478556928"/>
+        <c:axId val="461949952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2264,11 +2259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="492793856"/>
-        <c:axId val="492795392"/>
+        <c:axId val="461946880"/>
+        <c:axId val="461948416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="492793856"/>
+        <c:axId val="461946880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2311,14 +2306,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492795392"/>
+        <c:crossAx val="461948416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="492795392"/>
+        <c:axId val="461948416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,12 +2364,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492793856"/>
+        <c:crossAx val="461946880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492796928"/>
+        <c:axId val="461949952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,12 +2406,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492806912"/>
+        <c:crossAx val="478556928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="492806912"/>
+        <c:axId val="478556928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,7 +2420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="492796928"/>
+        <c:crossAx val="461949952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2703,10 +2698,10 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
@@ -2730,8 +2725,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461309824"/>
-        <c:axId val="460887168"/>
+        <c:axId val="461814400"/>
+        <c:axId val="461812864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3039,11 +3034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445880960"/>
-        <c:axId val="460797824"/>
+        <c:axId val="397429760"/>
+        <c:axId val="419513856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="445880960"/>
+        <c:axId val="397429760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,14 +3081,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460797824"/>
+        <c:crossAx val="419513856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460797824"/>
+        <c:axId val="419513856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3144,12 +3139,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445880960"/>
+        <c:crossAx val="397429760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460887168"/>
+        <c:axId val="461812864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,12 +3181,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461309824"/>
+        <c:crossAx val="461814400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="461309824"/>
+        <c:axId val="461814400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3200,7 +3195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="460887168"/>
+        <c:crossAx val="461812864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3633,19 +3628,19 @@
                   <c:v>1166557.2801569432</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1186938.157809644</c:v>
+                  <c:v>1186938.1578107399</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1188391.2938077855</c:v>
+                  <c:v>1188391.2938099527</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1191001.5492941844</c:v>
+                  <c:v>1191001.5492963516</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1194451.163153447</c:v>
+                  <c:v>1194451.1631556142</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1197529.6205784965</c:v>
+                  <c:v>1197529.6205806637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,19 +3937,19 @@
                   <c:v>1035275.9662012851</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1018040.1794189102</c:v>
+                  <c:v>1018040.179420006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1281513.4953520899</c:v>
+                  <c:v>1281513.4953545392</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1300831.8634922137</c:v>
+                  <c:v>1300831.8634946949</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1310978.1799663482</c:v>
+                  <c:v>1310978.1799688421</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1327485.2779934506</c:v>
+                  <c:v>1327485.2779959701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,19 +4246,19 @@
                   <c:v>-131281.31395565812</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-168897.97839073383</c:v>
+                  <c:v>-168897.97839073394</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>93122.201544304378</c:v>
+                  <c:v>93122.201544586569</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>109830.31419802923</c:v>
+                  <c:v>109830.31419834332</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>116527.01681290125</c:v>
+                  <c:v>116527.01681322791</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>129955.65741495416</c:v>
+                  <c:v>129955.65741530643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4285,11 +4280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491757568"/>
-        <c:axId val="491759488"/>
+        <c:axId val="461896320"/>
+        <c:axId val="461926784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491757568"/>
+        <c:axId val="461896320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4332,14 +4327,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491759488"/>
+        <c:crossAx val="461926784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491759488"/>
+        <c:axId val="461926784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,7 +4385,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491757568"/>
+        <c:crossAx val="461896320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4697,10 +4692,10 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
@@ -4724,8 +4719,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491827200"/>
-        <c:axId val="491824640"/>
+        <c:axId val="506158464"/>
+        <c:axId val="506156928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5033,11 +5028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491814272"/>
-        <c:axId val="491821696"/>
+        <c:axId val="479356416"/>
+        <c:axId val="506103680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491814272"/>
+        <c:axId val="479356416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5080,14 +5075,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491821696"/>
+        <c:crossAx val="506103680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491821696"/>
+        <c:axId val="506103680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5138,12 +5133,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491814272"/>
+        <c:crossAx val="479356416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491824640"/>
+        <c:axId val="506156928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5180,12 +5175,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491827200"/>
+        <c:crossAx val="506158464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491827200"/>
+        <c:axId val="506158464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5194,7 +5189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491824640"/>
+        <c:crossAx val="506156928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5627,19 +5622,19 @@
                   <c:v>1168800.3404846375</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1189181.2181373383</c:v>
+                  <c:v>1189181.2181384342</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1190634.3541354798</c:v>
+                  <c:v>1190634.354137647</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1193244.6096218787</c:v>
+                  <c:v>1193244.6096240459</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1196694.2234811413</c:v>
+                  <c:v>1196694.2234833085</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1199772.6809061908</c:v>
+                  <c:v>1199772.680908358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5936,19 +5931,19 @@
                   <c:v>1033249.2049208303</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1016087.0603377006</c:v>
+                  <c:v>1016087.0603387966</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1279057.6882400552</c:v>
+                  <c:v>1279057.6882425046</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1298344.0380658712</c:v>
+                  <c:v>1298344.0380683525</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1308477.5471761138</c:v>
+                  <c:v>1308477.5471786079</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1324959.0306662766</c:v>
+                  <c:v>1324959.0306687963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6248,16 +6243,16 @@
                   <c:v>-173094.15779963764</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>88423.33410457545</c:v>
+                  <c:v>88423.33410485764</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>105099.42844399251</c:v>
+                  <c:v>105099.4284443066</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>111783.32369497255</c:v>
+                  <c:v>111783.32369529945</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>125186.34976008581</c:v>
+                  <c:v>125186.34976043832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6279,11 +6274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493052288"/>
-        <c:axId val="493096960"/>
+        <c:axId val="549086720"/>
+        <c:axId val="549110528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493052288"/>
+        <c:axId val="549086720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6326,14 +6321,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493096960"/>
+        <c:crossAx val="549110528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493096960"/>
+        <c:axId val="549110528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6384,7 +6379,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493052288"/>
+        <c:crossAx val="549086720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6691,10 +6686,10 @@
                   <c:v>32552.967778666007</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20380.877652700809</c:v>
+                  <c:v>20380.877653796702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1453.1359981414703</c:v>
+                  <c:v>1453.1359992128223</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2610.2554863989344</c:v>
@@ -6718,8 +6713,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="532396672"/>
-        <c:axId val="532393984"/>
+        <c:axId val="550666624"/>
+        <c:axId val="550644352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7027,11 +7022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532386176"/>
-        <c:axId val="532387712"/>
+        <c:axId val="550554624"/>
+        <c:axId val="550642432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532386176"/>
+        <c:axId val="550554624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7074,14 +7069,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532387712"/>
+        <c:crossAx val="550642432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532387712"/>
+        <c:axId val="550642432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7132,12 +7127,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532386176"/>
+        <c:crossAx val="550554624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="532393984"/>
+        <c:axId val="550644352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7174,12 +7169,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532396672"/>
+        <c:crossAx val="550666624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="532396672"/>
+        <c:axId val="550666624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7188,7 +7183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="532393984"/>
+        <c:crossAx val="550644352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7621,19 +7616,19 @@
                   <c:v>9806930.351749409</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9912089.8894441836</c:v>
+                  <c:v>9912089.8894554917</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9912624.4727933221</c:v>
+                  <c:v>9912624.4728054181</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9914349.3927184548</c:v>
+                  <c:v>9914349.3927305508</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9917362.0093711168</c:v>
+                  <c:v>9917362.0093832128</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9919761.2245908231</c:v>
+                  <c:v>9919761.2246029191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7930,19 +7925,19 @@
                   <c:v>8877006.9111881889</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8659621.1555818245</c:v>
+                  <c:v>8659621.1555931326</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>10888943.501168342</c:v>
+                  <c:v>10888943.50118335</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11032636.254719432</c:v>
+                  <c:v>11032636.254734635</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11092445.05397602</c:v>
+                  <c:v>11092445.053991303</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11208466.646977551</c:v>
+                  <c:v>11208466.646992989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8242,16 +8237,16 @@
                   <c:v>-1252468.7338623591</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>976319.02837502025</c:v>
+                  <c:v>976319.02837793157</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1118286.8620009776</c:v>
+                  <c:v>1118286.8620040845</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1175083.0446049031</c:v>
+                  <c:v>1175083.0446080901</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1288705.4223867282</c:v>
+                  <c:v>1288705.4223900698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8273,11 +8268,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544198016"/>
-        <c:axId val="544488448"/>
+        <c:axId val="553611264"/>
+        <c:axId val="553634432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544198016"/>
+        <c:axId val="553611264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8320,14 +8315,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544488448"/>
+        <c:crossAx val="553634432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544488448"/>
+        <c:axId val="553634432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8378,7 +8373,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544198016"/>
+        <c:crossAx val="553611264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8685,19 +8680,19 @@
                   <c:v>14023707.241436571</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14196099.922139321</c:v>
+                  <c:v>14196099.922157859</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14196796.901716258</c:v>
+                  <c:v>14196796.901735825</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14199016.87585127</c:v>
+                  <c:v>14199016.875870837</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14202874.25943996</c:v>
+                  <c:v>14202874.259459527</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>14205915.089980589</c:v>
+                  <c:v>14205915.090000156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8712,8 +8707,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="557609728"/>
-        <c:axId val="557418752"/>
+        <c:axId val="566002816"/>
+        <c:axId val="565618560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9021,11 +9016,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="557183744"/>
-        <c:axId val="557186048"/>
+        <c:axId val="565509504"/>
+        <c:axId val="565549696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="557183744"/>
+        <c:axId val="565509504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,14 +9063,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557186048"/>
+        <c:crossAx val="565549696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="557186048"/>
+        <c:axId val="565549696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9126,12 +9121,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557183744"/>
+        <c:crossAx val="565509504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="557418752"/>
+        <c:axId val="565618560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9168,12 +9163,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="557609728"/>
+        <c:crossAx val="566002816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="557609728"/>
+        <c:axId val="566002816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9182,7 +9177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="557418752"/>
+        <c:crossAx val="565618560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10267,11 +10262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562777088"/>
-        <c:axId val="491791104"/>
+        <c:axId val="575956864"/>
+        <c:axId val="588701696"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562777088"/>
+        <c:axId val="575956864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10314,14 +10309,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491791104"/>
+        <c:crossAx val="588701696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491791104"/>
+        <c:axId val="588701696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10372,7 +10367,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562777088"/>
+        <c:crossAx val="575956864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11086,7 +11081,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11223,28 +11218,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -11587,22 +11582,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="18">
-        <v>283147.89461647021</v>
+        <v>283147.89461863739</v>
       </c>
       <c r="R7" s="8">
-        <v>1133785.7241357749</v>
+        <v>1133785.7241379421</v>
       </c>
       <c r="S7" s="8">
-        <v>1249850.5855808333</v>
+        <v>1249850.5855833527</v>
       </c>
       <c r="T7" s="8">
-        <v>116064.86144505837</v>
+        <v>116064.86144541064</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <v>0.10236930927449144</v>
+        <v>0.10236930927460647</v>
       </c>
       <c r="W7" s="19">
         <v>4.4302839298554275E-2</v>
@@ -12910,28 +12905,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="15">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="15">
-        <v>1570521.9697818202</v>
+        <v>1570521.9697836167</v>
       </c>
       <c r="H41" s="15">
-        <v>958018.42403340735</v>
+        <v>958018.42403450317</v>
       </c>
       <c r="I41" s="15">
-        <v>1123194.2613669224</v>
+        <v>1123194.2613680183</v>
       </c>
       <c r="J41" s="15">
-        <v>958018.42403340735</v>
+        <v>958018.42403450317</v>
       </c>
       <c r="K41" s="15">
-        <v>-165175.83733351505</v>
+        <v>-165175.83733351517</v>
       </c>
       <c r="L41" s="14">
         <v>0</v>
@@ -12948,28 +12943,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="15">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="15">
-        <v>1572416.5407871683</v>
+        <v>1572416.5407903616</v>
       </c>
       <c r="H42" s="15">
-        <v>1206043.51752501</v>
+        <v>1206043.5175274594</v>
       </c>
       <c r="I42" s="15">
-        <v>1124647.3973650639</v>
+        <v>1124647.3973672311</v>
       </c>
       <c r="J42" s="15">
-        <v>1206043.51752501</v>
+        <v>1206043.5175274594</v>
       </c>
       <c r="K42" s="15">
-        <v>81396.120159946149</v>
+        <v>81396.12016022834</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -12995,19 +12990,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="15">
-        <v>1575775.9429142717</v>
+        <v>1575775.942917465</v>
       </c>
       <c r="H43" s="15">
-        <v>1224377.923423548</v>
+        <v>1224377.9234260293</v>
       </c>
       <c r="I43" s="15">
-        <v>1127257.6528514628</v>
+        <v>1127257.65285363</v>
       </c>
       <c r="J43" s="15">
-        <v>1224377.923423548</v>
+        <v>1224377.9234260293</v>
       </c>
       <c r="K43" s="15">
-        <v>97120.270572085166</v>
+        <v>97120.270572399255</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -13033,19 +13028,19 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="15">
-        <v>1580192.8619657813</v>
+        <v>1580192.8619689746</v>
       </c>
       <c r="H44" s="15">
-        <v>1234130.6538280728</v>
+        <v>1234130.6538305667</v>
       </c>
       <c r="I44" s="15">
-        <v>1130707.2667107254</v>
+        <v>1130707.2667128926</v>
       </c>
       <c r="J44" s="15">
-        <v>1234130.6538280728</v>
+        <v>1234130.6538305667</v>
       </c>
       <c r="K44" s="15">
-        <v>103423.38711734745</v>
+        <v>103423.38711767411</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -13071,26 +13066,23 @@
         <v>3901.7205623006294</v>
       </c>
       <c r="G45" s="15">
-        <v>1584094.582528082</v>
+        <v>1584094.5825312752</v>
       </c>
       <c r="H45" s="15">
-        <v>1249850.5855808333</v>
+        <v>1249850.5855833527</v>
       </c>
       <c r="I45" s="15">
-        <v>1133785.7241357749</v>
+        <v>1133785.7241379421</v>
       </c>
       <c r="J45" s="15">
-        <v>1249850.5855808333</v>
+        <v>1249850.5855833527</v>
       </c>
       <c r="K45" s="15">
-        <v>116064.86144505837</v>
+        <v>116064.86144541064</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -13108,7 +13100,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13149,7 +13141,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13289,28 +13281,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -13701,22 +13693,22 @@
         <v>45657</v>
       </c>
       <c r="W7" s="18">
-        <v>300198.52745174943</v>
+        <v>300198.52745391661</v>
       </c>
       <c r="X7" s="8">
-        <v>1197529.6205784965</v>
+        <v>1197529.6205806637</v>
       </c>
       <c r="Y7" s="8">
-        <v>1327485.2779934506</v>
+        <v>1327485.2779959701</v>
       </c>
       <c r="Z7" s="8">
-        <v>129955.65741495416</v>
+        <v>129955.65741530643</v>
       </c>
       <c r="AA7" s="8">
         <v>0</v>
       </c>
       <c r="AB7" s="19">
-        <v>0.1085197853829919</v>
+        <v>0.10851978538308968</v>
       </c>
       <c r="AC7" s="19">
         <v>4.7158551078285926E-2</v>
@@ -15792,28 +15784,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="15">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="15">
-        <v>1668918.2877784304</v>
+        <v>1668918.2877802269</v>
       </c>
       <c r="H41" s="15">
-        <v>1018040.1794189102</v>
+        <v>1018040.179420006</v>
       </c>
       <c r="I41" s="15">
-        <v>1186938.157809644</v>
+        <v>1186938.1578107399</v>
       </c>
       <c r="J41" s="15">
-        <v>1018040.1794189102</v>
+        <v>1018040.179420006</v>
       </c>
       <c r="K41" s="15">
-        <v>-168897.97839073383</v>
+        <v>-168897.97839073394</v>
       </c>
       <c r="L41" s="14">
         <v>0</v>
@@ -15857,28 +15849,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="15">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="15">
-        <v>1670812.8587837785</v>
+        <v>1670812.8587869718</v>
       </c>
       <c r="H42" s="15">
-        <v>1281513.4953520899</v>
+        <v>1281513.4953545392</v>
       </c>
       <c r="I42" s="15">
-        <v>1188391.2938077855</v>
+        <v>1188391.2938099527</v>
       </c>
       <c r="J42" s="15">
-        <v>1281513.4953520899</v>
+        <v>1281513.4953545392</v>
       </c>
       <c r="K42" s="15">
-        <v>93122.201544304378</v>
+        <v>93122.201544586569</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -15931,19 +15923,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="15">
-        <v>1674172.2609108819</v>
+        <v>1674172.2609140752</v>
       </c>
       <c r="H43" s="15">
-        <v>1300831.8634922137</v>
+        <v>1300831.8634946949</v>
       </c>
       <c r="I43" s="15">
-        <v>1191001.5492941844</v>
+        <v>1191001.5492963516</v>
       </c>
       <c r="J43" s="15">
-        <v>1300831.8634922137</v>
+        <v>1300831.8634946949</v>
       </c>
       <c r="K43" s="15">
-        <v>109830.31419802923</v>
+        <v>109830.31419834332</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -15996,19 +15988,19 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="15">
-        <v>1678589.1799623915</v>
+        <v>1678589.1799655848</v>
       </c>
       <c r="H44" s="15">
-        <v>1310978.1799663482</v>
+        <v>1310978.1799688421</v>
       </c>
       <c r="I44" s="15">
-        <v>1194451.163153447</v>
+        <v>1194451.1631556142</v>
       </c>
       <c r="J44" s="15">
-        <v>1310978.1799663482</v>
+        <v>1310978.1799688421</v>
       </c>
       <c r="K44" s="15">
-        <v>116527.01681290125</v>
+        <v>116527.01681322791</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -16061,19 +16053,19 @@
         <v>3901.7205623006294</v>
       </c>
       <c r="G45" s="15">
-        <v>1682490.9005246921</v>
+        <v>1682490.9005278854</v>
       </c>
       <c r="H45" s="15">
-        <v>1327485.2779934506</v>
+        <v>1327485.2779959701</v>
       </c>
       <c r="I45" s="15">
-        <v>1197529.6205784965</v>
+        <v>1197529.6205806637</v>
       </c>
       <c r="J45" s="15">
-        <v>1327485.2779934506</v>
+        <v>1327485.2779959701</v>
       </c>
       <c r="K45" s="15">
-        <v>129955.65741495416</v>
+        <v>129955.65741530643</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
@@ -16105,9 +16097,6 @@
       <c r="U45" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16125,7 +16114,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16166,7 +16155,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16272,28 +16261,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -16656,22 +16645,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="18">
-        <v>299177.38471580937</v>
+        <v>299177.38471797656</v>
       </c>
       <c r="R7" s="8">
-        <v>1199772.6809061908</v>
+        <v>1199772.680908358</v>
       </c>
       <c r="S7" s="8">
-        <v>1324959.0306662766</v>
+        <v>1324959.0306687963</v>
       </c>
       <c r="T7" s="8">
-        <v>125186.34976008581</v>
+        <v>125186.34976043832</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <v>0.10434172385516588</v>
+        <v>0.10434172385527121</v>
       </c>
       <c r="W7" s="19">
         <v>4.5025641537120853E-2</v>
@@ -18166,25 +18155,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>20380.877652700809</v>
+        <v>20380.877653796702</v>
       </c>
       <c r="F41" s="15">
-        <v>33411.274056965078</v>
+        <v>33411.274058761628</v>
       </c>
       <c r="G41" s="15">
-        <v>1665716.4532941568</v>
+        <v>1665716.4532959533</v>
       </c>
       <c r="H41" s="15">
-        <v>1016087.0603377006</v>
+        <v>1016087.0603387966</v>
       </c>
       <c r="I41" s="15">
-        <v>1189181.2181373383</v>
+        <v>1189181.2181384342</v>
       </c>
       <c r="J41" s="15">
-        <v>1016087.0603377006</v>
+        <v>1016087.0603387966</v>
       </c>
       <c r="K41" s="15">
         <v>-173094.15779963764</v>
@@ -18210,28 +18199,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>1453.1359981414703</v>
+        <v>1453.1359992128223</v>
       </c>
       <c r="F42" s="15">
-        <v>1894.5710053481021</v>
+        <v>1894.5710067449104</v>
       </c>
       <c r="G42" s="15">
-        <v>1667611.0242995049</v>
+        <v>1667611.0243026982</v>
       </c>
       <c r="H42" s="15">
-        <v>1279057.6882400552</v>
+        <v>1279057.6882425046</v>
       </c>
       <c r="I42" s="15">
-        <v>1190634.3541354798</v>
+        <v>1190634.354137647</v>
       </c>
       <c r="J42" s="15">
-        <v>1279057.6882400552</v>
+        <v>1279057.6882425046</v>
       </c>
       <c r="K42" s="15">
-        <v>88423.33410457545</v>
+        <v>88423.33410485764</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -18263,19 +18252,19 @@
         <v>3359.4021271033353</v>
       </c>
       <c r="G43" s="15">
-        <v>1670970.4264266083</v>
+        <v>1670970.4264298016</v>
       </c>
       <c r="H43" s="15">
-        <v>1298344.0380658712</v>
+        <v>1298344.0380683525</v>
       </c>
       <c r="I43" s="15">
-        <v>1193244.6096218787</v>
+        <v>1193244.6096240459</v>
       </c>
       <c r="J43" s="15">
-        <v>1298344.0380658712</v>
+        <v>1298344.0380683525</v>
       </c>
       <c r="K43" s="15">
-        <v>105099.42844399251</v>
+        <v>105099.4284443066</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -18307,19 +18296,19 @@
         <v>4416.9190515094906</v>
       </c>
       <c r="G44" s="15">
-        <v>1675387.3454781179</v>
+        <v>1675387.3454813112</v>
       </c>
       <c r="H44" s="15">
-        <v>1308477.5471761138</v>
+        <v>1308477.5471786079</v>
       </c>
       <c r="I44" s="15">
-        <v>1196694.2234811413</v>
+        <v>1196694.2234833085</v>
       </c>
       <c r="J44" s="15">
-        <v>1308477.5471761138</v>
+        <v>1308477.5471786079</v>
       </c>
       <c r="K44" s="15">
-        <v>111783.32369497255</v>
+        <v>111783.32369529945</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -18351,19 +18340,19 @@
         <v>3901.7205623006294</v>
       </c>
       <c r="G45" s="15">
-        <v>1679289.0660404186</v>
+        <v>1679289.0660436118</v>
       </c>
       <c r="H45" s="15">
-        <v>1324959.0306662766</v>
+        <v>1324959.0306687963</v>
       </c>
       <c r="I45" s="15">
-        <v>1199772.6809061908</v>
+        <v>1199772.680908358</v>
       </c>
       <c r="J45" s="15">
-        <v>1324959.0306662766</v>
+        <v>1324959.0306687963</v>
       </c>
       <c r="K45" s="15">
-        <v>125186.34976008581</v>
+        <v>125186.34976043832</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
@@ -18374,9 +18363,6 @@
       <c r="N45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -18394,7 +18380,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18541,28 +18527,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -18925,22 +18911,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="18">
-        <v>2624874.2063060831</v>
+        <v>2624874.2063181791</v>
       </c>
       <c r="R7" s="8">
-        <v>9919761.2245908231</v>
+        <v>9919761.2246029191</v>
       </c>
       <c r="S7" s="8">
-        <v>11208466.646977551</v>
+        <v>11208466.646992989</v>
       </c>
       <c r="T7" s="8">
-        <v>1288705.4223867282</v>
+        <v>1288705.4223900698</v>
       </c>
       <c r="U7" s="8">
         <v>0</v>
       </c>
       <c r="V7" s="19">
-        <v>0.12991294782298407</v>
+        <v>0.12991294782316251</v>
       </c>
       <c r="W7" s="19">
         <v>5.736790008357473E-2</v>
@@ -20435,25 +20421,25 @@
         <v>20.56999969</v>
       </c>
       <c r="D41" s="14">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E41" s="14">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F41" s="15">
-        <v>172392.68070274981</v>
+        <v>172392.68072128922</v>
       </c>
       <c r="G41" s="15">
-        <v>14196099.922139321</v>
+        <v>14196099.922157859</v>
       </c>
       <c r="H41" s="15">
-        <v>8659621.1555818245</v>
+        <v>8659621.1555931326</v>
       </c>
       <c r="I41" s="15">
-        <v>9912089.8894441836</v>
+        <v>9912089.8894554917</v>
       </c>
       <c r="J41" s="15">
-        <v>8659621.1555818245</v>
+        <v>8659621.1555931326</v>
       </c>
       <c r="K41" s="15">
         <v>-1252468.7338623591</v>
@@ -20479,28 +20465,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D42" s="14">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E42" s="14">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F42" s="15">
-        <v>696.97957693832984</v>
+        <v>696.9795779660526</v>
       </c>
       <c r="G42" s="15">
-        <v>14196796.901716258</v>
+        <v>14196796.901735825</v>
       </c>
       <c r="H42" s="15">
-        <v>10888943.501168342</v>
+        <v>10888943.50118335</v>
       </c>
       <c r="I42" s="15">
-        <v>9912624.4727933221</v>
+        <v>9912624.4728054181</v>
       </c>
       <c r="J42" s="15">
-        <v>10888943.501168342</v>
+        <v>10888943.50118335</v>
       </c>
       <c r="K42" s="15">
-        <v>976319.02837502025</v>
+        <v>976319.02837793157</v>
       </c>
       <c r="L42" s="14">
         <v>0</v>
@@ -20532,19 +20518,19 @@
         <v>2219.9741350105646</v>
       </c>
       <c r="G43" s="15">
-        <v>14199016.87585127</v>
+        <v>14199016.875870837</v>
       </c>
       <c r="H43" s="15">
-        <v>11032636.254719432</v>
+        <v>11032636.254734635</v>
       </c>
       <c r="I43" s="15">
-        <v>9914349.3927184548</v>
+        <v>9914349.3927305508</v>
       </c>
       <c r="J43" s="15">
-        <v>11032636.254719432</v>
+        <v>11032636.254734635</v>
       </c>
       <c r="K43" s="15">
-        <v>1118286.8620009776</v>
+        <v>1118286.8620040845</v>
       </c>
       <c r="L43" s="14">
         <v>0</v>
@@ -20576,19 +20562,19 @@
         <v>3857.3835886907341</v>
       </c>
       <c r="G44" s="15">
-        <v>14202874.25943996</v>
+        <v>14202874.259459527</v>
       </c>
       <c r="H44" s="15">
-        <v>11092445.05397602</v>
+        <v>11092445.053991303</v>
       </c>
       <c r="I44" s="15">
-        <v>9917362.0093711168</v>
+        <v>9917362.0093832128</v>
       </c>
       <c r="J44" s="15">
-        <v>11092445.05397602</v>
+        <v>11092445.053991303</v>
       </c>
       <c r="K44" s="15">
-        <v>1175083.0446049031</v>
+        <v>1175083.0446080901</v>
       </c>
       <c r="L44" s="14">
         <v>0</v>
@@ -20620,19 +20606,19 @@
         <v>3040.8305406285012</v>
       </c>
       <c r="G45" s="15">
-        <v>14205915.089980589</v>
+        <v>14205915.090000156</v>
       </c>
       <c r="H45" s="15">
-        <v>11208466.646977551</v>
+        <v>11208466.646992989</v>
       </c>
       <c r="I45" s="15">
-        <v>9919761.2245908231</v>
+        <v>9919761.2246029191</v>
       </c>
       <c r="J45" s="15">
-        <v>11208466.646977551</v>
+        <v>11208466.646992989</v>
       </c>
       <c r="K45" s="15">
-        <v>1288705.4223867282</v>
+        <v>1288705.4223900698</v>
       </c>
       <c r="L45" s="14">
         <v>0</v>
@@ -20643,9 +20629,6 @@
       <c r="N45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -20663,7 +20646,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20704,7 +20687,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -20716,10 +20699,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -20824,28 +20807,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -23178,9 +23161,6 @@
       <c r="P45" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -171,10 +167,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -605,7 +597,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -734,6 +726,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,7 +738,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -872,6 +867,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1133785.7241379421</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,7 +912,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1043,6 +1041,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1053,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1181,6 +1182,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1249850.5855833527</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1241682.0665966475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,7 +1227,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1352,6 +1356,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1361,7 +1368,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1490,6 +1497,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>116064.86144541064</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103392.17352248007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,11 +1521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92830336"/>
-        <c:axId val="92840704"/>
+        <c:axId val="516435328"/>
+        <c:axId val="516621824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="92830336"/>
+        <c:axId val="516435328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,14 +1568,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92840704"/>
+        <c:crossAx val="516621824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="92840704"/>
+        <c:axId val="516621824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1626,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92830336"/>
+        <c:crossAx val="516435328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1807,7 +1817,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1936,6 +1946,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1246.0388886215089</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>946.09824206255894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1950,8 +1963,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="478556928"/>
-        <c:axId val="461949952"/>
+        <c:axId val="625809664"/>
+        <c:axId val="625808128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1976,7 +1989,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2105,6 +2118,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2114,7 +2130,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2243,6 +2259,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,11 +2278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461946880"/>
-        <c:axId val="461948416"/>
+        <c:axId val="625152000"/>
+        <c:axId val="625153536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461946880"/>
+        <c:axId val="625152000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,14 +2325,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461948416"/>
+        <c:crossAx val="625153536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461948416"/>
+        <c:axId val="625153536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,12 +2383,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461946880"/>
+        <c:crossAx val="625152000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461949952"/>
+        <c:axId val="625808128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,12 +2425,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478556928"/>
+        <c:crossAx val="625809664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="478556928"/>
+        <c:axId val="625809664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,7 +2439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461949952"/>
+        <c:crossAx val="625808128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2582,7 +2601,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2711,6 +2730,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,8 +2747,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="461814400"/>
-        <c:axId val="461812864"/>
+        <c:axId val="533507072"/>
+        <c:axId val="533505536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2751,7 +2773,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2880,6 +2902,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2889,7 +2914,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3018,6 +3043,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3034,11 +3062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="397429760"/>
-        <c:axId val="419513856"/>
+        <c:axId val="527241600"/>
+        <c:axId val="533504000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="397429760"/>
+        <c:axId val="527241600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3081,14 +3109,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419513856"/>
+        <c:crossAx val="533504000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="419513856"/>
+        <c:axId val="533504000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3139,12 +3167,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397429760"/>
+        <c:crossAx val="527241600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461812864"/>
+        <c:axId val="533505536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,12 +3209,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461814400"/>
+        <c:crossAx val="533507072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="461814400"/>
+        <c:axId val="533507072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3195,7 +3223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461812864"/>
+        <c:crossAx val="533505536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3374,7 +3402,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3503,6 +3531,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3512,7 +3543,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3641,6 +3672,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1197529.6205806637</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1202033.789516889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,7 +3717,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3812,6 +3846,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3821,7 +3858,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3950,6 +3987,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1327485.2779959701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1318529.5927349227</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3992,7 +4032,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4121,6 +4161,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,7 +4173,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4259,6 +4302,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>129955.65741530643</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>116495.80321803363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4280,11 +4326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461896320"/>
-        <c:axId val="461926784"/>
+        <c:axId val="536753664"/>
+        <c:axId val="536755200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461896320"/>
+        <c:axId val="536753664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,14 +4373,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461926784"/>
+        <c:crossAx val="536755200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461926784"/>
+        <c:axId val="536755200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4385,7 +4431,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461896320"/>
+        <c:crossAx val="536753664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4576,7 +4622,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4705,6 +4751,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4719,8 +4768,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506158464"/>
-        <c:axId val="506156928"/>
+        <c:axId val="536841600"/>
+        <c:axId val="536839680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4745,7 +4794,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4874,6 +4923,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4883,7 +4935,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5012,6 +5064,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5028,11 +5083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="479356416"/>
-        <c:axId val="506103680"/>
+        <c:axId val="536786432"/>
+        <c:axId val="536815488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="479356416"/>
+        <c:axId val="536786432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5075,14 +5130,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506103680"/>
+        <c:crossAx val="536815488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506103680"/>
+        <c:axId val="536815488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5133,12 +5188,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="479356416"/>
+        <c:crossAx val="536786432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506156928"/>
+        <c:axId val="536839680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5175,12 +5230,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506158464"/>
+        <c:crossAx val="536841600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506158464"/>
+        <c:axId val="536841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5189,7 +5244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506156928"/>
+        <c:crossAx val="536839680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5368,7 +5423,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5497,6 +5552,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5506,7 +5564,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5635,6 +5693,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1199772.680908358</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1204276.8498445833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5677,7 +5738,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5806,6 +5867,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5815,7 +5879,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5944,6 +6008,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1324959.0306687963</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1316028.9599446885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5986,7 +6053,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6115,6 +6182,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6124,7 +6194,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6253,6 +6323,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>125186.34976043832</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>111752.11010010517</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6274,11 +6347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549086720"/>
-        <c:axId val="549110528"/>
+        <c:axId val="570959360"/>
+        <c:axId val="579932544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549086720"/>
+        <c:axId val="570959360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6321,14 +6394,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549110528"/>
+        <c:crossAx val="579932544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549110528"/>
+        <c:axId val="579932544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6379,7 +6452,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549086720"/>
+        <c:crossAx val="570959360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6570,7 +6643,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6699,6 +6772,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3078.4574250494734</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4504.1689362253819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6713,8 +6789,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="550666624"/>
-        <c:axId val="550644352"/>
+        <c:axId val="614802176"/>
+        <c:axId val="614697984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6739,7 +6815,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6868,6 +6944,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6877,7 +6956,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7006,6 +7085,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7022,11 +7104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550554624"/>
-        <c:axId val="550642432"/>
+        <c:axId val="614689024"/>
+        <c:axId val="614694912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550554624"/>
+        <c:axId val="614689024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7069,14 +7151,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550642432"/>
+        <c:crossAx val="614694912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550642432"/>
+        <c:axId val="614694912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7127,12 +7209,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550554624"/>
+        <c:crossAx val="614689024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="550644352"/>
+        <c:axId val="614697984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7169,12 +7251,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550666624"/>
+        <c:crossAx val="614802176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="550666624"/>
+        <c:axId val="614802176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,7 +7265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550644352"/>
+        <c:crossAx val="614697984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7362,7 +7444,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7491,6 +7573,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7500,7 +7585,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7629,6 +7714,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9919761.2246029191</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9924897.3101234399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7671,7 +7759,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7800,6 +7888,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7809,7 +7900,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7938,6 +8029,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>11208466.646992989</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11099956.028219154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7980,7 +8074,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8109,6 +8203,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8118,7 +8215,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8247,6 +8344,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1288705.4223900698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1175058.7180957142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8268,11 +8368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553611264"/>
-        <c:axId val="553634432"/>
+        <c:axId val="614916864"/>
+        <c:axId val="614919168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553611264"/>
+        <c:axId val="614916864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8315,14 +8415,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553634432"/>
+        <c:crossAx val="614919168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553634432"/>
+        <c:axId val="614919168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8373,7 +8473,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553611264"/>
+        <c:crossAx val="614916864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8564,7 +8664,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8693,6 +8793,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>14205915.090000156</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14212491.38372789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8707,8 +8810,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="566002816"/>
-        <c:axId val="565618560"/>
+        <c:axId val="618082688"/>
+        <c:axId val="617819520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8733,7 +8836,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8862,6 +8965,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8871,7 +8977,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9000,6 +9106,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78899997472763062</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78100001811981201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9016,11 +9125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565509504"/>
-        <c:axId val="565549696"/>
+        <c:axId val="617695104"/>
+        <c:axId val="617817984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565509504"/>
+        <c:axId val="617695104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9063,14 +9172,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565549696"/>
+        <c:crossAx val="617817984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565549696"/>
+        <c:axId val="617817984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9121,12 +9230,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565509504"/>
+        <c:crossAx val="617695104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565618560"/>
+        <c:axId val="617819520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9163,12 +9272,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566002816"/>
+        <c:crossAx val="618082688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="566002816"/>
+        <c:axId val="618082688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9177,7 +9286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565618560"/>
+        <c:crossAx val="617819520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9356,7 +9465,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9485,6 +9594,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9494,7 +9606,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9623,6 +9735,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>8847852.2579065692</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8848798.3561486322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9665,7 +9780,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9794,6 +9909,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9803,7 +9921,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9932,6 +10050,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>10821028.269999478</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10712256.042025045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9974,7 +10095,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10103,6 +10224,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10112,7 +10236,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10241,6 +10365,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1973176.0120929088</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1863457.6858764123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10262,11 +10389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="575956864"/>
-        <c:axId val="588701696"/>
+        <c:axId val="621296256"/>
+        <c:axId val="622237184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="575956864"/>
+        <c:axId val="621296256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10309,14 +10436,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588701696"/>
+        <c:crossAx val="622237184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="588701696"/>
+        <c:axId val="622237184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10367,7 +10494,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575956864"/>
+        <c:crossAx val="621296256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11081,7 +11208,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11218,28 +11345,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -13081,6 +13208,44 @@
         <v>116064.86144541064</v>
       </c>
       <c r="L45" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="15">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1589861.7641339963</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1241682.0665966475</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1241682.0665966475</v>
+      </c>
+      <c r="K46" s="15">
+        <v>103392.17352248007</v>
+      </c>
+      <c r="L46" s="14">
         <v>0</v>
       </c>
     </row>
@@ -13100,7 +13265,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM45"/>
+  <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13177,10 +13342,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -13201,7 +13366,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -13281,28 +13446,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -16095,6 +16260,71 @@
         <v>150.32076221309254</v>
       </c>
       <c r="U45" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="15">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1688258.0821306065</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1318529.5927349227</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1202033.789516889</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1318529.5927349227</v>
+      </c>
+      <c r="K46" s="15">
+        <v>116495.80321803363</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="23">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="N46" s="23">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="O46" s="23">
+        <v>0.77233334382375085</v>
+      </c>
+      <c r="P46" s="23">
+        <v>0.68245238349551252</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>8.9880960328238335E-2</v>
+      </c>
+      <c r="R46" s="23">
+        <v>6.5867351025951162E-2</v>
+      </c>
+      <c r="S46" s="9">
+        <v>9.8801026538926731E-4</v>
+      </c>
+      <c r="T46" s="9">
+        <v>90.9716867089696</v>
+      </c>
+      <c r="U46" s="11">
         <v>1</v>
       </c>
     </row>
@@ -16114,7 +16344,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16155,7 +16385,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16194,7 +16424,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16261,28 +16491,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -18361,6 +18591,50 @@
         <v>-30.986086283622882</v>
       </c>
       <c r="N45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>4504.1689362253819</v>
+      </c>
+      <c r="F46" s="15">
+        <v>5767.1816027210443</v>
+      </c>
+      <c r="G46" s="15">
+        <v>1685056.247646333</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1316028.9599446885</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1204276.8498445833</v>
+      </c>
+      <c r="J46" s="15">
+        <v>1316028.9599446885</v>
+      </c>
+      <c r="K46" s="15">
+        <v>111752.11010010517</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>63.311229058108523</v>
+      </c>
+      <c r="N46" s="9">
         <v>1</v>
       </c>
     </row>
@@ -18380,7 +18654,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG45"/>
+  <dimension ref="A1:AG46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18421,7 +18695,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -18460,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -18527,28 +18801,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -20627,6 +20901,50 @@
         <v>-30.986086283622882</v>
       </c>
       <c r="N45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F46" s="15">
+        <v>6576.2937277333249</v>
+      </c>
+      <c r="G46" s="15">
+        <v>14212491.38372789</v>
+      </c>
+      <c r="H46" s="15">
+        <v>11099956.028219154</v>
+      </c>
+      <c r="I46" s="15">
+        <v>9924897.3101234399</v>
+      </c>
+      <c r="J46" s="15">
+        <v>11099956.028219154</v>
+      </c>
+      <c r="K46" s="15">
+        <v>1175058.7180957142</v>
+      </c>
+      <c r="L46" s="14">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>63.311229058108523</v>
+      </c>
+      <c r="N46" s="9">
         <v>1</v>
       </c>
     </row>
@@ -20646,7 +20964,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI45"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20687,7 +21005,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -20699,10 +21017,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -20732,7 +21050,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -20807,28 +21125,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -23159,6 +23477,56 @@
         <v>-30.986086283622882</v>
       </c>
       <c r="P45" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12.75">
+      <c r="A46" s="12">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="13">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E46" s="14">
+        <v>851700</v>
+      </c>
+      <c r="F46" s="14">
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="G46" s="14">
+        <v>946.09824206255894</v>
+      </c>
+      <c r="H46" s="15">
+        <v>1211.3933676214326</v>
+      </c>
+      <c r="I46" s="15">
+        <v>13716076.560169417</v>
+      </c>
+      <c r="J46" s="15">
+        <v>10712256.042025045</v>
+      </c>
+      <c r="K46" s="15">
+        <v>8848798.3561486322</v>
+      </c>
+      <c r="L46" s="15">
+        <v>10712256.042025045</v>
+      </c>
+      <c r="M46" s="15">
+        <v>1863457.6858764123</v>
+      </c>
+      <c r="N46" s="14">
+        <v>0</v>
+      </c>
+      <c r="O46" s="9">
+        <v>63.311229058108523</v>
+      </c>
+      <c r="P46" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -157,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,6 +171,10 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年投入本金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -597,7 +605,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -729,6 +737,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +749,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -869,6 +880,9 @@
                   <c:v>1133785.7241379421</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
@@ -912,7 +926,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1044,6 +1058,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,7 +1070,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1185,6 +1202,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1241682.0665966475</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1314815.7138116525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,7 +1247,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1359,6 +1379,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,7 +1391,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1500,6 +1523,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>103392.17352248007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>176525.82073748508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,11 +1547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516435328"/>
-        <c:axId val="516621824"/>
+        <c:axId val="438163712"/>
+        <c:axId val="448410368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516435328"/>
+        <c:axId val="438163712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,14 +1594,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516621824"/>
+        <c:crossAx val="448410368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516621824"/>
+        <c:axId val="448410368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1652,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516435328"/>
+        <c:crossAx val="438163712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,7 +1843,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1949,6 +1975,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>946.09824206255894</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-295.3426593807647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1963,8 +1992,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="625809664"/>
-        <c:axId val="625808128"/>
+        <c:axId val="504606720"/>
+        <c:axId val="504604928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1989,7 +2018,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2121,6 +2150,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,7 +2162,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2262,6 +2294,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,11 +2313,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="625152000"/>
-        <c:axId val="625153536"/>
+        <c:axId val="504597504"/>
+        <c:axId val="504603392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="625152000"/>
+        <c:axId val="504597504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2325,14 +2360,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625153536"/>
+        <c:crossAx val="504603392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625153536"/>
+        <c:axId val="504603392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,12 +2418,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625152000"/>
+        <c:crossAx val="504597504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="625808128"/>
+        <c:axId val="504604928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2425,12 +2460,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625809664"/>
+        <c:crossAx val="504606720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="625809664"/>
+        <c:axId val="504606720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,7 +2474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="625808128"/>
+        <c:crossAx val="504604928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2601,7 +2636,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2733,6 +2768,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,8 +2785,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="533507072"/>
-        <c:axId val="533505536"/>
+        <c:axId val="450970368"/>
+        <c:axId val="450968576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2773,7 +2811,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2905,6 +2943,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2914,7 +2955,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3046,6 +3087,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3062,11 +3106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527241600"/>
-        <c:axId val="533504000"/>
+        <c:axId val="448641664"/>
+        <c:axId val="450965888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527241600"/>
+        <c:axId val="448641664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3109,14 +3153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533504000"/>
+        <c:crossAx val="450965888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533504000"/>
+        <c:axId val="450965888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,12 +3211,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527241600"/>
+        <c:crossAx val="448641664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="533505536"/>
+        <c:axId val="450968576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3209,12 +3253,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533507072"/>
+        <c:crossAx val="450970368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="533507072"/>
+        <c:axId val="450970368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="533505536"/>
+        <c:crossAx val="450968576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3402,7 +3446,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3534,6 +3578,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,7 +3590,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3674,6 +3721,9 @@
                   <c:v>1197529.6205806637</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1202033.789516889</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1202033.789516889</c:v>
                 </c:pt>
               </c:numCache>
@@ -3717,7 +3767,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3849,6 +3899,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,7 +3911,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3990,6 +4043,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1318529.5927349227</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1396189.4709531241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4032,7 +4088,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4164,6 +4220,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4173,7 +4232,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4305,6 +4364,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>116495.80321803363</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>194155.68143623509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4326,11 +4388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536753664"/>
-        <c:axId val="536755200"/>
+        <c:axId val="529270656"/>
+        <c:axId val="529290752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536753664"/>
+        <c:axId val="529270656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,14 +4435,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536755200"/>
+        <c:crossAx val="529290752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536755200"/>
+        <c:axId val="529290752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,7 +4493,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536753664"/>
+        <c:crossAx val="529270656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4622,7 +4684,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4754,6 +4816,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2449.1291176605582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4768,8 +4833,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="536841600"/>
-        <c:axId val="536839680"/>
+        <c:axId val="649521408"/>
+        <c:axId val="648399872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4794,7 +4859,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4926,6 +4991,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4935,7 +5003,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5067,6 +5135,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5083,11 +5154,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536786432"/>
-        <c:axId val="536815488"/>
+        <c:axId val="640166528"/>
+        <c:axId val="646918912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536786432"/>
+        <c:axId val="640166528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5130,14 +5201,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536815488"/>
+        <c:crossAx val="646918912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536815488"/>
+        <c:axId val="646918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5188,12 +5259,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536786432"/>
+        <c:crossAx val="640166528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="536839680"/>
+        <c:axId val="648399872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5230,12 +5301,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536841600"/>
+        <c:crossAx val="649521408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="536841600"/>
+        <c:axId val="649521408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5244,7 +5315,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="536839680"/>
+        <c:crossAx val="648399872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5423,7 +5494,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5555,6 +5626,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,7 +5638,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5695,6 +5769,9 @@
                   <c:v>1199772.680908358</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>1204276.8498445833</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>1204276.8498445833</c:v>
                 </c:pt>
               </c:numCache>
@@ -5738,7 +5815,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5870,6 +5947,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5879,7 +5959,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6011,6 +6091,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1316028.9599446885</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1393541.5537643991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6053,7 +6136,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6185,6 +6268,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6194,7 +6280,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6326,6 +6412,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>111752.11010010517</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189264.70391981583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6347,11 +6436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570959360"/>
-        <c:axId val="579932544"/>
+        <c:axId val="649920896"/>
+        <c:axId val="649923200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="570959360"/>
+        <c:axId val="649920896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6394,14 +6483,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579932544"/>
+        <c:crossAx val="649923200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="579932544"/>
+        <c:axId val="649923200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6452,7 +6541,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570959360"/>
+        <c:crossAx val="649920896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6643,7 +6732,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6775,6 +6864,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>4504.1689362253819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2040.9409313837987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6789,8 +6881,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="614802176"/>
-        <c:axId val="614697984"/>
+        <c:axId val="650287360"/>
+        <c:axId val="650285824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6815,7 +6907,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6947,6 +7039,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6956,7 +7051,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7088,6 +7183,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7104,11 +7202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614689024"/>
-        <c:axId val="614694912"/>
+        <c:axId val="650265344"/>
+        <c:axId val="650266880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614689024"/>
+        <c:axId val="650265344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7151,14 +7249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614694912"/>
+        <c:crossAx val="650266880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614694912"/>
+        <c:axId val="650266880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7209,12 +7307,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614689024"/>
+        <c:crossAx val="650265344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="614697984"/>
+        <c:axId val="650285824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7251,12 +7349,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614802176"/>
+        <c:crossAx val="650287360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="614802176"/>
+        <c:axId val="650287360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7265,7 +7363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="614697984"/>
+        <c:crossAx val="650285824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7444,7 +7542,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7576,6 +7674,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7585,7 +7686,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7716,6 +7817,9 @@
                   <c:v>9919761.2246029191</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>9924897.3101234399</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>9924897.3101234399</c:v>
                 </c:pt>
               </c:numCache>
@@ -7759,7 +7863,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7891,6 +7995,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7900,7 +8007,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8032,6 +8139,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>11099956.028219154</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11753730.686086988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8074,7 +8184,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8206,6 +8316,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8215,7 +8328,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8347,6 +8460,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1175058.7180957142</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1828833.3759635482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8368,11 +8484,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="614916864"/>
-        <c:axId val="614919168"/>
+        <c:axId val="656024320"/>
+        <c:axId val="656116736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="614916864"/>
+        <c:axId val="656024320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8415,14 +8531,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614919168"/>
+        <c:crossAx val="656116736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="614919168"/>
+        <c:axId val="656116736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8473,7 +8589,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="614916864"/>
+        <c:crossAx val="656024320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8664,7 +8780,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8796,6 +8912,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>14212491.38372789</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14211216.242597092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8810,8 +8929,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="618082688"/>
-        <c:axId val="617819520"/>
+        <c:axId val="448611072"/>
+        <c:axId val="448609280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8836,7 +8955,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8968,6 +9087,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8977,7 +9099,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9109,6 +9231,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.78100001811981201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.82700002193450928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9125,11 +9250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="617695104"/>
-        <c:axId val="617817984"/>
+        <c:axId val="448606208"/>
+        <c:axId val="448607744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="617695104"/>
+        <c:axId val="448606208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9172,14 +9297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617817984"/>
+        <c:crossAx val="448607744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="617817984"/>
+        <c:axId val="448607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9230,12 +9355,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="617695104"/>
+        <c:crossAx val="448606208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="617819520"/>
+        <c:axId val="448609280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9272,12 +9397,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618082688"/>
+        <c:crossAx val="448611072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="618082688"/>
+        <c:axId val="448611072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9286,7 +9411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617819520"/>
+        <c:crossAx val="448609280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9465,7 +9590,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9597,6 +9722,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9606,7 +9734,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9737,6 +9865,9 @@
                   <c:v>8847852.2579065692</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>8848798.3561486322</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>8848798.3561486322</c:v>
                 </c:pt>
               </c:numCache>
@@ -9780,7 +9911,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9912,6 +10043,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9921,7 +10055,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10053,6 +10187,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>10712256.042025045</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11343195.616115516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10095,7 +10232,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10227,6 +10364,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10236,7 +10376,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10368,6 +10508,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1863457.6858764123</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2494397.2599668838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10389,11 +10532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="621296256"/>
-        <c:axId val="622237184"/>
+        <c:axId val="450959616"/>
+        <c:axId val="450998272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="621296256"/>
+        <c:axId val="450959616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10436,14 +10579,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622237184"/>
+        <c:crossAx val="450998272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="622237184"/>
+        <c:axId val="450998272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10494,7 +10637,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="621296256"/>
+        <c:crossAx val="450959616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11208,7 +11351,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13249,6 +13392,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:12" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-2467.8849785392413</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1587393.879155457</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1312774.7728802687</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1314815.7138116525</v>
+      </c>
+      <c r="K47" s="15">
+        <v>176525.82073748508</v>
+      </c>
+      <c r="L47" s="14">
+        <v>2040.9409313837987</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13265,7 +13446,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM46"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13306,7 +13487,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13342,10 +13523,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -13366,7 +13547,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -13449,7 +13630,7 @@
         <v>7</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>20</v>
@@ -16326,6 +16507,71 @@
       </c>
       <c r="U46" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-2449.1291176605582</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-2961.4619742470895</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1685296.6201563594</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1393740.3418354637</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1202033.789516889</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1396189.4709531241</v>
+      </c>
+      <c r="K47" s="15">
+        <v>194155.68143623509</v>
+      </c>
+      <c r="L47" s="14">
+        <v>2449.1291176605582</v>
+      </c>
+      <c r="M47" s="23">
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="N47" s="23">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="O47" s="23">
+        <v>0.82533333698908484</v>
+      </c>
+      <c r="P47" s="23">
+        <v>0.69597619346209938</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>0.12935714352698546</v>
+      </c>
+      <c r="R47" s="23">
+        <v>7.4687078696529879E-2</v>
+      </c>
+      <c r="S47" s="9">
+        <v>1.1203061804479482E-3</v>
+      </c>
+      <c r="T47" s="9">
+        <v>115.46588404543365</v>
+      </c>
+      <c r="U47" s="11">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -16344,7 +16590,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16385,7 +16631,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16424,7 +16670,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -16494,7 +16740,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -18635,6 +18881,50 @@
         <v>63.311229058108523</v>
       </c>
       <c r="N46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-2040.9409313837987</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-2467.8849785392413</v>
+      </c>
+      <c r="G47" s="15">
+        <v>1682588.3626677936</v>
+      </c>
+      <c r="H47" s="15">
+        <v>1391500.6128330154</v>
+      </c>
+      <c r="I47" s="15">
+        <v>1204276.8498445833</v>
+      </c>
+      <c r="J47" s="15">
+        <v>1393541.5537643991</v>
+      </c>
+      <c r="K47" s="15">
+        <v>189264.70391981583</v>
+      </c>
+      <c r="L47" s="14">
+        <v>2040.9409313837987</v>
+      </c>
+      <c r="M47" s="9">
+        <v>-39.803160451219114</v>
+      </c>
+      <c r="N47" s="9">
         <v>1</v>
       </c>
     </row>
@@ -18654,7 +18944,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG46"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18734,7 +19024,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -18804,7 +19094,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -20945,6 +21235,50 @@
         <v>63.311229058108523</v>
       </c>
       <c r="N46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-1275.1411307969533</v>
+      </c>
+      <c r="G47" s="15">
+        <v>14211216.242597092</v>
+      </c>
+      <c r="H47" s="15">
+        <v>11752676.144343849</v>
+      </c>
+      <c r="I47" s="15">
+        <v>9924897.3101234399</v>
+      </c>
+      <c r="J47" s="15">
+        <v>11753730.686086988</v>
+      </c>
+      <c r="K47" s="15">
+        <v>1828833.3759635482</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1054.5417431386754</v>
+      </c>
+      <c r="M47" s="9">
+        <v>-39.803160451219114</v>
+      </c>
+      <c r="N47" s="9">
         <v>1</v>
       </c>
     </row>
@@ -20964,7 +21298,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI46"/>
+  <dimension ref="A1:AI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21017,10 +21351,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -21050,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -21128,7 +21462,7 @@
         <v>7</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>20</v>
@@ -23527,6 +23861,56 @@
         <v>63.311229058108523</v>
       </c>
       <c r="P46" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="12.75">
+      <c r="A47" s="12">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="13">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="14">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1283704</v>
+      </c>
+      <c r="F47" s="14">
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="G47" s="14">
+        <v>-295.3426593807647</v>
+      </c>
+      <c r="H47" s="15">
+        <v>-357.12533439830196</v>
+      </c>
+      <c r="I47" s="15">
+        <v>13715719.434835019</v>
+      </c>
+      <c r="J47" s="15">
+        <v>11342900.273456136</v>
+      </c>
+      <c r="K47" s="15">
+        <v>8848798.3561486322</v>
+      </c>
+      <c r="L47" s="15">
+        <v>11343195.616115516</v>
+      </c>
+      <c r="M47" s="15">
+        <v>2494397.2599668838</v>
+      </c>
+      <c r="N47" s="14">
+        <v>295.3426593807647</v>
+      </c>
+      <c r="O47" s="9">
+        <v>-39.803160451219114</v>
+      </c>
+      <c r="P47" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -173,7 +173,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每年投入本金</t>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -605,7 +605,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -740,6 +740,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -749,7 +752,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -883,6 +886,9 @@
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1138289.8930741674</c:v>
                 </c:pt>
               </c:numCache>
@@ -926,7 +932,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1061,6 +1067,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1070,7 +1079,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1205,6 +1214,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1314815.7138116525</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1294179.5752163501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,7 +1259,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1382,6 +1394,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,7 +1406,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1526,6 +1541,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>176525.82073748508</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>155889.68214218272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,11 +1565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="438163712"/>
-        <c:axId val="448410368"/>
+        <c:axId val="459561600"/>
+        <c:axId val="459583872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="438163712"/>
+        <c:axId val="459561600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,14 +1612,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448410368"/>
+        <c:crossAx val="459583872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448410368"/>
+        <c:axId val="459583872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1670,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="438163712"/>
+        <c:crossAx val="459561600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1843,7 +1861,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1978,6 +1996,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-295.3426593807647</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.0445561652667319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,8 +2013,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504606720"/>
-        <c:axId val="504604928"/>
+        <c:axId val="474192512"/>
+        <c:axId val="474190976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2018,7 +2039,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2153,6 +2174,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2162,7 +2186,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2297,6 +2321,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2313,11 +2340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504597504"/>
-        <c:axId val="504603392"/>
+        <c:axId val="474179456"/>
+        <c:axId val="474180992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504597504"/>
+        <c:axId val="474179456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2360,14 +2387,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504603392"/>
+        <c:crossAx val="474180992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504603392"/>
+        <c:axId val="474180992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,12 +2445,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504597504"/>
+        <c:crossAx val="474179456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504604928"/>
+        <c:axId val="474190976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,12 +2487,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504606720"/>
+        <c:crossAx val="474192512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="504606720"/>
+        <c:axId val="474192512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,7 +2501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504604928"/>
+        <c:crossAx val="474190976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,7 +2663,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2771,6 +2798,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2040.9409313837987</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,8 +2815,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="450970368"/>
-        <c:axId val="450968576"/>
+        <c:axId val="468465152"/>
+        <c:axId val="468463616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2811,7 +2841,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2946,6 +2976,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2955,7 +2988,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3090,6 +3123,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,11 +3142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448641664"/>
-        <c:axId val="450965888"/>
+        <c:axId val="465913728"/>
+        <c:axId val="468456576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448641664"/>
+        <c:axId val="465913728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,14 +3189,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450965888"/>
+        <c:crossAx val="468456576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="450965888"/>
+        <c:axId val="468456576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,12 +3247,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448641664"/>
+        <c:crossAx val="465913728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="450968576"/>
+        <c:axId val="468463616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,12 +3289,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450970368"/>
+        <c:crossAx val="468465152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="450970368"/>
+        <c:axId val="468465152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,7 +3303,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450968576"/>
+        <c:crossAx val="468463616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3446,7 +3482,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3581,6 +3617,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,7 +3629,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3724,6 +3763,9 @@
                   <c:v>1202033.789516889</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1202033.789516889</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1202033.789516889</c:v>
                 </c:pt>
               </c:numCache>
@@ -3767,7 +3809,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3902,6 +3944,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,7 +3956,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4046,6 +4091,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1396189.4709531241</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1374280.5956044022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4088,7 +4136,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4223,6 +4271,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4232,7 +4283,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4367,6 +4418,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>194155.68143623509</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>172246.80608751322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4388,11 +4442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529270656"/>
-        <c:axId val="529290752"/>
+        <c:axId val="474123648"/>
+        <c:axId val="502753152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529270656"/>
+        <c:axId val="474123648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,14 +4489,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529290752"/>
+        <c:crossAx val="502753152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529290752"/>
+        <c:axId val="502753152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,7 +4547,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529270656"/>
+        <c:crossAx val="474123648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4684,7 +4738,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4819,6 +4873,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2449.1291176605582</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4833,8 +4890,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="649521408"/>
-        <c:axId val="648399872"/>
+        <c:axId val="705693952"/>
+        <c:axId val="705521920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4859,7 +4916,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4994,6 +5051,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5003,7 +5063,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5138,6 +5198,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,11 +5217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="640166528"/>
-        <c:axId val="646918912"/>
+        <c:axId val="689564672"/>
+        <c:axId val="705378944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640166528"/>
+        <c:axId val="689564672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5201,14 +5264,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646918912"/>
+        <c:crossAx val="705378944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="646918912"/>
+        <c:axId val="705378944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5259,12 +5322,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640166528"/>
+        <c:crossAx val="689564672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648399872"/>
+        <c:axId val="705521920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5301,12 +5364,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649521408"/>
+        <c:crossAx val="705693952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="649521408"/>
+        <c:axId val="705693952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5315,7 +5378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="648399872"/>
+        <c:crossAx val="705521920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5494,7 +5557,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5629,6 +5692,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5638,7 +5704,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5772,6 +5838,9 @@
                   <c:v>1204276.8498445833</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>1204276.8498445833</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>1204276.8498445833</c:v>
                 </c:pt>
               </c:numCache>
@@ -5815,7 +5884,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5950,6 +6019,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5959,7 +6031,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6094,6 +6166,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1393541.5537643991</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1371667.8857940221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6136,7 +6211,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6271,6 +6346,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6280,7 +6358,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6415,6 +6493,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>189264.70391981583</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>167391.03594943881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6436,11 +6517,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="649920896"/>
-        <c:axId val="649923200"/>
+        <c:axId val="748787584"/>
+        <c:axId val="759086080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="649920896"/>
+        <c:axId val="748787584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6483,14 +6564,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649923200"/>
+        <c:crossAx val="759086080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="649923200"/>
+        <c:axId val="759086080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6541,7 +6622,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649920896"/>
+        <c:crossAx val="748787584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6732,7 +6813,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6867,6 +6948,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-2040.9409313837987</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-208.92884883219213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6881,8 +6965,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="650287360"/>
-        <c:axId val="650285824"/>
+        <c:axId val="762397056"/>
+        <c:axId val="762089472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6907,7 +6991,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7042,6 +7126,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7051,7 +7138,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7186,6 +7273,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7202,11 +7292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="650265344"/>
-        <c:axId val="650266880"/>
+        <c:axId val="760516992"/>
+        <c:axId val="760518912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="650265344"/>
+        <c:axId val="760516992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7249,14 +7339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650266880"/>
+        <c:crossAx val="760518912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="650266880"/>
+        <c:axId val="760518912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7307,12 +7397,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650265344"/>
+        <c:crossAx val="760516992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="650285824"/>
+        <c:axId val="762089472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7349,12 +7439,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="650287360"/>
+        <c:crossAx val="762397056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="650287360"/>
+        <c:axId val="762397056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7363,7 +7453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="650285824"/>
+        <c:crossAx val="762089472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7542,7 +7632,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7677,6 +7767,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7686,7 +7779,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7820,6 +7913,9 @@
                   <c:v>9924897.3101234399</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>9924897.3101234399</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>9924897.3101234399</c:v>
                 </c:pt>
               </c:numCache>
@@ -7863,7 +7959,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7998,6 +8094,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8007,7 +8106,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8142,6 +8241,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11753730.686086988</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11568984.712298762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8184,7 +8286,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8319,6 +8421,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8328,7 +8433,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8463,6 +8568,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1828833.3759635482</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1644087.4021753222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8484,11 +8592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="656024320"/>
-        <c:axId val="656116736"/>
+        <c:axId val="766684544"/>
+        <c:axId val="766686336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="656024320"/>
+        <c:axId val="766684544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8531,14 +8639,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656116736"/>
+        <c:crossAx val="766686336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="656116736"/>
+        <c:axId val="766686336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8589,7 +8697,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656024320"/>
+        <c:crossAx val="766684544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8780,7 +8888,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8915,6 +9023,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>14211216.242597092</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14211202.666488077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8929,8 +9040,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="448611072"/>
-        <c:axId val="448609280"/>
+        <c:axId val="767568128"/>
+        <c:axId val="767566208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8955,7 +9066,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9090,6 +9201,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9099,7 +9213,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9234,6 +9348,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.82700002193450928</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.81400001049041748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9250,11 +9367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448606208"/>
-        <c:axId val="448607744"/>
+        <c:axId val="767030400"/>
+        <c:axId val="767031936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="448606208"/>
+        <c:axId val="767030400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9297,14 +9414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448607744"/>
+        <c:crossAx val="767031936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="448607744"/>
+        <c:axId val="767031936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9355,12 +9472,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448606208"/>
+        <c:crossAx val="767030400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="448609280"/>
+        <c:axId val="767566208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9397,12 +9514,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448611072"/>
+        <c:crossAx val="767568128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="448611072"/>
+        <c:axId val="767568128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9411,7 +9528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448609280"/>
+        <c:crossAx val="767566208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9590,7 +9707,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9725,6 +9842,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9734,7 +9854,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9868,6 +9988,9 @@
                   <c:v>8848798.3561486322</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>8848798.3561486322</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>8848798.3561486322</c:v>
                 </c:pt>
               </c:numCache>
@@ -9911,7 +10034,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10046,6 +10169,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10055,7 +10181,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10190,6 +10316,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11343195.616115516</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11164891.106498707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10232,7 +10361,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10367,6 +10496,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10376,7 +10508,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10511,6 +10643,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2494397.2599668838</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2316092.7503500748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10532,11 +10667,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="450959616"/>
-        <c:axId val="450998272"/>
+        <c:axId val="474162304"/>
+        <c:axId val="474163840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="450959616"/>
+        <c:axId val="474162304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10579,14 +10714,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450998272"/>
+        <c:crossAx val="474163840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="450998272"/>
+        <c:axId val="474163840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10637,7 +10772,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450959616"/>
+        <c:crossAx val="474162304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11351,7 +11486,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13430,6 +13565,44 @@
         <v>2040.9409313837987</v>
       </c>
     </row>
+    <row r="48" spans="1:12" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-256.66934415187171</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1587137.2098113052</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1291929.7054361342</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1138289.8930741674</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1294179.5752163501</v>
+      </c>
+      <c r="K48" s="15">
+        <v>155889.68214218272</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13446,7 +13619,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13630,7 +13803,7 @@
         <v>7</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="X3" s="16" t="s">
         <v>20</v>
@@ -16572,6 +16745,71 @@
       </c>
       <c r="U47" s="11">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-256.66934415187171</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1685039.9508122075</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1371622.5376379094</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1202033.789516889</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1374280.5956044022</v>
+      </c>
+      <c r="K48" s="15">
+        <v>172246.80608751322</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M48" s="23">
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="N48" s="23">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="O48" s="23">
+        <v>0.82533333698908484</v>
+      </c>
+      <c r="P48" s="23">
+        <v>0.71290476549239379</v>
+      </c>
+      <c r="Q48" s="23">
+        <v>0.11242857149669105</v>
+      </c>
+      <c r="R48" s="23">
+        <v>7.6986397204755905E-2</v>
+      </c>
+      <c r="S48" s="9">
+        <v>1.1547959580713385E-3</v>
+      </c>
+      <c r="T48" s="9">
+        <v>97.357953767401114</v>
+      </c>
+      <c r="U48" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16590,7 +16828,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16631,7 +16869,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -16740,7 +16978,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -18925,6 +19163,50 @@
         <v>-39.803160451219114</v>
       </c>
       <c r="N47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-208.92884883219213</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-256.66934415187171</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1682331.6933236418</v>
+      </c>
+      <c r="H48" s="15">
+        <v>1369418.0160138062</v>
+      </c>
+      <c r="I48" s="15">
+        <v>1204276.8498445833</v>
+      </c>
+      <c r="J48" s="15">
+        <v>1371667.8857940221</v>
+      </c>
+      <c r="K48" s="15">
+        <v>167391.03594943881</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M48" s="9">
+        <v>-119.64106934981089</v>
+      </c>
+      <c r="N48" s="9">
         <v>1</v>
       </c>
     </row>
@@ -18944,7 +19226,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19094,7 +19376,7 @@
         <v>7</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>20</v>
@@ -21279,6 +21561,50 @@
         <v>-39.803160451219114</v>
       </c>
       <c r="N47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>-11.050952879581011</v>
+      </c>
+      <c r="F48" s="15">
+        <v>-13.576109013712481</v>
+      </c>
+      <c r="G48" s="15">
+        <v>14211202.666488077</v>
+      </c>
+      <c r="H48" s="15">
+        <v>11567919.119602744</v>
+      </c>
+      <c r="I48" s="15">
+        <v>9924897.3101234399</v>
+      </c>
+      <c r="J48" s="15">
+        <v>11568984.712298762</v>
+      </c>
+      <c r="K48" s="15">
+        <v>1644087.4021753222</v>
+      </c>
+      <c r="L48" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M48" s="9">
+        <v>-119.64106934981089</v>
+      </c>
+      <c r="N48" s="9">
         <v>1</v>
       </c>
     </row>
@@ -21298,7 +21624,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI47"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21339,7 +21665,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -21462,7 +21788,7 @@
         <v>7</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="T3" s="16" t="s">
         <v>20</v>
@@ -23911,6 +24237,56 @@
         <v>-39.803160451219114</v>
       </c>
       <c r="P47" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="12.75">
+      <c r="A48" s="12">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="13">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="14">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E48" s="14">
+        <v>2900300</v>
+      </c>
+      <c r="F48" s="14">
+        <v>4549765.5046995059</v>
+      </c>
+      <c r="G48" s="14">
+        <v>-7.0445561652667319</v>
+      </c>
+      <c r="H48" s="15">
+        <v>-8.6542457917445699</v>
+      </c>
+      <c r="I48" s="15">
+        <v>13715710.780589227</v>
+      </c>
+      <c r="J48" s="15">
+        <v>11164588.719283162</v>
+      </c>
+      <c r="K48" s="15">
+        <v>8848798.3561486322</v>
+      </c>
+      <c r="L48" s="15">
+        <v>11164891.106498707</v>
+      </c>
+      <c r="M48" s="15">
+        <v>2316092.7503500748</v>
+      </c>
+      <c r="N48" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O48" s="9">
+        <v>-119.64106934981089</v>
+      </c>
+      <c r="P48" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -171,10 +171,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -605,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -743,6 +739,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,7 +751,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -890,6 +889,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1138289.8930741674</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1144330.9676563484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -932,7 +934,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1070,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1084,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1217,6 +1222,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1294179.5752163501</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1228799.4488688125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,7 +1267,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1397,6 +1405,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,7 +1417,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1544,6 +1555,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>155889.68214218272</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84468.481212464161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,11 +1579,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459561600"/>
-        <c:axId val="459583872"/>
+        <c:axId val="442029184"/>
+        <c:axId val="442030720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459561600"/>
+        <c:axId val="442029184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,14 +1626,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459583872"/>
+        <c:crossAx val="442030720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459583872"/>
+        <c:axId val="442030720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1670,7 +1684,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459561600"/>
+        <c:crossAx val="442029184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1861,7 +1875,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1999,6 +2013,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-7.0445561652667319</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3763.8330854783617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,8 +2030,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="474192512"/>
-        <c:axId val="474190976"/>
+        <c:axId val="487415808"/>
+        <c:axId val="487414016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2039,7 +2056,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2177,6 +2194,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2186,7 +2206,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2324,6 +2344,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2340,11 +2363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474179456"/>
-        <c:axId val="474180992"/>
+        <c:axId val="487410688"/>
+        <c:axId val="487412480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474179456"/>
+        <c:axId val="487410688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,14 +2410,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474180992"/>
+        <c:crossAx val="487412480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474180992"/>
+        <c:axId val="487412480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,12 +2468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474179456"/>
+        <c:crossAx val="487410688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="474190976"/>
+        <c:axId val="487414016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,12 +2510,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474192512"/>
+        <c:crossAx val="487415808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="474192512"/>
+        <c:axId val="487415808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2501,7 +2524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="474190976"/>
+        <c:crossAx val="487414016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2663,7 +2686,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2801,6 +2824,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2815,8 +2841,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468465152"/>
-        <c:axId val="468463616"/>
+        <c:axId val="455713920"/>
+        <c:axId val="455678976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2841,7 +2867,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2979,6 +3005,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2988,7 +3017,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3126,6 +3155,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,11 +3174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465913728"/>
-        <c:axId val="468456576"/>
+        <c:axId val="454758784"/>
+        <c:axId val="455677056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465913728"/>
+        <c:axId val="454758784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3189,14 +3221,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468456576"/>
+        <c:crossAx val="455677056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468456576"/>
+        <c:axId val="455677056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,12 +3279,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465913728"/>
+        <c:crossAx val="454758784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468463616"/>
+        <c:axId val="455678976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,12 +3321,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468465152"/>
+        <c:crossAx val="455713920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="468465152"/>
+        <c:axId val="455713920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3303,7 +3335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468463616"/>
+        <c:crossAx val="455678976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3482,7 +3514,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3620,6 +3652,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3629,7 +3664,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3767,6 +3802,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1202033.789516889</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1208074.86409907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3809,7 +3847,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3947,6 +3985,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3956,7 +3997,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4094,6 +4135,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1374280.5956044022</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1304494.8442778958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,7 +4180,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4274,6 +4318,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,7 +4330,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4421,6 +4468,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>172246.80608751322</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96419.98017882579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4442,11 +4492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474123648"/>
-        <c:axId val="502753152"/>
+        <c:axId val="471230336"/>
+        <c:axId val="471516672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474123648"/>
+        <c:axId val="471230336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4489,14 +4539,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502753152"/>
+        <c:crossAx val="471516672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502753152"/>
+        <c:axId val="471516672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4597,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474123648"/>
+        <c:crossAx val="471230336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4738,7 +4788,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4876,6 +4926,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4890,8 +4943,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="705693952"/>
-        <c:axId val="705521920"/>
+        <c:axId val="501544448"/>
+        <c:axId val="501542912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4916,7 +4969,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5054,6 +5107,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5063,7 +5119,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5201,6 +5257,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5217,11 +5276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="689564672"/>
-        <c:axId val="705378944"/>
+        <c:axId val="490806272"/>
+        <c:axId val="490808448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="689564672"/>
+        <c:axId val="490806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5264,14 +5323,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705378944"/>
+        <c:crossAx val="490808448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="705378944"/>
+        <c:axId val="490808448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5322,12 +5381,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="689564672"/>
+        <c:crossAx val="490806272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="705521920"/>
+        <c:axId val="501542912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5364,12 +5423,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705693952"/>
+        <c:crossAx val="501544448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="705693952"/>
+        <c:axId val="501544448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5378,7 +5437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="705521920"/>
+        <c:crossAx val="501542912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5557,7 +5616,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5695,6 +5754,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,7 +5766,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5842,6 +5904,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1204276.8498445833</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1210317.9244267642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5884,7 +5949,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6022,6 +6087,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6031,7 +6099,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6169,6 +6237,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1371667.8857940221</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1302004.0060997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6211,7 +6282,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6349,6 +6420,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6358,7 +6432,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6496,6 +6570,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>167391.03594943881</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>91686.081672935747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6517,11 +6594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="748787584"/>
-        <c:axId val="759086080"/>
+        <c:axId val="502601600"/>
+        <c:axId val="502603136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="748787584"/>
+        <c:axId val="502601600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6564,14 +6641,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="759086080"/>
+        <c:crossAx val="502603136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="759086080"/>
+        <c:axId val="502603136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6622,7 +6699,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="748787584"/>
+        <c:crossAx val="502601600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6813,7 +6890,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6951,6 +7028,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-208.92884883219213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6041.0745821809896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6965,8 +7045,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="762397056"/>
-        <c:axId val="762089472"/>
+        <c:axId val="545113600"/>
+        <c:axId val="545111424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6991,7 +7071,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7129,6 +7209,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7138,7 +7221,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7276,6 +7359,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7292,11 +7378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="760516992"/>
-        <c:axId val="760518912"/>
+        <c:axId val="545080448"/>
+        <c:axId val="545109888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="760516992"/>
+        <c:axId val="545080448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7339,14 +7425,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760518912"/>
+        <c:crossAx val="545109888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="760518912"/>
+        <c:axId val="545109888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7397,12 +7483,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="760516992"/>
+        <c:crossAx val="545080448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="762089472"/>
+        <c:axId val="545111424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7439,12 +7525,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="762397056"/>
+        <c:crossAx val="545113600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="762397056"/>
+        <c:axId val="545113600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7453,7 +7539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="762089472"/>
+        <c:crossAx val="545111424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7632,7 +7718,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7770,6 +7856,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7779,7 +7868,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7917,6 +8006,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>9924897.3101234399</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9934136.4448341932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,7 +8051,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8097,6 +8189,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8106,7 +8201,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8244,6 +8339,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>11568984.712298762</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10938719.489842519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8286,7 +8384,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8424,6 +8522,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8433,7 +8534,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8571,6 +8672,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1644087.4021753222</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1004583.0450083259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8592,11 +8696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="766684544"/>
-        <c:axId val="766686336"/>
+        <c:axId val="546746752"/>
+        <c:axId val="548029568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="766684544"/>
+        <c:axId val="546746752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8639,14 +8743,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766686336"/>
+        <c:crossAx val="548029568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="766686336"/>
+        <c:axId val="548029568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8697,7 +8801,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="766684544"/>
+        <c:crossAx val="546746752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8888,7 +8992,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9026,6 +9130,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>14211202.666488077</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14223217.146052744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9040,8 +9147,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="767568128"/>
-        <c:axId val="767566208"/>
+        <c:axId val="555723776"/>
+        <c:axId val="555722240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9066,7 +9173,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9204,6 +9311,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9213,7 +9323,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9351,6 +9461,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0.81400001049041748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.76899999380111694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9367,11 +9480,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="767030400"/>
-        <c:axId val="767031936"/>
+        <c:axId val="554329216"/>
+        <c:axId val="554331136"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="767030400"/>
+        <c:axId val="554329216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9414,14 +9527,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767031936"/>
+        <c:crossAx val="554331136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="767031936"/>
+        <c:axId val="554331136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9472,12 +9585,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767030400"/>
+        <c:crossAx val="554329216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="767566208"/>
+        <c:axId val="555722240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9514,12 +9627,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="767568128"/>
+        <c:crossAx val="555723776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="767568128"/>
+        <c:axId val="555723776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9528,7 +9641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="767566208"/>
+        <c:crossAx val="555722240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9707,7 +9820,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9845,6 +9958,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9854,7 +9970,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9992,6 +10108,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>8848798.3561486322</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8852562.1892341115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10034,7 +10153,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10172,6 +10291,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10181,7 +10303,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10319,6 +10441,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>11164891.106498707</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10551447.725552052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10361,7 +10486,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10499,6 +10624,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10508,7 +10636,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10646,6 +10774,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2316092.7503500748</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1698885.5363179408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10667,11 +10798,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474162304"/>
-        <c:axId val="474163840"/>
+        <c:axId val="487393536"/>
+        <c:axId val="487395328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474162304"/>
+        <c:axId val="487393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10714,14 +10845,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474163840"/>
+        <c:crossAx val="487395328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474163840"/>
+        <c:axId val="487395328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10772,7 +10903,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474162304"/>
+        <c:crossAx val="487393536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11486,7 +11617,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13603,6 +13734,44 @@
         <v>2249.8697802159909</v>
       </c>
     </row>
+    <row r="49" spans="1:12" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>6041.0745821809896</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7855.7537462651344</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1594992.9635575702</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1226549.5790885966</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1144330.9676563484</v>
+      </c>
+      <c r="J49" s="15">
+        <v>1228799.4488688125</v>
+      </c>
+      <c r="K49" s="15">
+        <v>84468.481212464161</v>
+      </c>
+      <c r="L49" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13619,7 +13788,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16812,6 +16981,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:21" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>6041.0745821809896</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7855.7537462651344</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1692895.7045584726</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1301836.7863114029</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1208074.86409907</v>
+      </c>
+      <c r="J49" s="15">
+        <v>1304494.8442778958</v>
+      </c>
+      <c r="K49" s="15">
+        <v>96419.98017882579</v>
+      </c>
+      <c r="L49" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M49" s="23">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="N49" s="23">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="O49" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="P49" s="23">
+        <v>0.72328571762357441</v>
+      </c>
+      <c r="Q49" s="23">
+        <v>2.6714282376425591E-2</v>
+      </c>
+      <c r="R49" s="23">
+        <v>7.1904764288947695E-2</v>
+      </c>
+      <c r="S49" s="9">
+        <v>1.0785714643342153E-3</v>
+      </c>
+      <c r="T49" s="9">
+        <v>24.768208004571939</v>
+      </c>
+      <c r="U49" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -16828,7 +17062,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19210,6 +19444,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:14" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>6041.0745821809896</v>
+      </c>
+      <c r="F49" s="15">
+        <v>7855.7537462651344</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1690187.4470699069</v>
+      </c>
+      <c r="H49" s="15">
+        <v>1299754.1363194841</v>
+      </c>
+      <c r="I49" s="15">
+        <v>1210317.9244267642</v>
+      </c>
+      <c r="J49" s="15">
+        <v>1302004.0060997</v>
+      </c>
+      <c r="K49" s="15">
+        <v>91686.081672935747</v>
+      </c>
+      <c r="L49" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M49" s="9">
+        <v>80.163519018203786</v>
+      </c>
+      <c r="N49" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -19226,7 +19504,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21608,6 +21886,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:14" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>9239.1347107527126</v>
+      </c>
+      <c r="F49" s="15">
+        <v>12014.479564667186</v>
+      </c>
+      <c r="G49" s="15">
+        <v>14223217.146052744</v>
+      </c>
+      <c r="H49" s="15">
+        <v>10937653.897146501</v>
+      </c>
+      <c r="I49" s="15">
+        <v>9934136.4448341932</v>
+      </c>
+      <c r="J49" s="15">
+        <v>10938719.489842519</v>
+      </c>
+      <c r="K49" s="15">
+        <v>1004583.0450083259</v>
+      </c>
+      <c r="L49" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M49" s="9">
+        <v>80.163519018203786</v>
+      </c>
+      <c r="N49" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -21624,7 +21946,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI48"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21665,7 +21987,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -21677,10 +21999,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -24287,6 +24609,56 @@
         <v>-119.64106934981089</v>
       </c>
       <c r="P48" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="12.75">
+      <c r="A49" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="13">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="13">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E49" s="14">
+        <v>1839402</v>
+      </c>
+      <c r="F49" s="14">
+        <v>4515206.3014686154</v>
+      </c>
+      <c r="G49" s="14">
+        <v>3763.8330854783617</v>
+      </c>
+      <c r="H49" s="15">
+        <v>4894.4513859798353</v>
+      </c>
+      <c r="I49" s="15">
+        <v>13720605.231975207</v>
+      </c>
+      <c r="J49" s="15">
+        <v>10551145.338336507</v>
+      </c>
+      <c r="K49" s="15">
+        <v>8852562.1892341115</v>
+      </c>
+      <c r="L49" s="15">
+        <v>10551447.725552052</v>
+      </c>
+      <c r="M49" s="15">
+        <v>1698885.5363179408</v>
+      </c>
+      <c r="N49" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O49" s="9">
+        <v>80.163519018203786</v>
+      </c>
+      <c r="P49" s="9">
         <v>1</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>年化收益率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -601,7 +597,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -742,6 +738,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,7 +750,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -892,6 +891,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1144330.9676563484</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1153045.7236434985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,7 +936,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1075,6 +1077,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1089,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1225,6 +1230,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1228799.4488688125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1258249.131635457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1267,7 +1275,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1408,6 +1416,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,7 +1428,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1558,6 +1569,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>84468.481212464161</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105203.40799195855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,11 +1593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442029184"/>
-        <c:axId val="442030720"/>
+        <c:axId val="327391872"/>
+        <c:axId val="327393664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442029184"/>
+        <c:axId val="327391872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,14 +1640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442030720"/>
+        <c:crossAx val="327393664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="442030720"/>
+        <c:axId val="327393664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,7 +1698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442029184"/>
+        <c:crossAx val="327391872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1875,7 +1889,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2016,6 +2030,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3763.8330854783617</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11244.055887534907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,8 +2047,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="487415808"/>
-        <c:axId val="487414016"/>
+        <c:axId val="632346496"/>
+        <c:axId val="632344960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2056,7 +2073,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2197,6 +2214,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,7 +2226,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2347,6 +2367,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2363,11 +2386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487410688"/>
-        <c:axId val="487412480"/>
+        <c:axId val="632333440"/>
+        <c:axId val="632334976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487410688"/>
+        <c:axId val="632333440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2410,14 +2433,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487412480"/>
+        <c:crossAx val="632334976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487412480"/>
+        <c:axId val="632334976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2468,12 +2491,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487410688"/>
+        <c:crossAx val="632333440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="487414016"/>
+        <c:axId val="632344960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,12 +2533,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487415808"/>
+        <c:crossAx val="632346496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="487415808"/>
+        <c:axId val="632346496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487414016"/>
+        <c:crossAx val="632344960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,7 +2709,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2827,6 +2850,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>6041.0745821809896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8714.7559871502253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2841,8 +2867,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="455713920"/>
-        <c:axId val="455678976"/>
+        <c:axId val="585784320"/>
+        <c:axId val="585782784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2867,7 +2893,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3008,6 +3034,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3017,7 +3046,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3158,6 +3187,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3174,11 +3206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454758784"/>
-        <c:axId val="455677056"/>
+        <c:axId val="577576320"/>
+        <c:axId val="578615936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454758784"/>
+        <c:axId val="577576320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,14 +3253,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455677056"/>
+        <c:crossAx val="578615936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455677056"/>
+        <c:axId val="578615936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3279,12 +3311,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454758784"/>
+        <c:crossAx val="577576320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455678976"/>
+        <c:axId val="585782784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,12 +3353,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455713920"/>
+        <c:crossAx val="585784320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="455713920"/>
+        <c:axId val="585784320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="455678976"/>
+        <c:crossAx val="585782784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3514,7 +3546,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3655,6 +3687,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3664,7 +3699,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3805,6 +3840,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1208074.86409907</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1216789.6200862201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3847,7 +3885,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3988,6 +4026,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3997,7 +4038,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4138,6 +4179,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1304494.8442778958</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1335217.26379796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4180,7 +4224,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4321,6 +4365,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4330,7 +4377,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4471,6 +4518,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>96419.98017882579</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>118427.64371173992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,11 +4542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471230336"/>
-        <c:axId val="471516672"/>
+        <c:axId val="594165760"/>
+        <c:axId val="601986944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471230336"/>
+        <c:axId val="594165760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,14 +4589,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471516672"/>
+        <c:crossAx val="601986944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="471516672"/>
+        <c:axId val="601986944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,7 +4647,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471230336"/>
+        <c:crossAx val="594165760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4788,7 +4838,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4929,6 +4979,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>6041.0745821809896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8714.7559871502253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4943,8 +4996,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="501544448"/>
-        <c:axId val="501542912"/>
+        <c:axId val="632279040"/>
+        <c:axId val="632273152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4969,7 +5022,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5110,6 +5163,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5119,7 +5175,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5260,6 +5316,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5276,11 +5335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="490806272"/>
-        <c:axId val="490808448"/>
+        <c:axId val="632249728"/>
+        <c:axId val="632271232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="490806272"/>
+        <c:axId val="632249728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5323,14 +5382,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490808448"/>
+        <c:crossAx val="632271232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="490808448"/>
+        <c:axId val="632271232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5381,12 +5440,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="490806272"/>
+        <c:crossAx val="632249728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501542912"/>
+        <c:axId val="632273152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5423,12 +5482,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501544448"/>
+        <c:crossAx val="632279040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="501544448"/>
+        <c:axId val="632279040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5437,7 +5496,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501542912"/>
+        <c:crossAx val="632273152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5616,7 +5675,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5757,6 +5816,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5766,7 +5828,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5907,6 +5969,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1210317.9244267642</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1220775.6316113444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5949,7 +6014,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6090,6 +6155,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6099,7 +6167,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6240,6 +6308,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1302004.0060997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1334434.1694388492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6282,7 +6353,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6423,6 +6494,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6432,7 +6506,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6573,6 +6647,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>91686.081672935747</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>113658.5378275048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6594,11 +6671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502601600"/>
-        <c:axId val="502603136"/>
+        <c:axId val="632750080"/>
+        <c:axId val="632752000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502601600"/>
+        <c:axId val="632750080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6641,14 +6718,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502603136"/>
+        <c:crossAx val="632752000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502603136"/>
+        <c:axId val="632752000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6699,7 +6776,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502601600"/>
+        <c:crossAx val="632750080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6890,7 +6967,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7031,6 +7108,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>6041.0745821809896</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10457.707184580269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7045,8 +7125,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="545113600"/>
-        <c:axId val="545111424"/>
+        <c:axId val="648644864"/>
+        <c:axId val="648637440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7071,7 +7151,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7212,6 +7292,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7221,7 +7304,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7362,6 +7445,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7378,11 +7464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545080448"/>
-        <c:axId val="545109888"/>
+        <c:axId val="648625152"/>
+        <c:axId val="648635904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545080448"/>
+        <c:axId val="648625152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7425,14 +7511,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545109888"/>
+        <c:crossAx val="648635904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545109888"/>
+        <c:axId val="648635904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7483,12 +7569,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545080448"/>
+        <c:crossAx val="648625152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="545111424"/>
+        <c:axId val="648637440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7525,12 +7611,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545113600"/>
+        <c:crossAx val="648644864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="545113600"/>
+        <c:axId val="648644864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7539,7 +7625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="545111424"/>
+        <c:crossAx val="648637440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7718,7 +7804,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7859,6 +7945,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7868,7 +7957,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8009,6 +8098,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>9934136.4448341932</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9957208.9426313285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8051,7 +8143,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8192,6 +8284,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8201,7 +8296,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8342,6 +8437,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10938719.489842519</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11146693.973310143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8384,7 +8482,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8525,6 +8623,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8534,7 +8635,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8675,6 +8776,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1004583.0450083259</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1189485.0306788143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8696,11 +8800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546746752"/>
-        <c:axId val="548029568"/>
+        <c:axId val="676171776"/>
+        <c:axId val="676174464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="546746752"/>
+        <c:axId val="676171776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8743,14 +8847,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548029568"/>
+        <c:crossAx val="676174464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548029568"/>
+        <c:axId val="676174464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8801,7 +8905,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546746752"/>
+        <c:crossAx val="676171776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8992,7 +9096,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9133,6 +9237,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>14223217.146052744</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14252721.618741207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9147,8 +9254,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="555723776"/>
-        <c:axId val="555722240"/>
+        <c:axId val="683305216"/>
+        <c:axId val="681455616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9173,7 +9280,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9314,6 +9421,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9323,7 +9433,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9464,6 +9574,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.76899999380111694</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78200000524520874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9480,11 +9593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="554329216"/>
-        <c:axId val="554331136"/>
+        <c:axId val="676994048"/>
+        <c:axId val="680776832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="554329216"/>
+        <c:axId val="676994048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9527,14 +9640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554331136"/>
+        <c:crossAx val="680776832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="554331136"/>
+        <c:axId val="680776832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9585,12 +9698,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554329216"/>
+        <c:crossAx val="676994048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555722240"/>
+        <c:axId val="681455616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9627,12 +9740,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555723776"/>
+        <c:crossAx val="683305216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="555723776"/>
+        <c:axId val="683305216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9641,7 +9754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555722240"/>
+        <c:crossAx val="681455616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9820,7 +9933,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9961,6 +10074,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9970,7 +10086,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10111,6 +10227,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>8852562.1892341115</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8863806.2451216467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10153,7 +10272,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10294,6 +10413,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10303,7 +10425,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10444,6 +10566,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10551447.725552052</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10741059.806475131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10486,7 +10611,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10627,6 +10752,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10636,7 +10764,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10777,6 +10905,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1698885.5363179408</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1877253.5613534842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10798,11 +10929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487393536"/>
-        <c:axId val="487395328"/>
+        <c:axId val="632292096"/>
+        <c:axId val="632293632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487393536"/>
+        <c:axId val="632292096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10845,14 +10976,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487395328"/>
+        <c:crossAx val="632293632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="487395328"/>
+        <c:axId val="632293632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10903,7 +11034,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487393536"/>
+        <c:crossAx val="632292096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11617,7 +11748,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13772,6 +13903,44 @@
         <v>2249.8697802159909</v>
       </c>
     </row>
+    <row r="50" spans="1:12" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>8714.7559871502253</v>
+      </c>
+      <c r="F50" s="15">
+        <v>11144.189167131237</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1606137.1527247014</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1255999.2618552411</v>
+      </c>
+      <c r="I50" s="15">
+        <v>1153045.7236434985</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1258249.131635457</v>
+      </c>
+      <c r="K50" s="15">
+        <v>105203.40799195855</v>
+      </c>
+      <c r="L50" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -13788,7 +13957,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13829,7 +13998,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -13865,10 +14034,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -13889,7 +14058,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -17043,6 +17212,71 @@
         <v>24.768208004571939</v>
       </c>
       <c r="U49" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>8714.7559871502253</v>
+      </c>
+      <c r="F50" s="15">
+        <v>11144.189167131237</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1704039.8937256038</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1332559.2058314672</v>
+      </c>
+      <c r="I50" s="15">
+        <v>1216789.6200862201</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1335217.26379796</v>
+      </c>
+      <c r="K50" s="15">
+        <v>118427.64371173992</v>
+      </c>
+      <c r="L50" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M50" s="23">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="N50" s="23">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="O50" s="23">
+        <v>0.79000000158945716</v>
+      </c>
+      <c r="P50" s="23">
+        <v>0.73328571660178044</v>
+      </c>
+      <c r="Q50" s="23">
+        <v>5.6714284987676722E-2</v>
+      </c>
+      <c r="R50" s="23">
+        <v>7.0006806023266852E-2</v>
+      </c>
+      <c r="S50" s="9">
+        <v>1.0501020903490028E-3</v>
+      </c>
+      <c r="T50" s="9">
+        <v>54.008353577153301</v>
+      </c>
+      <c r="U50" s="11">
         <v>1</v>
       </c>
     </row>
@@ -17062,7 +17296,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17142,7 +17376,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -19486,6 +19720,50 @@
       </c>
       <c r="N49" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>10457.707184580269</v>
+      </c>
+      <c r="F50" s="15">
+        <v>13373.027000557482</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1703560.4740704643</v>
+      </c>
+      <c r="H50" s="15">
+        <v>1332184.2996586333</v>
+      </c>
+      <c r="I50" s="15">
+        <v>1220775.6316113444</v>
+      </c>
+      <c r="J50" s="15">
+        <v>1334434.1694388492</v>
+      </c>
+      <c r="K50" s="15">
+        <v>113658.5378275048</v>
+      </c>
+      <c r="L50" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M50" s="9">
+        <v>-112.23623009437114</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -19504,7 +19782,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19584,7 +19862,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -21928,6 +22206,50 @@
       </c>
       <c r="N49" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>23072.497797135398</v>
+      </c>
+      <c r="F50" s="15">
+        <v>29504.472688463273</v>
+      </c>
+      <c r="G50" s="15">
+        <v>14252721.618741207</v>
+      </c>
+      <c r="H50" s="15">
+        <v>11145628.380614124</v>
+      </c>
+      <c r="I50" s="15">
+        <v>9957208.9426313285</v>
+      </c>
+      <c r="J50" s="15">
+        <v>11146693.973310143</v>
+      </c>
+      <c r="K50" s="15">
+        <v>1189485.0306788143</v>
+      </c>
+      <c r="L50" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M50" s="9">
+        <v>-112.23623009437114</v>
+      </c>
+      <c r="N50" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -21946,7 +22268,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI49"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21999,10 +22321,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -22032,7 +22354,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -24660,6 +24982,56 @@
       </c>
       <c r="P49" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="12.75">
+      <c r="A50" s="12">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="13">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="13">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="14">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E50" s="14">
+        <v>2171902</v>
+      </c>
+      <c r="F50" s="14">
+        <v>4456684.012585436</v>
+      </c>
+      <c r="G50" s="14">
+        <v>11244.055887534907</v>
+      </c>
+      <c r="H50" s="15">
+        <v>14378.587995033518</v>
+      </c>
+      <c r="I50" s="15">
+        <v>13734983.819970241</v>
+      </c>
+      <c r="J50" s="15">
+        <v>10740757.419259585</v>
+      </c>
+      <c r="K50" s="15">
+        <v>8863806.2451216467</v>
+      </c>
+      <c r="L50" s="15">
+        <v>10741059.806475131</v>
+      </c>
+      <c r="M50" s="15">
+        <v>1877253.5613534842</v>
+      </c>
+      <c r="N50" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O50" s="9">
+        <v>-112.23623009437114</v>
+      </c>
+      <c r="P50" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="14880" windowHeight="6765" tabRatio="569" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模型二 (1)PE副本" sheetId="9" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -597,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -741,6 +745,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,7 +757,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -894,6 +901,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1153045.7236434985</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1157665.4717863523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +946,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1080,6 +1090,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,7 +1102,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1233,6 +1246,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1258249.131635457</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1311052.9484080994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,7 +1291,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1419,6 +1435,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1447,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1572,6 +1591,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>105203.40799195855</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>153387.47662174702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1593,11 +1615,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="327391872"/>
-        <c:axId val="327393664"/>
+        <c:axId val="444379136"/>
+        <c:axId val="444382592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="327391872"/>
+        <c:axId val="444379136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,14 +1662,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327393664"/>
+        <c:crossAx val="444382592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="327393664"/>
+        <c:axId val="444382592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +1720,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327391872"/>
+        <c:crossAx val="444379136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1889,7 +1911,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2033,6 +2055,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>11244.055887534907</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>816.82875284245119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,8 +2072,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="632346496"/>
-        <c:axId val="632344960"/>
+        <c:axId val="498406912"/>
+        <c:axId val="498405376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2073,7 +2098,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2217,6 +2242,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,7 +2254,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2370,6 +2398,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,11 +2417,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632333440"/>
-        <c:axId val="632334976"/>
+        <c:axId val="498385664"/>
+        <c:axId val="498387200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="632333440"/>
+        <c:axId val="498385664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,14 +2464,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632334976"/>
+        <c:crossAx val="498387200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="632334976"/>
+        <c:axId val="498387200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,12 +2522,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632333440"/>
+        <c:crossAx val="498385664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632344960"/>
+        <c:axId val="498405376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2533,12 +2564,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632346496"/>
+        <c:crossAx val="498406912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="632346496"/>
+        <c:axId val="498406912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2547,7 +2578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632344960"/>
+        <c:crossAx val="498405376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2709,7 +2740,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2853,6 +2884,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>8714.7559871502253</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4619.7481428539177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,8 +2901,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="585784320"/>
-        <c:axId val="585782784"/>
+        <c:axId val="468971520"/>
+        <c:axId val="468965248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2893,7 +2927,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3037,6 +3071,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3046,7 +3083,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3190,6 +3227,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,11 +3246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="577576320"/>
-        <c:axId val="578615936"/>
+        <c:axId val="468936192"/>
+        <c:axId val="468963712"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="577576320"/>
+        <c:axId val="468936192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,14 +3293,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="578615936"/>
+        <c:crossAx val="468963712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="578615936"/>
+        <c:axId val="468963712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3311,12 +3351,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577576320"/>
+        <c:crossAx val="468936192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585782784"/>
+        <c:axId val="468965248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,12 +3393,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585784320"/>
+        <c:crossAx val="468971520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="585784320"/>
+        <c:axId val="468971520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="585782784"/>
+        <c:crossAx val="468965248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3546,7 +3586,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3690,6 +3730,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,7 +3742,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3843,6 +3886,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1216789.6200862201</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1221409.3682290739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3885,7 +3931,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4029,6 +4075,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4038,7 +4087,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4182,6 +4231,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1335217.26379796</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1390958.1599996095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4224,7 +4276,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4368,6 +4420,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4377,7 +4432,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4521,6 +4576,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>118427.64371173992</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>169548.79177053552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,11 +4600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594165760"/>
-        <c:axId val="601986944"/>
+        <c:axId val="487712640"/>
+        <c:axId val="494502272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594165760"/>
+        <c:axId val="487712640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4589,14 +4647,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601986944"/>
+        <c:crossAx val="494502272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601986944"/>
+        <c:axId val="494502272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4647,7 +4705,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594165760"/>
+        <c:crossAx val="487712640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4838,7 +4896,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4982,6 +5040,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>8714.7559871502253</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4619.7481428539177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,8 +5057,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="632279040"/>
-        <c:axId val="632273152"/>
+        <c:axId val="522181632"/>
+        <c:axId val="512216448"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5022,7 +5083,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5166,6 +5227,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5175,7 +5239,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5319,6 +5383,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5335,11 +5402,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632249728"/>
-        <c:axId val="632271232"/>
+        <c:axId val="507481088"/>
+        <c:axId val="510438784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="632249728"/>
+        <c:axId val="507481088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5382,14 +5449,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632271232"/>
+        <c:crossAx val="510438784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="632271232"/>
+        <c:axId val="510438784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5440,12 +5507,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632249728"/>
+        <c:crossAx val="507481088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="632273152"/>
+        <c:axId val="512216448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,12 +5549,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632279040"/>
+        <c:crossAx val="522181632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="632279040"/>
+        <c:axId val="522181632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,7 +5563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632273152"/>
+        <c:crossAx val="512216448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5675,7 +5742,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5819,6 +5886,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5828,7 +5898,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5972,6 +6042,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1220775.6316113444</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1225395.3797541982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6014,7 +6087,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6158,6 +6231,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6167,7 +6243,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6311,6 +6387,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1334434.1694388492</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1390160.6830645609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6353,7 +6432,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6497,6 +6576,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6506,7 +6588,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6650,6 +6732,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>113658.5378275048</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>164765.30331036262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6671,11 +6756,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632750080"/>
-        <c:axId val="632752000"/>
+        <c:axId val="550695296"/>
+        <c:axId val="550697600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="632750080"/>
+        <c:axId val="550695296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,14 +6803,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632752000"/>
+        <c:crossAx val="550697600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="632752000"/>
+        <c:axId val="550697600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6776,7 +6861,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632750080"/>
+        <c:crossAx val="550695296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6967,7 +7052,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7111,6 +7196,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10457.707184580269</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4619.7481428539177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7125,8 +7213,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="648644864"/>
-        <c:axId val="648637440"/>
+        <c:axId val="588769536"/>
+        <c:axId val="588767616"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7151,7 +7239,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7295,6 +7383,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7304,7 +7395,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7448,6 +7539,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7464,11 +7558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="648625152"/>
-        <c:axId val="648635904"/>
+        <c:axId val="588624256"/>
+        <c:axId val="588625792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="648625152"/>
+        <c:axId val="588624256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7511,14 +7605,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648635904"/>
+        <c:crossAx val="588625792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="648635904"/>
+        <c:axId val="588625792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7569,12 +7663,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648625152"/>
+        <c:crossAx val="588624256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648637440"/>
+        <c:axId val="588767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7611,12 +7705,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648644864"/>
+        <c:crossAx val="588769536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="648644864"/>
+        <c:axId val="588769536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7625,7 +7719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="648637440"/>
+        <c:crossAx val="588767616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7804,7 +7898,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7948,6 +8042,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7957,7 +8054,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8101,6 +8198,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9957208.9426313285</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9962611.9990625698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8143,7 +8243,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8287,6 +8387,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8296,7 +8399,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8440,6 +8543,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>11146693.973310143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11579678.270529984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8482,7 +8588,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8626,6 +8732,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8635,7 +8744,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8779,6 +8888,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1189485.0306788143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1617066.2714674138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8800,11 +8912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="676171776"/>
-        <c:axId val="676174464"/>
+        <c:axId val="605390720"/>
+        <c:axId val="605392896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="676171776"/>
+        <c:axId val="605390720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8847,14 +8959,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676174464"/>
+        <c:crossAx val="605392896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="676174464"/>
+        <c:axId val="605392896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8905,7 +9017,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676171776"/>
+        <c:crossAx val="605390720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9096,7 +9208,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9240,6 +9352,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>14252721.618741207</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14259375.629315976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9254,8 +9369,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="683305216"/>
-        <c:axId val="681455616"/>
+        <c:axId val="605452928"/>
+        <c:axId val="605450240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9280,7 +9395,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9424,6 +9539,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9433,7 +9551,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9577,6 +9695,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.78200000524520874</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.81199997663497925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9593,11 +9714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="676994048"/>
-        <c:axId val="680776832"/>
+        <c:axId val="605438336"/>
+        <c:axId val="605439872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="676994048"/>
+        <c:axId val="605438336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9640,14 +9761,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="680776832"/>
+        <c:crossAx val="605439872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="680776832"/>
+        <c:axId val="605439872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9698,12 +9819,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676994048"/>
+        <c:crossAx val="605438336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="681455616"/>
+        <c:axId val="605450240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9740,12 +9861,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="683305216"/>
+        <c:crossAx val="605452928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="683305216"/>
+        <c:axId val="605452928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9754,7 +9875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="681455616"/>
+        <c:crossAx val="605450240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9933,7 +10054,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10077,6 +10198,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10086,7 +10210,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10230,6 +10354,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>8863806.2451216467</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8864623.0738744885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10272,7 +10399,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10416,6 +10543,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10425,7 +10555,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10569,6 +10699,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10741059.806475131</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11153925.756866042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10611,7 +10744,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10755,6 +10888,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10764,7 +10900,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10908,6 +11044,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1877253.5613534842</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2289302.6829915531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10929,11 +11068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="632292096"/>
-        <c:axId val="632293632"/>
+        <c:axId val="605856896"/>
+        <c:axId val="605858432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="632292096"/>
+        <c:axId val="605856896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10976,14 +11115,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632293632"/>
+        <c:crossAx val="605858432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="632293632"/>
+        <c:axId val="605858432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11034,7 +11173,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632292096"/>
+        <c:crossAx val="605856896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11748,7 +11887,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11885,28 +12024,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -13938,6 +14077,44 @@
         <v>105203.40799195855</v>
       </c>
       <c r="L50" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>4619.7481428539177</v>
+      </c>
+      <c r="F51" s="15">
+        <v>5689.3451672236279</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1611826.497891925</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1308803.0786278835</v>
+      </c>
+      <c r="I51" s="15">
+        <v>1157665.4717863523</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1311052.9484080994</v>
+      </c>
+      <c r="K51" s="15">
+        <v>153387.47662174702</v>
+      </c>
+      <c r="L51" s="14">
         <v>2249.8697802159909</v>
       </c>
     </row>
@@ -13957,7 +14134,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM50"/>
+  <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14034,10 +14211,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -14058,7 +14235,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -14138,28 +14315,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -17277,6 +17454,71 @@
         <v>54.008353577153301</v>
       </c>
       <c r="U50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>4619.7481428539177</v>
+      </c>
+      <c r="F51" s="15">
+        <v>5689.3451672236279</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1709729.2388928274</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1388300.1020331166</v>
+      </c>
+      <c r="I51" s="15">
+        <v>1221409.3682290739</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1390958.1599996095</v>
+      </c>
+      <c r="K51" s="15">
+        <v>169548.79177053552</v>
+      </c>
+      <c r="L51" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M51" s="23">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="N51" s="23">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="O51" s="23">
+        <v>0.79966666301091516</v>
+      </c>
+      <c r="P51" s="23">
+        <v>0.74359524108114694</v>
+      </c>
+      <c r="Q51" s="23">
+        <v>5.6071421929768217E-2</v>
+      </c>
+      <c r="R51" s="23">
+        <v>6.6234695465386323E-2</v>
+      </c>
+      <c r="S51" s="9">
+        <v>9.9352043198079479E-4</v>
+      </c>
+      <c r="T51" s="9">
+        <v>56.437110022969414</v>
+      </c>
+      <c r="U51" s="11">
         <v>1</v>
       </c>
     </row>
@@ -17296,7 +17538,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17376,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -17443,28 +17685,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -19764,6 +20006,50 @@
       </c>
       <c r="N50" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>4619.7481428539177</v>
+      </c>
+      <c r="F51" s="15">
+        <v>5689.3451672236279</v>
+      </c>
+      <c r="G51" s="15">
+        <v>1709249.8192376879</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1387910.813284345</v>
+      </c>
+      <c r="I51" s="15">
+        <v>1225395.3797541982</v>
+      </c>
+      <c r="J51" s="15">
+        <v>1390160.6830645609</v>
+      </c>
+      <c r="K51" s="15">
+        <v>164765.30331036262</v>
+      </c>
+      <c r="L51" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M51" s="9">
+        <v>116.62513925726178</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -19782,7 +20068,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19823,7 +20109,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -19862,7 +20148,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -19929,28 +20215,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -22250,6 +22536,50 @@
       </c>
       <c r="N50" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>5403.0564312410688</v>
+      </c>
+      <c r="F51" s="15">
+        <v>6654.0105747686748</v>
+      </c>
+      <c r="G51" s="15">
+        <v>14259375.629315976</v>
+      </c>
+      <c r="H51" s="15">
+        <v>11578612.677833965</v>
+      </c>
+      <c r="I51" s="15">
+        <v>9962611.9990625698</v>
+      </c>
+      <c r="J51" s="15">
+        <v>11579678.270529984</v>
+      </c>
+      <c r="K51" s="15">
+        <v>1617066.2714674138</v>
+      </c>
+      <c r="L51" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M51" s="9">
+        <v>116.62513925726178</v>
+      </c>
+      <c r="N51" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -22268,7 +22598,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI50"/>
+  <dimension ref="A1:AI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22309,7 +22639,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -22321,10 +22651,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -22354,7 +22684,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -22429,28 +22759,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -25032,6 +25362,56 @@
       </c>
       <c r="P50" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="12.75">
+      <c r="A51" s="12">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="13">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="13">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E51" s="14">
+        <v>667200</v>
+      </c>
+      <c r="F51" s="14">
+        <v>4413310.9153900621</v>
+      </c>
+      <c r="G51" s="14">
+        <v>816.82875284245119</v>
+      </c>
+      <c r="H51" s="15">
+        <v>1005.94676889953</v>
+      </c>
+      <c r="I51" s="15">
+        <v>13735989.766739141</v>
+      </c>
+      <c r="J51" s="15">
+        <v>11153623.369650496</v>
+      </c>
+      <c r="K51" s="15">
+        <v>8864623.0738744885</v>
+      </c>
+      <c r="L51" s="15">
+        <v>11153925.756866042</v>
+      </c>
+      <c r="M51" s="15">
+        <v>2289302.6829915531</v>
+      </c>
+      <c r="N51" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O51" s="9">
+        <v>116.62513925726178</v>
+      </c>
+      <c r="P51" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -601,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -748,6 +748,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,7 +760,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -904,6 +907,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1157665.4717863523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1158493.0294822238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,7 +952,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1093,6 +1099,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,7 +1111,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1249,6 +1258,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1311052.9484080994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1365070.86430949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,7 +1303,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1438,6 +1450,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1447,7 +1462,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1594,6 +1609,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>153387.47662174702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>206577.83482726617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1615,11 +1633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444379136"/>
-        <c:axId val="444382592"/>
+        <c:axId val="460953472"/>
+        <c:axId val="460955008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444379136"/>
+        <c:axId val="460953472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,14 +1680,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444382592"/>
+        <c:crossAx val="460955008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="444382592"/>
+        <c:axId val="460955008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1738,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444379136"/>
+        <c:crossAx val="460953472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1911,7 +1929,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2058,6 +2076,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>816.82875284245119</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>89.212160278304367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,8 +2093,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="498406912"/>
-        <c:axId val="498405376"/>
+        <c:axId val="509596032"/>
+        <c:axId val="509590144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2098,7 +2119,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2245,6 +2266,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2254,7 +2278,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2401,6 +2425,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,11 +2444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498385664"/>
-        <c:axId val="498387200"/>
+        <c:axId val="509558144"/>
+        <c:axId val="509588608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498385664"/>
+        <c:axId val="509558144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2464,14 +2491,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498387200"/>
+        <c:crossAx val="509588608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="498387200"/>
+        <c:axId val="509588608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,12 +2549,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498385664"/>
+        <c:crossAx val="509558144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="498405376"/>
+        <c:axId val="509590144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,12 +2591,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498406912"/>
+        <c:crossAx val="509596032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="498406912"/>
+        <c:axId val="509596032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +2605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498405376"/>
+        <c:crossAx val="509590144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2740,7 +2767,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2887,6 +2914,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4619.7481428539177</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>827.55769587140355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,8 +2931,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468971520"/>
-        <c:axId val="468965248"/>
+        <c:axId val="494808448"/>
+        <c:axId val="494806912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2927,7 +2957,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3074,6 +3104,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3083,7 +3116,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3230,6 +3263,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3246,11 +3282,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="468936192"/>
-        <c:axId val="468963712"/>
+        <c:axId val="494803200"/>
+        <c:axId val="494804992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="468936192"/>
+        <c:axId val="494803200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,14 +3329,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468963712"/>
+        <c:crossAx val="494804992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468963712"/>
+        <c:axId val="494804992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3351,12 +3387,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468936192"/>
+        <c:crossAx val="494803200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="468965248"/>
+        <c:axId val="494806912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,12 +3429,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468971520"/>
+        <c:crossAx val="494808448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="468971520"/>
+        <c:axId val="494808448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,7 +3443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468965248"/>
+        <c:crossAx val="494806912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3586,7 +3622,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3733,6 +3769,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,7 +3781,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3889,6 +3928,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1221409.3682290739</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1222236.9259249454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3931,7 +3973,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4078,6 +4120,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4087,7 +4132,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4234,6 +4279,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1390958.1599996095</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1448206.8714425494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4276,7 +4324,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4423,6 +4471,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4432,7 +4483,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4579,6 +4630,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>169548.79177053552</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>225969.94551760401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,11 +4654,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487712640"/>
-        <c:axId val="494502272"/>
+        <c:axId val="543941760"/>
+        <c:axId val="543943680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="487712640"/>
+        <c:axId val="543941760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4647,14 +4701,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494502272"/>
+        <c:crossAx val="543943680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494502272"/>
+        <c:axId val="543943680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4705,7 +4759,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487712640"/>
+        <c:crossAx val="543941760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4896,7 +4950,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5043,6 +5097,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4619.7481428539177</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>827.55769587140355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5057,8 +5114,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="522181632"/>
-        <c:axId val="512216448"/>
+        <c:axId val="577556480"/>
+        <c:axId val="577547648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5083,7 +5140,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5230,6 +5287,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5239,7 +5299,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5386,6 +5446,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5402,11 +5465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507481088"/>
-        <c:axId val="510438784"/>
+        <c:axId val="577544192"/>
+        <c:axId val="577545728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507481088"/>
+        <c:axId val="577544192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5449,14 +5512,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510438784"/>
+        <c:crossAx val="577545728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510438784"/>
+        <c:axId val="577545728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5507,12 +5570,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507481088"/>
+        <c:crossAx val="577544192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="512216448"/>
+        <c:axId val="577547648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5549,12 +5612,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522181632"/>
+        <c:crossAx val="577556480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="522181632"/>
+        <c:axId val="577556480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5563,7 +5626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="512216448"/>
+        <c:crossAx val="577547648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5742,7 +5805,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5889,6 +5952,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5898,7 +5964,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6045,6 +6111,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1225395.3797541982</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1226222.9374500697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6087,7 +6156,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6234,6 +6303,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6243,7 +6315,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6390,6 +6462,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1390160.6830645609</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1447393.573633963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6432,7 +6507,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6579,6 +6654,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6588,7 +6666,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6735,6 +6813,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>164765.30331036262</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>221170.63618389331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6756,11 +6837,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550695296"/>
-        <c:axId val="550697600"/>
+        <c:axId val="597193856"/>
+        <c:axId val="597213568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550695296"/>
+        <c:axId val="597193856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6803,14 +6884,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550697600"/>
+        <c:crossAx val="597213568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550697600"/>
+        <c:axId val="597213568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6861,7 +6942,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550695296"/>
+        <c:crossAx val="597193856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7052,7 +7133,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7199,6 +7280,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4619.7481428539177</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>827.55769587140355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7213,8 +7297,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="588769536"/>
-        <c:axId val="588767616"/>
+        <c:axId val="597272064"/>
+        <c:axId val="597261696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7239,7 +7323,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7386,6 +7470,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7395,7 +7482,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7542,6 +7629,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7558,11 +7648,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="588624256"/>
-        <c:axId val="588625792"/>
+        <c:axId val="597257600"/>
+        <c:axId val="597259392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="588624256"/>
+        <c:axId val="597257600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7605,14 +7695,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588625792"/>
+        <c:crossAx val="597259392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="588625792"/>
+        <c:axId val="597259392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7663,12 +7753,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588624256"/>
+        <c:crossAx val="597257600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588767616"/>
+        <c:axId val="597261696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7705,12 +7795,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588769536"/>
+        <c:crossAx val="597272064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="588769536"/>
+        <c:axId val="597272064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7719,7 +7809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588767616"/>
+        <c:crossAx val="597261696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7898,7 +7988,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8045,6 +8135,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8054,7 +8147,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8201,6 +8294,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9962611.9990625698</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8243,7 +8339,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8390,6 +8486,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8399,7 +8498,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8546,6 +8645,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>11579678.270529984</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12050411.787619369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8588,7 +8690,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8735,6 +8837,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8744,7 +8849,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8891,6 +8996,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1617066.2714674138</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2087626.4083694592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8912,11 +9020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605390720"/>
-        <c:axId val="605392896"/>
+        <c:axId val="597469440"/>
+        <c:axId val="597483520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="605390720"/>
+        <c:axId val="597469440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8959,14 +9067,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605392896"/>
+        <c:crossAx val="597483520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="605392896"/>
+        <c:axId val="597483520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9017,7 +9125,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605390720"/>
+        <c:crossAx val="597469440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9208,7 +9316,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9355,6 +9463,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>14259375.629315976</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14259580.812962687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9369,8 +9480,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="605452928"/>
-        <c:axId val="605450240"/>
+        <c:axId val="496087808"/>
+        <c:axId val="496077824"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9395,7 +9506,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9542,6 +9653,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9551,7 +9665,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9698,6 +9812,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.81199997663497925</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.84500002861022949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9714,11 +9831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605438336"/>
-        <c:axId val="605439872"/>
+        <c:axId val="496074752"/>
+        <c:axId val="496076288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="605438336"/>
+        <c:axId val="496074752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9761,14 +9878,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605439872"/>
+        <c:crossAx val="496076288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="605439872"/>
+        <c:axId val="496076288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9819,12 +9936,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605438336"/>
+        <c:crossAx val="496074752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="605450240"/>
+        <c:axId val="496077824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9861,12 +9978,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605452928"/>
+        <c:crossAx val="496087808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="605452928"/>
+        <c:axId val="496087808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9875,7 +9992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="605450240"/>
+        <c:crossAx val="496077824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10054,7 +10171,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10201,6 +10318,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10210,7 +10330,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10357,6 +10477,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>8864623.0738744885</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8864712.2860347666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10399,7 +10522,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10546,6 +10669,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10555,7 +10681,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10702,6 +10828,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>11153925.756866042</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11607303.345260218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10744,7 +10873,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10891,6 +11020,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10900,7 +11032,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11047,6 +11179,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2289302.6829915531</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2742591.0592254512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11068,11 +11203,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605856896"/>
-        <c:axId val="605858432"/>
+        <c:axId val="496226304"/>
+        <c:axId val="496227840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="605856896"/>
+        <c:axId val="496226304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11115,14 +11250,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605858432"/>
+        <c:crossAx val="496227840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="605858432"/>
+        <c:axId val="496227840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11173,7 +11308,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605856896"/>
+        <c:crossAx val="496226304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11887,7 +12022,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14118,6 +14253,44 @@
         <v>2249.8697802159909</v>
       </c>
     </row>
+    <row r="52" spans="1:12" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>827.55769587140355</v>
+      </c>
+      <c r="F52" s="15">
+        <v>979.35818680679415</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1612805.8560787318</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1362820.9945292741</v>
+      </c>
+      <c r="I52" s="15">
+        <v>1158493.0294822238</v>
+      </c>
+      <c r="J52" s="15">
+        <v>1365070.86430949</v>
+      </c>
+      <c r="K52" s="15">
+        <v>206577.83482726617</v>
+      </c>
+      <c r="L52" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14134,7 +14307,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17522,6 +17695,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:21" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>827.55769587140355</v>
+      </c>
+      <c r="F52" s="15">
+        <v>979.35818680679415</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1710708.5970796342</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1445548.8134760566</v>
+      </c>
+      <c r="I52" s="15">
+        <v>1222236.9259249454</v>
+      </c>
+      <c r="J52" s="15">
+        <v>1448206.8714425494</v>
+      </c>
+      <c r="K52" s="15">
+        <v>225969.94551760401</v>
+      </c>
+      <c r="L52" s="14">
+        <v>2658.0579664927504</v>
+      </c>
+      <c r="M52" s="23">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="N52" s="23">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="O52" s="23">
+        <v>0.83933335542678833</v>
+      </c>
+      <c r="P52" s="23">
+        <v>0.75640476601464413</v>
+      </c>
+      <c r="Q52" s="23">
+        <v>8.2928589412144205E-2</v>
+      </c>
+      <c r="R52" s="23">
+        <v>6.2527214183288354E-2</v>
+      </c>
+      <c r="S52" s="9">
+        <v>9.3790821274932531E-4</v>
+      </c>
+      <c r="T52" s="9">
+        <v>88.418662172764797</v>
+      </c>
+      <c r="U52" s="11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -17538,7 +17776,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17579,7 +17817,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -20049,6 +20287,50 @@
         <v>116.62513925726178</v>
       </c>
       <c r="N51" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>827.55769587140355</v>
+      </c>
+      <c r="F52" s="15">
+        <v>979.35818680679415</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1710229.1774244946</v>
+      </c>
+      <c r="H52" s="15">
+        <v>1445143.7038537471</v>
+      </c>
+      <c r="I52" s="15">
+        <v>1226222.9374500697</v>
+      </c>
+      <c r="J52" s="15">
+        <v>1447393.573633963</v>
+      </c>
+      <c r="K52" s="15">
+        <v>221170.63618389331</v>
+      </c>
+      <c r="L52" s="14">
+        <v>2249.8697802159909</v>
+      </c>
+      <c r="M52" s="9">
+        <v>21.060721400501365</v>
+      </c>
+      <c r="N52" s="9">
         <v>1</v>
       </c>
     </row>
@@ -20068,7 +20350,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22582,6 +22864,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:14" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>173.38018734075604</v>
+      </c>
+      <c r="F52" s="15">
+        <v>205.18364671053826</v>
+      </c>
+      <c r="G52" s="15">
+        <v>14259580.812962687</v>
+      </c>
+      <c r="H52" s="15">
+        <v>12049346.194923351</v>
+      </c>
+      <c r="I52" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J52" s="15">
+        <v>12050411.787619369</v>
+      </c>
+      <c r="K52" s="15">
+        <v>2087626.4083694592</v>
+      </c>
+      <c r="L52" s="14">
+        <v>1065.5926960182564</v>
+      </c>
+      <c r="M52" s="9">
+        <v>21.060721400501365</v>
+      </c>
+      <c r="N52" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -22598,7 +22924,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI51"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -25414,6 +25740,56 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:16" ht="12.75">
+      <c r="A52" s="12">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="13">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="13">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="14">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E52" s="14">
+        <v>2249304</v>
+      </c>
+      <c r="F52" s="14">
+        <v>4371430.3934544772</v>
+      </c>
+      <c r="G52" s="14">
+        <v>89.212160278304367</v>
+      </c>
+      <c r="H52" s="15">
+        <v>105.5765174647763</v>
+      </c>
+      <c r="I52" s="15">
+        <v>13736095.343256606</v>
+      </c>
+      <c r="J52" s="15">
+        <v>11607000.958044672</v>
+      </c>
+      <c r="K52" s="15">
+        <v>8864712.2860347666</v>
+      </c>
+      <c r="L52" s="15">
+        <v>11607303.345260218</v>
+      </c>
+      <c r="M52" s="15">
+        <v>2742591.0592254512</v>
+      </c>
+      <c r="N52" s="14">
+        <v>302.38721554603143</v>
+      </c>
+      <c r="O52" s="9">
+        <v>21.060721400501365</v>
+      </c>
+      <c r="P52" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="J2">

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>年化收益率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -601,7 +605,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -751,6 +755,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,7 +767,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -909,6 +916,9 @@
                   <c:v>1157665.4717863523</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>1158493.0294822238</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
               </c:numCache>
@@ -952,7 +962,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1102,6 +1112,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,7 +1124,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1261,6 +1274,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1365070.86430949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1629570.8878162566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,7 +1319,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1453,6 +1469,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,7 +1481,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1612,6 +1631,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>206577.83482726617</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>471077.85833403282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,11 +1655,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460953472"/>
-        <c:axId val="460955008"/>
+        <c:axId val="399469952"/>
+        <c:axId val="423936384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460953472"/>
+        <c:axId val="399469952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,14 +1702,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460955008"/>
+        <c:crossAx val="423936384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460955008"/>
+        <c:axId val="423936384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1738,7 +1760,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460953472"/>
+        <c:crossAx val="399469952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1929,7 +1951,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2079,6 +2101,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>89.212160278304367</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-91356.780627580432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,8 +2118,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="509596032"/>
-        <c:axId val="509590144"/>
+        <c:axId val="502712960"/>
+        <c:axId val="502711424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2119,7 +2144,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2269,6 +2294,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2278,7 +2306,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2428,6 +2456,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,11 +2475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509558144"/>
-        <c:axId val="509588608"/>
+        <c:axId val="502708096"/>
+        <c:axId val="502709632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509558144"/>
+        <c:axId val="502708096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,14 +2522,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509588608"/>
+        <c:crossAx val="502709632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509588608"/>
+        <c:axId val="502709632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2549,12 +2580,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509558144"/>
+        <c:crossAx val="502708096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="509590144"/>
+        <c:axId val="502711424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2591,12 +2622,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509596032"/>
+        <c:crossAx val="502712960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="509596032"/>
+        <c:axId val="502712960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="509590144"/>
+        <c:crossAx val="502711424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2767,7 +2798,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2917,6 +2948,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>827.55769587140355</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-17883.962059553654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2931,8 +2965,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="494808448"/>
-        <c:axId val="494806912"/>
+        <c:axId val="453386240"/>
+        <c:axId val="453378816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2957,7 +2991,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3107,6 +3141,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,7 +3153,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3266,6 +3303,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3282,11 +3322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494803200"/>
-        <c:axId val="494804992"/>
+        <c:axId val="453371008"/>
+        <c:axId val="453372544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494803200"/>
+        <c:axId val="453371008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3329,14 +3369,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494804992"/>
+        <c:crossAx val="453372544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494804992"/>
+        <c:axId val="453372544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,12 +3427,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494803200"/>
+        <c:crossAx val="453371008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="494806912"/>
+        <c:axId val="453378816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,12 +3469,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494808448"/>
+        <c:crossAx val="453386240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="494808448"/>
+        <c:axId val="453386240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,7 +3483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="494806912"/>
+        <c:crossAx val="453378816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3622,7 +3662,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3772,6 +3812,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3781,7 +3824,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3930,6 +3973,9 @@
                   <c:v>1221409.3682290739</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>1222236.9259249454</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
               </c:numCache>
@@ -3973,7 +4019,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4123,6 +4169,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4132,7 +4181,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4282,6 +4331,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1448206.8714425494</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1728762.9361637714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4324,7 +4376,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4474,6 +4526,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4483,7 +4538,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4633,6 +4688,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>225969.94551760401</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>506526.01023882604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4654,11 +4712,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="543941760"/>
-        <c:axId val="543943680"/>
+        <c:axId val="467007744"/>
+        <c:axId val="472509056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="543941760"/>
+        <c:axId val="467007744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,14 +4759,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543943680"/>
+        <c:crossAx val="472509056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="543943680"/>
+        <c:axId val="472509056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4759,7 +4817,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="543941760"/>
+        <c:crossAx val="467007744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4950,7 +5008,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5100,6 +5158,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>827.55769587140355</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-21460.754471464385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5114,8 +5175,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="577556480"/>
-        <c:axId val="577547648"/>
+        <c:axId val="506924416"/>
+        <c:axId val="506922496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5140,7 +5201,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5290,6 +5351,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5299,7 +5363,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5449,6 +5513,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5465,11 +5532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="577544192"/>
-        <c:axId val="577545728"/>
+        <c:axId val="506845440"/>
+        <c:axId val="506920960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="577544192"/>
+        <c:axId val="506845440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5512,14 +5579,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577545728"/>
+        <c:crossAx val="506920960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577545728"/>
+        <c:axId val="506920960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5570,12 +5637,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577544192"/>
+        <c:crossAx val="506845440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="577547648"/>
+        <c:axId val="506922496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5612,12 +5679,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577556480"/>
+        <c:crossAx val="506924416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="577556480"/>
+        <c:axId val="506924416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5626,7 +5693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="577547648"/>
+        <c:crossAx val="506922496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5805,7 +5872,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5955,6 +6022,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5964,7 +6034,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6113,6 +6183,9 @@
                   <c:v>1225395.3797541982</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>1226222.9374500697</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
               </c:numCache>
@@ -6156,7 +6229,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6306,6 +6379,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6315,7 +6391,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6465,6 +6541,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>1447393.573633963</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1727871.0135724342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6507,7 +6586,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6657,6 +6736,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6666,7 +6748,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6816,6 +6898,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>221170.63618389331</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>501648.07612236449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6837,11 +6922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597193856"/>
-        <c:axId val="597213568"/>
+        <c:axId val="507021184"/>
+        <c:axId val="507363328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="597193856"/>
+        <c:axId val="507021184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6884,14 +6969,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597213568"/>
+        <c:crossAx val="507363328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="597213568"/>
+        <c:axId val="507363328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6942,7 +7027,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597193856"/>
+        <c:crossAx val="507021184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7133,7 +7218,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7283,6 +7368,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>827.55769587140355</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-21460.754471464385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7297,8 +7385,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="597272064"/>
-        <c:axId val="597261696"/>
+        <c:axId val="544860032"/>
+        <c:axId val="544858496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7323,7 +7411,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7473,6 +7561,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7482,7 +7573,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7632,6 +7723,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7648,11 +7742,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597257600"/>
-        <c:axId val="597259392"/>
+        <c:axId val="544789632"/>
+        <c:axId val="544791168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="597257600"/>
+        <c:axId val="544789632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7695,14 +7789,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597259392"/>
+        <c:crossAx val="544791168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="597259392"/>
+        <c:axId val="544791168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7753,12 +7847,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597257600"/>
+        <c:crossAx val="544789632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="597261696"/>
+        <c:axId val="544858496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7795,12 +7889,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597272064"/>
+        <c:crossAx val="544860032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="597272064"/>
+        <c:axId val="544860032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7809,7 +7903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="597261696"/>
+        <c:crossAx val="544858496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7988,7 +8082,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8138,6 +8232,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8147,7 +8244,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8296,6 +8393,9 @@
                   <c:v>9962611.9990625698</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -8339,7 +8439,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8489,6 +8589,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8498,7 +8601,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8648,6 +8751,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>12050411.787619369</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14388981.830634605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8690,7 +8796,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8840,6 +8946,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8849,7 +8958,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8999,6 +9108,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2087626.4083694592</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4426196.4513846952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9020,11 +9132,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="597469440"/>
-        <c:axId val="597483520"/>
+        <c:axId val="556296064"/>
+        <c:axId val="556306432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="597469440"/>
+        <c:axId val="556296064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9067,14 +9179,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597483520"/>
+        <c:crossAx val="556306432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="597483520"/>
+        <c:axId val="556306432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9125,7 +9237,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597469440"/>
+        <c:crossAx val="556296064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9316,7 +9428,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9466,6 +9578,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>14259580.812962687</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14163282.098822901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9480,8 +9595,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="496087808"/>
-        <c:axId val="496077824"/>
+        <c:axId val="556468864"/>
+        <c:axId val="556466560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9506,7 +9621,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9656,6 +9771,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9665,7 +9783,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9815,6 +9933,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.84500002861022949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0089999437332153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9831,11 +9952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496074752"/>
-        <c:axId val="496076288"/>
+        <c:axId val="556458752"/>
+        <c:axId val="556460672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496074752"/>
+        <c:axId val="556458752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9878,14 +9999,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496076288"/>
+        <c:crossAx val="556460672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496076288"/>
+        <c:axId val="556460672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9936,12 +10057,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496074752"/>
+        <c:crossAx val="556458752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496077824"/>
+        <c:axId val="556466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9978,12 +10099,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496087808"/>
+        <c:crossAx val="556468864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="496087808"/>
+        <c:axId val="556468864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9992,7 +10113,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="496077824"/>
+        <c:crossAx val="556466560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10171,7 +10292,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10321,6 +10442,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10330,7 +10454,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10479,6 +10603,9 @@
                   <c:v>8864623.0738744885</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>8864712.2860347666</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
               </c:numCache>
@@ -10522,7 +10649,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10672,6 +10799,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10681,7 +10811,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10831,6 +10961,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11607303.345260218</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13860021.815675542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10873,7 +11006,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11023,6 +11156,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11032,7 +11168,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11182,6 +11318,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>2742591.0592254512</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4995309.5296407752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11203,11 +11342,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496226304"/>
-        <c:axId val="496227840"/>
+        <c:axId val="502593792"/>
+        <c:axId val="502669312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496226304"/>
+        <c:axId val="502593792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11250,14 +11389,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496227840"/>
+        <c:crossAx val="502669312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496227840"/>
+        <c:axId val="502669312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11308,7 +11447,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496226304"/>
+        <c:crossAx val="502593792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12022,7 +12161,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14291,6 +14430,44 @@
         <v>2249.8697802159909</v>
       </c>
     </row>
+    <row r="53" spans="1:12" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-17883.962059553654</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-17724.443069228022</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1595081.4130095039</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1609437.055976487</v>
+      </c>
+      <c r="I53" s="15">
+        <v>1158493.0294822238</v>
+      </c>
+      <c r="J53" s="15">
+        <v>1629570.8878162566</v>
+      </c>
+      <c r="K53" s="15">
+        <v>471077.85833403282</v>
+      </c>
+      <c r="L53" s="14">
+        <v>20133.831839769646</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14307,7 +14484,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM52"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14351,7 +14528,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -14384,10 +14561,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -14408,7 +14585,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -17758,6 +17935,71 @@
       </c>
       <c r="U52" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-21460.754471464385</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-21269.331683073629</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1689439.2653965605</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1704644.1237258143</v>
+      </c>
+      <c r="I53" s="15">
+        <v>1222236.9259249454</v>
+      </c>
+      <c r="J53" s="15">
+        <v>1728762.9361637714</v>
+      </c>
+      <c r="K53" s="15">
+        <v>506526.01023882604</v>
+      </c>
+      <c r="L53" s="14">
+        <v>24118.812437957135</v>
+      </c>
+      <c r="M53" s="23">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="N53" s="23">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="O53" s="23">
+        <v>0.95633329947789514</v>
+      </c>
+      <c r="P53" s="23">
+        <v>0.77864285877772754</v>
+      </c>
+      <c r="Q53" s="23">
+        <v>0.1776904407001676</v>
+      </c>
+      <c r="R53" s="23">
+        <v>6.0221088581344666E-2</v>
+      </c>
+      <c r="S53" s="9">
+        <v>9.0331632872016994E-4</v>
+      </c>
+      <c r="T53" s="9">
+        <v>196.70898781595332</v>
+      </c>
+      <c r="U53" s="11">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -17776,7 +18018,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17817,10 +18059,10 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -17856,7 +18098,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -20332,6 +20574,50 @@
       </c>
       <c r="N52" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-21460.754471464385</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-21269.331683073629</v>
+      </c>
+      <c r="G53" s="15">
+        <v>1688959.845741421</v>
+      </c>
+      <c r="H53" s="15">
+        <v>1704160.3893207537</v>
+      </c>
+      <c r="I53" s="15">
+        <v>1226222.9374500697</v>
+      </c>
+      <c r="J53" s="15">
+        <v>1727871.0135724342</v>
+      </c>
+      <c r="K53" s="15">
+        <v>501648.07612236449</v>
+      </c>
+      <c r="L53" s="14">
+        <v>23710.624251680376</v>
+      </c>
+      <c r="M53" s="9">
+        <v>143.9725445834176</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -20350,7 +20636,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20394,7 +20680,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -20430,7 +20716,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -22906,6 +23192,50 @@
       </c>
       <c r="N52" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>-97165.397148624164</v>
+      </c>
+      <c r="F53" s="15">
+        <v>-96298.714139785108</v>
+      </c>
+      <c r="G53" s="15">
+        <v>14163282.098822901</v>
+      </c>
+      <c r="H53" s="15">
+        <v>14290750.840789963</v>
+      </c>
+      <c r="I53" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J53" s="15">
+        <v>14388981.830634605</v>
+      </c>
+      <c r="K53" s="15">
+        <v>4426196.4513846952</v>
+      </c>
+      <c r="L53" s="14">
+        <v>98230.989844642419</v>
+      </c>
+      <c r="M53" s="9">
+        <v>143.9725445834176</v>
+      </c>
+      <c r="N53" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
@@ -22924,7 +23254,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI52"/>
+  <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -22968,7 +23298,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -22977,10 +23307,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -23010,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -25788,6 +26118,56 @@
       </c>
       <c r="P52" s="9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="12.75">
+      <c r="A53" s="12">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="13">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="14">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E53" s="14">
+        <v>4079918</v>
+      </c>
+      <c r="F53" s="14">
+        <v>4339325.9928879309</v>
+      </c>
+      <c r="G53" s="14">
+        <v>-91356.780627580432</v>
+      </c>
+      <c r="H53" s="15">
+        <v>-90541.908545175917</v>
+      </c>
+      <c r="I53" s="15">
+        <v>13645553.43471143</v>
+      </c>
+      <c r="J53" s="15">
+        <v>13768362.647832416</v>
+      </c>
+      <c r="K53" s="15">
+        <v>8864712.2860347666</v>
+      </c>
+      <c r="L53" s="15">
+        <v>13860021.815675542</v>
+      </c>
+      <c r="M53" s="15">
+        <v>4995309.5296407752</v>
+      </c>
+      <c r="N53" s="14">
+        <v>91659.167843126459</v>
+      </c>
+      <c r="O53" s="9">
+        <v>143.9725445834176</v>
+      </c>
+      <c r="P53" s="9">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -163,6 +163,10 @@
   <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -605,7 +609,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -758,6 +762,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,7 +774,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -919,6 +926,9 @@
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>1158493.0294822238</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
               </c:numCache>
@@ -962,7 +972,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1115,6 +1125,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,7 +1137,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1277,6 +1290,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1629570.8878162566</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1755582.5035077769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,7 +1335,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1472,6 +1488,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,7 +1500,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1634,6 +1653,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>471077.85833403282</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>597089.47402555309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1655,11 +1677,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399469952"/>
-        <c:axId val="423936384"/>
+        <c:axId val="307213056"/>
+        <c:axId val="307214592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="399469952"/>
+        <c:axId val="307213056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,14 +1724,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="423936384"/>
+        <c:crossAx val="307214592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="423936384"/>
+        <c:axId val="307214592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1760,7 +1782,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399469952"/>
+        <c:crossAx val="307213056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1951,7 +1973,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2104,6 +2126,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-91356.780627580432</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-179733.24736579991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,8 +2143,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="502712960"/>
-        <c:axId val="502711424"/>
+        <c:axId val="637074816"/>
+        <c:axId val="637073280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2144,7 +2169,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2297,6 +2322,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2306,7 +2334,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2459,6 +2487,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2475,11 +2506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502708096"/>
-        <c:axId val="502709632"/>
+        <c:axId val="637061760"/>
+        <c:axId val="637071744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502708096"/>
+        <c:axId val="637061760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,14 +2553,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502709632"/>
+        <c:crossAx val="637071744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502709632"/>
+        <c:axId val="637071744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,12 +2611,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502708096"/>
+        <c:crossAx val="637061760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502711424"/>
+        <c:axId val="637073280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,12 +2653,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502712960"/>
+        <c:crossAx val="637074816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="502712960"/>
+        <c:axId val="637074816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,7 +2667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="502711424"/>
+        <c:crossAx val="637073280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2798,7 +2829,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2951,6 +2982,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-17883.962059553654</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-28655.058483172998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2965,8 +2999,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="453386240"/>
-        <c:axId val="453378816"/>
+        <c:axId val="524206848"/>
+        <c:axId val="520273280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2991,7 +3025,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3144,6 +3178,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,7 +3190,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3306,6 +3343,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3322,11 +3362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="453371008"/>
-        <c:axId val="453372544"/>
+        <c:axId val="520270208"/>
+        <c:axId val="520271744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="453371008"/>
+        <c:axId val="520270208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,14 +3409,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453372544"/>
+        <c:crossAx val="520271744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="453372544"/>
+        <c:axId val="520271744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3427,12 +3467,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453371008"/>
+        <c:crossAx val="520270208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="453378816"/>
+        <c:axId val="520273280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,12 +3509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453386240"/>
+        <c:crossAx val="524206848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="453386240"/>
+        <c:axId val="524206848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +3523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="453378816"/>
+        <c:crossAx val="520273280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3662,7 +3702,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3815,6 +3855,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,7 +3867,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3976,6 +4019,9 @@
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>1222236.9259249454</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
               </c:numCache>
@@ -4019,7 +4065,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4172,6 +4218,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4181,7 +4230,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4334,6 +4383,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1728762.9361637714</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1862228.8330822547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4376,7 +4428,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4529,6 +4581,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,7 +4593,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4691,6 +4746,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>506526.01023882604</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>639991.90715730935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4712,11 +4770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="467007744"/>
-        <c:axId val="472509056"/>
+        <c:axId val="545732096"/>
+        <c:axId val="545773056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="467007744"/>
+        <c:axId val="545732096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4759,14 +4817,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472509056"/>
+        <c:crossAx val="545773056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472509056"/>
+        <c:axId val="545773056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,7 +4875,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467007744"/>
+        <c:crossAx val="545732096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5008,7 +5066,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5161,6 +5219,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-21460.754471464385</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-34386.070179807597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5175,8 +5236,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="506924416"/>
-        <c:axId val="506922496"/>
+        <c:axId val="639906560"/>
+        <c:axId val="639507072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5201,7 +5262,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5354,6 +5415,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5363,7 +5427,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5516,6 +5580,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5532,11 +5599,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506845440"/>
-        <c:axId val="506920960"/>
+        <c:axId val="562007424"/>
+        <c:axId val="639505536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506845440"/>
+        <c:axId val="562007424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5579,14 +5646,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506920960"/>
+        <c:crossAx val="639505536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506920960"/>
+        <c:axId val="639505536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5637,12 +5704,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506845440"/>
+        <c:crossAx val="562007424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506922496"/>
+        <c:axId val="639507072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5679,12 +5746,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506924416"/>
+        <c:crossAx val="639906560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="506924416"/>
+        <c:axId val="639906560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,7 +5760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="506922496"/>
+        <c:crossAx val="639507072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5872,7 +5939,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6025,6 +6092,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6034,7 +6104,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6186,6 +6256,9 @@
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>1226222.9374500697</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
               </c:numCache>
@@ -6229,7 +6302,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6382,6 +6455,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6391,7 +6467,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6544,6 +6620,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1727871.0135724342</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1861299.0362828393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6586,7 +6665,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6739,6 +6818,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6748,7 +6830,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6901,6 +6983,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>501648.07612236449</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>635076.09883276955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6922,11 +7007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507021184"/>
-        <c:axId val="507363328"/>
+        <c:axId val="639983616"/>
+        <c:axId val="639985152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507021184"/>
+        <c:axId val="639983616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6969,14 +7054,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507363328"/>
+        <c:crossAx val="639985152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507363328"/>
+        <c:axId val="639985152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7027,7 +7112,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507021184"/>
+        <c:crossAx val="639983616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7218,7 +7303,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7371,6 +7456,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>-21460.754471464385</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-34386.070179807597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7385,8 +7473,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="544860032"/>
-        <c:axId val="544858496"/>
+        <c:axId val="659258368"/>
+        <c:axId val="659256064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7411,7 +7499,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7564,6 +7652,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7573,7 +7664,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7726,6 +7817,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7742,11 +7836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="544789632"/>
-        <c:axId val="544791168"/>
+        <c:axId val="640603264"/>
+        <c:axId val="640605184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="544789632"/>
+        <c:axId val="640603264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7789,14 +7883,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544791168"/>
+        <c:crossAx val="640605184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="544791168"/>
+        <c:axId val="640605184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7847,12 +7941,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544789632"/>
+        <c:crossAx val="640603264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="544858496"/>
+        <c:axId val="659256064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7889,12 +7983,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544860032"/>
+        <c:crossAx val="659258368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="544860032"/>
+        <c:axId val="659258368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7903,7 +7997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="544858496"/>
+        <c:crossAx val="659256064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8082,7 +8176,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8235,6 +8329,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8244,7 +8341,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8396,6 +8493,9 @@
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -8439,7 +8539,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8592,6 +8692,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8601,7 +8704,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8754,6 +8857,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>14388981.830634605</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15507882.750807777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8796,7 +8902,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8949,6 +9055,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8958,7 +9067,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9111,6 +9220,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4426196.4513846952</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5545097.3715578672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9132,11 +9244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="556296064"/>
-        <c:axId val="556306432"/>
+        <c:axId val="711271168"/>
+        <c:axId val="711273472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="556296064"/>
+        <c:axId val="711271168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9179,14 +9291,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556306432"/>
+        <c:crossAx val="711273472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="556306432"/>
+        <c:axId val="711273472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9237,7 +9349,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556296064"/>
+        <c:crossAx val="711271168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9428,7 +9540,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9581,6 +9693,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>14163282.098822901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13934006.503499825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9595,8 +9710,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="556468864"/>
-        <c:axId val="556466560"/>
+        <c:axId val="637022208"/>
+        <c:axId val="711788800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9621,7 +9736,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9774,6 +9889,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9783,7 +9901,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -9936,6 +10054,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>1.0089999437332153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0880000591278076</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9952,11 +10073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="556458752"/>
-        <c:axId val="556460672"/>
+        <c:axId val="711776512"/>
+        <c:axId val="711787264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="556458752"/>
+        <c:axId val="711776512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9999,14 +10120,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556460672"/>
+        <c:crossAx val="711787264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="556460672"/>
+        <c:axId val="711787264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10057,12 +10178,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556458752"/>
+        <c:crossAx val="711776512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556466560"/>
+        <c:axId val="711788800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10099,12 +10220,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556468864"/>
+        <c:crossAx val="637022208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="556468864"/>
+        <c:axId val="637022208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10113,7 +10234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="556466560"/>
+        <c:crossAx val="711788800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10292,7 +10413,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10445,6 +10566,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10454,7 +10578,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10606,6 +10730,9 @@
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>8864712.2860347666</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
               </c:numCache>
@@ -10649,7 +10776,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10802,6 +10929,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10811,7 +10941,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10964,6 +11094,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>13860021.815675542</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14938022.11164082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11006,7 +11139,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11159,6 +11292,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11168,7 +11304,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11321,6 +11457,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4995309.5296407752</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6073309.8256060537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11342,11 +11481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502593792"/>
-        <c:axId val="502669312"/>
+        <c:axId val="637049856"/>
+        <c:axId val="637051648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502593792"/>
+        <c:axId val="637049856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11389,14 +11528,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502669312"/>
+        <c:crossAx val="637051648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502669312"/>
+        <c:axId val="637051648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11447,7 +11586,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502593792"/>
+        <c:crossAx val="637049856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12161,7 +12300,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14468,6 +14607,44 @@
         <v>20133.831839769646</v>
       </c>
     </row>
+    <row r="54" spans="1:12" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-28655.058483172998</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-26337.368498071821</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1568744.0445114321</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1706793.6131848341</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1158493.0294822238</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1755582.5035077769</v>
+      </c>
+      <c r="K54" s="15">
+        <v>597089.47402555309</v>
+      </c>
+      <c r="L54" s="14">
+        <v>48788.890322942643</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14484,7 +14661,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM53"/>
+  <dimension ref="A1:AM54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14531,7 +14708,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -14561,10 +14738,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -14585,7 +14762,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -17999,6 +18176,71 @@
         <v>196.70898781595332</v>
       </c>
       <c r="U53" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-34386.070179807597</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-31604.842197686183</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1657834.4231988743</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1803723.9504644901</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1222236.9259249454</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1862228.8330822547</v>
+      </c>
+      <c r="K54" s="15">
+        <v>639991.90715730935</v>
+      </c>
+      <c r="L54" s="14">
+        <v>58504.882617764728</v>
+      </c>
+      <c r="M54" s="23">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="N54" s="23">
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="O54" s="23">
+        <v>1.0426666935284932</v>
+      </c>
+      <c r="P54" s="23">
+        <v>0.808000004007703</v>
+      </c>
+      <c r="Q54" s="23">
+        <v>0.23466668952079017</v>
+      </c>
+      <c r="R54" s="23">
+        <v>6.4142857481833279E-2</v>
+      </c>
+      <c r="S54" s="9">
+        <v>9.6214286222749917E-4</v>
+      </c>
+      <c r="T54" s="9">
+        <v>243.90004721076767</v>
+      </c>
+      <c r="U54" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -18018,7 +18260,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18059,13 +18301,13 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -18098,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -20617,6 +20859,50 @@
         <v>143.9725445834176</v>
       </c>
       <c r="N53" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-34386.070179807597</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-31604.842197686183</v>
+      </c>
+      <c r="G54" s="15">
+        <v>1657355.0035437348</v>
+      </c>
+      <c r="H54" s="15">
+        <v>1803202.3418513513</v>
+      </c>
+      <c r="I54" s="15">
+        <v>1226222.9374500697</v>
+      </c>
+      <c r="J54" s="15">
+        <v>1861299.0362828393</v>
+      </c>
+      <c r="K54" s="15">
+        <v>635076.09883276955</v>
+      </c>
+      <c r="L54" s="14">
+        <v>58096.694431487973</v>
+      </c>
+      <c r="M54" s="9">
+        <v>121.58175372392238</v>
+      </c>
+      <c r="N54" s="9">
         <v>1.2</v>
       </c>
     </row>
@@ -20636,7 +20922,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20683,7 +20969,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -20716,7 +21002,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -23235,6 +23521,50 @@
         <v>143.9725445834176</v>
       </c>
       <c r="N53" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>-249451.86126807026</v>
+      </c>
+      <c r="F54" s="15">
+        <v>-229275.59532307627</v>
+      </c>
+      <c r="G54" s="15">
+        <v>13934006.503499825</v>
+      </c>
+      <c r="H54" s="15">
+        <v>15160199.899695065</v>
+      </c>
+      <c r="I54" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J54" s="15">
+        <v>15507882.750807777</v>
+      </c>
+      <c r="K54" s="15">
+        <v>5545097.3715578672</v>
+      </c>
+      <c r="L54" s="14">
+        <v>347682.8511127127</v>
+      </c>
+      <c r="M54" s="9">
+        <v>121.58175372392238</v>
+      </c>
+      <c r="N54" s="9">
         <v>1.2</v>
       </c>
     </row>
@@ -23254,7 +23584,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI53"/>
+  <dimension ref="A1:AI54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23301,16 +23631,16 @@
         <v>26</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -23340,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -26167,6 +26497,56 @@
         <v>143.9725445834176</v>
       </c>
       <c r="P53" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="12.75">
+      <c r="A54" s="12">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="13">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="14">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E54" s="14">
+        <v>3128893</v>
+      </c>
+      <c r="F54" s="14">
+        <v>4342592.1135788327</v>
+      </c>
+      <c r="G54" s="14">
+        <v>-179733.24736579991</v>
+      </c>
+      <c r="H54" s="15">
+        <v>-165195.99043945145</v>
+      </c>
+      <c r="I54" s="15">
+        <v>13480357.444271978</v>
+      </c>
+      <c r="J54" s="15">
+        <v>14666629.696431894</v>
+      </c>
+      <c r="K54" s="15">
+        <v>8864712.2860347666</v>
+      </c>
+      <c r="L54" s="15">
+        <v>14938022.11164082</v>
+      </c>
+      <c r="M54" s="15">
+        <v>6073309.8256060537</v>
+      </c>
+      <c r="N54" s="14">
+        <v>271392.41520892637</v>
+      </c>
+      <c r="O54" s="9">
+        <v>121.58175372392238</v>
+      </c>
+      <c r="P54" s="9">
         <v>1.2</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -161,14 +161,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -179,6 +171,14 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -609,7 +609,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -765,6 +765,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +777,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -929,6 +932,9 @@
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>1158493.0294822238</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
               </c:numCache>
@@ -972,7 +978,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1128,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +1146,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1293,6 +1302,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1755582.5035077769</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1732051.178272306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,7 +1347,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1491,6 +1503,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1500,7 +1515,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1656,6 +1671,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>597089.47402555309</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>573558.1487900822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,11 +1695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="307213056"/>
-        <c:axId val="307214592"/>
+        <c:axId val="420427648"/>
+        <c:axId val="420429184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="307213056"/>
+        <c:axId val="420427648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1724,14 +1742,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307214592"/>
+        <c:crossAx val="420429184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="307214592"/>
+        <c:axId val="420429184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1800,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307213056"/>
+        <c:crossAx val="420427648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1973,7 +1991,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2129,6 +2147,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-179733.24736579991</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-80175.124714138117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2143,8 +2164,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="637074816"/>
-        <c:axId val="637073280"/>
+        <c:axId val="516067712"/>
+        <c:axId val="516065920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2169,7 +2190,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2325,6 +2346,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2334,7 +2358,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2490,6 +2514,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,11 +2533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637061760"/>
-        <c:axId val="637071744"/>
+        <c:axId val="516062592"/>
+        <c:axId val="516064384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637061760"/>
+        <c:axId val="516062592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,14 +2580,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637071744"/>
+        <c:crossAx val="516064384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637071744"/>
+        <c:axId val="516064384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,12 +2638,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637061760"/>
+        <c:crossAx val="516062592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="637073280"/>
+        <c:axId val="516065920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,12 +2680,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637074816"/>
+        <c:crossAx val="516067712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="637074816"/>
+        <c:axId val="516067712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="637073280"/>
+        <c:crossAx val="516065920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2829,7 +2856,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2985,6 +3012,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-28655.058483172998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-25555.095412625229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,8 +3029,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="524206848"/>
-        <c:axId val="520273280"/>
+        <c:axId val="522380032"/>
+        <c:axId val="516024960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3025,7 +3055,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3181,6 +3211,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,7 +3223,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3346,6 +3379,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3362,11 +3398,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520270208"/>
-        <c:axId val="520271744"/>
+        <c:axId val="420916224"/>
+        <c:axId val="516022272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520270208"/>
+        <c:axId val="420916224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,14 +3445,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520271744"/>
+        <c:crossAx val="516022272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520271744"/>
+        <c:axId val="516022272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3467,12 +3503,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520270208"/>
+        <c:crossAx val="420916224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="520273280"/>
+        <c:axId val="516024960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,12 +3545,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524206848"/>
+        <c:crossAx val="522380032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="524206848"/>
+        <c:axId val="522380032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,7 +3559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="520273280"/>
+        <c:crossAx val="516024960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3702,7 +3738,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3858,6 +3894,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3867,7 +3906,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4022,6 +4061,9 @@
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>1222236.9259249454</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
               </c:numCache>
@@ -4065,7 +4107,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4221,6 +4263,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4230,7 +4275,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4386,6 +4431,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1862228.8330822547</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1837361.1428205196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4428,7 +4476,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4584,6 +4632,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4593,7 +4644,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4749,6 +4800,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>639991.90715730935</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>615124.21689557424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4770,11 +4824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545732096"/>
-        <c:axId val="545773056"/>
+        <c:axId val="523453952"/>
+        <c:axId val="523455872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545732096"/>
+        <c:axId val="523453952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,14 +4871,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545773056"/>
+        <c:crossAx val="523455872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545773056"/>
+        <c:axId val="523455872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,7 +4929,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545732096"/>
+        <c:crossAx val="523453952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5066,7 +5120,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5222,6 +5276,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-34386.070179807597</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-30666.114495150272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5236,8 +5293,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="639906560"/>
-        <c:axId val="639507072"/>
+        <c:axId val="561912064"/>
+        <c:axId val="561910144"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5262,7 +5319,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5418,6 +5475,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5427,7 +5487,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5583,6 +5643,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5599,11 +5662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562007424"/>
-        <c:axId val="639505536"/>
+        <c:axId val="523957376"/>
+        <c:axId val="523959296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562007424"/>
+        <c:axId val="523957376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5646,14 +5709,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639505536"/>
+        <c:crossAx val="523959296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="639505536"/>
+        <c:axId val="523959296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5704,12 +5767,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562007424"/>
+        <c:crossAx val="523957376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="639507072"/>
+        <c:axId val="561910144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5746,12 +5809,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639906560"/>
+        <c:crossAx val="561912064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="639906560"/>
+        <c:axId val="561912064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5760,7 +5823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639507072"/>
+        <c:crossAx val="561910144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5939,7 +6002,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6095,6 +6158,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6104,7 +6170,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6259,6 +6325,9 @@
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>1226222.9374500697</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
               </c:numCache>
@@ -6302,7 +6371,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6458,6 +6527,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6467,7 +6539,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6623,6 +6695,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1861299.0362828393</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1836438.5373662242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6665,7 +6740,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6821,6 +6896,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6830,7 +6908,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6986,6 +7064,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>635076.09883276955</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>610215.59991615452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7007,11 +7088,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639983616"/>
-        <c:axId val="639985152"/>
+        <c:axId val="561962368"/>
+        <c:axId val="563326976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="639983616"/>
+        <c:axId val="561962368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7054,14 +7135,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639985152"/>
+        <c:crossAx val="563326976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="639985152"/>
+        <c:axId val="563326976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7112,7 +7193,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639983616"/>
+        <c:crossAx val="561962368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7303,7 +7384,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7459,6 +7540,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-34386.070179807597</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-25555.095412625229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7473,8 +7557,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="659258368"/>
-        <c:axId val="659256064"/>
+        <c:axId val="576145664"/>
+        <c:axId val="576143744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7499,7 +7583,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7655,6 +7739,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7664,7 +7751,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7820,6 +7907,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7836,11 +7926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="640603264"/>
-        <c:axId val="640605184"/>
+        <c:axId val="576135552"/>
+        <c:axId val="576137856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640603264"/>
+        <c:axId val="576135552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7883,14 +7973,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640605184"/>
+        <c:crossAx val="576137856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="640605184"/>
+        <c:axId val="576137856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7941,12 +8031,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640603264"/>
+        <c:crossAx val="576135552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="659256064"/>
+        <c:axId val="576143744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7983,12 +8073,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659258368"/>
+        <c:crossAx val="576145664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="659258368"/>
+        <c:axId val="576145664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7997,7 +8087,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659256064"/>
+        <c:crossAx val="576143744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8176,7 +8266,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8332,6 +8422,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8341,7 +8434,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8496,6 +8589,9 @@
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -8539,7 +8635,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8695,6 +8791,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8704,7 +8803,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8860,6 +8959,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>15507882.750807777</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15298871.191519827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8902,7 +9004,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9058,6 +9160,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9067,7 +9172,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9223,6 +9328,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>5545097.3715578672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5336085.8122699168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9244,11 +9352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="711271168"/>
-        <c:axId val="711273472"/>
+        <c:axId val="576164224"/>
+        <c:axId val="576165760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="711271168"/>
+        <c:axId val="576164224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9291,14 +9399,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711273472"/>
+        <c:crossAx val="576165760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="711273472"/>
+        <c:axId val="576165760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9349,7 +9457,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711271168"/>
+        <c:crossAx val="576164224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9540,7 +9648,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9696,6 +9804,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>13934006.503499825</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13779922.265669212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9710,8 +9821,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="637022208"/>
-        <c:axId val="711788800"/>
+        <c:axId val="576589184"/>
+        <c:axId val="576587264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9736,7 +9847,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9892,6 +10003,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9901,7 +10015,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10057,6 +10171,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1.0880000591278076</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0729999542236328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10073,11 +10190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="711776512"/>
-        <c:axId val="711787264"/>
+        <c:axId val="576378368"/>
+        <c:axId val="576380288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="711776512"/>
+        <c:axId val="576378368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10120,14 +10237,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711787264"/>
+        <c:crossAx val="576380288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="711787264"/>
+        <c:axId val="576380288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10178,12 +10295,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="711776512"/>
+        <c:crossAx val="576378368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="711788800"/>
+        <c:axId val="576587264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10220,12 +10337,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637022208"/>
+        <c:crossAx val="576589184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="637022208"/>
+        <c:axId val="576589184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10234,7 +10351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="711788800"/>
+        <c:crossAx val="576587264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10413,7 +10530,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10569,6 +10686,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10578,7 +10698,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10733,6 +10853,9 @@
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>8864712.2860347666</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
               </c:numCache>
@@ -10776,7 +10899,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10932,6 +11055,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10941,7 +11067,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11097,6 +11223,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>14938022.11164082</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14735815.335830966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11139,7 +11268,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11295,6 +11424,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11304,7 +11436,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11460,6 +11592,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>6073309.8256060537</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5871103.0497961994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11481,11 +11616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637049856"/>
-        <c:axId val="637051648"/>
+        <c:axId val="516042752"/>
+        <c:axId val="516044288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637049856"/>
+        <c:axId val="516042752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11528,14 +11663,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637051648"/>
+        <c:crossAx val="516044288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637051648"/>
+        <c:axId val="516044288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11586,7 +11721,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637049856"/>
+        <c:crossAx val="516042752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12300,7 +12435,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14645,6 +14780,44 @@
         <v>48788.890322942643</v>
       </c>
     </row>
+    <row r="55" spans="1:12" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>-25555.095412625229</v>
+      </c>
+      <c r="F55" s="15">
+        <v>-23816.49254693172</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1544927.5519645005</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1657707.192536738</v>
+      </c>
+      <c r="I55" s="15">
+        <v>1158493.0294822238</v>
+      </c>
+      <c r="J55" s="15">
+        <v>1732051.178272306</v>
+      </c>
+      <c r="K55" s="15">
+        <v>573558.1487900822</v>
+      </c>
+      <c r="L55" s="14">
+        <v>74343.985735567869</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H2">
@@ -14661,7 +14834,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM54"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14705,10 +14878,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -14738,10 +14911,10 @@
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>4</v>
@@ -14762,7 +14935,7 @@
         <v>3</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="14.1" customHeight="1">
@@ -18241,6 +18414,71 @@
         <v>243.90004721076767</v>
       </c>
       <c r="U54" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>-30666.114495150272</v>
+      </c>
+      <c r="F55" s="15">
+        <v>-28579.791056318063</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1629254.6321425564</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1748190.1457076047</v>
+      </c>
+      <c r="I55" s="15">
+        <v>1222236.9259249454</v>
+      </c>
+      <c r="J55" s="15">
+        <v>1837361.1428205196</v>
+      </c>
+      <c r="K55" s="15">
+        <v>615124.21689557424</v>
+      </c>
+      <c r="L55" s="14">
+        <v>89170.997112915007</v>
+      </c>
+      <c r="M55" s="23">
+        <v>1.128000020980835</v>
+      </c>
+      <c r="N55" s="23">
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="O55" s="23">
+        <v>1.0676666498184204</v>
+      </c>
+      <c r="P55" s="23">
+        <v>0.84069047939209718</v>
+      </c>
+      <c r="Q55" s="23">
+        <v>0.22697617042632323</v>
+      </c>
+      <c r="R55" s="23">
+        <v>7.7799314949788242E-2</v>
+      </c>
+      <c r="S55" s="9">
+        <v>1.1669897242468235E-3</v>
+      </c>
+      <c r="T55" s="9">
+        <v>194.49714569921676</v>
+      </c>
+      <c r="U55" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -18260,7 +18498,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18301,13 +18539,13 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -18340,7 +18578,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -20904,6 +21142,50 @@
       </c>
       <c r="N54" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>-25555.095412625229</v>
+      </c>
+      <c r="F55" s="15">
+        <v>-23816.49254693172</v>
+      </c>
+      <c r="G55" s="15">
+        <v>1633538.5109968032</v>
+      </c>
+      <c r="H55" s="15">
+        <v>1752786.7475221111</v>
+      </c>
+      <c r="I55" s="15">
+        <v>1226222.9374500697</v>
+      </c>
+      <c r="J55" s="15">
+        <v>1836438.5373662242</v>
+      </c>
+      <c r="K55" s="15">
+        <v>610215.59991615452</v>
+      </c>
+      <c r="L55" s="14">
+        <v>83651.789844113198</v>
+      </c>
+      <c r="M55" s="9">
+        <v>57.419730839413582</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20922,7 +21204,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -20963,13 +21245,13 @@
   <sheetData>
     <row r="1" spans="1:33" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -21002,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -23566,6 +23848,50 @@
       </c>
       <c r="N54" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>-165332.38013883011</v>
+      </c>
+      <c r="F55" s="15">
+        <v>-154084.23783061208</v>
+      </c>
+      <c r="G55" s="15">
+        <v>13779922.265669212</v>
+      </c>
+      <c r="H55" s="15">
+        <v>14785855.960268283</v>
+      </c>
+      <c r="I55" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J55" s="15">
+        <v>15298871.191519827</v>
+      </c>
+      <c r="K55" s="15">
+        <v>5336085.8122699168</v>
+      </c>
+      <c r="L55" s="14">
+        <v>513015.23125154281</v>
+      </c>
+      <c r="M55" s="9">
+        <v>57.419730839413582</v>
+      </c>
+      <c r="N55" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -23584,7 +23910,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23628,10 +23954,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>10</v>
@@ -23670,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="14.1" customHeight="1">
@@ -26548,6 +26874,56 @@
       </c>
       <c r="P54" s="9">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="12.75">
+      <c r="A55" s="12">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="13">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E55" s="14">
+        <v>2090603.875</v>
+      </c>
+      <c r="F55" s="14">
+        <v>4311119.1384309772</v>
+      </c>
+      <c r="G55" s="14">
+        <v>-80175.124714138117</v>
+      </c>
+      <c r="H55" s="15">
+        <v>-74720.529482360216</v>
+      </c>
+      <c r="I55" s="15">
+        <v>13405636.914789617</v>
+      </c>
+      <c r="J55" s="15">
+        <v>14384247.795907902</v>
+      </c>
+      <c r="K55" s="15">
+        <v>8864712.2860347666</v>
+      </c>
+      <c r="L55" s="15">
+        <v>14735815.335830966</v>
+      </c>
+      <c r="M55" s="15">
+        <v>5871103.0497961994</v>
+      </c>
+      <c r="N55" s="14">
+        <v>351567.53992306447</v>
+      </c>
+      <c r="O55" s="9">
+        <v>57.419730839413582</v>
+      </c>
+      <c r="P55" s="9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel2(CCI)cn.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="31">
   <si>
     <t>CCI</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>每年投入本金</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -161,6 +157,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,14 +171,6 @@
   <si>
     <t>标志</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成交量</t>
@@ -609,7 +601,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -768,6 +760,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -777,7 +772,7 @@
               <c:f>'模型二 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -935,6 +930,9 @@
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>1158493.0294822238</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>1158493.0294822238</c:v>
                 </c:pt>
               </c:numCache>
@@ -978,7 +976,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1137,6 +1135,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,7 +1147,7 @@
               <c:f>'模型二 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1305,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1732051.178272306</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1681068.5808443392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,7 +1351,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -1506,6 +1510,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1515,7 +1522,7 @@
               <c:f>'模型二 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1674,6 +1681,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>573558.1487900822</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>522575.55136211542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1695,11 +1705,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420427648"/>
-        <c:axId val="420429184"/>
+        <c:axId val="160695040"/>
+        <c:axId val="160697344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420427648"/>
+        <c:axId val="160695040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,14 +1752,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420429184"/>
+        <c:crossAx val="160697344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="420429184"/>
+        <c:axId val="160697344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1810,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420427648"/>
+        <c:crossAx val="160695040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1991,7 +2001,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2150,6 +2160,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-80175.124714138117</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-18333.497294467583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2164,8 +2177,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="516067712"/>
-        <c:axId val="516065920"/>
+        <c:axId val="557061632"/>
+        <c:axId val="557060096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2190,7 +2203,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2349,6 +2362,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,7 +2374,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -2517,6 +2533,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,11 +2552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516062592"/>
-        <c:axId val="516064384"/>
+        <c:axId val="557056768"/>
+        <c:axId val="557058304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516062592"/>
+        <c:axId val="557056768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,14 +2599,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516064384"/>
+        <c:crossAx val="557058304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516064384"/>
+        <c:axId val="557058304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2638,12 +2657,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516062592"/>
+        <c:crossAx val="557056768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516065920"/>
+        <c:axId val="557060096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,12 +2699,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516067712"/>
+        <c:crossAx val="557061632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="516067712"/>
+        <c:axId val="557061632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2694,7 +2713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516065920"/>
+        <c:crossAx val="557060096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2856,7 +2875,7 @@
               <c:f>'模型二 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3015,6 +3034,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-25555.095412625229</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-15847.849901360847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,8 +3051,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="522380032"/>
-        <c:axId val="516024960"/>
+        <c:axId val="556518400"/>
+        <c:axId val="556516480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3055,7 +3077,7 @@
               <c:f>'模型二 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3214,6 +3236,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,7 +3248,7 @@
               <c:f>'模型二 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -3382,6 +3407,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3398,11 +3426,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420916224"/>
-        <c:axId val="516022272"/>
+        <c:axId val="556513152"/>
+        <c:axId val="556514688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420916224"/>
+        <c:axId val="556513152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3445,14 +3473,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516022272"/>
+        <c:crossAx val="556514688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516022272"/>
+        <c:axId val="556514688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3503,12 +3531,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420916224"/>
+        <c:crossAx val="556513152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516024960"/>
+        <c:axId val="556516480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3545,12 +3573,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="522380032"/>
+        <c:crossAx val="556518400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="522380032"/>
+        <c:axId val="556518400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,7 +3587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="516024960"/>
+        <c:crossAx val="556516480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3738,7 +3766,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3897,6 +3925,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3906,7 +3937,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4064,6 +4095,9 @@
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>1222236.9259249454</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>1222236.9259249454</c:v>
                 </c:pt>
               </c:numCache>
@@ -4107,7 +4141,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4266,6 +4300,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4275,7 +4312,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4434,6 +4471,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1837361.1428205196</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1783595.7523900417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4476,7 +4516,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4635,6 +4675,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4644,7 +4687,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4803,6 +4846,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>615124.21689557424</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>561358.82646509632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,11 +4870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523453952"/>
-        <c:axId val="523455872"/>
+        <c:axId val="556592512"/>
+        <c:axId val="556754048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523453952"/>
+        <c:axId val="556592512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4871,14 +4917,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523455872"/>
+        <c:crossAx val="556754048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523455872"/>
+        <c:axId val="556754048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4929,7 +4975,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523453952"/>
+        <c:crossAx val="556592512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5120,7 +5166,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5279,6 +5325,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-30666.114495150272</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-19017.419881633017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5293,8 +5342,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="561912064"/>
-        <c:axId val="561910144"/>
+        <c:axId val="574261120"/>
+        <c:axId val="556857984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5319,7 +5368,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5478,6 +5527,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5487,7 +5539,7 @@
               <c:f>'模型二 (1)PE副本计算CCI月线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -5646,6 +5698,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5662,11 +5717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523957376"/>
-        <c:axId val="523959296"/>
+        <c:axId val="556830080"/>
+        <c:axId val="556856448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="523957376"/>
+        <c:axId val="556830080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5709,14 +5764,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523959296"/>
+        <c:crossAx val="556856448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="523959296"/>
+        <c:axId val="556856448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5767,12 +5822,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523957376"/>
+        <c:crossAx val="556830080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="561910144"/>
+        <c:axId val="556857984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5809,12 +5864,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561912064"/>
+        <c:crossAx val="574261120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="561912064"/>
+        <c:axId val="574261120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5823,7 +5878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561910144"/>
+        <c:crossAx val="556857984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6002,7 +6057,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6161,6 +6216,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6170,7 +6228,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6328,6 +6386,9 @@
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>1226222.9374500697</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>1226222.9374500697</c:v>
                 </c:pt>
               </c:numCache>
@@ -6371,7 +6432,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6530,6 +6591,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6539,7 +6603,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6698,6 +6762,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1836438.5373662242</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1782531.7789662397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6740,7 +6807,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6899,6 +6966,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6908,7 +6978,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7067,6 +7137,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>610215.59991615452</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>556308.84151616995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7088,11 +7161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561962368"/>
-        <c:axId val="563326976"/>
+        <c:axId val="598872832"/>
+        <c:axId val="598874368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561962368"/>
+        <c:axId val="598872832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7135,14 +7208,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563326976"/>
+        <c:crossAx val="598874368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="563326976"/>
+        <c:axId val="598874368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7193,7 +7266,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561962368"/>
+        <c:crossAx val="598872832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7384,7 +7457,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7543,6 +7616,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-25555.095412625229</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-15847.849901360847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7557,8 +7633,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="576145664"/>
-        <c:axId val="576143744"/>
+        <c:axId val="599113088"/>
+        <c:axId val="599111552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7583,7 +7659,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7742,6 +7818,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7751,7 +7830,7 @@
               <c:f>'模型二 (1)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -7910,6 +7989,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7926,11 +8008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576135552"/>
-        <c:axId val="576137856"/>
+        <c:axId val="599097344"/>
+        <c:axId val="599109632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576135552"/>
+        <c:axId val="599097344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7973,14 +8055,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576137856"/>
+        <c:crossAx val="599109632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576137856"/>
+        <c:axId val="599109632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8031,12 +8113,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576135552"/>
+        <c:crossAx val="599097344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="576143744"/>
+        <c:axId val="599111552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8073,12 +8155,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576145664"/>
+        <c:crossAx val="599113088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="576145664"/>
+        <c:axId val="599113088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8087,7 +8169,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="576143744"/>
+        <c:crossAx val="599111552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8266,7 +8348,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8425,6 +8507,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8434,7 +8519,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8592,6 +8677,9 @@
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>9962785.3792499099</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>9962785.3792499099</c:v>
                 </c:pt>
               </c:numCache>
@@ -8635,7 +8723,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8794,6 +8882,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8803,7 +8894,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8962,6 +9053,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>15298871.191519827</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14844133.861885205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9004,7 +9098,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -9163,6 +9257,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9172,7 +9269,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9331,6 +9428,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5336085.8122699168</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4881348.482635295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9352,11 +9452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576164224"/>
-        <c:axId val="576165760"/>
+        <c:axId val="605028736"/>
+        <c:axId val="605031424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576164224"/>
+        <c:axId val="605028736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9399,14 +9499,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576165760"/>
+        <c:crossAx val="605031424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576165760"/>
+        <c:axId val="605031424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9457,7 +9557,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576164224"/>
+        <c:crossAx val="605028736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9648,7 +9748,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9807,6 +9907,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>13779922.265669212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13718784.399138454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9821,8 +9924,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="576589184"/>
-        <c:axId val="576587264"/>
+        <c:axId val="556685184"/>
+        <c:axId val="556683648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9847,7 +9950,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10006,6 +10109,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10015,7 +10121,7 @@
               <c:f>'模型二 (2)PE副本计算CCI日线'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1.0309999999999999</c:v>
                 </c:pt>
@@ -10174,6 +10280,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>1.0729999542236328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0399999618530273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10190,11 +10299,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576378368"/>
-        <c:axId val="576380288"/>
+        <c:axId val="556680320"/>
+        <c:axId val="556681856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576378368"/>
+        <c:axId val="556680320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10237,14 +10346,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576380288"/>
+        <c:crossAx val="556681856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="576380288"/>
+        <c:axId val="556681856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10295,12 +10404,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576378368"/>
+        <c:crossAx val="556680320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="576587264"/>
+        <c:axId val="556683648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10337,12 +10446,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576589184"/>
+        <c:crossAx val="556685184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="576589184"/>
+        <c:axId val="556685184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10351,7 +10460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="576587264"/>
+        <c:crossAx val="556683648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10530,7 +10639,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -10689,6 +10798,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10698,7 +10810,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10856,6 +10968,9 @@
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>8864712.2860347666</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>8864712.2860347666</c:v>
                 </c:pt>
               </c:numCache>
@@ -10899,7 +11014,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11058,6 +11173,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11067,7 +11185,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11226,6 +11344,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>14735815.335830966</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14293429.419919802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11268,7 +11389,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -11427,6 +11548,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11436,7 +11560,7 @@
               <c:f>'模型二 (2)PE副本成交量计算CCI日线'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11595,6 +11719,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>5871103.0497961994</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5428717.1338850353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11616,11 +11743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516042752"/>
-        <c:axId val="516044288"/>
+        <c:axId val="556840064"/>
+        <c:axId val="556841600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516042752"/>
+        <c:axId val="556840064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11663,14 +11790,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516044288"/>
+        <c:crossAx val="556841600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="516044288"/>
+        <c:axId val="556841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11721,7 +11848,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516042752"/>
+        <c:crossAx val="556840064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12435,7 +12562,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12572,28 +12699,28 @@
       </c>
       <c r="M3" s="9"/>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -14816,6 +14943,44 @@
       </c>
       <c r="L55" s="14">
         <v>74343.985735567869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>-15847.849901360847</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-15238.317771785132</v>
+      </c>
+      <c r="G56" s="15">
+        <v>1529689.2341927153</v>
+      </c>
+      <c r="H56" s="15">
+        <v>1590876.7452074105</v>
+      </c>
+      <c r="I56" s="15">
+        <v>1158493.0294822238</v>
+      </c>
+      <c r="J56" s="15">
+        <v>1681068.5808443392</v>
+      </c>
+      <c r="K56" s="15">
+        <v>522575.55136211542</v>
+      </c>
+      <c r="L56" s="14">
+        <v>90191.835636928721</v>
       </c>
     </row>
   </sheetData>
@@ -14834,7 +14999,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14875,7 +15040,7 @@
   <sheetData>
     <row r="1" spans="1:39" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -15015,28 +15180,28 @@
       <c r="R3" s="23"/>
       <c r="S3" s="9"/>
       <c r="V3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="16" t="s">
+      <c r="X3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="Y3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="16" t="s">
+      <c r="Z3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="Z3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="AA3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AB3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AE3" s="24">
         <v>44561</v>
@@ -18479,6 +18644,71 @@
         <v>194.49714569921676</v>
       </c>
       <c r="U55" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>-19017.419881633017</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-18285.981326142159</v>
+      </c>
+      <c r="G56" s="15">
+        <v>1610968.6508164143</v>
+      </c>
+      <c r="H56" s="15">
+        <v>1675407.3353954938</v>
+      </c>
+      <c r="I56" s="15">
+        <v>1222236.9259249454</v>
+      </c>
+      <c r="J56" s="15">
+        <v>1783595.7523900417</v>
+      </c>
+      <c r="K56" s="15">
+        <v>561358.82646509632</v>
+      </c>
+      <c r="L56" s="14">
+        <v>108188.41699454802</v>
+      </c>
+      <c r="M56" s="23">
+        <v>1.093000054359436</v>
+      </c>
+      <c r="N56" s="23">
+        <v>1</v>
+      </c>
+      <c r="O56" s="23">
+        <v>1.0443333387374878</v>
+      </c>
+      <c r="P56" s="23">
+        <v>0.8647380982126508</v>
+      </c>
+      <c r="Q56" s="23">
+        <v>0.179595240524837</v>
+      </c>
+      <c r="R56" s="23">
+        <v>9.3149655530241862E-2</v>
+      </c>
+      <c r="S56" s="9">
+        <v>1.3972448329536279E-3</v>
+      </c>
+      <c r="T56" s="9">
+        <v>128.53526904457513</v>
+      </c>
+      <c r="U56" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -18498,7 +18728,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18578,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="14.1" customHeight="1">
@@ -18645,28 +18875,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -21185,6 +21415,50 @@
         <v>57.419730839413582</v>
       </c>
       <c r="N55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>-15847.849901360847</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-15238.317771785132</v>
+      </c>
+      <c r="G56" s="15">
+        <v>1618300.193225018</v>
+      </c>
+      <c r="H56" s="15">
+        <v>1683032.1392207656</v>
+      </c>
+      <c r="I56" s="15">
+        <v>1226222.9374500697</v>
+      </c>
+      <c r="J56" s="15">
+        <v>1782531.7789662397</v>
+      </c>
+      <c r="K56" s="15">
+        <v>556308.84151616995</v>
+      </c>
+      <c r="L56" s="14">
+        <v>99499.639745474051</v>
+      </c>
+      <c r="M56" s="9">
+        <v>-25.623704638394841</v>
+      </c>
+      <c r="N56" s="9">
         <v>1</v>
       </c>
     </row>
@@ -21204,7 +21478,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -21248,7 +21522,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>9</v>
@@ -21351,28 +21625,28 @@
         <v>1</v>
       </c>
       <c r="P3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="R3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="S3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="U3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="V3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="Y3" s="24">
         <v>44561</v>
@@ -23891,6 +24165,50 @@
         <v>57.419730839413582</v>
       </c>
       <c r="N55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>-63583.378859762786</v>
+      </c>
+      <c r="F56" s="15">
+        <v>-61137.866530757026</v>
+      </c>
+      <c r="G56" s="15">
+        <v>13718784.399138454</v>
+      </c>
+      <c r="H56" s="15">
+        <v>14267535.251773899</v>
+      </c>
+      <c r="I56" s="15">
+        <v>9962785.3792499099</v>
+      </c>
+      <c r="J56" s="15">
+        <v>14844133.861885205</v>
+      </c>
+      <c r="K56" s="15">
+        <v>4881348.482635295</v>
+      </c>
+      <c r="L56" s="14">
+        <v>576598.61011130561</v>
+      </c>
+      <c r="M56" s="9">
+        <v>-25.623704638394841</v>
+      </c>
+      <c r="N56" s="9">
         <v>1</v>
       </c>
     </row>
@@ -23910,7 +24228,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AI55"/>
+  <dimension ref="A1:AI56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23951,7 +24269,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="5" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>8</v>
@@ -23963,10 +24281,10 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>11</v>
@@ -24071,28 +24389,28 @@
         <v>1</v>
       </c>
       <c r="R3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="Y3" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="AA3" s="24">
         <v>44561</v>
@@ -26923,6 +27241,56 @@
         <v>57.419730839413582</v>
       </c>
       <c r="P55" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="12.75">
+      <c r="A56" s="12">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="13">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="14">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1227301</v>
+      </c>
+      <c r="F56" s="14">
+        <v>4256467.9943261174</v>
+      </c>
+      <c r="G56" s="14">
+        <v>-18333.497294467583</v>
+      </c>
+      <c r="H56" s="15">
+        <v>-17628.363429746423</v>
+      </c>
+      <c r="I56" s="15">
+        <v>13388008.551359871</v>
+      </c>
+      <c r="J56" s="15">
+        <v>13923528.382702271</v>
+      </c>
+      <c r="K56" s="15">
+        <v>8864712.2860347666</v>
+      </c>
+      <c r="L56" s="15">
+        <v>14293429.419919802</v>
+      </c>
+      <c r="M56" s="15">
+        <v>5428717.1338850353</v>
+      </c>
+      <c r="N56" s="14">
+        <v>369901.03721753205</v>
+      </c>
+      <c r="O56" s="9">
+        <v>-25.623704638394841</v>
+      </c>
+      <c r="P56" s="9">
         <v>1</v>
       </c>
     </row>
